--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F102DE7A-3F61-4425-A845-BE9E7DEF72C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC1DEA4-F508-43A6-9DC1-4BBDDB8FE1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="12930" yWindow="-16365" windowWidth="29040" windowHeight="15840" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Historical Returns" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,14 +142,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -163,7 +163,58 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,10 +526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALM172"/>
+  <dimension ref="A1:ALM175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6500,26 +6552,147 @@
         <v>2.6180172166168749E-3</v>
       </c>
       <c r="J172" s="2">
-        <v>3.8611639753957483E-2</v>
+        <v>3.9067663874483398E-2</v>
       </c>
       <c r="K172" s="2">
         <v>3.8762050244703942E-3</v>
       </c>
     </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>44681</v>
+      </c>
+      <c r="B173" s="2">
+        <v>-8.7201844689124286E-2</v>
+      </c>
+      <c r="C173" s="2">
+        <v>-2.0343792770055599E-2</v>
+      </c>
+      <c r="D173" s="2">
+        <v>3.604596856313869E-3</v>
+      </c>
+      <c r="E173" s="2">
+        <v>2.9718382942591551E-2</v>
+      </c>
+      <c r="F173" s="2">
+        <v>1.7260536242822101E-3</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1.3112527426601069E-2</v>
+      </c>
+      <c r="H173" s="2">
+        <v>7.0947547462596461E-3</v>
+      </c>
+      <c r="I173" s="2">
+        <v>3.28176911031588E-3</v>
+      </c>
+      <c r="J173" s="2">
+        <v>-8.4603815835994092E-2</v>
+      </c>
+      <c r="K173" s="2">
+        <v>5.196057706260364E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>44712</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1.8346151108581401E-3</v>
+      </c>
+      <c r="C174" s="2">
+        <v>-1.4830233305306639E-2</v>
+      </c>
+      <c r="D174" s="2">
+        <v>-1.612962287670738E-2</v>
+      </c>
+      <c r="E174" s="2">
+        <v>5.0964313527877003E-3</v>
+      </c>
+      <c r="F174" s="2">
+        <v>-4.0537692093064938E-2</v>
+      </c>
+      <c r="G174" s="2">
+        <v>4.3228656388043518E-3</v>
+      </c>
+      <c r="H174" s="2">
+        <v>3.331670277789045E-2</v>
+      </c>
+      <c r="I174" s="2">
+        <v>-4.4507081742510609E-3</v>
+      </c>
+      <c r="J174" s="2">
+        <v>-2.9524763877912599E-3</v>
+      </c>
+      <c r="K174" s="2">
+        <v>-9.5741829972987996E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B175" s="2">
+        <v>-8.254376821069076E-2</v>
+      </c>
+      <c r="C175" s="2">
+        <v>-3.6804526798941077E-2</v>
+      </c>
+      <c r="D175" s="2">
+        <v>-6.180626902126507E-3</v>
+      </c>
+      <c r="E175" s="2">
+        <v>2.9489180843426999E-2</v>
+      </c>
+      <c r="F175" s="2">
+        <v>1.6609288778682361E-2</v>
+      </c>
+      <c r="G175" s="2">
+        <v>-1.0944626522107479E-2</v>
+      </c>
+      <c r="H175" s="2">
+        <v>-2.5056335894324658E-2</v>
+      </c>
+      <c r="I175" s="2">
+        <v>-2.400110169929959E-3</v>
+      </c>
+      <c r="J175" s="2">
+        <v>-8.3931511400699113E-2</v>
+      </c>
+      <c r="K175" s="2">
+        <v>-2.775486380016685E-3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A172">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="14">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K172">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B2:K171">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:A175">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="10">
+      <formula>LEN(TRIM(A173))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B172:K175">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC1DEA4-F508-43A6-9DC1-4BBDDB8FE1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5C372C-92E0-4CD7-8E9E-DCC231ACA6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12930" yWindow="-16365" windowWidth="29040" windowHeight="15840" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
@@ -149,7 +149,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="64">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -161,6 +161,9 @@
         <color rgb="FF9C0006"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -175,6 +178,9 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -185,6 +191,174 @@
         <color rgb="FF9C0006"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -526,11 +700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALM175"/>
+  <dimension ref="A1:ALM176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6663,36 +6837,87 @@
         <v>-2.775486380016685E-3</v>
       </c>
     </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>44773</v>
+      </c>
+      <c r="B176" s="2">
+        <v>9.2204461388357473E-2</v>
+      </c>
+      <c r="C176" s="2">
+        <v>1.327123640954442E-2</v>
+      </c>
+      <c r="D176" s="2">
+        <v>-5.2601848788800254E-3</v>
+      </c>
+      <c r="E176" s="2">
+        <v>-2.2822610100831201E-2</v>
+      </c>
+      <c r="F176" s="2">
+        <v>-2.3513183755391829E-2</v>
+      </c>
+      <c r="G176" s="2">
+        <v>-1.098787008357704E-2</v>
+      </c>
+      <c r="H176" s="2">
+        <v>-9.8113366034290328E-3</v>
+      </c>
+      <c r="I176" s="2">
+        <v>5.5413215244666247E-3</v>
+      </c>
+      <c r="J176" s="2">
+        <v>8.8547602061030836E-2</v>
+      </c>
+      <c r="K176" s="2">
+        <v>-7.3137186546532807E-3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A172">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="18">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:K171">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A173:A175">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="10">
+  <conditionalFormatting sqref="A173:A174">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="14">
       <formula>LEN(TRIM(A173))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B172:K175">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B172:K174">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:A176">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A175))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B175:K176">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5C372C-92E0-4CD7-8E9E-DCC231ACA6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70846DF1-33B7-4E39-8B57-1EAB00A641B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="-16365" windowWidth="29040" windowHeight="15840" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Historical Returns" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="24">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -161,9 +161,6 @@
         <color rgb="FF9C0006"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -179,153 +176,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
@@ -700,19 +550,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALM176"/>
+  <dimension ref="A1:ALM177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A176" sqref="A176:K177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1001" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1001" width="21.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>39478</v>
       </c>
@@ -782,7 +632,7 @@
         <v>2.301616170161861E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>39507</v>
       </c>
@@ -817,7 +667,7 @@
         <v>8.1377879594981186E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>39538</v>
       </c>
@@ -852,7 +702,7 @@
         <v>-2.705482358026427E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>39568</v>
       </c>
@@ -887,7 +737,7 @@
         <v>-3.1632408376000461E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>39599</v>
       </c>
@@ -922,7 +772,7 @@
         <v>2.8979751623368818E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>39629</v>
       </c>
@@ -957,7 +807,7 @@
         <v>1.2339111268842811E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>39660</v>
       </c>
@@ -992,7 +842,7 @@
         <v>-7.7831613965044641E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>39691</v>
       </c>
@@ -1027,7 +877,7 @@
         <v>4.1232206878433573E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>39721</v>
       </c>
@@ -1062,7 +912,7 @@
         <v>2.393108553801469E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>39752</v>
       </c>
@@ -1097,7 +947,7 @@
         <v>0.13226374017851431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>39782</v>
       </c>
@@ -1132,7 +982,7 @@
         <v>7.0124526572961634E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>39813</v>
       </c>
@@ -1167,7 +1017,7 @@
         <v>-1.096039915408303E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>39844</v>
       </c>
@@ -1202,7 +1052,7 @@
         <v>9.5271907238639372E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>39872</v>
       </c>
@@ -1237,7 +1087,7 @@
         <v>4.7032283847880307E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>39903</v>
       </c>
@@ -1272,7 +1122,7 @@
         <v>4.8987226124730908E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>39933</v>
       </c>
@@ -1307,7 +1157,7 @@
         <v>-4.8802576813306367E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>39964</v>
       </c>
@@ -1342,7 +1192,7 @@
         <v>9.4917630625560127E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>39994</v>
       </c>
@@ -1377,7 +1227,7 @@
         <v>5.0320324945738416E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>40025</v>
       </c>
@@ -1412,7 +1262,7 @@
         <v>5.9566868067064153E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>40056</v>
       </c>
@@ -1447,7 +1297,7 @@
         <v>8.4232470945753857E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>40086</v>
       </c>
@@ -1482,7 +1332,7 @@
         <v>1.044922612747473E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>40117</v>
       </c>
@@ -1517,7 +1367,7 @@
         <v>8.1248584058996372E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>40147</v>
       </c>
@@ -1552,7 +1402,7 @@
         <v>1.472548159580891E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>40178</v>
       </c>
@@ -1587,7 +1437,7 @@
         <v>6.3822126601623197E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>40209</v>
       </c>
@@ -1622,7 +1472,7 @@
         <v>3.721180243789114E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>40237</v>
       </c>
@@ -1657,7 +1507,7 @@
         <v>-6.718915877587852E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>40268</v>
       </c>
@@ -1692,7 +1542,7 @@
         <v>-2.9189814534110012E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>40298</v>
       </c>
@@ -1727,7 +1577,7 @@
         <v>9.5612166063684199E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>40329</v>
       </c>
@@ -1762,7 +1612,7 @@
         <v>-4.7072268034837033E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>40359</v>
       </c>
@@ -1797,7 +1647,7 @@
         <v>8.3270408083089796E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>40390</v>
       </c>
@@ -1832,7 +1682,7 @@
         <v>-5.549777472881481E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>40421</v>
       </c>
@@ -1867,7 +1717,7 @@
         <v>6.696941903120604E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>40451</v>
       </c>
@@ -1902,7 +1752,7 @@
         <v>7.8657525486060653E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>40482</v>
       </c>
@@ -1937,7 +1787,7 @@
         <v>-5.2125212433108137E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>40512</v>
       </c>
@@ -1972,7 +1822,7 @@
         <v>7.2613602504065788E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>40543</v>
       </c>
@@ -2007,7 +1857,7 @@
         <v>2.983677940724622E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>40574</v>
       </c>
@@ -2042,7 +1892,7 @@
         <v>4.0933767395051578E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>40602</v>
       </c>
@@ -2077,7 +1927,7 @@
         <v>7.0435450286933203E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>40633</v>
       </c>
@@ -2112,7 +1962,7 @@
         <v>6.4334460465191113E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40663</v>
       </c>
@@ -2147,7 +1997,7 @@
         <v>2.659583695607219E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>40694</v>
       </c>
@@ -2182,7 +2032,7 @@
         <v>2.7398884605424321E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>40724</v>
       </c>
@@ -2217,7 +2067,7 @@
         <v>1.6907821239101761E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>40755</v>
       </c>
@@ -2252,7 +2102,7 @@
         <v>2.663812612444165E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>40786</v>
       </c>
@@ -2287,7 +2137,7 @@
         <v>2.2486827652995641E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>40816</v>
       </c>
@@ -2322,7 +2172,7 @@
         <v>1.395080676023509E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>40847</v>
       </c>
@@ -2357,7 +2207,7 @@
         <v>-5.3220766941861368E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>40877</v>
       </c>
@@ -2392,7 +2242,7 @@
         <v>6.0964567251378006E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>40908</v>
       </c>
@@ -2427,7 +2277,7 @@
         <v>-2.3209092001801618E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>40939</v>
       </c>
@@ -2462,7 +2312,7 @@
         <v>-3.4605896325788249E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>40968</v>
       </c>
@@ -2497,7 +2347,7 @@
         <v>7.9450426997486959E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>40999</v>
       </c>
@@ -2532,7 +2382,7 @@
         <v>-5.5813864967567597E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>41029</v>
       </c>
@@ -2567,7 +2417,7 @@
         <v>1.6667248420320629E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>41060</v>
       </c>
@@ -2602,7 +2452,7 @@
         <v>-1.67268490090864E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>41090</v>
       </c>
@@ -2637,7 +2487,7 @@
         <v>1.9792796777787802E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>41121</v>
       </c>
@@ -2672,7 +2522,7 @@
         <v>-3.0595817658450892E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>41152</v>
       </c>
@@ -2707,7 +2557,7 @@
         <v>3.4447734095568732E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>41182</v>
       </c>
@@ -2742,7 +2592,7 @@
         <v>-1.674955480465451E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>41213</v>
       </c>
@@ -2777,7 +2627,7 @@
         <v>8.7232317298933416E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>41243</v>
       </c>
@@ -2812,7 +2662,7 @@
         <v>3.9104342854936799E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>41274</v>
       </c>
@@ -2847,7 +2697,7 @@
         <v>7.5041239893324056E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>41305</v>
       </c>
@@ -2882,7 +2732,7 @@
         <v>-1.131302762246995E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>41333</v>
       </c>
@@ -2917,7 +2767,7 @@
         <v>2.72562384138131E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>41364</v>
       </c>
@@ -2952,7 +2802,7 @@
         <v>2.805426342431265E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>41394</v>
       </c>
@@ -2987,7 +2837,7 @@
         <v>-5.6941950828121989E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>41425</v>
       </c>
@@ -3022,7 +2872,7 @@
         <v>-6.4936663916470821E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>41455</v>
       </c>
@@ -3057,7 +2907,7 @@
         <v>2.143950049634232E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>41486</v>
       </c>
@@ -3092,7 +2942,7 @@
         <v>8.908573924192283E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>41517</v>
       </c>
@@ -3127,7 +2977,7 @@
         <v>3.6448201752590221E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>41547</v>
       </c>
@@ -3162,7 +3012,7 @@
         <v>-1.640038537643779E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>41578</v>
       </c>
@@ -3197,7 +3047,7 @@
         <v>7.7269214874543042E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>41608</v>
       </c>
@@ -3232,7 +3082,7 @@
         <v>2.3382894396408891E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>41639</v>
       </c>
@@ -3267,7 +3117,7 @@
         <v>2.5851055292125261E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>41670</v>
       </c>
@@ -3302,7 +3152,7 @@
         <v>-8.6561977460945815E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>41698</v>
       </c>
@@ -3337,7 +3187,7 @@
         <v>-8.584871306209405E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>41729</v>
       </c>
@@ -3372,7 +3222,7 @@
         <v>2.859825746251383E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>41759</v>
       </c>
@@ -3407,7 +3257,7 @@
         <v>-1.180516828097175E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>41790</v>
       </c>
@@ -3442,7 +3292,7 @@
         <v>-8.6308754095930286E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>41820</v>
       </c>
@@ -3477,7 +3327,7 @@
         <v>-1.691283801199904E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>41851</v>
       </c>
@@ -3512,7 +3362,7 @@
         <v>2.5585174755042412E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>41882</v>
       </c>
@@ -3547,7 +3397,7 @@
         <v>4.4070625588232609E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>41912</v>
       </c>
@@ -3582,7 +3432,7 @@
         <v>-3.1890471851218959E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>41943</v>
       </c>
@@ -3617,7 +3467,7 @@
         <v>3.4080299422896789E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>41973</v>
       </c>
@@ -3652,7 +3502,7 @@
         <v>1.4128753878679969E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>42004</v>
       </c>
@@ -3687,7 +3537,7 @@
         <v>2.749155680714278E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>42035</v>
       </c>
@@ -3722,7 +3572,7 @@
         <v>4.5246867348738588E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>42063</v>
       </c>
@@ -3757,7 +3607,7 @@
         <v>-3.604202205326141E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>42094</v>
       </c>
@@ -3792,7 +3642,7 @@
         <v>1.645091199826626E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>42124</v>
       </c>
@@ -3827,7 +3677,7 @@
         <v>-1.164483723715108E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>42155</v>
       </c>
@@ -3862,7 +3712,7 @@
         <v>-6.3048773202685707E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>42185</v>
       </c>
@@ -3897,7 +3747,7 @@
         <v>1.6035191851419129E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>42216</v>
       </c>
@@ -3932,7 +3782,7 @@
         <v>9.4901008859985328E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>42247</v>
       </c>
@@ -3967,7 +3817,7 @@
         <v>1.532026304697728E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>42277</v>
       </c>
@@ -4002,7 +3852,7 @@
         <v>-2.0569855947670541E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>42308</v>
       </c>
@@ -4037,7 +3887,7 @@
         <v>-1.556434585212629E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>42338</v>
       </c>
@@ -4072,7 +3922,7 @@
         <v>1.657814949123583E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>42369</v>
       </c>
@@ -4107,7 +3957,7 @@
         <v>-3.3036432834563901E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>42400</v>
       </c>
@@ -4142,7 +3992,7 @@
         <v>3.0382565817643902E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>42429</v>
       </c>
@@ -4177,7 +4027,7 @@
         <v>2.841324816901076E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>42460</v>
       </c>
@@ -4212,7 +4062,7 @@
         <v>-1.3895858548069889E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>42490</v>
       </c>
@@ -4247,7 +4097,7 @@
         <v>-6.3334676057508654E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>42521</v>
       </c>
@@ -4282,7 +4132,7 @@
         <v>-2.3727988711340041E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>42551</v>
       </c>
@@ -4317,7 +4167,7 @@
         <v>2.3141432243333998E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>42582</v>
       </c>
@@ -4352,7 +4202,7 @@
         <v>-3.4799351518891258E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>42613</v>
       </c>
@@ -4387,7 +4237,7 @@
         <v>2.5367286217119161E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>42643</v>
       </c>
@@ -4422,7 +4272,7 @@
         <v>-2.2437622613086278E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>42674</v>
       </c>
@@ -4457,7 +4307,7 @@
         <v>-6.2089157697984361E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>42704</v>
       </c>
@@ -4492,7 +4342,7 @@
         <v>3.233619601564357E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>42735</v>
       </c>
@@ -4527,7 +4377,7 @@
         <v>3.7226051110603582E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>42766</v>
       </c>
@@ -4562,7 +4412,7 @@
         <v>-3.7379668493976552E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>42794</v>
       </c>
@@ -4597,7 +4447,7 @@
         <v>2.7539679364615511E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>42825</v>
       </c>
@@ -4632,7 +4482,7 @@
         <v>-3.4145424255693549E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>42855</v>
       </c>
@@ -4667,7 +4517,7 @@
         <v>-2.8661039203060948E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>42886</v>
       </c>
@@ -4702,7 +4552,7 @@
         <v>7.2663305193933041E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>42916</v>
       </c>
@@ -4737,7 +4587,7 @@
         <v>4.1426181352242821E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>42947</v>
       </c>
@@ -4772,7 +4622,7 @@
         <v>-2.501449465013861E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>42978</v>
       </c>
@@ -4807,7 +4657,7 @@
         <v>-8.1356248591845336E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>43008</v>
       </c>
@@ -4842,7 +4692,7 @@
         <v>-1.833707549696115E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>43039</v>
       </c>
@@ -4877,7 +4727,7 @@
         <v>1.4876598367000559E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>43069</v>
       </c>
@@ -4912,7 +4762,7 @@
         <v>-1.308129156372225E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>43100</v>
       </c>
@@ -4947,7 +4797,7 @@
         <v>-4.1299772379888968E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>43131</v>
       </c>
@@ -4982,7 +4832,7 @@
         <v>3.3533584921750519E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>43159</v>
       </c>
@@ -5017,7 +4867,7 @@
         <v>-1.8869255579274671E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>43190</v>
       </c>
@@ -5052,7 +4902,7 @@
         <v>2.0695043559634321E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>43220</v>
       </c>
@@ -5087,7 +4937,7 @@
         <v>-3.1114726789988772E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>43251</v>
       </c>
@@ -5122,7 +4972,7 @@
         <v>-1.0946101403326719E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>43281</v>
       </c>
@@ -5157,7 +5007,7 @@
         <v>1.834490423260355E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>43312</v>
       </c>
@@ -5192,7 +5042,7 @@
         <v>-1.0151212909058631E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>43343</v>
       </c>
@@ -5227,7 +5077,7 @@
         <v>2.4734604568086047E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>43373</v>
       </c>
@@ -5262,7 +5112,7 @@
         <v>-3.6691293846101268E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>43404</v>
       </c>
@@ -5297,7 +5147,7 @@
         <v>8.0333265458002543E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>43434</v>
       </c>
@@ -5332,7 +5182,7 @@
         <v>-2.2348359363818509E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>43465</v>
       </c>
@@ -5367,7 +5217,7 @@
         <v>-1.719298506888352E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>43496</v>
       </c>
@@ -5402,7 +5252,7 @@
         <v>-4.992698933500692E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>43524</v>
       </c>
@@ -5437,7 +5287,7 @@
         <v>-1.101462525270439E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>43555</v>
       </c>
@@ -5472,7 +5322,7 @@
         <v>-2.068815918414024E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>43585</v>
       </c>
@@ -5507,7 +5357,7 @@
         <v>-1.5179835908423411E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>43616</v>
       </c>
@@ -5542,7 +5392,7 @@
         <v>-2.7055142878950299E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>43646</v>
       </c>
@@ -5577,7 +5427,7 @@
         <v>-8.0957293985768793E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>43677</v>
       </c>
@@ -5612,7 +5462,7 @@
         <v>-1.860662759613621E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>43708</v>
       </c>
@@ -5647,7 +5497,7 @@
         <v>3.9504669569636539E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>43738</v>
       </c>
@@ -5682,7 +5532,7 @@
         <v>-1.1081527343354629E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>43769</v>
       </c>
@@ -5717,7 +5567,7 @@
         <v>-6.3335560788889602E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>43799</v>
       </c>
@@ -5752,7 +5602,7 @@
         <v>1.023695613998849E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>43830</v>
       </c>
@@ -5787,7 +5637,7 @@
         <v>-5.7672659727408676E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>43861</v>
       </c>
@@ -5822,7 +5672,7 @@
         <v>2.1402942707927832E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>43890</v>
       </c>
@@ -5857,7 +5707,7 @@
         <v>1.9217028589371511E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>43921</v>
       </c>
@@ -5892,7 +5742,7 @@
         <v>0.1829041746126214</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>43951</v>
       </c>
@@ -5927,7 +5777,7 @@
         <v>3.1764936050750919E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>43982</v>
       </c>
@@ -5962,7 +5812,7 @@
         <v>-3.0365849831666932E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>44012</v>
       </c>
@@ -5997,7 +5847,7 @@
         <v>-2.2411829848977389E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>44043</v>
       </c>
@@ -6032,7 +5882,7 @@
         <v>2.874065867239429E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>44074</v>
       </c>
@@ -6067,7 +5917,7 @@
         <v>1.1680267329745289E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>44104</v>
       </c>
@@ -6102,7 +5952,7 @@
         <v>-1.8727608570160939E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>44135</v>
       </c>
@@ -6137,7 +5987,7 @@
         <v>6.2494121590154703E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>44165</v>
       </c>
@@ -6172,7 +6022,7 @@
         <v>-6.9678657296975838E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>44196</v>
       </c>
@@ -6207,7 +6057,7 @@
         <v>1.5480505848070091E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>44227</v>
       </c>
@@ -6242,7 +6092,7 @@
         <v>8.452647457644338E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>44255</v>
       </c>
@@ -6277,7 +6127,7 @@
         <v>7.0654473287747738E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>44286</v>
       </c>
@@ -6312,7 +6162,7 @@
         <v>-1.756902321119116E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>44316</v>
       </c>
@@ -6347,7 +6197,7 @@
         <v>-3.7517929327866031E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>44347</v>
       </c>
@@ -6382,7 +6232,7 @@
         <v>-3.703767172201488E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>44377</v>
       </c>
@@ -6417,7 +6267,7 @@
         <v>-2.7189043661982899E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>44408</v>
       </c>
@@ -6452,7 +6302,7 @@
         <v>-6.2473137748747416E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>44439</v>
       </c>
@@ -6487,7 +6337,7 @@
         <v>-1.7200810585236989E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>44469</v>
       </c>
@@ -6522,7 +6372,7 @@
         <v>-7.9844822412661028E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>44500</v>
       </c>
@@ -6557,7 +6407,7 @@
         <v>4.8163729119712617E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>44530</v>
       </c>
@@ -6592,7 +6442,7 @@
         <v>4.7593026182976101E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>44561</v>
       </c>
@@ -6627,7 +6477,7 @@
         <v>-1.0653788904784189E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>44592</v>
       </c>
@@ -6662,7 +6512,7 @@
         <v>-3.2577749146184588E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>44620</v>
       </c>
@@ -6697,7 +6547,7 @@
         <v>5.5448541098461358E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>44651</v>
       </c>
@@ -6732,7 +6582,7 @@
         <v>3.8762050244703942E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>44681</v>
       </c>
@@ -6767,7 +6617,7 @@
         <v>5.196057706260364E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>44712</v>
       </c>
@@ -6802,7 +6652,7 @@
         <v>-9.5741829972987996E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>44742</v>
       </c>
@@ -6837,7 +6687,7 @@
         <v>-2.775486380016685E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>44773</v>
       </c>
@@ -6872,52 +6722,103 @@
         <v>-7.3137186546532807E-3</v>
       </c>
     </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A177" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B177" s="2">
+        <v>-4.0781924345117633E-2</v>
+      </c>
+      <c r="C177" s="2">
+        <v>-1.7873202637612721E-2</v>
+      </c>
+      <c r="D177" s="2">
+        <v>-6.7296123335447433E-4</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1.094158822929758E-2</v>
+      </c>
+      <c r="F177" s="2">
+        <v>2.274759671561296E-2</v>
+      </c>
+      <c r="G177" s="2">
+        <v>-7.6719854433480172E-3</v>
+      </c>
+      <c r="H177" s="2">
+        <v>9.3444301018108522E-3</v>
+      </c>
+      <c r="I177" s="2">
+        <v>8.0094517179815309E-3</v>
+      </c>
+      <c r="J177" s="2">
+        <v>-3.9424358609295253E-2</v>
+      </c>
+      <c r="K177" s="2">
+        <v>2.7151314716447618E-3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A172">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="26">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:K171">
-    <cfRule type="cellIs" dxfId="62" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A174">
-    <cfRule type="notContainsBlanks" dxfId="59" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="22">
       <formula>LEN(TRIM(A173))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:K174">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A175:A176">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A175">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="12">
       <formula>LEN(TRIM(A175))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B175:K176">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B175:K175">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A176:A177">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="4">
+      <formula>LEN(TRIM(A176))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B176:K177">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70846DF1-33B7-4E39-8B57-1EAB00A641B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B3D6FC-A6CC-4FE3-B342-2E80A3182127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="-28920" yWindow="-1485" windowWidth="29040" windowHeight="15840" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Historical Returns" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="20">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -161,21 +161,6 @@
         <color rgb="FF9C0006"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
@@ -550,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALM177"/>
+  <dimension ref="A1:ALM178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A176" sqref="A176:K177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6757,68 +6742,119 @@
         <v>2.7151314716447618E-3</v>
       </c>
     </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A178" s="3">
+        <v>44834</v>
+      </c>
+      <c r="B178" s="2">
+        <v>-9.2098601263658209E-2</v>
+      </c>
+      <c r="C178" s="2">
+        <v>-3.1695302348644587E-2</v>
+      </c>
+      <c r="D178" s="2">
+        <v>1.696093882445959E-3</v>
+      </c>
+      <c r="E178" s="2">
+        <v>3.1942903879981673E-2</v>
+      </c>
+      <c r="F178" s="2">
+        <v>5.3332722001232923E-2</v>
+      </c>
+      <c r="G178" s="2">
+        <v>-1.1989244942036681E-3</v>
+      </c>
+      <c r="H178" s="2">
+        <v>1.0964386230749581E-3</v>
+      </c>
+      <c r="I178" s="2">
+        <v>2.9521574700462241E-3</v>
+      </c>
+      <c r="J178" s="2">
+        <v>-8.7040786056474043E-2</v>
+      </c>
+      <c r="K178" s="2">
+        <v>9.6646150455747919E-3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A172">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="30">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:K171">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A174">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="26">
       <formula>LEN(TRIM(A173))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:K174">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="16">
       <formula>LEN(TRIM(A175))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:K175">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176:A177">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(A176))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:K177">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A178))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:K178">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B3D6FC-A6CC-4FE3-B342-2E80A3182127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D7CBF1-8700-431C-A462-29430EFF1FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1485" windowWidth="29040" windowHeight="15840" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Historical Returns" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -535,11 +550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALM178"/>
+  <dimension ref="A1:ALM179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179:K179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6777,29 +6792,80 @@
         <v>9.6646150455747919E-3</v>
       </c>
     </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A179" s="3">
+        <v>44865</v>
+      </c>
+      <c r="B179" s="2">
+        <v>8.0961375978148009E-2</v>
+      </c>
+      <c r="C179" s="2">
+        <v>1.0058685007288791E-2</v>
+      </c>
+      <c r="D179" s="2">
+        <v>-6.6937509059638023E-3</v>
+      </c>
+      <c r="E179" s="2">
+        <v>-2.159515330495965E-2</v>
+      </c>
+      <c r="F179" s="2">
+        <v>-1.6345565174648281E-2</v>
+      </c>
+      <c r="G179" s="2">
+        <v>-4.1747941288096113E-3</v>
+      </c>
+      <c r="H179" s="2">
+        <v>-3.5372226925148957E-2</v>
+      </c>
+      <c r="I179" s="2">
+        <v>-3.848582855877625E-3</v>
+      </c>
+      <c r="J179" s="2">
+        <v>7.6827056770277347E-2</v>
+      </c>
+      <c r="K179" s="2">
+        <v>-8.3327363879563739E-3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A172">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="34">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:K171">
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A174">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="30">
       <formula>LEN(TRIM(A173))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:K174">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="20">
+      <formula>LEN(TRIM(A175))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B175:K175">
     <cfRule type="cellIs" dxfId="14" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6810,28 +6876,28 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A175">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="16">
-      <formula>LEN(TRIM(A175))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B175:K175">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A176:A177">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(A176))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:K177">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(A178))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:K178">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6842,12 +6908,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A178">
+  <conditionalFormatting sqref="A179">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A178))&gt;0</formula>
+      <formula>LEN(TRIM(A179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B178:K178">
+  <conditionalFormatting sqref="B179:K179">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6859,5 +6925,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvg9hxp\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F102DE7A-3F61-4425-A845-BE9E7DEF72C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B82E7A7-3155-4C55-A98D-DECCA16ABDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monthly Historical Returns" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly Historical Returns" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,9 +45,6 @@
     <t>Down Var</t>
   </si>
   <si>
-    <t>VOLA</t>
-  </si>
-  <si>
     <t>Dynamic Put Spread</t>
   </si>
   <si>
@@ -68,13 +65,16 @@
   <si>
     <t>Weighted Hedges</t>
   </si>
+  <si>
+    <t>VOLA 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -163,7 +163,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,19 +474,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALM172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D4F897-E655-4325-BF4E-FA224214E13B}">
+  <dimension ref="A1:ALM179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1001" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1001" width="21.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,31 +497,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>39478</v>
       </c>
@@ -550,13 +550,13 @@
         <v>-2.7100558113250179E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>-5.9101359844524068E-2</v>
+        <v>-5.8734680797807103E-2</v>
       </c>
       <c r="K2" s="2">
         <v>2.301616170161861E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>39507</v>
       </c>
@@ -585,13 +585,13 @@
         <v>1.7484409963956171E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>-2.9374293620508619E-2</v>
+        <v>-2.8077832303431711E-2</v>
       </c>
       <c r="K3" s="2">
-        <v>8.1377879594981186E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.1377879594981203E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>39538</v>
       </c>
@@ -620,13 +620,13 @@
         <v>-4.0243448939915492E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>-5.3524982197180821E-3</v>
+        <v>-5.7835186934232733E-3</v>
       </c>
       <c r="K4" s="2">
         <v>-2.705482358026427E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>39568</v>
       </c>
@@ -655,13 +655,13 @@
         <v>2.1805107250923241E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>4.7493898162789892E-2</v>
+        <v>4.6989950480329112E-2</v>
       </c>
       <c r="K5" s="2">
-        <v>-3.1632408376000461E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-3.163240837600043E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>39599</v>
       </c>
@@ -690,13 +690,13 @@
         <v>9.0278408396644791E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>1.306345479700069E-2</v>
+        <v>1.3109623518949679E-2</v>
       </c>
       <c r="K6" s="2">
         <v>2.8979751623368818E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>39629</v>
       </c>
@@ -725,13 +725,13 @@
         <v>1.883929737521417E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>-7.9585951395109614E-2</v>
+        <v>-7.7620161609632199E-2</v>
       </c>
       <c r="K7" s="2">
         <v>1.2339111268842811E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>39660</v>
       </c>
@@ -760,13 +760,13 @@
         <v>-3.5884137606431152E-4</v>
       </c>
       <c r="J8" s="2">
-        <v>-8.7038153295425219E-3</v>
+        <v>-8.8278117733593814E-3</v>
       </c>
       <c r="K8" s="2">
         <v>-7.7831613965044641E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>39691</v>
       </c>
@@ -795,13 +795,13 @@
         <v>4.9296313349740384E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>1.604142169957929E-2</v>
+        <v>1.669830734837786E-2</v>
       </c>
       <c r="K9" s="2">
-        <v>4.1232206878433573E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.123220687843359E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>39721</v>
       </c>
@@ -830,13 +830,13 @@
         <v>-4.0317723589338619E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>-7.9957365508925099E-2</v>
+        <v>-7.6144815116839432E-2</v>
       </c>
       <c r="K10" s="2">
         <v>2.393108553801469E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>39752</v>
       </c>
@@ -865,13 +865,13 @@
         <v>2.598813876095197E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>-0.1173761459455574</v>
+        <v>-9.6304716750450992E-2</v>
       </c>
       <c r="K11" s="2">
         <v>0.13226374017851431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>39782</v>
       </c>
@@ -900,13 +900,13 @@
         <v>-3.6445375733058511E-4</v>
       </c>
       <c r="J12" s="2">
-        <v>-6.907367217661102E-2</v>
+        <v>-6.7956492218953543E-2</v>
       </c>
       <c r="K12" s="2">
-        <v>7.0124526572961634E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7.0124526572961608E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>39813</v>
       </c>
@@ -935,13 +935,13 @@
         <v>3.0580629938766511E-2</v>
       </c>
       <c r="J13" s="2">
-        <v>6.4493255317454642E-3</v>
+        <v>4.7031835096489017E-3</v>
       </c>
       <c r="K13" s="2">
         <v>-1.096039915408303E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>39844</v>
       </c>
@@ -970,13 +970,13 @@
         <v>2.158703233295807E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>-8.0643570544795984E-2</v>
+        <v>-7.9125758297121568E-2</v>
       </c>
       <c r="K14" s="2">
         <v>9.5271907238639372E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>39872</v>
       </c>
@@ -1005,13 +1005,13 @@
         <v>1.300845777648141E-2</v>
       </c>
       <c r="J15" s="2">
-        <v>-0.104679673889376</v>
+        <v>-0.10393038505356419</v>
       </c>
       <c r="K15" s="2">
         <v>4.7032283847880307E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>39903</v>
       </c>
@@ -1040,13 +1040,13 @@
         <v>-2.2065098325696358E-3</v>
       </c>
       <c r="J16" s="2">
-        <v>8.77827753155275E-2</v>
+        <v>8.7860818690481124E-2</v>
       </c>
       <c r="K16" s="2">
-        <v>4.8987226124730908E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.8987226124730951E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>39933</v>
       </c>
@@ -1075,13 +1075,13 @@
         <v>3.2042417909272651E-3</v>
       </c>
       <c r="J17" s="2">
-        <v>9.3843378221039248E-2</v>
+        <v>9.3065886188474348E-2</v>
       </c>
       <c r="K17" s="2">
-        <v>-4.8802576813306367E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-4.8802576813306341E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>39964</v>
       </c>
@@ -1110,13 +1110,13 @@
         <v>1.402443726635103E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>5.9562350841644497E-2</v>
+        <v>6.107451897661053E-2</v>
       </c>
       <c r="K18" s="2">
         <v>9.4917630625560127E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>39994</v>
       </c>
@@ -1145,13 +1145,13 @@
         <v>1.7937744633358382E-2</v>
       </c>
       <c r="J19" s="2">
-        <v>3.9080107559120707E-3</v>
+        <v>4.7096825994103536E-3</v>
       </c>
       <c r="K19" s="2">
-        <v>5.0320324945738416E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.0320324945738407E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>40025</v>
       </c>
@@ -1180,13 +1180,13 @@
         <v>1.317936303442482E-2</v>
       </c>
       <c r="J20" s="2">
-        <v>7.7914491427940741E-2</v>
+        <v>7.8863473394695446E-2</v>
       </c>
       <c r="K20" s="2">
         <v>5.9566868067064153E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>40056</v>
       </c>
@@ -1215,13 +1215,13 @@
         <v>1.6708794857041132E-2</v>
       </c>
       <c r="J21" s="2">
-        <v>3.9324707603011967E-2</v>
+        <v>4.0666646478373251E-2</v>
       </c>
       <c r="K21" s="2">
         <v>8.4232470945753857E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>40086</v>
       </c>
@@ -1250,13 +1250,13 @@
         <v>2.881421741962216E-2</v>
       </c>
       <c r="J22" s="2">
-        <v>3.7714789185809873E-2</v>
+        <v>3.7881259700095621E-2</v>
       </c>
       <c r="K22" s="2">
-        <v>1.044922612747473E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.0449226127474741E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>40117</v>
       </c>
@@ -1285,13 +1285,13 @@
         <v>1.8859043939336701E-2</v>
       </c>
       <c r="J23" s="2">
-        <v>-1.547025087779874E-2</v>
+        <v>-1.417584941607454E-2</v>
       </c>
       <c r="K23" s="2">
         <v>8.1248584058996372E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>40147</v>
       </c>
@@ -1320,13 +1320,13 @@
         <v>5.6246510277788717E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>6.0546521960695217E-2</v>
+        <v>6.0781119093961777E-2</v>
       </c>
       <c r="K24" s="2">
         <v>1.472548159580891E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>40178</v>
       </c>
@@ -1355,13 +1355,13 @@
         <v>2.2748521455544731E-2</v>
       </c>
       <c r="J25" s="2">
-        <v>2.175538858707227E-2</v>
+        <v>2.2772162662833429E-2</v>
       </c>
       <c r="K25" s="2">
-        <v>6.3822126601623197E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.3822126601623189E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>40209</v>
       </c>
@@ -1390,13 +1390,13 @@
         <v>3.7746357383442891E-3</v>
       </c>
       <c r="J26" s="2">
-        <v>-3.4550548699807733E-2</v>
+        <v>-3.3957713611949172E-2</v>
       </c>
       <c r="K26" s="2">
         <v>3.721180243789114E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>40237</v>
       </c>
@@ -1425,13 +1425,13 @@
         <v>3.1629608710803002E-3</v>
       </c>
       <c r="J27" s="2">
-        <v>2.8408230908076058E-2</v>
+        <v>2.7337815388362309E-2</v>
       </c>
       <c r="K27" s="2">
         <v>-6.718915877587852E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>40268</v>
       </c>
@@ -1460,13 +1460,13 @@
         <v>2.327016740919579E-2</v>
       </c>
       <c r="J28" s="2">
-        <v>6.0233214751433638E-2</v>
+        <v>6.0186711370435672E-2</v>
       </c>
       <c r="K28" s="2">
-        <v>-2.9189814534110012E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-2.918981453410999E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>40298</v>
       </c>
@@ -1495,13 +1495,13 @@
         <v>4.381510937907329E-3</v>
       </c>
       <c r="J29" s="2">
-        <v>1.944319182924412E-2</v>
+        <v>2.0966424867023398E-2</v>
       </c>
       <c r="K29" s="2">
-        <v>9.5612166063684199E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.5612166063684181E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>40329</v>
       </c>
@@ -1530,13 +1530,13 @@
         <v>-1.410911974086085E-2</v>
       </c>
       <c r="J30" s="2">
-        <v>-8.1650400214249755E-2</v>
+        <v>-8.2400326053040068E-2</v>
       </c>
       <c r="K30" s="2">
-        <v>-4.7072268034837033E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-4.707226803483705E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>40359</v>
       </c>
@@ -1565,13 +1565,13 @@
         <v>2.2504359779677841E-2</v>
       </c>
       <c r="J31" s="2">
-        <v>-4.9164805114291277E-2</v>
+        <v>-4.7838193220810683E-2</v>
       </c>
       <c r="K31" s="2">
-        <v>8.3270408083089796E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.3270408083089813E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>40390</v>
       </c>
@@ -1600,13 +1600,13 @@
         <v>1.170879997086245E-2</v>
       </c>
       <c r="J32" s="2">
-        <v>6.7941557135837966E-2</v>
+        <v>6.7057401410991674E-2</v>
       </c>
       <c r="K32" s="2">
-        <v>-5.549777472881481E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-5.5497774728814819E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>40421</v>
       </c>
@@ -1635,13 +1635,13 @@
         <v>1.267296837086189E-2</v>
       </c>
       <c r="J33" s="2">
-        <v>-4.2583688876611153E-2</v>
+        <v>-4.151677411263361E-2</v>
       </c>
       <c r="K33" s="2">
-        <v>6.696941903120604E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.6969419031206049E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>40451</v>
       </c>
@@ -1670,13 +1670,13 @@
         <v>2.040706743879284E-2</v>
       </c>
       <c r="J34" s="2">
-        <v>9.2251941413481003E-2</v>
+        <v>9.3505063755783449E-2</v>
       </c>
       <c r="K34" s="2">
         <v>7.8657525486060653E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>40482</v>
       </c>
@@ -1705,13 +1705,13 @@
         <v>1.694596149221057E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>3.6056146584614729E-2</v>
+        <v>3.5225720406146091E-2</v>
       </c>
       <c r="K35" s="2">
-        <v>-5.2125212433108137E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-5.2125212433108154E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>40512</v>
       </c>
@@ -1740,13 +1740,13 @@
         <v>9.5955329345957206E-3</v>
       </c>
       <c r="J36" s="2">
-        <v>2.9045826680546461E-3</v>
+        <v>4.0614170216733414E-3</v>
       </c>
       <c r="K36" s="2">
         <v>7.2613602504065788E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>40543</v>
       </c>
@@ -1775,13 +1775,13 @@
         <v>2.5901549267020069E-2</v>
       </c>
       <c r="J37" s="2">
-        <v>6.7972684802329666E-2</v>
+        <v>6.844802565072941E-2</v>
       </c>
       <c r="K37" s="2">
         <v>2.983677940724622E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>40574</v>
       </c>
@@ -1810,13 +1810,13 @@
         <v>1.8462896675959749E-2</v>
       </c>
       <c r="J38" s="2">
-        <v>2.526669942377064E-2</v>
+        <v>2.5918830521976119E-2</v>
       </c>
       <c r="K38" s="2">
         <v>4.0933767395051578E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>40602</v>
       </c>
@@ -1845,13 +1845,13 @@
         <v>2.1678636516189509E-2</v>
       </c>
       <c r="J39" s="2">
-        <v>3.4528213208327052E-2</v>
+        <v>3.4640426548244951E-2</v>
       </c>
       <c r="K39" s="2">
         <v>7.0435450286933203E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>40633</v>
       </c>
@@ -1880,13 +1880,13 @@
         <v>6.964290471221735E-3</v>
       </c>
       <c r="J40" s="2">
-        <v>6.4356331401477663E-4</v>
+        <v>7.4605693975588979E-4</v>
       </c>
       <c r="K40" s="2">
-        <v>6.4334460465191113E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.4334460465191123E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40663</v>
       </c>
@@ -1915,13 +1915,13 @@
         <v>1.691585366878923E-2</v>
       </c>
       <c r="J41" s="2">
-        <v>3.063232599802123E-2</v>
+        <v>3.1056034184821401E-2</v>
       </c>
       <c r="K41" s="2">
         <v>2.659583695607219E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>40694</v>
       </c>
@@ -1950,13 +1950,13 @@
         <v>9.2176153622681722E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>-1.027185903737469E-2</v>
+        <v>-9.8353571992980757E-3</v>
       </c>
       <c r="K42" s="2">
         <v>2.7398884605424321E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>40724</v>
       </c>
@@ -1985,13 +1985,13 @@
         <v>9.3065807311118551E-3</v>
       </c>
       <c r="J43" s="2">
-        <v>-1.6604482929331602E-2</v>
+        <v>-1.6577546449416371E-2</v>
       </c>
       <c r="K43" s="2">
-        <v>1.6907821239101761E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.6907821239101731E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>40755</v>
       </c>
@@ -2020,13 +2020,13 @@
         <v>6.5263392833909478E-3</v>
       </c>
       <c r="J44" s="2">
-        <v>-1.9316386562916388E-2</v>
+        <v>-1.889200465162013E-2</v>
       </c>
       <c r="K44" s="2">
         <v>2.663812612444165E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>40786</v>
       </c>
@@ -2055,13 +2055,13 @@
         <v>5.9707382909908726E-3</v>
       </c>
       <c r="J45" s="2">
-        <v>-4.5723911600821267E-2</v>
+        <v>-4.2141451312966573E-2</v>
       </c>
       <c r="K45" s="2">
-        <v>2.2486827652995641E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.2486827652995652E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>40816</v>
       </c>
@@ -2090,13 +2090,13 @@
         <v>1.6597288924616489E-2</v>
       </c>
       <c r="J46" s="2">
-        <v>-6.4964464294628252E-2</v>
+        <v>-6.274190929606141E-2</v>
       </c>
       <c r="K46" s="2">
         <v>1.395080676023509E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>40847</v>
       </c>
@@ -2125,13 +2125,13 @@
         <v>1.553627295097388E-2</v>
       </c>
       <c r="J47" s="2">
-        <v>0.1072582322137285</v>
+        <v>0.10641035234823309</v>
       </c>
       <c r="K47" s="2">
-        <v>-5.3220766941861368E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-5.3220766941861359E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>40877</v>
       </c>
@@ -2160,13 +2160,13 @@
         <v>4.5049312797990522E-3</v>
       </c>
       <c r="J48" s="2">
-        <v>1.2071910137528099E-4</v>
+        <v>1.0919683345467441E-3</v>
       </c>
       <c r="K48" s="2">
         <v>6.0964567251378006E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>40908</v>
       </c>
@@ -2195,13 +2195,13 @@
         <v>1.515375246371398E-2</v>
       </c>
       <c r="J49" s="2">
-        <v>9.3419863051493642E-3</v>
+        <v>8.972233613944192E-3</v>
       </c>
       <c r="K49" s="2">
-        <v>-2.3209092001801618E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-2.3209092001801632E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>40939</v>
       </c>
@@ -2230,13 +2230,13 @@
         <v>1.352884835728585E-2</v>
       </c>
       <c r="J50" s="2">
-        <v>4.3491923017074448E-2</v>
+        <v>4.2940603590315568E-2</v>
       </c>
       <c r="K50" s="2">
-        <v>-3.4605896325788249E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-3.460589632578824E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>40968</v>
       </c>
@@ -2265,13 +2265,13 @@
         <v>2.4000526429026621E-2</v>
       </c>
       <c r="J51" s="2">
-        <v>4.6279992108088239E-2</v>
+        <v>4.7545746459763893E-2</v>
       </c>
       <c r="K51" s="2">
         <v>7.9450426997486959E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>40999</v>
       </c>
@@ -2300,13 +2300,13 @@
         <v>1.229630121568788E-2</v>
       </c>
       <c r="J52" s="2">
-        <v>3.07751478790852E-2</v>
+        <v>2.9885956402886209E-2</v>
       </c>
       <c r="K52" s="2">
         <v>-5.5813864967567597E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>41029</v>
       </c>
@@ -2335,13 +2335,13 @@
         <v>2.1060019626575351E-4</v>
       </c>
       <c r="J53" s="2">
-        <v>-6.2131295370382684E-3</v>
+        <v>-6.186576322643151E-3</v>
       </c>
       <c r="K53" s="2">
-        <v>1.6667248420320629E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.6667248420320599E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>41060</v>
       </c>
@@ -2370,13 +2370,13 @@
         <v>1.082277679991916E-2</v>
       </c>
       <c r="J54" s="2">
-        <v>-6.0740126575994161E-2</v>
+        <v>-6.1006608239129123E-2</v>
       </c>
       <c r="K54" s="2">
         <v>-1.67268490090864E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>41090</v>
       </c>
@@ -2405,13 +2405,13 @@
         <v>1.128498227616785E-2</v>
       </c>
       <c r="J55" s="2">
-        <v>4.1958853662789383E-2</v>
+        <v>4.2274180082043353E-2</v>
       </c>
       <c r="K55" s="2">
         <v>1.9792796777787802E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>41121</v>
       </c>
@@ -2440,13 +2440,13 @@
         <v>-7.7278726130378702E-4</v>
       </c>
       <c r="J56" s="2">
-        <v>1.27193014565724E-2</v>
+        <v>1.223186808701375E-2</v>
       </c>
       <c r="K56" s="2">
-        <v>-3.0595817658450892E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-3.0595817658450901E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>41152</v>
       </c>
@@ -2475,13 +2475,13 @@
         <v>1.5713771995621451E-2</v>
       </c>
       <c r="J57" s="2">
-        <v>2.3839671839735E-2</v>
+        <v>2.438847152508106E-2</v>
       </c>
       <c r="K57" s="2">
-        <v>3.4447734095568732E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.4447734095568719E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>41182</v>
       </c>
@@ -2510,13 +2510,13 @@
         <v>1.286497964114721E-2</v>
       </c>
       <c r="J58" s="2">
-        <v>2.5201431588669981E-2</v>
+        <v>2.4934588191046811E-2</v>
       </c>
       <c r="K58" s="2">
         <v>-1.674955480465451E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>41213</v>
       </c>
@@ -2545,13 +2545,13 @@
         <v>1.5874883472192729E-2</v>
       </c>
       <c r="J59" s="2">
-        <v>-1.8130810875045911E-2</v>
+        <v>-1.799183782052555E-2</v>
       </c>
       <c r="K59" s="2">
-        <v>8.7232317298933416E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.723231729893346E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>41243</v>
       </c>
@@ -2580,13 +2580,13 @@
         <v>1.08650755573181E-2</v>
       </c>
       <c r="J60" s="2">
-        <v>7.2961604138800191E-3</v>
+        <v>7.9191462681866102E-3</v>
       </c>
       <c r="K60" s="2">
         <v>3.9104342854936799E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>41274</v>
       </c>
@@ -2615,13 +2615,13 @@
         <v>1.6380343072573061E-2</v>
       </c>
       <c r="J61" s="2">
-        <v>1.19838985003864E-2</v>
+        <v>1.317940844966729E-2</v>
       </c>
       <c r="K61" s="2">
         <v>7.5041239893324056E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>41305</v>
       </c>
@@ -2650,13 +2650,13 @@
         <v>9.3789371295559948E-3</v>
       </c>
       <c r="J62" s="2">
-        <v>5.1362592721517983E-2</v>
+        <v>5.1182360663807068E-2</v>
       </c>
       <c r="K62" s="2">
         <v>-1.131302762246995E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>41333</v>
       </c>
@@ -2685,13 +2685,13 @@
         <v>-4.8524361902499537E-3</v>
       </c>
       <c r="J63" s="2">
-        <v>1.461687104778189E-2</v>
+        <v>1.5051100336237249E-2</v>
       </c>
       <c r="K63" s="2">
         <v>2.72562384138131E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>41364</v>
       </c>
@@ -2720,13 +2720,13 @@
         <v>9.069685695920638E-3</v>
       </c>
       <c r="J64" s="2">
-        <v>3.8576047947432267E-2</v>
+        <v>3.9022990869633338E-2</v>
       </c>
       <c r="K64" s="2">
         <v>2.805426342431265E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>41394</v>
       </c>
@@ -2755,13 +2755,13 @@
         <v>-2.333309587484299E-3</v>
       </c>
       <c r="J65" s="2">
-        <v>1.9244667311573309E-2</v>
+        <v>1.9235595677250202E-2</v>
       </c>
       <c r="K65" s="2">
-        <v>-5.6941950828121989E-5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-5.6941950828121942E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>41425</v>
       </c>
@@ -2790,13 +2790,13 @@
         <v>6.2462276122290342E-4</v>
       </c>
       <c r="J66" s="2">
-        <v>2.3143564974501329E-2</v>
+        <v>2.304011195600696E-2</v>
       </c>
       <c r="K66" s="2">
         <v>-6.4936663916470821E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>41455</v>
       </c>
@@ -2825,13 +2825,13 @@
         <v>2.112834878646041E-3</v>
       </c>
       <c r="J67" s="2">
-        <v>-1.2609042569417641E-2</v>
+        <v>-1.226748189974552E-2</v>
       </c>
       <c r="K67" s="2">
         <v>2.143950049634232E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>41486</v>
       </c>
@@ -2860,13 +2860,13 @@
         <v>1.504422083575181E-2</v>
       </c>
       <c r="J68" s="2">
-        <v>5.122494284926938E-2</v>
+        <v>5.1366868659336172E-2</v>
       </c>
       <c r="K68" s="2">
         <v>8.908573924192283E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>41517</v>
       </c>
@@ -2895,13 +2895,13 @@
         <v>1.1715847817497901E-2</v>
       </c>
       <c r="J69" s="2">
-        <v>-2.7568082913479869E-2</v>
+        <v>-2.6987413032617528E-2</v>
       </c>
       <c r="K69" s="2">
         <v>3.6448201752590221E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>41547</v>
       </c>
@@ -2930,13 +2930,13 @@
         <v>8.3014773985466955E-3</v>
       </c>
       <c r="J70" s="2">
-        <v>3.0732641528178482E-2</v>
+        <v>3.047136087879895E-2</v>
       </c>
       <c r="K70" s="2">
         <v>-1.640038537643779E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>41578</v>
       </c>
@@ -2965,13 +2965,13 @@
         <v>1.439162768615836E-2</v>
       </c>
       <c r="J71" s="2">
-        <v>4.6263031716124323E-2</v>
+        <v>4.6386132180997977E-2</v>
       </c>
       <c r="K71" s="2">
-        <v>7.7269214874543042E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7.7269214874543064E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>41608</v>
       </c>
@@ -3000,13 +3000,13 @@
         <v>9.9920275671750991E-3</v>
       </c>
       <c r="J72" s="2">
-        <v>3.1368002559812411E-2</v>
+        <v>3.1740524161715987E-2</v>
       </c>
       <c r="K72" s="2">
         <v>2.3382894396408891E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>41639</v>
       </c>
@@ -3035,13 +3035,13 @@
         <v>1.5538063340502759E-2</v>
       </c>
       <c r="J73" s="2">
-        <v>2.63044673815391E-2</v>
+        <v>2.6716310174183251E-2</v>
       </c>
       <c r="K73" s="2">
         <v>2.5851055292125261E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>41670</v>
       </c>
@@ -3070,13 +3070,13 @@
         <v>6.670833381218589E-3</v>
       </c>
       <c r="J74" s="2">
-        <v>-3.4607086432201027E-2</v>
+        <v>-3.4620876943316142E-2</v>
       </c>
       <c r="K74" s="2">
-        <v>-8.6561977460945815E-5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-8.6561977460945707E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>41698</v>
       </c>
@@ -3105,13 +3105,13 @@
         <v>9.2507655101985668E-3</v>
       </c>
       <c r="J75" s="2">
-        <v>4.5415646113015143E-2</v>
+        <v>4.5278877329950527E-2</v>
       </c>
       <c r="K75" s="2">
         <v>-8.584871306209405E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>41729</v>
       </c>
@@ -3140,13 +3140,13 @@
         <v>1.4153374329733339E-2</v>
       </c>
       <c r="J76" s="2">
-        <v>9.4991513007536381E-3</v>
+        <v>9.9547607946417274E-3</v>
       </c>
       <c r="K76" s="2">
         <v>2.859825746251383E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>41759</v>
       </c>
@@ -3175,13 +3175,13 @@
         <v>7.1655190744856819E-3</v>
       </c>
       <c r="J77" s="2">
-        <v>6.9406875104919899E-3</v>
+        <v>6.7526149766039614E-3</v>
       </c>
       <c r="K77" s="2">
         <v>-1.180516828097175E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>41790</v>
       </c>
@@ -3210,13 +3210,13 @@
         <v>6.5936928846640928E-3</v>
       </c>
       <c r="J78" s="2">
-        <v>2.31441384472021E-2</v>
+        <v>2.30066367556277E-2</v>
       </c>
       <c r="K78" s="2">
-        <v>-8.6308754095930286E-4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-8.6308754095930297E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>41820</v>
       </c>
@@ -3245,13 +3245,13 @@
         <v>1.362368243270775E-2</v>
       </c>
       <c r="J79" s="2">
-        <v>2.001081848151277E-2</v>
+        <v>1.9741373758282391E-2</v>
       </c>
       <c r="K79" s="2">
         <v>-1.691283801199904E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>41851</v>
       </c>
@@ -3280,13 +3280,13 @@
         <v>4.6672531882057337E-3</v>
       </c>
       <c r="J80" s="2">
-        <v>-1.2812703353457921E-2</v>
+        <v>-1.2405096402703569E-2</v>
       </c>
       <c r="K80" s="2">
         <v>2.5585174755042412E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>41882</v>
       </c>
@@ -3315,13 +3315,13 @@
         <v>1.6986525278803979E-2</v>
       </c>
       <c r="J81" s="2">
-        <v>4.0173426556449468E-2</v>
+        <v>4.0243637111920923E-2</v>
       </c>
       <c r="K81" s="2">
         <v>4.4070625588232609E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>41912</v>
       </c>
@@ -3350,13 +3350,13 @@
         <v>1.2142521122817751E-2</v>
       </c>
       <c r="J82" s="2">
-        <v>-1.414560859418103E-2</v>
+        <v>-1.419641449296361E-2</v>
       </c>
       <c r="K82" s="2">
-        <v>-3.1890471851218959E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-3.1890471851218948E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>41943</v>
       </c>
@@ -3385,13 +3385,13 @@
         <v>7.9839746163550256E-4</v>
       </c>
       <c r="J83" s="2">
-        <v>2.5728457620245809E-2</v>
+        <v>2.627140356693412E-2</v>
       </c>
       <c r="K83" s="2">
-        <v>3.4080299422896789E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.4080299422896798E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>41973</v>
       </c>
@@ -3420,13 +3420,13 @@
         <v>1.557029282997484E-2</v>
       </c>
       <c r="J84" s="2">
-        <v>2.7434869977413779E-2</v>
+        <v>2.765996041910844E-2</v>
       </c>
       <c r="K84" s="2">
-        <v>1.4128753878679969E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.412875387867998E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>42004</v>
       </c>
@@ -3455,13 +3455,13 @@
         <v>-1.7612718332473459E-3</v>
       </c>
       <c r="J85" s="2">
-        <v>-1.468063874674066E-3</v>
+        <v>-1.030085641226939E-3</v>
       </c>
       <c r="K85" s="2">
         <v>2.749155680714278E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>42035</v>
       </c>
@@ -3490,13 +3490,13 @@
         <v>-1.9469878782717449E-4</v>
       </c>
       <c r="J86" s="2">
-        <v>-2.828928593265264E-2</v>
+        <v>-2.756844123224382E-2</v>
       </c>
       <c r="K86" s="2">
-        <v>4.5246867348738588E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.5246867348738597E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>42063</v>
       </c>
@@ -3525,13 +3525,13 @@
         <v>1.0301245302461371E-2</v>
       </c>
       <c r="J87" s="2">
-        <v>5.6093661752420212E-2</v>
+        <v>5.5519462871669721E-2</v>
       </c>
       <c r="K87" s="2">
         <v>-3.604202205326141E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>42094</v>
       </c>
@@ -3560,13 +3560,13 @@
         <v>-7.660311697473166E-4</v>
       </c>
       <c r="J88" s="2">
-        <v>-1.518563636596046E-2</v>
+        <v>-1.492355075814494E-2</v>
       </c>
       <c r="K88" s="2">
         <v>1.645091199826626E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>42124</v>
       </c>
@@ -3595,13 +3595,13 @@
         <v>8.3813677004296316E-3</v>
       </c>
       <c r="J89" s="2">
-        <v>9.1480282924756504E-3</v>
+        <v>8.9625100521779008E-3</v>
       </c>
       <c r="K89" s="2">
         <v>-1.164483723715108E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>42155</v>
       </c>
@@ -3630,13 +3630,13 @@
         <v>1.0016090430947199E-3</v>
       </c>
       <c r="J90" s="2">
-        <v>1.0448468419482109E-2</v>
+        <v>9.4440149248314776E-3</v>
       </c>
       <c r="K90" s="2">
-        <v>-6.3048773202685707E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-6.3048773202685716E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>42185</v>
       </c>
@@ -3665,13 +3665,13 @@
         <v>1.920208342308212E-2</v>
       </c>
       <c r="J91" s="2">
-        <v>-1.874478082982586E-2</v>
+        <v>-1.84893182145459E-2</v>
       </c>
       <c r="K91" s="2">
         <v>1.6035191851419129E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>42216</v>
       </c>
@@ -3700,13 +3700,13 @@
         <v>6.611956050830114E-3</v>
       </c>
       <c r="J92" s="2">
-        <v>2.09875644633962E-2</v>
+        <v>2.1002683496670459E-2</v>
       </c>
       <c r="K92" s="2">
         <v>9.4901008859985328E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>42247</v>
       </c>
@@ -3735,13 +3735,13 @@
         <v>-2.8547169737788359E-2</v>
       </c>
       <c r="J93" s="2">
-        <v>-5.4476201745776068E-2</v>
+        <v>-5.2035473564272343E-2</v>
       </c>
       <c r="K93" s="2">
         <v>1.532026304697728E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>42277</v>
       </c>
@@ -3770,13 +3770,13 @@
         <v>1.3941455847165621E-2</v>
       </c>
       <c r="J94" s="2">
-        <v>-2.5530051210396809E-2</v>
+        <v>-2.5857757248778809E-2</v>
       </c>
       <c r="K94" s="2">
         <v>-2.0569855947670541E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>42308</v>
       </c>
@@ -3805,13 +3805,13 @@
         <v>4.7321219236691843E-3</v>
       </c>
       <c r="J95" s="2">
-        <v>8.3759115467530731E-2</v>
+        <v>8.3511154075278718E-2</v>
       </c>
       <c r="K95" s="2">
         <v>-1.556434585212629E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>42338</v>
       </c>
@@ -3840,13 +3840,13 @@
         <v>5.6263385851517116E-3</v>
       </c>
       <c r="J96" s="2">
-        <v>3.6077837796653382E-3</v>
+        <v>3.8718964553835561E-3</v>
       </c>
       <c r="K96" s="2">
         <v>1.657814949123583E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>42369</v>
       </c>
@@ -3875,13 +3875,13 @@
         <v>3.7605389643311391E-3</v>
       </c>
       <c r="J97" s="2">
-        <v>-1.7035106269916521E-2</v>
+        <v>-1.7561421989094619E-2</v>
       </c>
       <c r="K97" s="2">
-        <v>-3.3036432834563901E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-3.3036432834563909E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>42400</v>
       </c>
@@ -3910,13 +3910,13 @@
         <v>-1.016012191042393E-3</v>
       </c>
       <c r="J98" s="2">
-        <v>-4.8462515859880498E-2</v>
+        <v>-4.7978479884844501E-2</v>
       </c>
       <c r="K98" s="2">
         <v>3.0382565817643902E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>42429</v>
       </c>
@@ -3945,13 +3945,13 @@
         <v>-7.8570650260103572E-4</v>
       </c>
       <c r="J99" s="2">
-        <v>-1.240495282436733E-3</v>
+        <v>-1.1952290782459071E-3</v>
       </c>
       <c r="K99" s="2">
-        <v>2.841324816901076E-4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.8413248169010749E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>42460</v>
       </c>
@@ -3980,13 +3980,13 @@
         <v>1.457240383036278E-2</v>
       </c>
       <c r="J100" s="2">
-        <v>6.7306845343063332E-2</v>
+        <v>6.7085465243645545E-2</v>
       </c>
       <c r="K100" s="2">
         <v>-1.3895858548069889E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>42490</v>
       </c>
@@ -4015,13 +4015,13 @@
         <v>2.6751539797304049E-3</v>
       </c>
       <c r="J101" s="2">
-        <v>3.852511351715859E-3</v>
+        <v>3.842421268520422E-3</v>
       </c>
       <c r="K101" s="2">
-        <v>-6.3334676057508654E-5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-6.3334676057508709E-5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>42521</v>
       </c>
@@ -4050,13 +4050,13 @@
         <v>1.540839450619314E-3</v>
       </c>
       <c r="J102" s="2">
-        <v>1.70507573166029E-2</v>
+        <v>1.6672737888603621E-2</v>
       </c>
       <c r="K102" s="2">
         <v>-2.3727988711340041E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>42551</v>
       </c>
@@ -4085,13 +4085,13 @@
         <v>1.709579980714385E-2</v>
       </c>
       <c r="J103" s="2">
-        <v>3.476059882988838E-3</v>
+        <v>3.8447346613752868E-3</v>
       </c>
       <c r="K103" s="2">
         <v>2.3141432243333998E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>42582</v>
       </c>
@@ -4120,13 +4120,13 @@
         <v>7.493221968924677E-3</v>
       </c>
       <c r="J104" s="2">
-        <v>3.5537986226600052E-2</v>
+        <v>3.4983584793088301E-2</v>
       </c>
       <c r="K104" s="2">
-        <v>-3.4799351518891258E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-3.4799351518891271E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>42613</v>
       </c>
@@ -4155,13 +4155,13 @@
         <v>1.018050780520412E-2</v>
       </c>
       <c r="J105" s="2">
-        <v>2.373981735892225E-3</v>
+        <v>2.7781174231747609E-3</v>
       </c>
       <c r="K105" s="2">
-        <v>2.5367286217119161E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.5367286217119148E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>42643</v>
       </c>
@@ -4190,13 +4190,13 @@
         <v>3.3264412176906548E-4</v>
       </c>
       <c r="J106" s="2">
-        <v>-6.6884450850634828E-4</v>
+        <v>-1.026306633469732E-3</v>
       </c>
       <c r="K106" s="2">
         <v>-2.2437622613086278E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>42674</v>
       </c>
@@ -4225,13 +4225,13 @@
         <v>1.181811401525064E-2</v>
       </c>
       <c r="J107" s="2">
-        <v>-1.8478562682408169E-2</v>
+        <v>-1.857747923266231E-2</v>
       </c>
       <c r="K107" s="2">
-        <v>-6.2089157697984361E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-6.2089157697984296E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>42704</v>
       </c>
@@ -4260,13 +4260,13 @@
         <v>1.5841909601487261E-2</v>
       </c>
       <c r="J108" s="2">
-        <v>3.827124229440871E-2</v>
+        <v>3.8786402279952052E-2</v>
       </c>
       <c r="K108" s="2">
         <v>3.233619601564357E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>42735</v>
       </c>
@@ -4295,13 +4295,13 @@
         <v>5.6986444530973566E-3</v>
       </c>
       <c r="J109" s="2">
-        <v>1.9908621101799619E-2</v>
+        <v>1.9967927310676811E-2</v>
       </c>
       <c r="K109" s="2">
-        <v>3.7226051110603582E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.7226051110603588E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>42766</v>
       </c>
@@ -4330,13 +4330,13 @@
         <v>4.5821002135177924E-3</v>
       </c>
       <c r="J110" s="2">
-        <v>1.7537211763433921E-2</v>
+        <v>1.6941702338897531E-2</v>
       </c>
       <c r="K110" s="2">
         <v>-3.7379668493976552E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>42794</v>
       </c>
@@ -4365,13 +4365,13 @@
         <v>7.0743753119562056E-3</v>
       </c>
       <c r="J111" s="2">
-        <v>4.0758800945788688E-2</v>
+        <v>4.1197545837626928E-2</v>
       </c>
       <c r="K111" s="2">
         <v>2.7539679364615511E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>42825</v>
       </c>
@@ -4400,13 +4400,13 @@
         <v>4.5546557439132716E-3</v>
       </c>
       <c r="J112" s="2">
-        <v>-1.389846733654938E-4</v>
+        <v>-6.829681480272781E-4</v>
       </c>
       <c r="K112" s="2">
         <v>-3.4145424255693549E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>42855</v>
       </c>
@@ -4435,13 +4435,13 @@
         <v>9.1970001713444615E-3</v>
       </c>
       <c r="J113" s="2">
-        <v>9.1740381270550529E-3</v>
+        <v>8.717428433869032E-3</v>
       </c>
       <c r="K113" s="2">
         <v>-2.8661039203060948E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>42886</v>
       </c>
@@ -4470,13 +4470,13 @@
         <v>8.7421918242865937E-3</v>
       </c>
       <c r="J114" s="2">
-        <v>1.435057468892572E-2</v>
+        <v>1.4466337307494481E-2</v>
       </c>
       <c r="K114" s="2">
         <v>7.2663305193933041E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>42916</v>
       </c>
@@ -4505,13 +4505,13 @@
         <v>-1.197183756463915E-3</v>
       </c>
       <c r="J115" s="2">
-        <v>6.3999239363830181E-3</v>
+        <v>6.4659215292236002E-3</v>
       </c>
       <c r="K115" s="2">
-        <v>4.1426181352242821E-4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.1426181352242832E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>42947</v>
       </c>
@@ -4540,13 +4540,13 @@
         <v>3.462301040589377E-3</v>
       </c>
       <c r="J116" s="2">
-        <v>1.9606324749366591E-2</v>
+        <v>1.920780951596978E-2</v>
       </c>
       <c r="K116" s="2">
         <v>-2.501449465013861E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>42978</v>
       </c>
@@ -4575,13 +4575,13 @@
         <v>1.3932807960472581E-3</v>
       </c>
       <c r="J117" s="2">
-        <v>2.7501564804740821E-3</v>
+        <v>2.6205448099233491E-3</v>
       </c>
       <c r="K117" s="2">
         <v>-8.1356248591845336E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>43008</v>
       </c>
@@ -4610,13 +4610,13 @@
         <v>3.515512070982552E-3</v>
       </c>
       <c r="J118" s="2">
-        <v>1.9926850940756542E-2</v>
+        <v>1.9634716159554959E-2</v>
       </c>
       <c r="K118" s="2">
         <v>-1.833707549696115E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>43039</v>
       </c>
@@ -4645,13 +4645,13 @@
         <v>5.4642170802854158E-3</v>
       </c>
       <c r="J119" s="2">
-        <v>2.390427962271921E-2</v>
+        <v>2.4141284253566032E-2</v>
       </c>
       <c r="K119" s="2">
         <v>1.4876598367000559E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>43069</v>
       </c>
@@ -4680,13 +4680,13 @@
         <v>-2.466848165096857E-3</v>
       </c>
       <c r="J120" s="2">
-        <v>3.0169581051901009E-2</v>
+        <v>2.9961178122577009E-2</v>
       </c>
       <c r="K120" s="2">
         <v>-1.308129156372225E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>43100</v>
       </c>
@@ -4715,13 +4715,13 @@
         <v>5.7396833021414956E-3</v>
       </c>
       <c r="J121" s="2">
-        <v>9.5396294918244588E-3</v>
+        <v>8.8816674318507368E-3</v>
       </c>
       <c r="K121" s="2">
-        <v>-4.1299772379888968E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-4.1299772379888976E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>43131</v>
       </c>
@@ -4750,13 +4750,13 @@
         <v>-4.2338727731142563E-3</v>
       </c>
       <c r="J122" s="2">
-        <v>5.85360642712483E-2</v>
+        <v>5.9070300305540897E-2</v>
       </c>
       <c r="K122" s="2">
         <v>3.3533584921750519E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>43159</v>
       </c>
@@ -4785,13 +4785,13 @@
         <v>-2.654289277610656E-3</v>
       </c>
       <c r="J123" s="2">
-        <v>-3.6864248392521969E-2</v>
+        <v>-3.686725452392553E-2</v>
       </c>
       <c r="K123" s="2">
-        <v>-1.8869255579274671E-5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-1.8869255579274461E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>43190</v>
       </c>
@@ -4820,13 +4820,13 @@
         <v>-1.194371544304251E-3</v>
       </c>
       <c r="J124" s="2">
-        <v>-2.4622017536702751E-2</v>
+        <v>-2.4292317087836031E-2</v>
       </c>
       <c r="K124" s="2">
         <v>2.0695043559634321E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>43220</v>
       </c>
@@ -4855,13 +4855,13 @@
         <v>4.317617068899215E-4</v>
       </c>
       <c r="J125" s="2">
-        <v>2.6474093753021369E-3</v>
+        <v>2.151709071049866E-3</v>
       </c>
       <c r="K125" s="2">
-        <v>-3.1114726789988772E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-3.1114726789988759E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>43251</v>
       </c>
@@ -4890,13 +4890,13 @@
         <v>-1.3508703594942611E-3</v>
       </c>
       <c r="J126" s="2">
-        <v>2.366331596802615E-2</v>
+        <v>2.3488929548610399E-2</v>
       </c>
       <c r="K126" s="2">
         <v>-1.0946101403326719E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>43281</v>
       </c>
@@ -4925,13 +4925,13 @@
         <v>7.1316917299836906E-3</v>
       </c>
       <c r="J127" s="2">
-        <v>6.8564417357696427E-3</v>
+        <v>7.1487012394753366E-3</v>
       </c>
       <c r="K127" s="2">
         <v>1.834490423260355E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>43312</v>
       </c>
@@ -4960,13 +4960,13 @@
         <v>2.2879875734213911E-3</v>
       </c>
       <c r="J128" s="2">
-        <v>3.6825517396533683E-2</v>
+        <v>3.6663794641855041E-2</v>
       </c>
       <c r="K128" s="2">
-        <v>-1.0151212909058631E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-1.015121290905862E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>43343</v>
       </c>
@@ -4995,13 +4995,13 @@
         <v>1.919811401395588E-3</v>
       </c>
       <c r="J129" s="2">
-        <v>3.2679876867036252E-2</v>
+        <v>3.2719282487058937E-2</v>
       </c>
       <c r="K129" s="2">
         <v>2.4734604568086047E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>43373</v>
       </c>
@@ -5030,13 +5030,13 @@
         <v>1.1780380331690619E-2</v>
       </c>
       <c r="J130" s="2">
-        <v>5.5515822590650101E-3</v>
+        <v>5.4931279919082331E-3</v>
       </c>
       <c r="K130" s="2">
-        <v>-3.6691293846101268E-4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-3.6691293846101289E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>43404</v>
       </c>
@@ -5065,13 +5065,13 @@
         <v>2.7428663889505259E-3</v>
       </c>
       <c r="J131" s="2">
-        <v>-6.5278625919716282E-2</v>
+        <v>-6.3998806739625561E-2</v>
       </c>
       <c r="K131" s="2">
         <v>8.0333265458002543E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>43434</v>
       </c>
@@ -5100,13 +5100,13 @@
         <v>6.6789812456414799E-3</v>
       </c>
       <c r="J132" s="2">
-        <v>2.0293018293863721E-2</v>
+        <v>2.0257414289975281E-2</v>
       </c>
       <c r="K132" s="2">
-        <v>-2.2348359363818509E-4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-2.2348359363818479E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>43465</v>
       </c>
@@ -5135,13 +5135,13 @@
         <v>-5.9638096672464773E-3</v>
       </c>
       <c r="J133" s="2">
-        <v>-9.0948281434138953E-2</v>
+        <v>-9.1222189284501071E-2</v>
       </c>
       <c r="K133" s="2">
         <v>-1.719298506888352E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>43496</v>
       </c>
@@ -5170,13 +5170,13 @@
         <v>-1.864903598181067E-3</v>
       </c>
       <c r="J134" s="2">
-        <v>7.8226984040746128E-2</v>
+        <v>7.7431578573399218E-2</v>
       </c>
       <c r="K134" s="2">
         <v>-4.992698933500692E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>43524</v>
       </c>
@@ -5205,13 +5205,13 @@
         <v>4.0653482303681489E-3</v>
       </c>
       <c r="J135" s="2">
-        <v>3.1686916413699528E-2</v>
+        <v>3.151143831531085E-2</v>
       </c>
       <c r="K135" s="2">
         <v>-1.101462525270439E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>43555</v>
       </c>
@@ -5240,13 +5240,13 @@
         <v>-2.7228366209964602E-3</v>
       </c>
       <c r="J136" s="2">
-        <v>1.8640853708045361E-2</v>
+        <v>1.8311262936729411E-2</v>
       </c>
       <c r="K136" s="2">
         <v>-2.068815918414024E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>43585</v>
       </c>
@@ -5275,13 +5275,13 @@
         <v>7.0828676824820757E-3</v>
       </c>
       <c r="J137" s="2">
-        <v>3.9909222564152677E-2</v>
+        <v>3.9667386943062592E-2</v>
       </c>
       <c r="K137" s="2">
         <v>-1.5179835908423411E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>43616</v>
       </c>
@@ -5310,13 +5310,13 @@
         <v>-1.08397443944005E-2</v>
       </c>
       <c r="J138" s="2">
-        <v>-6.3651589399977171E-2</v>
+        <v>-6.3694691956034333E-2</v>
       </c>
       <c r="K138" s="2">
-        <v>-2.7055142878950299E-4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-2.705514287895032E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>43646</v>
       </c>
@@ -5345,13 +5345,13 @@
         <v>7.7680358953529536E-3</v>
       </c>
       <c r="J139" s="2">
-        <v>7.016657437290616E-2</v>
+        <v>7.0037598291801381E-2</v>
       </c>
       <c r="K139" s="2">
-        <v>-8.0957293985768793E-4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-8.0957293985768814E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>43677</v>
       </c>
@@ -5380,13 +5380,13 @@
         <v>3.9355856539855516E-3</v>
       </c>
       <c r="J140" s="2">
-        <v>1.366084374341635E-2</v>
+        <v>1.336441462730144E-2</v>
       </c>
       <c r="K140" s="2">
         <v>-1.860662759613621E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>43708</v>
       </c>
@@ -5415,13 +5415,13 @@
         <v>-9.2579167563885973E-3</v>
       </c>
       <c r="J141" s="2">
-        <v>-1.4329902861036369E-2</v>
+        <v>-1.370053925269658E-2</v>
       </c>
       <c r="K141" s="2">
         <v>3.9504669569636539E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>43738</v>
       </c>
@@ -5450,13 +5450,13 @@
         <v>1.3945968547556699E-2</v>
       </c>
       <c r="J142" s="2">
-        <v>1.8286647068731392E-2</v>
+        <v>1.8110103128212259E-2</v>
       </c>
       <c r="K142" s="2">
         <v>-1.1081527343354629E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>43769</v>
       </c>
@@ -5485,13 +5485,13 @@
         <v>-2.904878704725345E-3</v>
       </c>
       <c r="J143" s="2">
-        <v>1.923816989088728E-2</v>
+        <v>1.8229147476358409E-2</v>
       </c>
       <c r="K143" s="2">
-        <v>-6.3335560788889602E-3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-6.3335560788889576E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>43799</v>
       </c>
@@ -5520,13 +5520,13 @@
         <v>2.927030703338484E-3</v>
       </c>
       <c r="J144" s="2">
-        <v>3.6690259615353008E-2</v>
+        <v>3.6853348377387123E-2</v>
       </c>
       <c r="K144" s="2">
         <v>1.023695613998849E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>43830</v>
       </c>
@@ -5555,13 +5555,13 @@
         <v>3.0176346736779051E-3</v>
       </c>
       <c r="J145" s="2">
-        <v>2.7976912176471219E-2</v>
+        <v>2.7058107548461031E-2</v>
       </c>
       <c r="K145" s="2">
         <v>-5.7672659727408676E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>43861</v>
       </c>
@@ -5590,13 +5590,13 @@
         <v>1.72636644008155E-3</v>
       </c>
       <c r="J146" s="2">
-        <v>4.2619507554394283E-4</v>
+        <v>7.6717332946926362E-4</v>
       </c>
       <c r="K146" s="2">
         <v>2.1402942707927832E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>43890</v>
       </c>
@@ -5625,13 +5625,13 @@
         <v>-1.9519811696924062E-2</v>
       </c>
       <c r="J147" s="2">
-        <v>-7.4971513074322649E-2</v>
+        <v>-7.1909976656898258E-2</v>
       </c>
       <c r="K147" s="2">
         <v>1.9217028589371511E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>43921</v>
       </c>
@@ -5660,13 +5660,13 @@
         <v>9.7783028682561668E-2</v>
       </c>
       <c r="J148" s="2">
-        <v>-5.3578832404057468E-2</v>
+        <v>-2.443968693881143E-2</v>
       </c>
       <c r="K148" s="2">
         <v>0.1829041746126214</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>43951</v>
       </c>
@@ -5695,13 +5695,13 @@
         <v>-3.3981213000015991E-3</v>
       </c>
       <c r="J149" s="2">
-        <v>0.1294083608113317</v>
+        <v>0.129914419841552</v>
       </c>
       <c r="K149" s="2">
         <v>3.1764936050750919E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>43982</v>
       </c>
@@ -5730,13 +5730,13 @@
         <v>-2.2750897116867951E-3</v>
       </c>
       <c r="J150" s="2">
-        <v>4.646691595416353E-2</v>
+        <v>4.5983146287727657E-2</v>
       </c>
       <c r="K150" s="2">
         <v>-3.0365849831666932E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>44012</v>
       </c>
@@ -5765,13 +5765,13 @@
         <v>-7.2633546834797811E-3</v>
       </c>
       <c r="J151" s="2">
-        <v>1.903031519830085E-2</v>
+        <v>1.8673263987471551E-2</v>
       </c>
       <c r="K151" s="2">
         <v>-2.2411829848977389E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>44043</v>
       </c>
@@ -5800,13 +5800,13 @@
         <v>2.7126912308021332E-3</v>
       </c>
       <c r="J152" s="2">
-        <v>5.7483947874128707E-2</v>
+        <v>5.7941826014742841E-2</v>
       </c>
       <c r="K152" s="2">
-        <v>2.874065867239429E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.8740658672394299E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>44074</v>
       </c>
@@ -5835,13 +5835,13 @@
         <v>1.1897102877061E-2</v>
       </c>
       <c r="J153" s="2">
-        <v>7.6346602278110409E-2</v>
+        <v>7.8207429181133561E-2</v>
       </c>
       <c r="K153" s="2">
-        <v>1.1680267329745289E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.16802673297453E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>44104</v>
       </c>
@@ -5870,13 +5870,13 @@
         <v>-2.6088229928169018E-2</v>
       </c>
       <c r="J154" s="2">
-        <v>-4.5157188917358981E-2</v>
+        <v>-4.814075400819344E-2</v>
       </c>
       <c r="K154" s="2">
         <v>-1.8727608570160939E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>44135</v>
       </c>
@@ -5905,13 +5905,13 @@
         <v>6.6492114820448931E-3</v>
       </c>
       <c r="J155" s="2">
-        <v>-2.6354835379044369E-2</v>
+        <v>-2.6255273665726719E-2</v>
       </c>
       <c r="K155" s="2">
-        <v>6.2494121590154703E-4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.2494121590154692E-4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>44165</v>
       </c>
@@ -5940,13 +5940,13 @@
         <v>5.250768674645032E-5</v>
       </c>
       <c r="J156" s="2">
-        <v>0.1067996382572996</v>
+        <v>0.10568956160918599</v>
       </c>
       <c r="K156" s="2">
         <v>-6.9678657296975838E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>44196</v>
       </c>
@@ -5975,13 +5975,13 @@
         <v>1.099009619429667E-2</v>
       </c>
       <c r="J157" s="2">
-        <v>3.9040077551498333E-2</v>
+        <v>3.9286703257411217E-2</v>
       </c>
       <c r="K157" s="2">
         <v>1.5480505848070091E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>44227</v>
       </c>
@@ -6010,13 +6010,13 @@
         <v>9.7262976414237874E-3</v>
       </c>
       <c r="J158" s="2">
-        <v>-6.86380289439204E-3</v>
+        <v>-5.5171801376594897E-3</v>
       </c>
       <c r="K158" s="2">
         <v>8.452647457644338E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>44255</v>
       </c>
@@ -6045,13 +6045,13 @@
         <v>4.8994026137382908E-3</v>
       </c>
       <c r="J159" s="2">
-        <v>3.0276387396719631E-2</v>
+        <v>3.1402010132921487E-2</v>
       </c>
       <c r="K159" s="2">
         <v>7.0654473287747738E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>44286</v>
       </c>
@@ -6080,13 +6080,13 @@
         <v>2.8369345032142612E-3</v>
       </c>
       <c r="J160" s="2">
-        <v>4.3123914532099523E-2</v>
+        <v>4.2844015877999672E-2</v>
       </c>
       <c r="K160" s="2">
         <v>-1.756902321119116E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>44316</v>
       </c>
@@ -6115,13 +6115,13 @@
         <v>-4.0861571348999367E-3</v>
       </c>
       <c r="J161" s="2">
-        <v>5.1934296820780101E-2</v>
+        <v>5.133658471139009E-2</v>
       </c>
       <c r="K161" s="2">
         <v>-3.7517929327866031E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>44347</v>
       </c>
@@ -6150,13 +6150,13 @@
         <v>-6.7689182858616586E-3</v>
       </c>
       <c r="J162" s="2">
-        <v>5.5681675708055224E-3</v>
+        <v>4.9781066242538174E-3</v>
       </c>
       <c r="K162" s="2">
         <v>-3.703767172201488E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>44377</v>
       </c>
@@ -6185,13 +6185,13 @@
         <v>8.7678942765357683E-3</v>
       </c>
       <c r="J163" s="2">
-        <v>2.2305232125971072E-2</v>
+        <v>2.1872073342140461E-2</v>
       </c>
       <c r="K163" s="2">
         <v>-2.7189043661982899E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>44408</v>
       </c>
@@ -6220,13 +6220,13 @@
         <v>-1.23674868585131E-2</v>
       </c>
       <c r="J164" s="2">
-        <v>2.1366246547384331E-2</v>
+        <v>2.0370963715602819E-2</v>
       </c>
       <c r="K164" s="2">
-        <v>-6.2473137748747416E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-6.2473137748747434E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>44439</v>
       </c>
@@ -6255,13 +6255,13 @@
         <v>-4.7468970458997674E-3</v>
       </c>
       <c r="J165" s="2">
-        <v>2.9747953188646141E-2</v>
+        <v>2.947392066706761E-2</v>
       </c>
       <c r="K165" s="2">
         <v>-1.7200810585236989E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>44469</v>
       </c>
@@ -6290,13 +6290,13 @@
         <v>6.6972309828241539E-3</v>
       </c>
       <c r="J166" s="2">
-        <v>-4.6815087743838753E-2</v>
+        <v>-4.6942291505035393E-2</v>
       </c>
       <c r="K166" s="2">
         <v>-7.9844822412661028E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>44500</v>
       </c>
@@ -6325,13 +6325,13 @@
         <v>1.672229346085464E-3</v>
       </c>
       <c r="J167" s="2">
-        <v>7.1903372095515755E-2</v>
+        <v>7.2670686407471957E-2</v>
       </c>
       <c r="K167" s="2">
-        <v>4.8163729119712617E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.8163729119712626E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>44530</v>
       </c>
@@ -6360,13 +6360,13 @@
         <v>3.1213066951772512E-3</v>
       </c>
       <c r="J168" s="2">
-        <v>-5.1091858733504931E-3</v>
+        <v>-4.3509636424942568E-3</v>
       </c>
       <c r="K168" s="2">
         <v>4.7593026182976101E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>44561</v>
       </c>
@@ -6395,13 +6395,13 @@
         <v>-1.7462424820528451E-2</v>
       </c>
       <c r="J169" s="2">
-        <v>4.0742580139748671E-2</v>
+        <v>3.9045285338741402E-2</v>
       </c>
       <c r="K169" s="2">
         <v>-1.0653788904784189E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>44592</v>
       </c>
@@ -6430,13 +6430,13 @@
         <v>-3.1890271885302413E-2</v>
       </c>
       <c r="J170" s="2">
-        <v>-5.2992653724795162E-2</v>
+        <v>-5.3511661983251531E-2</v>
       </c>
       <c r="K170" s="2">
         <v>-3.2577749146184588E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>44620</v>
       </c>
@@ -6465,13 +6465,13 @@
         <v>-6.0898972370416733E-4</v>
       </c>
       <c r="J171" s="2">
-        <v>-2.782135698898397E-2</v>
+        <v>-2.6937985623444769E-2</v>
       </c>
       <c r="K171" s="2">
         <v>5.5448541098461358E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>44651</v>
       </c>
@@ -6500,19 +6500,264 @@
         <v>2.6180172166168749E-3</v>
       </c>
       <c r="J172" s="2">
-        <v>3.8611639753957483E-2</v>
+        <v>3.9229172417169673E-2</v>
       </c>
       <c r="K172" s="2">
         <v>3.8762050244703942E-3</v>
       </c>
     </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>44681</v>
+      </c>
+      <c r="B173" s="2">
+        <v>-8.7201844689124286E-2</v>
+      </c>
+      <c r="C173" s="2">
+        <v>-2.0343792770055599E-2</v>
+      </c>
+      <c r="D173" s="2">
+        <v>3.604596856313869E-3</v>
+      </c>
+      <c r="E173" s="2">
+        <v>2.9718382942591551E-2</v>
+      </c>
+      <c r="F173" s="2">
+        <v>1.7260536242822101E-3</v>
+      </c>
+      <c r="G173" s="2">
+        <v>1.3112527426601069E-2</v>
+      </c>
+      <c r="H173" s="2">
+        <v>7.0947547462596461E-3</v>
+      </c>
+      <c r="I173" s="2">
+        <v>3.28176911031588E-3</v>
+      </c>
+      <c r="J173" s="2">
+        <v>-8.438731343156658E-2</v>
+      </c>
+      <c r="K173" s="2">
+        <v>5.196057706260364E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>44712</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1.8346151108581401E-3</v>
+      </c>
+      <c r="C174" s="2">
+        <v>-1.4830233305306639E-2</v>
+      </c>
+      <c r="D174" s="2">
+        <v>-1.612962287670738E-2</v>
+      </c>
+      <c r="E174" s="2">
+        <v>5.0964313527877003E-3</v>
+      </c>
+      <c r="F174" s="2">
+        <v>-4.0537692093064938E-2</v>
+      </c>
+      <c r="G174" s="2">
+        <v>4.3228656388043518E-3</v>
+      </c>
+      <c r="H174" s="2">
+        <v>3.331670277789045E-2</v>
+      </c>
+      <c r="I174" s="2">
+        <v>-4.4507081742510609E-3</v>
+      </c>
+      <c r="J174" s="2">
+        <v>-3.351400679345376E-3</v>
+      </c>
+      <c r="K174" s="2">
+        <v>-9.5741829972987996E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>44742</v>
+      </c>
+      <c r="B175" s="2">
+        <v>-8.254376821069076E-2</v>
+      </c>
+      <c r="C175" s="2">
+        <v>-3.6804526798941077E-2</v>
+      </c>
+      <c r="D175" s="2">
+        <v>-6.180626902126507E-3</v>
+      </c>
+      <c r="E175" s="2">
+        <v>2.9489180843426999E-2</v>
+      </c>
+      <c r="F175" s="2">
+        <v>1.6609288778682361E-2</v>
+      </c>
+      <c r="G175" s="2">
+        <v>-1.0944626522107479E-2</v>
+      </c>
+      <c r="H175" s="2">
+        <v>-2.5056335894324658E-2</v>
+      </c>
+      <c r="I175" s="2">
+        <v>-2.400110169929959E-3</v>
+      </c>
+      <c r="J175" s="2">
+        <v>-8.4047156666533132E-2</v>
+      </c>
+      <c r="K175" s="2">
+        <v>-2.775486380016685E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>44773</v>
+      </c>
+      <c r="B176" s="2">
+        <v>9.2204461388357473E-2</v>
+      </c>
+      <c r="C176" s="2">
+        <v>1.327123640954442E-2</v>
+      </c>
+      <c r="D176" s="2">
+        <v>-5.2601848788800254E-3</v>
+      </c>
+      <c r="E176" s="2">
+        <v>-2.2822610100831201E-2</v>
+      </c>
+      <c r="F176" s="2">
+        <v>-2.3513183755391829E-2</v>
+      </c>
+      <c r="G176" s="2">
+        <v>-1.098787008357704E-2</v>
+      </c>
+      <c r="H176" s="2">
+        <v>-9.8113366034290328E-3</v>
+      </c>
+      <c r="I176" s="2">
+        <v>5.5413215244666247E-3</v>
+      </c>
+      <c r="J176" s="2">
+        <v>8.8242863783753622E-2</v>
+      </c>
+      <c r="K176" s="2">
+        <v>-7.3137186546532807E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B177" s="2">
+        <v>-4.0781924345117633E-2</v>
+      </c>
+      <c r="C177" s="2">
+        <v>-1.7873202637612721E-2</v>
+      </c>
+      <c r="D177" s="2">
+        <v>-6.7296123335447433E-4</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1.094158822929758E-2</v>
+      </c>
+      <c r="F177" s="2">
+        <v>2.274759671561296E-2</v>
+      </c>
+      <c r="G177" s="2">
+        <v>-7.6719854433480172E-3</v>
+      </c>
+      <c r="H177" s="2">
+        <v>9.3444301018108522E-3</v>
+      </c>
+      <c r="I177" s="2">
+        <v>8.0094517179815309E-3</v>
+      </c>
+      <c r="J177" s="2">
+        <v>-3.9311228131310043E-2</v>
+      </c>
+      <c r="K177" s="2">
+        <v>2.7151314716447618E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>44834</v>
+      </c>
+      <c r="B178" s="2">
+        <v>-9.2098601263658209E-2</v>
+      </c>
+      <c r="C178" s="2">
+        <v>-3.1695302348644587E-2</v>
+      </c>
+      <c r="D178" s="2">
+        <v>1.696093882445959E-3</v>
+      </c>
+      <c r="E178" s="2">
+        <v>3.1942903879981673E-2</v>
+      </c>
+      <c r="F178" s="2">
+        <v>5.3332722001232923E-2</v>
+      </c>
+      <c r="G178" s="2">
+        <v>-1.1989244942036681E-3</v>
+      </c>
+      <c r="H178" s="2">
+        <v>1.0964386230749581E-3</v>
+      </c>
+      <c r="I178" s="2">
+        <v>2.9521574700462241E-3</v>
+      </c>
+      <c r="J178" s="2">
+        <v>-8.7287952637221625E-2</v>
+      </c>
+      <c r="K178" s="2">
+        <v>8.8811974641905753E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>44865</v>
+      </c>
+      <c r="B179" s="2">
+        <v>8.0961375978148009E-2</v>
+      </c>
+      <c r="C179" s="2">
+        <v>1.0058685007288791E-2</v>
+      </c>
+      <c r="D179" s="2">
+        <v>-6.6937509059638023E-3</v>
+      </c>
+      <c r="E179" s="2">
+        <v>-2.159515330495965E-2</v>
+      </c>
+      <c r="F179" s="2">
+        <v>-1.6345565174648281E-2</v>
+      </c>
+      <c r="G179" s="2">
+        <v>-4.1747941288096113E-3</v>
+      </c>
+      <c r="H179" s="2">
+        <v>-3.5372226925148957E-2</v>
+      </c>
+      <c r="I179" s="2">
+        <v>-3.848582855877625E-3</v>
+      </c>
+      <c r="J179" s="2">
+        <v>7.6535071326418971E-2</v>
+      </c>
+      <c r="K179" s="2">
+        <v>-8.1716393570382111E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A172">
+  <conditionalFormatting sqref="A1:A179">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K172">
+  <conditionalFormatting sqref="B2:K179">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D7CBF1-8700-431C-A462-29430EFF1FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E668B3-F8AE-4BAA-BDD6-D2D50BF3D311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="3000" yWindow="2535" windowWidth="19200" windowHeight="7230" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Historical Returns" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -550,19 +580,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALM179"/>
+  <dimension ref="A1:ALM180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179:K179"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1001" width="21.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1001" width="21.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>39478</v>
       </c>
@@ -632,7 +662,7 @@
         <v>2.301616170161861E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>39507</v>
       </c>
@@ -667,7 +697,7 @@
         <v>8.1377879594981186E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>39538</v>
       </c>
@@ -702,7 +732,7 @@
         <v>-2.705482358026427E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>39568</v>
       </c>
@@ -737,7 +767,7 @@
         <v>-3.1632408376000461E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>39599</v>
       </c>
@@ -772,7 +802,7 @@
         <v>2.8979751623368818E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>39629</v>
       </c>
@@ -807,7 +837,7 @@
         <v>1.2339111268842811E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>39660</v>
       </c>
@@ -842,7 +872,7 @@
         <v>-7.7831613965044641E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>39691</v>
       </c>
@@ -877,7 +907,7 @@
         <v>4.1232206878433573E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>39721</v>
       </c>
@@ -912,7 +942,7 @@
         <v>2.393108553801469E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>39752</v>
       </c>
@@ -947,7 +977,7 @@
         <v>0.13226374017851431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>39782</v>
       </c>
@@ -982,7 +1012,7 @@
         <v>7.0124526572961634E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>39813</v>
       </c>
@@ -1017,7 +1047,7 @@
         <v>-1.096039915408303E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>39844</v>
       </c>
@@ -1052,7 +1082,7 @@
         <v>9.5271907238639372E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>39872</v>
       </c>
@@ -1087,7 +1117,7 @@
         <v>4.7032283847880307E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>39903</v>
       </c>
@@ -1122,7 +1152,7 @@
         <v>4.8987226124730908E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>39933</v>
       </c>
@@ -1157,7 +1187,7 @@
         <v>-4.8802576813306367E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>39964</v>
       </c>
@@ -1192,7 +1222,7 @@
         <v>9.4917630625560127E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>39994</v>
       </c>
@@ -1227,7 +1257,7 @@
         <v>5.0320324945738416E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>40025</v>
       </c>
@@ -1262,7 +1292,7 @@
         <v>5.9566868067064153E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>40056</v>
       </c>
@@ -1297,7 +1327,7 @@
         <v>8.4232470945753857E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>40086</v>
       </c>
@@ -1332,7 +1362,7 @@
         <v>1.044922612747473E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>40117</v>
       </c>
@@ -1367,7 +1397,7 @@
         <v>8.1248584058996372E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>40147</v>
       </c>
@@ -1402,7 +1432,7 @@
         <v>1.472548159580891E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>40178</v>
       </c>
@@ -1437,7 +1467,7 @@
         <v>6.3822126601623197E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>40209</v>
       </c>
@@ -1472,7 +1502,7 @@
         <v>3.721180243789114E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>40237</v>
       </c>
@@ -1507,7 +1537,7 @@
         <v>-6.718915877587852E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>40268</v>
       </c>
@@ -1542,7 +1572,7 @@
         <v>-2.9189814534110012E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>40298</v>
       </c>
@@ -1577,7 +1607,7 @@
         <v>9.5612166063684199E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>40329</v>
       </c>
@@ -1612,7 +1642,7 @@
         <v>-4.7072268034837033E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>40359</v>
       </c>
@@ -1647,7 +1677,7 @@
         <v>8.3270408083089796E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>40390</v>
       </c>
@@ -1682,7 +1712,7 @@
         <v>-5.549777472881481E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>40421</v>
       </c>
@@ -1717,7 +1747,7 @@
         <v>6.696941903120604E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>40451</v>
       </c>
@@ -1752,7 +1782,7 @@
         <v>7.8657525486060653E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>40482</v>
       </c>
@@ -1787,7 +1817,7 @@
         <v>-5.2125212433108137E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>40512</v>
       </c>
@@ -1822,7 +1852,7 @@
         <v>7.2613602504065788E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>40543</v>
       </c>
@@ -1857,7 +1887,7 @@
         <v>2.983677940724622E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>40574</v>
       </c>
@@ -1892,7 +1922,7 @@
         <v>4.0933767395051578E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>40602</v>
       </c>
@@ -1927,7 +1957,7 @@
         <v>7.0435450286933203E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>40633</v>
       </c>
@@ -1962,7 +1992,7 @@
         <v>6.4334460465191113E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40663</v>
       </c>
@@ -1997,7 +2027,7 @@
         <v>2.659583695607219E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40694</v>
       </c>
@@ -2032,7 +2062,7 @@
         <v>2.7398884605424321E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>40724</v>
       </c>
@@ -2067,7 +2097,7 @@
         <v>1.6907821239101761E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>40755</v>
       </c>
@@ -2102,7 +2132,7 @@
         <v>2.663812612444165E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>40786</v>
       </c>
@@ -2137,7 +2167,7 @@
         <v>2.2486827652995641E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>40816</v>
       </c>
@@ -2172,7 +2202,7 @@
         <v>1.395080676023509E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>40847</v>
       </c>
@@ -2207,7 +2237,7 @@
         <v>-5.3220766941861368E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>40877</v>
       </c>
@@ -2242,7 +2272,7 @@
         <v>6.0964567251378006E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>40908</v>
       </c>
@@ -2277,7 +2307,7 @@
         <v>-2.3209092001801618E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>40939</v>
       </c>
@@ -2312,7 +2342,7 @@
         <v>-3.4605896325788249E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>40968</v>
       </c>
@@ -2347,7 +2377,7 @@
         <v>7.9450426997486959E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>40999</v>
       </c>
@@ -2382,7 +2412,7 @@
         <v>-5.5813864967567597E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>41029</v>
       </c>
@@ -2417,7 +2447,7 @@
         <v>1.6667248420320629E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>41060</v>
       </c>
@@ -2452,7 +2482,7 @@
         <v>-1.67268490090864E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>41090</v>
       </c>
@@ -2487,7 +2517,7 @@
         <v>1.9792796777787802E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>41121</v>
       </c>
@@ -2522,7 +2552,7 @@
         <v>-3.0595817658450892E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>41152</v>
       </c>
@@ -2557,7 +2587,7 @@
         <v>3.4447734095568732E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>41182</v>
       </c>
@@ -2592,7 +2622,7 @@
         <v>-1.674955480465451E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>41213</v>
       </c>
@@ -2627,7 +2657,7 @@
         <v>8.7232317298933416E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>41243</v>
       </c>
@@ -2662,7 +2692,7 @@
         <v>3.9104342854936799E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>41274</v>
       </c>
@@ -2697,7 +2727,7 @@
         <v>7.5041239893324056E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>41305</v>
       </c>
@@ -2732,7 +2762,7 @@
         <v>-1.131302762246995E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41333</v>
       </c>
@@ -2767,7 +2797,7 @@
         <v>2.72562384138131E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>41364</v>
       </c>
@@ -2802,7 +2832,7 @@
         <v>2.805426342431265E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>41394</v>
       </c>
@@ -2837,7 +2867,7 @@
         <v>-5.6941950828121989E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>41425</v>
       </c>
@@ -2872,7 +2902,7 @@
         <v>-6.4936663916470821E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>41455</v>
       </c>
@@ -2907,7 +2937,7 @@
         <v>2.143950049634232E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>41486</v>
       </c>
@@ -2942,7 +2972,7 @@
         <v>8.908573924192283E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>41517</v>
       </c>
@@ -2977,7 +3007,7 @@
         <v>3.6448201752590221E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>41547</v>
       </c>
@@ -3012,7 +3042,7 @@
         <v>-1.640038537643779E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>41578</v>
       </c>
@@ -3047,7 +3077,7 @@
         <v>7.7269214874543042E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>41608</v>
       </c>
@@ -3082,7 +3112,7 @@
         <v>2.3382894396408891E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>41639</v>
       </c>
@@ -3117,7 +3147,7 @@
         <v>2.5851055292125261E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>41670</v>
       </c>
@@ -3152,7 +3182,7 @@
         <v>-8.6561977460945815E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>41698</v>
       </c>
@@ -3187,7 +3217,7 @@
         <v>-8.584871306209405E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>41729</v>
       </c>
@@ -3222,7 +3252,7 @@
         <v>2.859825746251383E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>41759</v>
       </c>
@@ -3257,7 +3287,7 @@
         <v>-1.180516828097175E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>41790</v>
       </c>
@@ -3292,7 +3322,7 @@
         <v>-8.6308754095930286E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>41820</v>
       </c>
@@ -3327,7 +3357,7 @@
         <v>-1.691283801199904E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>41851</v>
       </c>
@@ -3362,7 +3392,7 @@
         <v>2.5585174755042412E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>41882</v>
       </c>
@@ -3397,7 +3427,7 @@
         <v>4.4070625588232609E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>41912</v>
       </c>
@@ -3432,7 +3462,7 @@
         <v>-3.1890471851218959E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>41943</v>
       </c>
@@ -3467,7 +3497,7 @@
         <v>3.4080299422896789E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>41973</v>
       </c>
@@ -3502,7 +3532,7 @@
         <v>1.4128753878679969E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>42004</v>
       </c>
@@ -3537,7 +3567,7 @@
         <v>2.749155680714278E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>42035</v>
       </c>
@@ -3572,7 +3602,7 @@
         <v>4.5246867348738588E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>42063</v>
       </c>
@@ -3607,7 +3637,7 @@
         <v>-3.604202205326141E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>42094</v>
       </c>
@@ -3642,7 +3672,7 @@
         <v>1.645091199826626E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>42124</v>
       </c>
@@ -3677,7 +3707,7 @@
         <v>-1.164483723715108E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>42155</v>
       </c>
@@ -3712,7 +3742,7 @@
         <v>-6.3048773202685707E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>42185</v>
       </c>
@@ -3747,7 +3777,7 @@
         <v>1.6035191851419129E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>42216</v>
       </c>
@@ -3782,7 +3812,7 @@
         <v>9.4901008859985328E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>42247</v>
       </c>
@@ -3817,7 +3847,7 @@
         <v>1.532026304697728E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>42277</v>
       </c>
@@ -3852,7 +3882,7 @@
         <v>-2.0569855947670541E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>42308</v>
       </c>
@@ -3887,7 +3917,7 @@
         <v>-1.556434585212629E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>42338</v>
       </c>
@@ -3922,7 +3952,7 @@
         <v>1.657814949123583E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>42369</v>
       </c>
@@ -3957,7 +3987,7 @@
         <v>-3.3036432834563901E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>42400</v>
       </c>
@@ -3992,7 +4022,7 @@
         <v>3.0382565817643902E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>42429</v>
       </c>
@@ -4027,7 +4057,7 @@
         <v>2.841324816901076E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>42460</v>
       </c>
@@ -4062,7 +4092,7 @@
         <v>-1.3895858548069889E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>42490</v>
       </c>
@@ -4097,7 +4127,7 @@
         <v>-6.3334676057508654E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>42521</v>
       </c>
@@ -4132,7 +4162,7 @@
         <v>-2.3727988711340041E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>42551</v>
       </c>
@@ -4167,7 +4197,7 @@
         <v>2.3141432243333998E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>42582</v>
       </c>
@@ -4202,7 +4232,7 @@
         <v>-3.4799351518891258E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>42613</v>
       </c>
@@ -4237,7 +4267,7 @@
         <v>2.5367286217119161E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>42643</v>
       </c>
@@ -4272,7 +4302,7 @@
         <v>-2.2437622613086278E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>42674</v>
       </c>
@@ -4307,7 +4337,7 @@
         <v>-6.2089157697984361E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>42704</v>
       </c>
@@ -4342,7 +4372,7 @@
         <v>3.233619601564357E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>42735</v>
       </c>
@@ -4377,7 +4407,7 @@
         <v>3.7226051110603582E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>42766</v>
       </c>
@@ -4412,7 +4442,7 @@
         <v>-3.7379668493976552E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>42794</v>
       </c>
@@ -4447,7 +4477,7 @@
         <v>2.7539679364615511E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>42825</v>
       </c>
@@ -4482,7 +4512,7 @@
         <v>-3.4145424255693549E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>42855</v>
       </c>
@@ -4517,7 +4547,7 @@
         <v>-2.8661039203060948E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>42886</v>
       </c>
@@ -4552,7 +4582,7 @@
         <v>7.2663305193933041E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>42916</v>
       </c>
@@ -4587,7 +4617,7 @@
         <v>4.1426181352242821E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>42947</v>
       </c>
@@ -4622,7 +4652,7 @@
         <v>-2.501449465013861E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>42978</v>
       </c>
@@ -4657,7 +4687,7 @@
         <v>-8.1356248591845336E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>43008</v>
       </c>
@@ -4692,7 +4722,7 @@
         <v>-1.833707549696115E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>43039</v>
       </c>
@@ -4727,7 +4757,7 @@
         <v>1.4876598367000559E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>43069</v>
       </c>
@@ -4762,7 +4792,7 @@
         <v>-1.308129156372225E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>43100</v>
       </c>
@@ -4797,7 +4827,7 @@
         <v>-4.1299772379888968E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43131</v>
       </c>
@@ -4832,7 +4862,7 @@
         <v>3.3533584921750519E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>43159</v>
       </c>
@@ -4867,7 +4897,7 @@
         <v>-1.8869255579274671E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43190</v>
       </c>
@@ -4902,7 +4932,7 @@
         <v>2.0695043559634321E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>43220</v>
       </c>
@@ -4937,7 +4967,7 @@
         <v>-3.1114726789988772E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43251</v>
       </c>
@@ -4972,7 +5002,7 @@
         <v>-1.0946101403326719E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43281</v>
       </c>
@@ -5007,7 +5037,7 @@
         <v>1.834490423260355E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>43312</v>
       </c>
@@ -5042,7 +5072,7 @@
         <v>-1.0151212909058631E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>43343</v>
       </c>
@@ -5077,7 +5107,7 @@
         <v>2.4734604568086047E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43373</v>
       </c>
@@ -5112,7 +5142,7 @@
         <v>-3.6691293846101268E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>43404</v>
       </c>
@@ -5147,7 +5177,7 @@
         <v>8.0333265458002543E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>43434</v>
       </c>
@@ -5182,7 +5212,7 @@
         <v>-2.2348359363818509E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>43465</v>
       </c>
@@ -5217,7 +5247,7 @@
         <v>-1.719298506888352E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>43496</v>
       </c>
@@ -5252,7 +5282,7 @@
         <v>-4.992698933500692E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>43524</v>
       </c>
@@ -5287,7 +5317,7 @@
         <v>-1.101462525270439E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>43555</v>
       </c>
@@ -5322,7 +5352,7 @@
         <v>-2.068815918414024E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>43585</v>
       </c>
@@ -5357,7 +5387,7 @@
         <v>-1.5179835908423411E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>43616</v>
       </c>
@@ -5392,7 +5422,7 @@
         <v>-2.7055142878950299E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>43646</v>
       </c>
@@ -5427,7 +5457,7 @@
         <v>-8.0957293985768793E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>43677</v>
       </c>
@@ -5462,7 +5492,7 @@
         <v>-1.860662759613621E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>43708</v>
       </c>
@@ -5497,7 +5527,7 @@
         <v>3.9504669569636539E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43738</v>
       </c>
@@ -5532,7 +5562,7 @@
         <v>-1.1081527343354629E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>43769</v>
       </c>
@@ -5567,7 +5597,7 @@
         <v>-6.3335560788889602E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>43799</v>
       </c>
@@ -5602,7 +5632,7 @@
         <v>1.023695613998849E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>43830</v>
       </c>
@@ -5637,7 +5667,7 @@
         <v>-5.7672659727408676E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>43861</v>
       </c>
@@ -5672,7 +5702,7 @@
         <v>2.1402942707927832E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>43890</v>
       </c>
@@ -5707,7 +5737,7 @@
         <v>1.9217028589371511E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>43921</v>
       </c>
@@ -5742,7 +5772,7 @@
         <v>0.1829041746126214</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>43951</v>
       </c>
@@ -5777,7 +5807,7 @@
         <v>3.1764936050750919E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>43982</v>
       </c>
@@ -5812,7 +5842,7 @@
         <v>-3.0365849831666932E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>44012</v>
       </c>
@@ -5847,7 +5877,7 @@
         <v>-2.2411829848977389E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>44043</v>
       </c>
@@ -5882,7 +5912,7 @@
         <v>2.874065867239429E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>44074</v>
       </c>
@@ -5917,7 +5947,7 @@
         <v>1.1680267329745289E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>44104</v>
       </c>
@@ -5952,7 +5982,7 @@
         <v>-1.8727608570160939E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>44135</v>
       </c>
@@ -5987,7 +6017,7 @@
         <v>6.2494121590154703E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>44165</v>
       </c>
@@ -6022,7 +6052,7 @@
         <v>-6.9678657296975838E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>44196</v>
       </c>
@@ -6057,7 +6087,7 @@
         <v>1.5480505848070091E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>44227</v>
       </c>
@@ -6092,7 +6122,7 @@
         <v>8.452647457644338E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>44255</v>
       </c>
@@ -6127,7 +6157,7 @@
         <v>7.0654473287747738E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>44286</v>
       </c>
@@ -6162,7 +6192,7 @@
         <v>-1.756902321119116E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>44316</v>
       </c>
@@ -6197,7 +6227,7 @@
         <v>-3.7517929327866031E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>44347</v>
       </c>
@@ -6232,7 +6262,7 @@
         <v>-3.703767172201488E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>44377</v>
       </c>
@@ -6267,7 +6297,7 @@
         <v>-2.7189043661982899E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>44408</v>
       </c>
@@ -6302,7 +6332,7 @@
         <v>-6.2473137748747416E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>44439</v>
       </c>
@@ -6337,7 +6367,7 @@
         <v>-1.7200810585236989E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>44469</v>
       </c>
@@ -6372,7 +6402,7 @@
         <v>-7.9844822412661028E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>44500</v>
       </c>
@@ -6407,7 +6437,7 @@
         <v>4.8163729119712617E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>44530</v>
       </c>
@@ -6442,7 +6472,7 @@
         <v>4.7593026182976101E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>44561</v>
       </c>
@@ -6477,7 +6507,7 @@
         <v>-1.0653788904784189E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>44592</v>
       </c>
@@ -6512,7 +6542,7 @@
         <v>-3.2577749146184588E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>44620</v>
       </c>
@@ -6547,7 +6577,7 @@
         <v>5.5448541098461358E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>44651</v>
       </c>
@@ -6582,7 +6612,7 @@
         <v>3.8762050244703942E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>44681</v>
       </c>
@@ -6617,7 +6647,7 @@
         <v>5.196057706260364E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>44712</v>
       </c>
@@ -6652,7 +6682,7 @@
         <v>-9.5741829972987996E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>44742</v>
       </c>
@@ -6687,7 +6717,7 @@
         <v>-2.775486380016685E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>44773</v>
       </c>
@@ -6722,7 +6752,7 @@
         <v>-7.3137186546532807E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>44804</v>
       </c>
@@ -6757,7 +6787,7 @@
         <v>2.7151314716447618E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>44834</v>
       </c>
@@ -6792,7 +6822,7 @@
         <v>9.6646150455747919E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>44865</v>
       </c>
@@ -6827,93 +6857,144 @@
         <v>-8.3327363879563739E-3</v>
       </c>
     </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>44895</v>
+      </c>
+      <c r="B180" s="2">
+        <v>5.5883986589128083E-2</v>
+      </c>
+      <c r="C180" s="2">
+        <v>4.3658708982647898E-3</v>
+      </c>
+      <c r="D180" s="2">
+        <v>-2.485560714415302E-3</v>
+      </c>
+      <c r="E180" s="2">
+        <v>-1.404871553015585E-2</v>
+      </c>
+      <c r="F180" s="2">
+        <v>1.829167597045179E-3</v>
+      </c>
+      <c r="G180" s="2">
+        <v>1.16817045716413E-2</v>
+      </c>
+      <c r="H180" s="2">
+        <v>-1.107476737186408E-2</v>
+      </c>
+      <c r="I180" s="2">
+        <v>-1.761511663960949E-2</v>
+      </c>
+      <c r="J180" s="2">
+        <v>5.439441239273813E-2</v>
+      </c>
+      <c r="K180" s="2">
+        <v>-3.0351825318290582E-3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A172">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="38">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:K171">
-    <cfRule type="cellIs" dxfId="22" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A174">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="34">
       <formula>LEN(TRIM(A173))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:K174">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="24">
       <formula>LEN(TRIM(A175))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:K175">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176:A177">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="16">
       <formula>LEN(TRIM(A176))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:K177">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="12">
       <formula>LEN(TRIM(A178))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:K178">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="8">
       <formula>LEN(TRIM(A179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:K179">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A180))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B180:K180">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E668B3-F8AE-4BAA-BDD6-D2D50BF3D311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D3ED0E-D150-41AC-BA9E-276662877A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2535" windowWidth="19200" windowHeight="7230" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Historical Returns" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="43">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -580,19 +622,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALM180"/>
+  <dimension ref="A1:ALM181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1001" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1001" width="21.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>39478</v>
       </c>
@@ -662,7 +704,7 @@
         <v>2.301616170161861E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>39507</v>
       </c>
@@ -697,7 +739,7 @@
         <v>8.1377879594981186E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>39538</v>
       </c>
@@ -732,7 +774,7 @@
         <v>-2.705482358026427E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>39568</v>
       </c>
@@ -767,7 +809,7 @@
         <v>-3.1632408376000461E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>39599</v>
       </c>
@@ -802,7 +844,7 @@
         <v>2.8979751623368818E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>39629</v>
       </c>
@@ -837,7 +879,7 @@
         <v>1.2339111268842811E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>39660</v>
       </c>
@@ -872,7 +914,7 @@
         <v>-7.7831613965044641E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>39691</v>
       </c>
@@ -907,7 +949,7 @@
         <v>4.1232206878433573E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>39721</v>
       </c>
@@ -942,7 +984,7 @@
         <v>2.393108553801469E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>39752</v>
       </c>
@@ -977,7 +1019,7 @@
         <v>0.13226374017851431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>39782</v>
       </c>
@@ -1012,7 +1054,7 @@
         <v>7.0124526572961634E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>39813</v>
       </c>
@@ -1047,7 +1089,7 @@
         <v>-1.096039915408303E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>39844</v>
       </c>
@@ -1082,7 +1124,7 @@
         <v>9.5271907238639372E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>39872</v>
       </c>
@@ -1117,7 +1159,7 @@
         <v>4.7032283847880307E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>39903</v>
       </c>
@@ -1152,7 +1194,7 @@
         <v>4.8987226124730908E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>39933</v>
       </c>
@@ -1187,7 +1229,7 @@
         <v>-4.8802576813306367E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>39964</v>
       </c>
@@ -1222,7 +1264,7 @@
         <v>9.4917630625560127E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>39994</v>
       </c>
@@ -1257,7 +1299,7 @@
         <v>5.0320324945738416E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>40025</v>
       </c>
@@ -1292,7 +1334,7 @@
         <v>5.9566868067064153E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>40056</v>
       </c>
@@ -1327,7 +1369,7 @@
         <v>8.4232470945753857E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>40086</v>
       </c>
@@ -1362,7 +1404,7 @@
         <v>1.044922612747473E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>40117</v>
       </c>
@@ -1397,7 +1439,7 @@
         <v>8.1248584058996372E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>40147</v>
       </c>
@@ -1432,7 +1474,7 @@
         <v>1.472548159580891E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>40178</v>
       </c>
@@ -1467,7 +1509,7 @@
         <v>6.3822126601623197E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>40209</v>
       </c>
@@ -1502,7 +1544,7 @@
         <v>3.721180243789114E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>40237</v>
       </c>
@@ -1537,7 +1579,7 @@
         <v>-6.718915877587852E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>40268</v>
       </c>
@@ -1572,7 +1614,7 @@
         <v>-2.9189814534110012E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>40298</v>
       </c>
@@ -1607,7 +1649,7 @@
         <v>9.5612166063684199E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>40329</v>
       </c>
@@ -1642,7 +1684,7 @@
         <v>-4.7072268034837033E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>40359</v>
       </c>
@@ -1677,7 +1719,7 @@
         <v>8.3270408083089796E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>40390</v>
       </c>
@@ -1712,7 +1754,7 @@
         <v>-5.549777472881481E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>40421</v>
       </c>
@@ -1747,7 +1789,7 @@
         <v>6.696941903120604E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>40451</v>
       </c>
@@ -1782,7 +1824,7 @@
         <v>7.8657525486060653E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>40482</v>
       </c>
@@ -1817,7 +1859,7 @@
         <v>-5.2125212433108137E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>40512</v>
       </c>
@@ -1852,7 +1894,7 @@
         <v>7.2613602504065788E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>40543</v>
       </c>
@@ -1887,7 +1929,7 @@
         <v>2.983677940724622E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>40574</v>
       </c>
@@ -1922,7 +1964,7 @@
         <v>4.0933767395051578E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>40602</v>
       </c>
@@ -1957,7 +1999,7 @@
         <v>7.0435450286933203E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>40633</v>
       </c>
@@ -1992,7 +2034,7 @@
         <v>6.4334460465191113E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40663</v>
       </c>
@@ -2027,7 +2069,7 @@
         <v>2.659583695607219E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>40694</v>
       </c>
@@ -2062,7 +2104,7 @@
         <v>2.7398884605424321E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>40724</v>
       </c>
@@ -2097,7 +2139,7 @@
         <v>1.6907821239101761E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>40755</v>
       </c>
@@ -2132,7 +2174,7 @@
         <v>2.663812612444165E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>40786</v>
       </c>
@@ -2167,7 +2209,7 @@
         <v>2.2486827652995641E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>40816</v>
       </c>
@@ -2202,7 +2244,7 @@
         <v>1.395080676023509E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>40847</v>
       </c>
@@ -2237,7 +2279,7 @@
         <v>-5.3220766941861368E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>40877</v>
       </c>
@@ -2272,7 +2314,7 @@
         <v>6.0964567251378006E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>40908</v>
       </c>
@@ -2307,7 +2349,7 @@
         <v>-2.3209092001801618E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>40939</v>
       </c>
@@ -2342,7 +2384,7 @@
         <v>-3.4605896325788249E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>40968</v>
       </c>
@@ -2377,7 +2419,7 @@
         <v>7.9450426997486959E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>40999</v>
       </c>
@@ -2412,7 +2454,7 @@
         <v>-5.5813864967567597E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>41029</v>
       </c>
@@ -2447,7 +2489,7 @@
         <v>1.6667248420320629E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>41060</v>
       </c>
@@ -2482,7 +2524,7 @@
         <v>-1.67268490090864E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>41090</v>
       </c>
@@ -2517,7 +2559,7 @@
         <v>1.9792796777787802E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>41121</v>
       </c>
@@ -2552,7 +2594,7 @@
         <v>-3.0595817658450892E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>41152</v>
       </c>
@@ -2587,7 +2629,7 @@
         <v>3.4447734095568732E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>41182</v>
       </c>
@@ -2622,7 +2664,7 @@
         <v>-1.674955480465451E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>41213</v>
       </c>
@@ -2657,7 +2699,7 @@
         <v>8.7232317298933416E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>41243</v>
       </c>
@@ -2692,7 +2734,7 @@
         <v>3.9104342854936799E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>41274</v>
       </c>
@@ -2727,7 +2769,7 @@
         <v>7.5041239893324056E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>41305</v>
       </c>
@@ -2762,7 +2804,7 @@
         <v>-1.131302762246995E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>41333</v>
       </c>
@@ -2797,7 +2839,7 @@
         <v>2.72562384138131E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>41364</v>
       </c>
@@ -2832,7 +2874,7 @@
         <v>2.805426342431265E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>41394</v>
       </c>
@@ -2867,7 +2909,7 @@
         <v>-5.6941950828121989E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>41425</v>
       </c>
@@ -2902,7 +2944,7 @@
         <v>-6.4936663916470821E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>41455</v>
       </c>
@@ -2937,7 +2979,7 @@
         <v>2.143950049634232E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>41486</v>
       </c>
@@ -2972,7 +3014,7 @@
         <v>8.908573924192283E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>41517</v>
       </c>
@@ -3007,7 +3049,7 @@
         <v>3.6448201752590221E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>41547</v>
       </c>
@@ -3042,7 +3084,7 @@
         <v>-1.640038537643779E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>41578</v>
       </c>
@@ -3077,7 +3119,7 @@
         <v>7.7269214874543042E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>41608</v>
       </c>
@@ -3112,7 +3154,7 @@
         <v>2.3382894396408891E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>41639</v>
       </c>
@@ -3147,7 +3189,7 @@
         <v>2.5851055292125261E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>41670</v>
       </c>
@@ -3182,7 +3224,7 @@
         <v>-8.6561977460945815E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>41698</v>
       </c>
@@ -3217,7 +3259,7 @@
         <v>-8.584871306209405E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>41729</v>
       </c>
@@ -3252,7 +3294,7 @@
         <v>2.859825746251383E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>41759</v>
       </c>
@@ -3287,7 +3329,7 @@
         <v>-1.180516828097175E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>41790</v>
       </c>
@@ -3322,7 +3364,7 @@
         <v>-8.6308754095930286E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>41820</v>
       </c>
@@ -3357,7 +3399,7 @@
         <v>-1.691283801199904E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>41851</v>
       </c>
@@ -3392,7 +3434,7 @@
         <v>2.5585174755042412E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>41882</v>
       </c>
@@ -3427,7 +3469,7 @@
         <v>4.4070625588232609E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>41912</v>
       </c>
@@ -3462,7 +3504,7 @@
         <v>-3.1890471851218959E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>41943</v>
       </c>
@@ -3497,7 +3539,7 @@
         <v>3.4080299422896789E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>41973</v>
       </c>
@@ -3532,7 +3574,7 @@
         <v>1.4128753878679969E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>42004</v>
       </c>
@@ -3567,7 +3609,7 @@
         <v>2.749155680714278E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>42035</v>
       </c>
@@ -3602,7 +3644,7 @@
         <v>4.5246867348738588E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>42063</v>
       </c>
@@ -3637,7 +3679,7 @@
         <v>-3.604202205326141E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>42094</v>
       </c>
@@ -3672,7 +3714,7 @@
         <v>1.645091199826626E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>42124</v>
       </c>
@@ -3707,7 +3749,7 @@
         <v>-1.164483723715108E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>42155</v>
       </c>
@@ -3742,7 +3784,7 @@
         <v>-6.3048773202685707E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>42185</v>
       </c>
@@ -3777,7 +3819,7 @@
         <v>1.6035191851419129E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>42216</v>
       </c>
@@ -3812,7 +3854,7 @@
         <v>9.4901008859985328E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>42247</v>
       </c>
@@ -3847,7 +3889,7 @@
         <v>1.532026304697728E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>42277</v>
       </c>
@@ -3882,7 +3924,7 @@
         <v>-2.0569855947670541E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>42308</v>
       </c>
@@ -3917,7 +3959,7 @@
         <v>-1.556434585212629E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>42338</v>
       </c>
@@ -3952,7 +3994,7 @@
         <v>1.657814949123583E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>42369</v>
       </c>
@@ -3987,7 +4029,7 @@
         <v>-3.3036432834563901E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>42400</v>
       </c>
@@ -4022,7 +4064,7 @@
         <v>3.0382565817643902E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>42429</v>
       </c>
@@ -4057,7 +4099,7 @@
         <v>2.841324816901076E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>42460</v>
       </c>
@@ -4092,7 +4134,7 @@
         <v>-1.3895858548069889E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>42490</v>
       </c>
@@ -4127,7 +4169,7 @@
         <v>-6.3334676057508654E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>42521</v>
       </c>
@@ -4162,7 +4204,7 @@
         <v>-2.3727988711340041E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>42551</v>
       </c>
@@ -4197,7 +4239,7 @@
         <v>2.3141432243333998E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>42582</v>
       </c>
@@ -4232,7 +4274,7 @@
         <v>-3.4799351518891258E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>42613</v>
       </c>
@@ -4267,7 +4309,7 @@
         <v>2.5367286217119161E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>42643</v>
       </c>
@@ -4302,7 +4344,7 @@
         <v>-2.2437622613086278E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>42674</v>
       </c>
@@ -4337,7 +4379,7 @@
         <v>-6.2089157697984361E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>42704</v>
       </c>
@@ -4372,7 +4414,7 @@
         <v>3.233619601564357E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>42735</v>
       </c>
@@ -4407,7 +4449,7 @@
         <v>3.7226051110603582E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>42766</v>
       </c>
@@ -4442,7 +4484,7 @@
         <v>-3.7379668493976552E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>42794</v>
       </c>
@@ -4477,7 +4519,7 @@
         <v>2.7539679364615511E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>42825</v>
       </c>
@@ -4512,7 +4554,7 @@
         <v>-3.4145424255693549E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>42855</v>
       </c>
@@ -4547,7 +4589,7 @@
         <v>-2.8661039203060948E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>42886</v>
       </c>
@@ -4582,7 +4624,7 @@
         <v>7.2663305193933041E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>42916</v>
       </c>
@@ -4617,7 +4659,7 @@
         <v>4.1426181352242821E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>42947</v>
       </c>
@@ -4652,7 +4694,7 @@
         <v>-2.501449465013861E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>42978</v>
       </c>
@@ -4687,7 +4729,7 @@
         <v>-8.1356248591845336E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>43008</v>
       </c>
@@ -4722,7 +4764,7 @@
         <v>-1.833707549696115E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>43039</v>
       </c>
@@ -4757,7 +4799,7 @@
         <v>1.4876598367000559E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>43069</v>
       </c>
@@ -4792,7 +4834,7 @@
         <v>-1.308129156372225E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>43100</v>
       </c>
@@ -4827,7 +4869,7 @@
         <v>-4.1299772379888968E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>43131</v>
       </c>
@@ -4862,7 +4904,7 @@
         <v>3.3533584921750519E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>43159</v>
       </c>
@@ -4897,7 +4939,7 @@
         <v>-1.8869255579274671E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>43190</v>
       </c>
@@ -4932,7 +4974,7 @@
         <v>2.0695043559634321E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>43220</v>
       </c>
@@ -4967,7 +5009,7 @@
         <v>-3.1114726789988772E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>43251</v>
       </c>
@@ -5002,7 +5044,7 @@
         <v>-1.0946101403326719E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>43281</v>
       </c>
@@ -5037,7 +5079,7 @@
         <v>1.834490423260355E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>43312</v>
       </c>
@@ -5072,7 +5114,7 @@
         <v>-1.0151212909058631E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>43343</v>
       </c>
@@ -5107,7 +5149,7 @@
         <v>2.4734604568086047E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>43373</v>
       </c>
@@ -5142,7 +5184,7 @@
         <v>-3.6691293846101268E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>43404</v>
       </c>
@@ -5177,7 +5219,7 @@
         <v>8.0333265458002543E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>43434</v>
       </c>
@@ -5212,7 +5254,7 @@
         <v>-2.2348359363818509E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>43465</v>
       </c>
@@ -5247,7 +5289,7 @@
         <v>-1.719298506888352E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>43496</v>
       </c>
@@ -5282,7 +5324,7 @@
         <v>-4.992698933500692E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>43524</v>
       </c>
@@ -5317,7 +5359,7 @@
         <v>-1.101462525270439E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>43555</v>
       </c>
@@ -5352,7 +5394,7 @@
         <v>-2.068815918414024E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>43585</v>
       </c>
@@ -5387,7 +5429,7 @@
         <v>-1.5179835908423411E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>43616</v>
       </c>
@@ -5422,7 +5464,7 @@
         <v>-2.7055142878950299E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>43646</v>
       </c>
@@ -5457,7 +5499,7 @@
         <v>-8.0957293985768793E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>43677</v>
       </c>
@@ -5492,7 +5534,7 @@
         <v>-1.860662759613621E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>43708</v>
       </c>
@@ -5527,7 +5569,7 @@
         <v>3.9504669569636539E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>43738</v>
       </c>
@@ -5562,7 +5604,7 @@
         <v>-1.1081527343354629E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>43769</v>
       </c>
@@ -5597,7 +5639,7 @@
         <v>-6.3335560788889602E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>43799</v>
       </c>
@@ -5632,7 +5674,7 @@
         <v>1.023695613998849E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>43830</v>
       </c>
@@ -5667,7 +5709,7 @@
         <v>-5.7672659727408676E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>43861</v>
       </c>
@@ -5702,7 +5744,7 @@
         <v>2.1402942707927832E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>43890</v>
       </c>
@@ -5737,7 +5779,7 @@
         <v>1.9217028589371511E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>43921</v>
       </c>
@@ -5772,7 +5814,7 @@
         <v>0.1829041746126214</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>43951</v>
       </c>
@@ -5807,7 +5849,7 @@
         <v>3.1764936050750919E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>43982</v>
       </c>
@@ -5842,7 +5884,7 @@
         <v>-3.0365849831666932E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>44012</v>
       </c>
@@ -5877,7 +5919,7 @@
         <v>-2.2411829848977389E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>44043</v>
       </c>
@@ -5912,7 +5954,7 @@
         <v>2.874065867239429E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>44074</v>
       </c>
@@ -5947,7 +5989,7 @@
         <v>1.1680267329745289E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>44104</v>
       </c>
@@ -5982,7 +6024,7 @@
         <v>-1.8727608570160939E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>44135</v>
       </c>
@@ -6017,7 +6059,7 @@
         <v>6.2494121590154703E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>44165</v>
       </c>
@@ -6052,7 +6094,7 @@
         <v>-6.9678657296975838E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>44196</v>
       </c>
@@ -6087,7 +6129,7 @@
         <v>1.5480505848070091E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>44227</v>
       </c>
@@ -6122,7 +6164,7 @@
         <v>8.452647457644338E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>44255</v>
       </c>
@@ -6157,7 +6199,7 @@
         <v>7.0654473287747738E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>44286</v>
       </c>
@@ -6192,7 +6234,7 @@
         <v>-1.756902321119116E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>44316</v>
       </c>
@@ -6227,7 +6269,7 @@
         <v>-3.7517929327866031E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>44347</v>
       </c>
@@ -6262,7 +6304,7 @@
         <v>-3.703767172201488E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>44377</v>
       </c>
@@ -6297,7 +6339,7 @@
         <v>-2.7189043661982899E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>44408</v>
       </c>
@@ -6332,7 +6374,7 @@
         <v>-6.2473137748747416E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>44439</v>
       </c>
@@ -6367,7 +6409,7 @@
         <v>-1.7200810585236989E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>44469</v>
       </c>
@@ -6402,7 +6444,7 @@
         <v>-7.9844822412661028E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>44500</v>
       </c>
@@ -6437,7 +6479,7 @@
         <v>4.8163729119712617E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>44530</v>
       </c>
@@ -6472,7 +6514,7 @@
         <v>4.7593026182976101E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>44561</v>
       </c>
@@ -6507,7 +6549,7 @@
         <v>-1.0653788904784189E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>44592</v>
       </c>
@@ -6542,7 +6584,7 @@
         <v>-3.2577749146184588E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>44620</v>
       </c>
@@ -6577,7 +6619,7 @@
         <v>5.5448541098461358E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>44651</v>
       </c>
@@ -6612,7 +6654,7 @@
         <v>3.8762050244703942E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>44681</v>
       </c>
@@ -6647,7 +6689,7 @@
         <v>5.196057706260364E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>44712</v>
       </c>
@@ -6682,7 +6724,7 @@
         <v>-9.5741829972987996E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>44742</v>
       </c>
@@ -6717,7 +6759,7 @@
         <v>-2.775486380016685E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>44773</v>
       </c>
@@ -6752,7 +6794,7 @@
         <v>-7.3137186546532807E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>44804</v>
       </c>
@@ -6787,7 +6829,7 @@
         <v>2.7151314716447618E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>44834</v>
       </c>
@@ -6822,7 +6864,7 @@
         <v>9.6646150455747919E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>44865</v>
       </c>
@@ -6857,7 +6899,7 @@
         <v>-8.3327363879563739E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>44895</v>
       </c>
@@ -6892,109 +6934,166 @@
         <v>-3.0351825318290582E-3</v>
       </c>
     </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
+        <v>44926</v>
+      </c>
+      <c r="B181" s="2">
+        <v>-5.7614433926530761E-2</v>
+      </c>
+      <c r="C181" s="2">
+        <v>-3.7399491342599338E-2</v>
+      </c>
+      <c r="D181" s="2">
+        <v>-2.3351792821438839E-3</v>
+      </c>
+      <c r="E181" s="2">
+        <v>1.025335119134718E-2</v>
+      </c>
+      <c r="F181" s="2">
+        <v>4.2806378675856686E-3</v>
+      </c>
+      <c r="G181" s="2">
+        <v>-5.6157134847211188E-3</v>
+      </c>
+      <c r="H181" s="2">
+        <v>9.6832509497337682E-3</v>
+      </c>
+      <c r="I181" s="2">
+        <v>-3.4661679007794259E-3</v>
+      </c>
+      <c r="J181" s="2">
+        <v>-8.3080341627694038E-2</v>
+      </c>
+      <c r="K181" s="2">
+        <v>-2.294225919023719E-2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A172">
-    <cfRule type="notContainsBlanks" dxfId="31" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="45">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:K171">
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A174">
-    <cfRule type="notContainsBlanks" dxfId="27" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="41">
       <formula>LEN(TRIM(A173))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:K174">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="31">
       <formula>LEN(TRIM(A175))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:K175">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176:A177">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="23">
       <formula>LEN(TRIM(A176))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:K177">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="19">
       <formula>LEN(TRIM(A178))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:K178">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(A179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:K179">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="J180:K180">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:A181">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(A180))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B180:K180">
+  <conditionalFormatting sqref="B180:I181">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J181:K181">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D3ED0E-D150-41AC-BA9E-276662877A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22E18CB-06DD-47E8-98DD-64BB8331E286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Historical Returns" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="38">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -188,39 +203,6 @@
         <color rgb="FF9C0006"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -622,19 +604,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALM181"/>
+  <dimension ref="A1:ALM183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I184" sqref="I184"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G189" sqref="E187:G189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1001" width="21.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1001" width="21.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>39478</v>
       </c>
@@ -704,7 +686,7 @@
         <v>2.301616170161861E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>39507</v>
       </c>
@@ -739,7 +721,7 @@
         <v>8.1377879594981186E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>39538</v>
       </c>
@@ -774,7 +756,7 @@
         <v>-2.705482358026427E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>39568</v>
       </c>
@@ -809,7 +791,7 @@
         <v>-3.1632408376000461E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>39599</v>
       </c>
@@ -844,7 +826,7 @@
         <v>2.8979751623368818E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>39629</v>
       </c>
@@ -879,7 +861,7 @@
         <v>1.2339111268842811E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>39660</v>
       </c>
@@ -914,7 +896,7 @@
         <v>-7.7831613965044641E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>39691</v>
       </c>
@@ -949,7 +931,7 @@
         <v>4.1232206878433573E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>39721</v>
       </c>
@@ -984,7 +966,7 @@
         <v>2.393108553801469E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>39752</v>
       </c>
@@ -1019,7 +1001,7 @@
         <v>0.13226374017851431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>39782</v>
       </c>
@@ -1054,7 +1036,7 @@
         <v>7.0124526572961634E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>39813</v>
       </c>
@@ -1089,7 +1071,7 @@
         <v>-1.096039915408303E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>39844</v>
       </c>
@@ -1124,7 +1106,7 @@
         <v>9.5271907238639372E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>39872</v>
       </c>
@@ -1159,7 +1141,7 @@
         <v>4.7032283847880307E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>39903</v>
       </c>
@@ -1194,7 +1176,7 @@
         <v>4.8987226124730908E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>39933</v>
       </c>
@@ -1229,7 +1211,7 @@
         <v>-4.8802576813306367E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>39964</v>
       </c>
@@ -1264,7 +1246,7 @@
         <v>9.4917630625560127E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>39994</v>
       </c>
@@ -1299,7 +1281,7 @@
         <v>5.0320324945738416E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>40025</v>
       </c>
@@ -1334,7 +1316,7 @@
         <v>5.9566868067064153E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>40056</v>
       </c>
@@ -1369,7 +1351,7 @@
         <v>8.4232470945753857E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>40086</v>
       </c>
@@ -1404,7 +1386,7 @@
         <v>1.044922612747473E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>40117</v>
       </c>
@@ -1439,7 +1421,7 @@
         <v>8.1248584058996372E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>40147</v>
       </c>
@@ -1474,7 +1456,7 @@
         <v>1.472548159580891E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>40178</v>
       </c>
@@ -1509,7 +1491,7 @@
         <v>6.3822126601623197E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>40209</v>
       </c>
@@ -1544,7 +1526,7 @@
         <v>3.721180243789114E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>40237</v>
       </c>
@@ -1579,7 +1561,7 @@
         <v>-6.718915877587852E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>40268</v>
       </c>
@@ -1614,7 +1596,7 @@
         <v>-2.9189814534110012E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>40298</v>
       </c>
@@ -1649,7 +1631,7 @@
         <v>9.5612166063684199E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>40329</v>
       </c>
@@ -1684,7 +1666,7 @@
         <v>-4.7072268034837033E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>40359</v>
       </c>
@@ -1719,7 +1701,7 @@
         <v>8.3270408083089796E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>40390</v>
       </c>
@@ -1754,7 +1736,7 @@
         <v>-5.549777472881481E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>40421</v>
       </c>
@@ -1789,7 +1771,7 @@
         <v>6.696941903120604E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>40451</v>
       </c>
@@ -1824,7 +1806,7 @@
         <v>7.8657525486060653E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>40482</v>
       </c>
@@ -1859,7 +1841,7 @@
         <v>-5.2125212433108137E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>40512</v>
       </c>
@@ -1894,7 +1876,7 @@
         <v>7.2613602504065788E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>40543</v>
       </c>
@@ -1929,7 +1911,7 @@
         <v>2.983677940724622E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>40574</v>
       </c>
@@ -1964,7 +1946,7 @@
         <v>4.0933767395051578E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>40602</v>
       </c>
@@ -1999,7 +1981,7 @@
         <v>7.0435450286933203E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>40633</v>
       </c>
@@ -2034,7 +2016,7 @@
         <v>6.4334460465191113E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40663</v>
       </c>
@@ -2069,7 +2051,7 @@
         <v>2.659583695607219E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40694</v>
       </c>
@@ -2104,7 +2086,7 @@
         <v>2.7398884605424321E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>40724</v>
       </c>
@@ -2139,7 +2121,7 @@
         <v>1.6907821239101761E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>40755</v>
       </c>
@@ -2174,7 +2156,7 @@
         <v>2.663812612444165E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>40786</v>
       </c>
@@ -2209,7 +2191,7 @@
         <v>2.2486827652995641E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>40816</v>
       </c>
@@ -2244,7 +2226,7 @@
         <v>1.395080676023509E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>40847</v>
       </c>
@@ -2279,7 +2261,7 @@
         <v>-5.3220766941861368E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>40877</v>
       </c>
@@ -2314,7 +2296,7 @@
         <v>6.0964567251378006E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>40908</v>
       </c>
@@ -2349,7 +2331,7 @@
         <v>-2.3209092001801618E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>40939</v>
       </c>
@@ -2384,7 +2366,7 @@
         <v>-3.4605896325788249E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>40968</v>
       </c>
@@ -2419,7 +2401,7 @@
         <v>7.9450426997486959E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>40999</v>
       </c>
@@ -2454,7 +2436,7 @@
         <v>-5.5813864967567597E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>41029</v>
       </c>
@@ -2489,7 +2471,7 @@
         <v>1.6667248420320629E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>41060</v>
       </c>
@@ -2524,7 +2506,7 @@
         <v>-1.67268490090864E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>41090</v>
       </c>
@@ -2559,7 +2541,7 @@
         <v>1.9792796777787802E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>41121</v>
       </c>
@@ -2594,7 +2576,7 @@
         <v>-3.0595817658450892E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>41152</v>
       </c>
@@ -2629,7 +2611,7 @@
         <v>3.4447734095568732E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>41182</v>
       </c>
@@ -2664,7 +2646,7 @@
         <v>-1.674955480465451E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>41213</v>
       </c>
@@ -2699,7 +2681,7 @@
         <v>8.7232317298933416E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>41243</v>
       </c>
@@ -2734,7 +2716,7 @@
         <v>3.9104342854936799E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>41274</v>
       </c>
@@ -2769,7 +2751,7 @@
         <v>7.5041239893324056E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>41305</v>
       </c>
@@ -2804,7 +2786,7 @@
         <v>-1.131302762246995E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41333</v>
       </c>
@@ -2839,7 +2821,7 @@
         <v>2.72562384138131E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>41364</v>
       </c>
@@ -2874,7 +2856,7 @@
         <v>2.805426342431265E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>41394</v>
       </c>
@@ -2909,7 +2891,7 @@
         <v>-5.6941950828121989E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>41425</v>
       </c>
@@ -2944,7 +2926,7 @@
         <v>-6.4936663916470821E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>41455</v>
       </c>
@@ -2979,7 +2961,7 @@
         <v>2.143950049634232E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>41486</v>
       </c>
@@ -3014,7 +2996,7 @@
         <v>8.908573924192283E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>41517</v>
       </c>
@@ -3049,7 +3031,7 @@
         <v>3.6448201752590221E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>41547</v>
       </c>
@@ -3084,7 +3066,7 @@
         <v>-1.640038537643779E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>41578</v>
       </c>
@@ -3119,7 +3101,7 @@
         <v>7.7269214874543042E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>41608</v>
       </c>
@@ -3154,7 +3136,7 @@
         <v>2.3382894396408891E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>41639</v>
       </c>
@@ -3189,7 +3171,7 @@
         <v>2.5851055292125261E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>41670</v>
       </c>
@@ -3224,7 +3206,7 @@
         <v>-8.6561977460945815E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>41698</v>
       </c>
@@ -3259,7 +3241,7 @@
         <v>-8.584871306209405E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>41729</v>
       </c>
@@ -3294,7 +3276,7 @@
         <v>2.859825746251383E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>41759</v>
       </c>
@@ -3329,7 +3311,7 @@
         <v>-1.180516828097175E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>41790</v>
       </c>
@@ -3364,7 +3346,7 @@
         <v>-8.6308754095930286E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>41820</v>
       </c>
@@ -3399,7 +3381,7 @@
         <v>-1.691283801199904E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>41851</v>
       </c>
@@ -3434,7 +3416,7 @@
         <v>2.5585174755042412E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>41882</v>
       </c>
@@ -3469,7 +3451,7 @@
         <v>4.4070625588232609E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>41912</v>
       </c>
@@ -3504,7 +3486,7 @@
         <v>-3.1890471851218959E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>41943</v>
       </c>
@@ -3539,7 +3521,7 @@
         <v>3.4080299422896789E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>41973</v>
       </c>
@@ -3574,7 +3556,7 @@
         <v>1.4128753878679969E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>42004</v>
       </c>
@@ -3609,7 +3591,7 @@
         <v>2.749155680714278E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>42035</v>
       </c>
@@ -3644,7 +3626,7 @@
         <v>4.5246867348738588E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>42063</v>
       </c>
@@ -3679,7 +3661,7 @@
         <v>-3.604202205326141E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>42094</v>
       </c>
@@ -3714,7 +3696,7 @@
         <v>1.645091199826626E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>42124</v>
       </c>
@@ -3749,7 +3731,7 @@
         <v>-1.164483723715108E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>42155</v>
       </c>
@@ -3784,7 +3766,7 @@
         <v>-6.3048773202685707E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>42185</v>
       </c>
@@ -3819,7 +3801,7 @@
         <v>1.6035191851419129E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>42216</v>
       </c>
@@ -3854,7 +3836,7 @@
         <v>9.4901008859985328E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>42247</v>
       </c>
@@ -3889,7 +3871,7 @@
         <v>1.532026304697728E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>42277</v>
       </c>
@@ -3924,7 +3906,7 @@
         <v>-2.0569855947670541E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>42308</v>
       </c>
@@ -3959,7 +3941,7 @@
         <v>-1.556434585212629E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>42338</v>
       </c>
@@ -3994,7 +3976,7 @@
         <v>1.657814949123583E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>42369</v>
       </c>
@@ -4029,7 +4011,7 @@
         <v>-3.3036432834563901E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>42400</v>
       </c>
@@ -4064,7 +4046,7 @@
         <v>3.0382565817643902E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>42429</v>
       </c>
@@ -4099,7 +4081,7 @@
         <v>2.841324816901076E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>42460</v>
       </c>
@@ -4134,7 +4116,7 @@
         <v>-1.3895858548069889E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>42490</v>
       </c>
@@ -4169,7 +4151,7 @@
         <v>-6.3334676057508654E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>42521</v>
       </c>
@@ -4204,7 +4186,7 @@
         <v>-2.3727988711340041E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>42551</v>
       </c>
@@ -4239,7 +4221,7 @@
         <v>2.3141432243333998E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>42582</v>
       </c>
@@ -4274,7 +4256,7 @@
         <v>-3.4799351518891258E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>42613</v>
       </c>
@@ -4309,7 +4291,7 @@
         <v>2.5367286217119161E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>42643</v>
       </c>
@@ -4344,7 +4326,7 @@
         <v>-2.2437622613086278E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>42674</v>
       </c>
@@ -4379,7 +4361,7 @@
         <v>-6.2089157697984361E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>42704</v>
       </c>
@@ -4414,7 +4396,7 @@
         <v>3.233619601564357E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>42735</v>
       </c>
@@ -4449,7 +4431,7 @@
         <v>3.7226051110603582E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>42766</v>
       </c>
@@ -4484,7 +4466,7 @@
         <v>-3.7379668493976552E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>42794</v>
       </c>
@@ -4519,7 +4501,7 @@
         <v>2.7539679364615511E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>42825</v>
       </c>
@@ -4554,7 +4536,7 @@
         <v>-3.4145424255693549E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>42855</v>
       </c>
@@ -4589,7 +4571,7 @@
         <v>-2.8661039203060948E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>42886</v>
       </c>
@@ -4624,7 +4606,7 @@
         <v>7.2663305193933041E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>42916</v>
       </c>
@@ -4659,7 +4641,7 @@
         <v>4.1426181352242821E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>42947</v>
       </c>
@@ -4694,7 +4676,7 @@
         <v>-2.501449465013861E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>42978</v>
       </c>
@@ -4729,7 +4711,7 @@
         <v>-8.1356248591845336E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>43008</v>
       </c>
@@ -4764,7 +4746,7 @@
         <v>-1.833707549696115E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>43039</v>
       </c>
@@ -4799,7 +4781,7 @@
         <v>1.4876598367000559E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>43069</v>
       </c>
@@ -4834,7 +4816,7 @@
         <v>-1.308129156372225E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>43100</v>
       </c>
@@ -4869,7 +4851,7 @@
         <v>-4.1299772379888968E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43131</v>
       </c>
@@ -4904,7 +4886,7 @@
         <v>3.3533584921750519E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>43159</v>
       </c>
@@ -4939,7 +4921,7 @@
         <v>-1.8869255579274671E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43190</v>
       </c>
@@ -4974,7 +4956,7 @@
         <v>2.0695043559634321E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>43220</v>
       </c>
@@ -5009,7 +4991,7 @@
         <v>-3.1114726789988772E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43251</v>
       </c>
@@ -5044,7 +5026,7 @@
         <v>-1.0946101403326719E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43281</v>
       </c>
@@ -5079,7 +5061,7 @@
         <v>1.834490423260355E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>43312</v>
       </c>
@@ -5114,7 +5096,7 @@
         <v>-1.0151212909058631E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>43343</v>
       </c>
@@ -5149,7 +5131,7 @@
         <v>2.4734604568086047E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43373</v>
       </c>
@@ -5184,7 +5166,7 @@
         <v>-3.6691293846101268E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>43404</v>
       </c>
@@ -5219,7 +5201,7 @@
         <v>8.0333265458002543E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>43434</v>
       </c>
@@ -5254,7 +5236,7 @@
         <v>-2.2348359363818509E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>43465</v>
       </c>
@@ -5289,7 +5271,7 @@
         <v>-1.719298506888352E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>43496</v>
       </c>
@@ -5324,7 +5306,7 @@
         <v>-4.992698933500692E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>43524</v>
       </c>
@@ -5359,7 +5341,7 @@
         <v>-1.101462525270439E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>43555</v>
       </c>
@@ -5394,7 +5376,7 @@
         <v>-2.068815918414024E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>43585</v>
       </c>
@@ -5429,7 +5411,7 @@
         <v>-1.5179835908423411E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>43616</v>
       </c>
@@ -5464,7 +5446,7 @@
         <v>-2.7055142878950299E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>43646</v>
       </c>
@@ -5499,7 +5481,7 @@
         <v>-8.0957293985768793E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>43677</v>
       </c>
@@ -5534,7 +5516,7 @@
         <v>-1.860662759613621E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>43708</v>
       </c>
@@ -5569,7 +5551,7 @@
         <v>3.9504669569636539E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43738</v>
       </c>
@@ -5604,7 +5586,7 @@
         <v>-1.1081527343354629E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>43769</v>
       </c>
@@ -5639,7 +5621,7 @@
         <v>-6.3335560788889602E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>43799</v>
       </c>
@@ -5674,7 +5656,7 @@
         <v>1.023695613998849E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>43830</v>
       </c>
@@ -5709,7 +5691,7 @@
         <v>-5.7672659727408676E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>43861</v>
       </c>
@@ -5744,7 +5726,7 @@
         <v>2.1402942707927832E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>43890</v>
       </c>
@@ -5779,7 +5761,7 @@
         <v>1.9217028589371511E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>43921</v>
       </c>
@@ -5814,7 +5796,7 @@
         <v>0.1829041746126214</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>43951</v>
       </c>
@@ -5849,7 +5831,7 @@
         <v>3.1764936050750919E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>43982</v>
       </c>
@@ -5884,7 +5866,7 @@
         <v>-3.0365849831666932E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>44012</v>
       </c>
@@ -5919,7 +5901,7 @@
         <v>-2.2411829848977389E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>44043</v>
       </c>
@@ -5954,7 +5936,7 @@
         <v>2.874065867239429E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>44074</v>
       </c>
@@ -5989,7 +5971,7 @@
         <v>1.1680267329745289E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>44104</v>
       </c>
@@ -6024,7 +6006,7 @@
         <v>-1.8727608570160939E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>44135</v>
       </c>
@@ -6059,7 +6041,7 @@
         <v>6.2494121590154703E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>44165</v>
       </c>
@@ -6094,7 +6076,7 @@
         <v>-6.9678657296975838E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>44196</v>
       </c>
@@ -6129,7 +6111,7 @@
         <v>1.5480505848070091E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>44227</v>
       </c>
@@ -6164,7 +6146,7 @@
         <v>8.452647457644338E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>44255</v>
       </c>
@@ -6199,7 +6181,7 @@
         <v>7.0654473287747738E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>44286</v>
       </c>
@@ -6234,7 +6216,7 @@
         <v>-1.756902321119116E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>44316</v>
       </c>
@@ -6269,7 +6251,7 @@
         <v>-3.7517929327866031E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>44347</v>
       </c>
@@ -6304,7 +6286,7 @@
         <v>-3.703767172201488E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>44377</v>
       </c>
@@ -6339,7 +6321,7 @@
         <v>-2.7189043661982899E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>44408</v>
       </c>
@@ -6374,7 +6356,7 @@
         <v>-6.2473137748747416E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>44439</v>
       </c>
@@ -6409,7 +6391,7 @@
         <v>-1.7200810585236989E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>44469</v>
       </c>
@@ -6444,7 +6426,7 @@
         <v>-7.9844822412661028E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>44500</v>
       </c>
@@ -6479,7 +6461,7 @@
         <v>4.8163729119712617E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>44530</v>
       </c>
@@ -6514,7 +6496,7 @@
         <v>4.7593026182976101E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>44561</v>
       </c>
@@ -6549,7 +6531,7 @@
         <v>-1.0653788904784189E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>44592</v>
       </c>
@@ -6584,7 +6566,7 @@
         <v>-3.2577749146184588E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>44620</v>
       </c>
@@ -6619,7 +6601,7 @@
         <v>5.5448541098461358E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>44651</v>
       </c>
@@ -6654,7 +6636,7 @@
         <v>3.8762050244703942E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>44681</v>
       </c>
@@ -6689,7 +6671,7 @@
         <v>5.196057706260364E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>44712</v>
       </c>
@@ -6724,7 +6706,7 @@
         <v>-9.5741829972987996E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>44742</v>
       </c>
@@ -6759,7 +6741,7 @@
         <v>-2.775486380016685E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>44773</v>
       </c>
@@ -6794,7 +6776,7 @@
         <v>-7.3137186546532807E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>44804</v>
       </c>
@@ -6829,7 +6811,7 @@
         <v>2.7151314716447618E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>44834</v>
       </c>
@@ -6864,7 +6846,7 @@
         <v>9.6646150455747919E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>44865</v>
       </c>
@@ -6899,7 +6881,7 @@
         <v>-8.3327363879563739E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>44895</v>
       </c>
@@ -6934,7 +6916,7 @@
         <v>-3.0351825318290582E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>44926</v>
       </c>
@@ -6969,131 +6951,217 @@
         <v>-2.294225919023719E-2</v>
       </c>
     </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B182" s="2">
+        <v>6.2833905660061307E-2</v>
+      </c>
+      <c r="C182" s="2">
+        <v>-6.0162564282174591E-3</v>
+      </c>
+      <c r="D182" s="2">
+        <v>-2.4888674701850628E-3</v>
+      </c>
+      <c r="E182" s="2">
+        <v>-1.5975935828877019E-2</v>
+      </c>
+      <c r="F182" s="2">
+        <v>-5.6149572444436191E-2</v>
+      </c>
+      <c r="G182" s="2">
+        <v>-8.4931675814735597E-3</v>
+      </c>
+      <c r="H182" s="2">
+        <v>-1.477835195880728E-2</v>
+      </c>
+      <c r="I182" s="2">
+        <v>-3.026048914466973E-3</v>
+      </c>
+      <c r="J182" s="2">
+        <v>5.5581166784737228E-2</v>
+      </c>
+      <c r="K182" s="2">
+        <v>-1.5665915970699981E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B183" s="2">
+        <v>-2.439898489141246E-2</v>
+      </c>
+      <c r="C183" s="2">
+        <v>-1.816186345628967E-2</v>
+      </c>
+      <c r="D183" s="2">
+        <v>-2.7535316602012761E-3</v>
+      </c>
+      <c r="E183" s="2">
+        <v>6.6000866109640483E-3</v>
+      </c>
+      <c r="F183" s="2">
+        <v>3.6432278688274158E-2</v>
+      </c>
+      <c r="G183" s="2">
+        <v>2.8722798318803022E-3</v>
+      </c>
+      <c r="H183" s="2">
+        <v>-9.5362900624629265E-4</v>
+      </c>
+      <c r="I183" s="2">
+        <v>5.2717844166921589E-3</v>
+      </c>
+      <c r="J183" s="2">
+        <v>-2.1877791116839941E-2</v>
+      </c>
+      <c r="K183" s="2">
+        <v>5.4457785530766332E-3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A172">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="49">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:K171">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A174">
-    <cfRule type="notContainsBlanks" dxfId="38" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="45">
       <formula>LEN(TRIM(A173))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:K174">
-    <cfRule type="cellIs" dxfId="37" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175">
-    <cfRule type="notContainsBlanks" dxfId="34" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="35">
       <formula>LEN(TRIM(A175))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:K175">
-    <cfRule type="cellIs" dxfId="33" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176:A177">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(A176))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:K177">
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="23">
       <formula>LEN(TRIM(A178))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:K178">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="notContainsBlanks" dxfId="22" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="19">
       <formula>LEN(TRIM(A179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:K179">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J180:K180">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:A181">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
       <formula>LEN(TRIM(A180))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180:I181">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J181:K181">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:A183">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A182))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B182:K183">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22E18CB-06DD-47E8-98DD-64BB8331E286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA77108-9A0D-4005-9E52-C4A4BDC8DAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="-57710" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Historical Returns" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -149,7 +155,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="42">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -604,19 +625,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALM183"/>
+  <dimension ref="A1:ALM184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G189" sqref="E187:G189"/>
+      <selection pane="bottomLeft" activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1001" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1001" width="21.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>39478</v>
       </c>
@@ -686,7 +707,7 @@
         <v>2.301616170161861E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>39507</v>
       </c>
@@ -721,7 +742,7 @@
         <v>8.1377879594981186E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>39538</v>
       </c>
@@ -756,7 +777,7 @@
         <v>-2.705482358026427E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>39568</v>
       </c>
@@ -791,7 +812,7 @@
         <v>-3.1632408376000461E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>39599</v>
       </c>
@@ -826,7 +847,7 @@
         <v>2.8979751623368818E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>39629</v>
       </c>
@@ -861,7 +882,7 @@
         <v>1.2339111268842811E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>39660</v>
       </c>
@@ -896,7 +917,7 @@
         <v>-7.7831613965044641E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>39691</v>
       </c>
@@ -931,7 +952,7 @@
         <v>4.1232206878433573E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>39721</v>
       </c>
@@ -966,7 +987,7 @@
         <v>2.393108553801469E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>39752</v>
       </c>
@@ -1001,7 +1022,7 @@
         <v>0.13226374017851431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>39782</v>
       </c>
@@ -1036,7 +1057,7 @@
         <v>7.0124526572961634E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>39813</v>
       </c>
@@ -1071,7 +1092,7 @@
         <v>-1.096039915408303E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>39844</v>
       </c>
@@ -1106,7 +1127,7 @@
         <v>9.5271907238639372E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>39872</v>
       </c>
@@ -1141,7 +1162,7 @@
         <v>4.7032283847880307E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>39903</v>
       </c>
@@ -1176,7 +1197,7 @@
         <v>4.8987226124730908E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>39933</v>
       </c>
@@ -1211,7 +1232,7 @@
         <v>-4.8802576813306367E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>39964</v>
       </c>
@@ -1246,7 +1267,7 @@
         <v>9.4917630625560127E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>39994</v>
       </c>
@@ -1281,7 +1302,7 @@
         <v>5.0320324945738416E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>40025</v>
       </c>
@@ -1316,7 +1337,7 @@
         <v>5.9566868067064153E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>40056</v>
       </c>
@@ -1351,7 +1372,7 @@
         <v>8.4232470945753857E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>40086</v>
       </c>
@@ -1386,7 +1407,7 @@
         <v>1.044922612747473E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>40117</v>
       </c>
@@ -1421,7 +1442,7 @@
         <v>8.1248584058996372E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>40147</v>
       </c>
@@ -1456,7 +1477,7 @@
         <v>1.472548159580891E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>40178</v>
       </c>
@@ -1491,7 +1512,7 @@
         <v>6.3822126601623197E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>40209</v>
       </c>
@@ -1526,7 +1547,7 @@
         <v>3.721180243789114E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>40237</v>
       </c>
@@ -1561,7 +1582,7 @@
         <v>-6.718915877587852E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>40268</v>
       </c>
@@ -1596,7 +1617,7 @@
         <v>-2.9189814534110012E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>40298</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>9.5612166063684199E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>40329</v>
       </c>
@@ -1666,7 +1687,7 @@
         <v>-4.7072268034837033E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>40359</v>
       </c>
@@ -1701,7 +1722,7 @@
         <v>8.3270408083089796E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>40390</v>
       </c>
@@ -1736,7 +1757,7 @@
         <v>-5.549777472881481E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>40421</v>
       </c>
@@ -1771,7 +1792,7 @@
         <v>6.696941903120604E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>40451</v>
       </c>
@@ -1806,7 +1827,7 @@
         <v>7.8657525486060653E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>40482</v>
       </c>
@@ -1841,7 +1862,7 @@
         <v>-5.2125212433108137E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>40512</v>
       </c>
@@ -1876,7 +1897,7 @@
         <v>7.2613602504065788E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>40543</v>
       </c>
@@ -1911,7 +1932,7 @@
         <v>2.983677940724622E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>40574</v>
       </c>
@@ -1946,7 +1967,7 @@
         <v>4.0933767395051578E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>40602</v>
       </c>
@@ -1981,7 +2002,7 @@
         <v>7.0435450286933203E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>40633</v>
       </c>
@@ -2016,7 +2037,7 @@
         <v>6.4334460465191113E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40663</v>
       </c>
@@ -2051,7 +2072,7 @@
         <v>2.659583695607219E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>40694</v>
       </c>
@@ -2086,7 +2107,7 @@
         <v>2.7398884605424321E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>40724</v>
       </c>
@@ -2121,7 +2142,7 @@
         <v>1.6907821239101761E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>40755</v>
       </c>
@@ -2156,7 +2177,7 @@
         <v>2.663812612444165E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>40786</v>
       </c>
@@ -2191,7 +2212,7 @@
         <v>2.2486827652995641E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>40816</v>
       </c>
@@ -2226,7 +2247,7 @@
         <v>1.395080676023509E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>40847</v>
       </c>
@@ -2261,7 +2282,7 @@
         <v>-5.3220766941861368E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>40877</v>
       </c>
@@ -2296,7 +2317,7 @@
         <v>6.0964567251378006E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>40908</v>
       </c>
@@ -2331,7 +2352,7 @@
         <v>-2.3209092001801618E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>40939</v>
       </c>
@@ -2366,7 +2387,7 @@
         <v>-3.4605896325788249E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>40968</v>
       </c>
@@ -2401,7 +2422,7 @@
         <v>7.9450426997486959E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>40999</v>
       </c>
@@ -2436,7 +2457,7 @@
         <v>-5.5813864967567597E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>41029</v>
       </c>
@@ -2471,7 +2492,7 @@
         <v>1.6667248420320629E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>41060</v>
       </c>
@@ -2506,7 +2527,7 @@
         <v>-1.67268490090864E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>41090</v>
       </c>
@@ -2541,7 +2562,7 @@
         <v>1.9792796777787802E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>41121</v>
       </c>
@@ -2576,7 +2597,7 @@
         <v>-3.0595817658450892E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>41152</v>
       </c>
@@ -2611,7 +2632,7 @@
         <v>3.4447734095568732E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>41182</v>
       </c>
@@ -2646,7 +2667,7 @@
         <v>-1.674955480465451E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>41213</v>
       </c>
@@ -2681,7 +2702,7 @@
         <v>8.7232317298933416E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>41243</v>
       </c>
@@ -2716,7 +2737,7 @@
         <v>3.9104342854936799E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>41274</v>
       </c>
@@ -2751,7 +2772,7 @@
         <v>7.5041239893324056E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>41305</v>
       </c>
@@ -2786,7 +2807,7 @@
         <v>-1.131302762246995E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>41333</v>
       </c>
@@ -2821,7 +2842,7 @@
         <v>2.72562384138131E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>41364</v>
       </c>
@@ -2856,7 +2877,7 @@
         <v>2.805426342431265E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>41394</v>
       </c>
@@ -2891,7 +2912,7 @@
         <v>-5.6941950828121989E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>41425</v>
       </c>
@@ -2926,7 +2947,7 @@
         <v>-6.4936663916470821E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>41455</v>
       </c>
@@ -2961,7 +2982,7 @@
         <v>2.143950049634232E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>41486</v>
       </c>
@@ -2996,7 +3017,7 @@
         <v>8.908573924192283E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>41517</v>
       </c>
@@ -3031,7 +3052,7 @@
         <v>3.6448201752590221E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>41547</v>
       </c>
@@ -3066,7 +3087,7 @@
         <v>-1.640038537643779E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>41578</v>
       </c>
@@ -3101,7 +3122,7 @@
         <v>7.7269214874543042E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>41608</v>
       </c>
@@ -3136,7 +3157,7 @@
         <v>2.3382894396408891E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>41639</v>
       </c>
@@ -3171,7 +3192,7 @@
         <v>2.5851055292125261E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>41670</v>
       </c>
@@ -3206,7 +3227,7 @@
         <v>-8.6561977460945815E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>41698</v>
       </c>
@@ -3241,7 +3262,7 @@
         <v>-8.584871306209405E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>41729</v>
       </c>
@@ -3276,7 +3297,7 @@
         <v>2.859825746251383E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>41759</v>
       </c>
@@ -3311,7 +3332,7 @@
         <v>-1.180516828097175E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>41790</v>
       </c>
@@ -3346,7 +3367,7 @@
         <v>-8.6308754095930286E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>41820</v>
       </c>
@@ -3381,7 +3402,7 @@
         <v>-1.691283801199904E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>41851</v>
       </c>
@@ -3416,7 +3437,7 @@
         <v>2.5585174755042412E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>41882</v>
       </c>
@@ -3451,7 +3472,7 @@
         <v>4.4070625588232609E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>41912</v>
       </c>
@@ -3486,7 +3507,7 @@
         <v>-3.1890471851218959E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>41943</v>
       </c>
@@ -3521,7 +3542,7 @@
         <v>3.4080299422896789E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>41973</v>
       </c>
@@ -3556,7 +3577,7 @@
         <v>1.4128753878679969E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>42004</v>
       </c>
@@ -3591,7 +3612,7 @@
         <v>2.749155680714278E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>42035</v>
       </c>
@@ -3626,7 +3647,7 @@
         <v>4.5246867348738588E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>42063</v>
       </c>
@@ -3661,7 +3682,7 @@
         <v>-3.604202205326141E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>42094</v>
       </c>
@@ -3696,7 +3717,7 @@
         <v>1.645091199826626E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>42124</v>
       </c>
@@ -3731,7 +3752,7 @@
         <v>-1.164483723715108E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>42155</v>
       </c>
@@ -3766,7 +3787,7 @@
         <v>-6.3048773202685707E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>42185</v>
       </c>
@@ -3801,7 +3822,7 @@
         <v>1.6035191851419129E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>42216</v>
       </c>
@@ -3836,7 +3857,7 @@
         <v>9.4901008859985328E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>42247</v>
       </c>
@@ -3871,7 +3892,7 @@
         <v>1.532026304697728E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>42277</v>
       </c>
@@ -3906,7 +3927,7 @@
         <v>-2.0569855947670541E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>42308</v>
       </c>
@@ -3941,7 +3962,7 @@
         <v>-1.556434585212629E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>42338</v>
       </c>
@@ -3976,7 +3997,7 @@
         <v>1.657814949123583E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>42369</v>
       </c>
@@ -4011,7 +4032,7 @@
         <v>-3.3036432834563901E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>42400</v>
       </c>
@@ -4046,7 +4067,7 @@
         <v>3.0382565817643902E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>42429</v>
       </c>
@@ -4081,7 +4102,7 @@
         <v>2.841324816901076E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>42460</v>
       </c>
@@ -4116,7 +4137,7 @@
         <v>-1.3895858548069889E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>42490</v>
       </c>
@@ -4151,7 +4172,7 @@
         <v>-6.3334676057508654E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>42521</v>
       </c>
@@ -4186,7 +4207,7 @@
         <v>-2.3727988711340041E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>42551</v>
       </c>
@@ -4221,7 +4242,7 @@
         <v>2.3141432243333998E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>42582</v>
       </c>
@@ -4256,7 +4277,7 @@
         <v>-3.4799351518891258E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>42613</v>
       </c>
@@ -4291,7 +4312,7 @@
         <v>2.5367286217119161E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>42643</v>
       </c>
@@ -4326,7 +4347,7 @@
         <v>-2.2437622613086278E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>42674</v>
       </c>
@@ -4361,7 +4382,7 @@
         <v>-6.2089157697984361E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>42704</v>
       </c>
@@ -4396,7 +4417,7 @@
         <v>3.233619601564357E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>42735</v>
       </c>
@@ -4431,7 +4452,7 @@
         <v>3.7226051110603582E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>42766</v>
       </c>
@@ -4466,7 +4487,7 @@
         <v>-3.7379668493976552E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>42794</v>
       </c>
@@ -4501,7 +4522,7 @@
         <v>2.7539679364615511E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>42825</v>
       </c>
@@ -4536,7 +4557,7 @@
         <v>-3.4145424255693549E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>42855</v>
       </c>
@@ -4571,7 +4592,7 @@
         <v>-2.8661039203060948E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>42886</v>
       </c>
@@ -4606,7 +4627,7 @@
         <v>7.2663305193933041E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>42916</v>
       </c>
@@ -4641,7 +4662,7 @@
         <v>4.1426181352242821E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>42947</v>
       </c>
@@ -4676,7 +4697,7 @@
         <v>-2.501449465013861E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>42978</v>
       </c>
@@ -4711,7 +4732,7 @@
         <v>-8.1356248591845336E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>43008</v>
       </c>
@@ -4746,7 +4767,7 @@
         <v>-1.833707549696115E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>43039</v>
       </c>
@@ -4781,7 +4802,7 @@
         <v>1.4876598367000559E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>43069</v>
       </c>
@@ -4816,7 +4837,7 @@
         <v>-1.308129156372225E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>43100</v>
       </c>
@@ -4851,7 +4872,7 @@
         <v>-4.1299772379888968E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>43131</v>
       </c>
@@ -4886,7 +4907,7 @@
         <v>3.3533584921750519E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>43159</v>
       </c>
@@ -4921,7 +4942,7 @@
         <v>-1.8869255579274671E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>43190</v>
       </c>
@@ -4956,7 +4977,7 @@
         <v>2.0695043559634321E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>43220</v>
       </c>
@@ -4991,7 +5012,7 @@
         <v>-3.1114726789988772E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>43251</v>
       </c>
@@ -5026,7 +5047,7 @@
         <v>-1.0946101403326719E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>43281</v>
       </c>
@@ -5061,7 +5082,7 @@
         <v>1.834490423260355E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>43312</v>
       </c>
@@ -5096,7 +5117,7 @@
         <v>-1.0151212909058631E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>43343</v>
       </c>
@@ -5131,7 +5152,7 @@
         <v>2.4734604568086047E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>43373</v>
       </c>
@@ -5166,7 +5187,7 @@
         <v>-3.6691293846101268E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>43404</v>
       </c>
@@ -5201,7 +5222,7 @@
         <v>8.0333265458002543E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>43434</v>
       </c>
@@ -5236,7 +5257,7 @@
         <v>-2.2348359363818509E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>43465</v>
       </c>
@@ -5271,7 +5292,7 @@
         <v>-1.719298506888352E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>43496</v>
       </c>
@@ -5306,7 +5327,7 @@
         <v>-4.992698933500692E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>43524</v>
       </c>
@@ -5341,7 +5362,7 @@
         <v>-1.101462525270439E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>43555</v>
       </c>
@@ -5376,7 +5397,7 @@
         <v>-2.068815918414024E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>43585</v>
       </c>
@@ -5411,7 +5432,7 @@
         <v>-1.5179835908423411E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>43616</v>
       </c>
@@ -5446,7 +5467,7 @@
         <v>-2.7055142878950299E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>43646</v>
       </c>
@@ -5481,7 +5502,7 @@
         <v>-8.0957293985768793E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>43677</v>
       </c>
@@ -5516,7 +5537,7 @@
         <v>-1.860662759613621E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>43708</v>
       </c>
@@ -5551,7 +5572,7 @@
         <v>3.9504669569636539E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>43738</v>
       </c>
@@ -5586,7 +5607,7 @@
         <v>-1.1081527343354629E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>43769</v>
       </c>
@@ -5621,7 +5642,7 @@
         <v>-6.3335560788889602E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>43799</v>
       </c>
@@ -5656,7 +5677,7 @@
         <v>1.023695613998849E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>43830</v>
       </c>
@@ -5691,7 +5712,7 @@
         <v>-5.7672659727408676E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>43861</v>
       </c>
@@ -5726,7 +5747,7 @@
         <v>2.1402942707927832E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>43890</v>
       </c>
@@ -5761,7 +5782,7 @@
         <v>1.9217028589371511E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>43921</v>
       </c>
@@ -5796,7 +5817,7 @@
         <v>0.1829041746126214</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>43951</v>
       </c>
@@ -5831,7 +5852,7 @@
         <v>3.1764936050750919E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>43982</v>
       </c>
@@ -5866,7 +5887,7 @@
         <v>-3.0365849831666932E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>44012</v>
       </c>
@@ -5901,7 +5922,7 @@
         <v>-2.2411829848977389E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>44043</v>
       </c>
@@ -5936,7 +5957,7 @@
         <v>2.874065867239429E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>44074</v>
       </c>
@@ -5971,7 +5992,7 @@
         <v>1.1680267329745289E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>44104</v>
       </c>
@@ -6006,7 +6027,7 @@
         <v>-1.8727608570160939E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>44135</v>
       </c>
@@ -6041,7 +6062,7 @@
         <v>6.2494121590154703E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>44165</v>
       </c>
@@ -6076,7 +6097,7 @@
         <v>-6.9678657296975838E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>44196</v>
       </c>
@@ -6111,7 +6132,7 @@
         <v>1.5480505848070091E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>44227</v>
       </c>
@@ -6146,7 +6167,7 @@
         <v>8.452647457644338E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>44255</v>
       </c>
@@ -6181,7 +6202,7 @@
         <v>7.0654473287747738E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>44286</v>
       </c>
@@ -6216,7 +6237,7 @@
         <v>-1.756902321119116E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>44316</v>
       </c>
@@ -6251,7 +6272,7 @@
         <v>-3.7517929327866031E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>44347</v>
       </c>
@@ -6286,7 +6307,7 @@
         <v>-3.703767172201488E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>44377</v>
       </c>
@@ -6321,7 +6342,7 @@
         <v>-2.7189043661982899E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>44408</v>
       </c>
@@ -6356,7 +6377,7 @@
         <v>-6.2473137748747416E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>44439</v>
       </c>
@@ -6391,7 +6412,7 @@
         <v>-1.7200810585236989E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>44469</v>
       </c>
@@ -6426,7 +6447,7 @@
         <v>-7.9844822412661028E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>44500</v>
       </c>
@@ -6461,7 +6482,7 @@
         <v>4.8163729119712617E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>44530</v>
       </c>
@@ -6496,7 +6517,7 @@
         <v>4.7593026182976101E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>44561</v>
       </c>
@@ -6531,7 +6552,7 @@
         <v>-1.0653788904784189E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>44592</v>
       </c>
@@ -6566,7 +6587,7 @@
         <v>-3.2577749146184588E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>44620</v>
       </c>
@@ -6601,7 +6622,7 @@
         <v>5.5448541098461358E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>44651</v>
       </c>
@@ -6636,7 +6657,7 @@
         <v>3.8762050244703942E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>44681</v>
       </c>
@@ -6671,7 +6692,7 @@
         <v>5.196057706260364E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>44712</v>
       </c>
@@ -6706,7 +6727,7 @@
         <v>-9.5741829972987996E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>44742</v>
       </c>
@@ -6741,7 +6762,7 @@
         <v>-2.775486380016685E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>44773</v>
       </c>
@@ -6776,7 +6797,7 @@
         <v>-7.3137186546532807E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>44804</v>
       </c>
@@ -6811,7 +6832,7 @@
         <v>2.7151314716447618E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>44834</v>
       </c>
@@ -6846,7 +6867,7 @@
         <v>9.6646150455747919E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>44865</v>
       </c>
@@ -6881,7 +6902,7 @@
         <v>-8.3327363879563739E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>44895</v>
       </c>
@@ -6916,7 +6937,7 @@
         <v>-3.0351825318290582E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>44926</v>
       </c>
@@ -6951,7 +6972,7 @@
         <v>-2.294225919023719E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>44957</v>
       </c>
@@ -6986,7 +7007,7 @@
         <v>-1.5665915970699981E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>44985</v>
       </c>
@@ -7021,29 +7042,80 @@
         <v>5.4457785530766332E-3</v>
       </c>
     </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A184" s="5">
+        <v>45016</v>
+      </c>
+      <c r="B184" s="4">
+        <v>3.6714169724421757E-2</v>
+      </c>
+      <c r="C184" s="4">
+        <v>2.002647448154149E-2</v>
+      </c>
+      <c r="D184" s="4">
+        <v>-1.8411823580399129E-2</v>
+      </c>
+      <c r="E184" s="4">
+        <v>-1.1764676113360359E-2</v>
+      </c>
+      <c r="F184" s="4">
+        <v>-3.4060953342515653E-2</v>
+      </c>
+      <c r="G184" s="4">
+        <v>-1.2781721458881481E-2</v>
+      </c>
+      <c r="H184" s="4">
+        <v>1.8220372753678049E-2</v>
+      </c>
+      <c r="I184" s="4">
+        <v>-1.8871005748498551E-3</v>
+      </c>
+      <c r="J184" s="4">
+        <v>3.2159711018573969E-2</v>
+      </c>
+      <c r="K184" s="4">
+        <v>-9.8376308046312141E-3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A172">
-    <cfRule type="notContainsBlanks" dxfId="37" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="41" priority="53">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:K171">
-    <cfRule type="cellIs" dxfId="36" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A174">
-    <cfRule type="notContainsBlanks" dxfId="33" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="49">
       <formula>LEN(TRIM(A173))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:K174">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="39">
+      <formula>LEN(TRIM(A175))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B175:K175">
     <cfRule type="cellIs" dxfId="32" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7054,28 +7126,28 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A175">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="35">
-      <formula>LEN(TRIM(A175))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B175:K175">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A176:A177">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="31">
       <formula>LEN(TRIM(A176))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:K177">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
+      <formula>LEN(TRIM(A178))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:K178">
     <cfRule type="cellIs" dxfId="24" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7086,12 +7158,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A178">
+  <conditionalFormatting sqref="A179">
     <cfRule type="notContainsBlanks" dxfId="21" priority="23">
-      <formula>LEN(TRIM(A178))&gt;0</formula>
+      <formula>LEN(TRIM(A179))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B178:K178">
+  <conditionalFormatting sqref="B179:K179">
     <cfRule type="cellIs" dxfId="20" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7102,23 +7174,23 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="19">
-      <formula>LEN(TRIM(A179))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179:K179">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
+  <conditionalFormatting sqref="J180:K180">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J180:K180">
+  <conditionalFormatting sqref="A180:A181">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="15">
+      <formula>LEN(TRIM(A180))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B180:I181">
     <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7129,23 +7201,23 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180:A181">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="11">
-      <formula>LEN(TRIM(A180))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B180:I181">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="J181:K181">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J181:K181">
+  <conditionalFormatting sqref="A182:A183">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(A182))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B182:K183">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7156,12 +7228,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A182:A183">
+  <conditionalFormatting sqref="A184">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A182))&gt;0</formula>
+      <formula>LEN(TRIM(A184))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B182:K183">
+  <conditionalFormatting sqref="B184:K184">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3A7034-E374-4177-9AF0-16FE48D2A512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688E0905-2DD4-458C-A9C1-49DF006C2236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
@@ -161,313 +161,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -823,11 +517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALN185"/>
+  <dimension ref="A1:ALN186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:L185"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B186" sqref="A186:B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7867,29 +7561,83 @@
         <v>1.6795424189340511E-3</v>
       </c>
     </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A186" s="5">
+        <v>45077</v>
+      </c>
+      <c r="B186" s="4">
+        <v>4.3467157985517257E-3</v>
+      </c>
+      <c r="C186" s="4">
+        <v>-8.2231354753855568E-3</v>
+      </c>
+      <c r="D186" s="4">
+        <v>-2.739060612682032E-3</v>
+      </c>
+      <c r="E186" s="4">
+        <v>-1.6650700241778169E-3</v>
+      </c>
+      <c r="F186" s="4">
+        <v>-1.340800328319358E-2</v>
+      </c>
+      <c r="G186" s="4">
+        <v>1.341171817413667E-2</v>
+      </c>
+      <c r="H186" s="4">
+        <v>-3.8545157993086221E-4</v>
+      </c>
+      <c r="I186" s="4">
+        <v>2.2705693680554521E-3</v>
+      </c>
+      <c r="J186" s="4">
+        <v>1.5114759515726379E-3</v>
+      </c>
+      <c r="K186" s="4">
+        <v>3.5988271364665462E-3</v>
+      </c>
+      <c r="L186" s="4">
+        <v>-1.326405539850931E-3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="notContainsBlanks" dxfId="92" priority="68">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="72">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L21">
-    <cfRule type="cellIs" dxfId="91" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="70" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A185">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:L185">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A186))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B186:L186">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688E0905-2DD4-458C-A9C1-49DF006C2236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7516435B-E8C5-4B85-B099-C7A00750B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="28690" yWindow="-50" windowWidth="29020" windowHeight="15820" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Historical Returns" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -517,11 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALN186"/>
+  <dimension ref="A1:ALN187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B186" sqref="A186:B186"/>
+      <selection pane="bottomLeft" activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7599,29 +7614,83 @@
         <v>-1.326405539850931E-3</v>
       </c>
     </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A187" s="5">
+        <v>45107</v>
+      </c>
+      <c r="B187" s="4">
+        <v>6.6075219587385492E-2</v>
+      </c>
+      <c r="C187" s="4">
+        <v>-3.4670301571344542E-3</v>
+      </c>
+      <c r="D187" s="4">
+        <v>-5.6772503537094732E-4</v>
+      </c>
+      <c r="E187" s="4">
+        <v>-7.4938883684798618E-3</v>
+      </c>
+      <c r="F187" s="4">
+        <v>1.195850189461695E-2</v>
+      </c>
+      <c r="G187" s="4">
+        <v>-1.340275683443037E-2</v>
+      </c>
+      <c r="H187" s="4">
+        <v>-1.485914434069502E-2</v>
+      </c>
+      <c r="I187" s="4">
+        <v>-3.0842580727774909E-3</v>
+      </c>
+      <c r="J187" s="4">
+        <v>-9.4301242789140982E-4</v>
+      </c>
+      <c r="K187" s="4">
+        <v>6.4299772624392737E-2</v>
+      </c>
+      <c r="L187" s="4">
+        <v>-2.6826808506758568E-3</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="72">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="76">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L21">
-    <cfRule type="cellIs" dxfId="10" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="73" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="74" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A185">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:L185">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(A186))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B186:L186">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7632,12 +7701,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A186">
+  <conditionalFormatting sqref="A187">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A186))&gt;0</formula>
+      <formula>LEN(TRIM(A187))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B186:L186">
+  <conditionalFormatting sqref="B187:L187">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvg9hxp\Documents\Projects\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B82E7A7-3155-4C55-A98D-DECCA16ABDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Monthly Historical Returns" sheetId="2" r:id="rId1"/>
+    <sheet name="Monthly Historical Returns" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -46,9 +45,6 @@
   </si>
   <si>
     <t>Dynamic Put Spread</t>
-  </si>
-  <si>
-    <t>VRR</t>
   </si>
   <si>
     <t>GW Dispersion</t>
@@ -68,11 +64,20 @@
   <si>
     <t>VOLA 3</t>
   </si>
+  <si>
+    <t>VRR Portfolio</t>
+  </si>
+  <si>
+    <t>Commodity Basket</t>
+  </si>
+  <si>
+    <t>ESPRSO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -474,19 +479,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D4F897-E655-4325-BF4E-FA224214E13B}">
-  <dimension ref="A1:ALM179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALM169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1001" width="21.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1001" width="21.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,6267 +502,6931 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>39478</v>
+        <v>40086</v>
       </c>
       <c r="B2" s="2">
-        <v>-5.9981389556644782E-2</v>
+        <v>3.7315259951524071E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>-2.51748876779927E-2</v>
+        <v>-8.3120674187596721E-3</v>
       </c>
       <c r="D2" s="2">
-        <v>-2.0529537774650608E-3</v>
+        <v>-4.1093909172085219E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>3.0887150319431012E-2</v>
+        <v>-3.9989553366558406E-3</v>
       </c>
       <c r="F2" s="2">
-        <v>-7.7932864511569876E-3</v>
+        <v>-1.4740950104096239E-4</v>
       </c>
       <c r="G2" s="2">
-        <v>1.7927277334347069E-2</v>
+        <v>-4.5151175044335634E-3</v>
       </c>
       <c r="H2" s="2">
-        <v>1.7561998458320179E-2</v>
+        <v>-1.142580824408612E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>-2.7100558113250179E-3</v>
+        <v>2.881421741962216E-2</v>
       </c>
       <c r="J2" s="2">
-        <v>-5.8734680797807103E-2</v>
+        <v>3.8329999999999749E-3</v>
       </c>
       <c r="K2" s="2">
-        <v>2.301616170161861E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.703746532714101E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3.8339397405352901E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.4960839298960491E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>39507</v>
+        <v>40117</v>
       </c>
       <c r="B3" s="2">
-        <v>-3.2485800781493199E-2</v>
+        <v>-1.8576814385936839E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>-1.282882321960499E-2</v>
+        <v>-1.9648943869267081E-3</v>
       </c>
       <c r="D3" s="2">
-        <v>-7.6641899513729683E-4</v>
+        <v>-1.5951317305717969E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>2.028828475133326E-2</v>
+        <v>2.0055978017841092E-3</v>
       </c>
       <c r="F3" s="2">
-        <v>2.3879042669392191E-2</v>
+        <v>3.2780093903214187E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>7.9137884539590697E-3</v>
+        <v>-5.2671440374559841E-3</v>
       </c>
       <c r="H3" s="2">
-        <v>-1.1532228553505219E-2</v>
+        <v>1.012832935842467E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>1.7484409963956171E-2</v>
+        <v>1.8859043939336701E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>-2.8077832303431711E-2</v>
+        <v>7.2302863125639494E-3</v>
       </c>
       <c r="K3" s="2">
-        <v>8.1377879594981203E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.6582393674606791E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-1.2696694995761241E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>8.5898158422219976E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>39538</v>
+        <v>40147</v>
       </c>
       <c r="B4" s="2">
-        <v>-4.3180490828256257E-3</v>
+        <v>5.998348884085547E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>-1.384549422042358E-3</v>
+        <v>4.599728731538244E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>-3.9878324366490192E-3</v>
+        <v>-3.3495156760022789E-3</v>
       </c>
       <c r="E4" s="2">
-        <v>6.5880896604437744E-3</v>
+        <v>-1.1249569304866871E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>-3.7704403966220802E-2</v>
+        <v>8.2537226079107632E-3</v>
       </c>
       <c r="G4" s="2">
-        <v>1.8615516017164602E-2</v>
+        <v>4.7153486762412378E-3</v>
       </c>
       <c r="H4" s="2">
-        <v>2.1235391293143339E-2</v>
+        <v>5.4576295664903176E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>-4.0243448939915492E-3</v>
+        <v>5.6246510277788717E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>-5.7835186934232733E-3</v>
+        <v>7.2782766338539417E-3</v>
       </c>
       <c r="K4" s="2">
-        <v>-2.705482358026427E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.2996505134173161E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6.1059372655179182E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.5716762227836461E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>39568</v>
+        <v>40178</v>
       </c>
       <c r="B5" s="2">
-        <v>4.8703372600695793E-2</v>
+        <v>1.9315130805245499E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>-4.0966808017295242E-2</v>
+        <v>-1.526378532526129E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-4.0371050323524393E-3</v>
+        <v>-2.2986828182580692E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>-1.2805980098875571E-2</v>
+        <v>-1.1092090046187499E-3</v>
       </c>
       <c r="F5" s="2">
-        <v>1.880880868090681E-2</v>
+        <v>2.7401230868572549E-2</v>
       </c>
       <c r="G5" s="2">
-        <v>-2.5660194370921148E-3</v>
+        <v>9.6447793326159825E-4</v>
       </c>
       <c r="H5" s="2">
-        <v>8.4082986989253428E-4</v>
+        <v>2.957273731593713E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>2.1805107250923241E-2</v>
+        <v>2.2748521455544731E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>4.6989950480329112E-2</v>
+        <v>3.9560115862340428E-3</v>
       </c>
       <c r="K5" s="2">
-        <v>-3.163240837600043E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.0148282428308377E-4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2.3230786344824051E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5.720081133514493E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>39599</v>
+        <v>40209</v>
       </c>
       <c r="B6" s="2">
-        <v>1.2952649864323099E-2</v>
+        <v>-3.5973352910668277E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>2.6241273113352111E-3</v>
+        <v>-1.1786935055070219E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>-1.948705372569415E-3</v>
+        <v>-5.5095148446837605E-4</v>
       </c>
       <c r="E6" s="2">
-        <v>-1.9702061622561828E-3</v>
+        <v>1.114716190668452E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>-7.9849956301258126E-3</v>
+        <v>1.6007974722212139E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>2.309281691852183E-3</v>
+        <v>6.727634058002252E-3</v>
       </c>
       <c r="H6" s="2">
-        <v>1.254070083043457E-3</v>
+        <v>-3.1591650537454719E-5</v>
       </c>
       <c r="I6" s="2">
-        <v>9.0278408396644791E-3</v>
+        <v>3.7746357383442891E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>1.3109623518949679E-2</v>
+        <v>4.3541236543733763E-3</v>
       </c>
       <c r="K6" s="2">
-        <v>2.8979751623368818E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.7721134332982018E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-3.2561224972758367E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4.9845162439586888E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>39629</v>
+        <v>40237</v>
       </c>
       <c r="B7" s="2">
-        <v>-8.4303846880255384E-2</v>
+        <v>3.0977228155389058E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>-3.8333232107146897E-2</v>
+        <v>-7.284878928040861E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.721127115219435E-4</v>
+        <v>-3.9781057025879418E-3</v>
       </c>
       <c r="E7" s="2">
-        <v>3.3805210511587358E-2</v>
+        <v>-1.169638026915654E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>5.7771657193727642E-2</v>
+        <v>-2.5935290852834459E-2</v>
       </c>
       <c r="G7" s="2">
-        <v>2.233225545674955E-3</v>
+        <v>-8.8703543868947632E-3</v>
       </c>
       <c r="H7" s="2">
-        <v>2.2191695356074351E-2</v>
+        <v>-5.8179617546416651E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.883929737521417E-2</v>
+        <v>3.1629608710803002E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>-7.7620161609632199E-2</v>
+        <v>3.7490347452751038E-3</v>
       </c>
       <c r="K7" s="2">
-        <v>1.2339111268842811E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-8.2223640862523206E-3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.5830260458943329E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-7.5188107119393043E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>39660</v>
+        <v>40268</v>
       </c>
       <c r="B8" s="2">
-        <v>-8.4062238643820564E-3</v>
+        <v>6.0344822865828762E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>-2.202531882444303E-2</v>
+        <v>1.7992574554490659E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>-3.1852887974874729E-3</v>
+        <v>-1.0581968325972251E-3</v>
       </c>
       <c r="E8" s="2">
-        <v>1.509528552473283E-2</v>
+        <v>-1.2895562941469761E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>-2.639030796968192E-2</v>
+        <v>-1.8963127203989169E-2</v>
       </c>
       <c r="G8" s="2">
-        <v>3.1810528226172467E-2</v>
+        <v>3.5350617773604038E-3</v>
       </c>
       <c r="H8" s="2">
-        <v>3.1648420336616301E-3</v>
+        <v>-2.73427983292085E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>-3.5884137606431152E-4</v>
+        <v>2.327016740919579E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>-8.8278117733593814E-3</v>
+        <v>1.4598639284193251E-2</v>
       </c>
       <c r="K8" s="2">
-        <v>-7.7831613965044641E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.7298227999145151E-3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>6.0954755707202941E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>8.9100415074582005E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>39691</v>
+        <v>40298</v>
       </c>
       <c r="B9" s="2">
-        <v>1.446489614246271E-2</v>
+        <v>1.5787432538573839E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>-9.8064540818754153E-4</v>
+        <v>1.7277209213352181E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>-1.783066671011468E-3</v>
+        <v>-1.4518649989406769E-3</v>
       </c>
       <c r="E9" s="2">
-        <v>-1.941344224094532E-3</v>
+        <v>-3.848804693434738E-3</v>
       </c>
       <c r="F9" s="2">
-        <v>3.7051972873799209E-2</v>
+        <v>3.9654306098347553E-2</v>
       </c>
       <c r="G9" s="2">
-        <v>-9.3515478424019971E-3</v>
+        <v>-3.8233196724831719E-3</v>
       </c>
       <c r="H9" s="2">
-        <v>-2.713195697372051E-3</v>
+        <v>5.0877233977919536E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>4.9296313349740384E-3</v>
+        <v>4.381510937907329E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>1.669830734837786E-2</v>
+        <v>3.493879018462875E-3</v>
       </c>
       <c r="K9" s="2">
-        <v>4.123220687843359E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.1495666476148991E-3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2.111678778502054E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>7.7852467079566803E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>39721</v>
+        <v>40329</v>
       </c>
       <c r="B10" s="2">
-        <v>-8.9107486449930717E-2</v>
+        <v>-7.9850578201153044E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>0.1073328513079328</v>
+        <v>2.425100622444076E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>2.6815197931171712E-2</v>
+        <v>1.099209040271765E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>1.6584111141674459E-2</v>
+        <v>1.460497650800097E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>-3.7899376508313459E-4</v>
+        <v>-2.5656632946543662E-2</v>
       </c>
       <c r="G10" s="2">
-        <v>3.3892620759723657E-2</v>
+        <v>-2.8202784054646161E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>1.9680770912886562E-2</v>
+        <v>5.7988964413333566E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>-4.0317723589338619E-2</v>
+        <v>-1.410911974086085E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>-7.6144815116839432E-2</v>
+        <v>-1.001445473628448E-2</v>
       </c>
       <c r="K10" s="2">
-        <v>2.393108553801469E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.3956359729568453E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-8.1726441183824342E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-2.7403044899580679E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>39752</v>
+        <v>40359</v>
       </c>
       <c r="B11" s="2">
-        <v>-0.16794757601381291</v>
+        <v>-5.2348673658644707E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>0.30240231085396507</v>
+        <v>-4.9161737666217897E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>0.29563628668592029</v>
+        <v>-4.6724605177073109E-5</v>
       </c>
       <c r="E11" s="2">
-        <v>2.389037807716177E-2</v>
+        <v>2.512077075156971E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>5.2835919833494192E-2</v>
+        <v>3.3624321001503622E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>9.226732814959715E-2</v>
+        <v>-7.9875039937449266E-5</v>
       </c>
       <c r="H11" s="2">
-        <v>6.4696808050517474E-2</v>
+        <v>-1.340675058610763E-2</v>
       </c>
       <c r="I11" s="2">
-        <v>2.598813876095197E-3</v>
+        <v>2.2504359779677841E-2</v>
       </c>
       <c r="J11" s="2">
-        <v>-9.6304716750450992E-2</v>
+        <v>-4.6488214804429878E-4</v>
       </c>
       <c r="K11" s="2">
-        <v>0.13226374017851431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.293723573674766E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>-4.4514236887159289E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.1444728351439519E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>39782</v>
+        <v>40390</v>
       </c>
       <c r="B12" s="2">
-        <v>-7.1754904074988968E-2</v>
+        <v>7.0063530875469127E-2</v>
       </c>
       <c r="C12" s="2">
-        <v>3.0729043889385022E-2</v>
+        <v>-3.041617474810809E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>2.6935322101272471E-2</v>
+        <v>-7.9966166637230884E-3</v>
       </c>
       <c r="E12" s="2">
-        <v>3.7020314418962919E-3</v>
+        <v>-1.1597841725206731E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>-3.695746180586016E-2</v>
+        <v>-1.072353678690028E-2</v>
       </c>
       <c r="G12" s="2">
-        <v>1.7713956291599109E-2</v>
+        <v>8.1922834547827339E-3</v>
       </c>
       <c r="H12" s="2">
-        <v>-1.1645305655420881E-2</v>
+        <v>-4.3542806917149512E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>-3.6445375733058511E-4</v>
+        <v>1.170879997086245E-2</v>
       </c>
       <c r="J12" s="2">
-        <v>-6.7956492218953543E-2</v>
+        <v>5.7448795847816481E-3</v>
       </c>
       <c r="K12" s="2">
-        <v>7.0124526572961608E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.039581727186178E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6.6860154774521938E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>-4.6795666813305358E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>39813</v>
+        <v>40421</v>
       </c>
       <c r="B13" s="2">
-        <v>1.064006638477721E-2</v>
+        <v>-4.5144284310157268E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>-5.3233390536304048E-2</v>
+        <v>-1.0165904720351169E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>-8.0978098952324551E-3</v>
+        <v>-2.4397993871760888E-3</v>
       </c>
       <c r="E13" s="2">
-        <v>1.542354583047811E-2</v>
+        <v>1.352372854358341E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>-6.6885877229265006E-2</v>
+        <v>4.2843597112544582E-2</v>
       </c>
       <c r="G13" s="2">
-        <v>-9.4924215115780308E-3</v>
+        <v>3.4686151949991921E-3</v>
       </c>
       <c r="H13" s="2">
-        <v>8.9948725501613369E-2</v>
+        <v>1.1807188708226061E-2</v>
       </c>
       <c r="I13" s="2">
-        <v>3.0580629938766511E-2</v>
+        <v>1.267296837086189E-2</v>
       </c>
       <c r="J13" s="2">
-        <v>4.7031835096489017E-3</v>
+        <v>8.1496970671814939E-3</v>
       </c>
       <c r="K13" s="2">
-        <v>-1.096039915408303E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.759768978949784E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>-3.7132905023279157E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.170321011363336E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>39844</v>
+        <v>40451</v>
       </c>
       <c r="B14" s="2">
-        <v>-8.4286319939214538E-2</v>
+        <v>8.9244447791955173E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>-3.1046898244665E-2</v>
+        <v>7.1760138024909992E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>-2.762709593301937E-3</v>
+        <v>-2.332121654477826E-3</v>
       </c>
       <c r="E14" s="2">
-        <v>3.3350177483422387E-2</v>
+        <v>-2.4274748757004531E-2</v>
       </c>
       <c r="F14" s="2">
-        <v>3.9325887055485093E-2</v>
+        <v>4.2415936733390523E-2</v>
       </c>
       <c r="G14" s="2">
-        <v>-4.6790517121841901E-4</v>
+        <v>4.3690342504212332E-3</v>
       </c>
       <c r="H14" s="2">
-        <v>1.0527332963043531E-2</v>
+        <v>-3.4702351923007191E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>2.158703233295807E-2</v>
+        <v>2.040706743879284E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>-7.9125758297121568E-2</v>
+        <v>8.3383350681123236E-3</v>
       </c>
       <c r="K14" s="2">
-        <v>9.5271907238639372E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.42825523549055E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>9.4007605315443804E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>6.9581318404216561E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>39872</v>
+        <v>40482</v>
       </c>
       <c r="B15" s="2">
-        <v>-0.10647796709532439</v>
+        <v>3.8049169412939447E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>-4.6600513355314233E-2</v>
+        <v>-2.646069311225718E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>-9.5868157882028626E-4</v>
+        <v>-2.7202163979874738E-3</v>
       </c>
       <c r="E15" s="2">
-        <v>3.8219783256345792E-2</v>
+        <v>-4.3677526541285872E-3</v>
       </c>
       <c r="F15" s="2">
-        <v>3.9766350939555942E-3</v>
+        <v>-3.5511485525411217E-2</v>
       </c>
       <c r="G15" s="2">
-        <v>2.0311389288624419E-2</v>
+        <v>5.7913034363481497E-3</v>
       </c>
       <c r="H15" s="2">
-        <v>1.141433765821831E-2</v>
+        <v>6.7857142857141728E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>1.300845777648141E-2</v>
+        <v>1.694596149221057E-2</v>
       </c>
       <c r="J15" s="2">
-        <v>-0.10393038505356419</v>
+        <v>1.060044379645619E-2</v>
       </c>
       <c r="K15" s="2">
-        <v>4.7032283847880307E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.4343103725176229E-3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3.5013309525834722E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>-4.4348550807638814E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>39903</v>
+        <v>40512</v>
       </c>
       <c r="B16" s="2">
-        <v>8.759547121563882E-2</v>
+        <v>1.2818021936977791E-4</v>
       </c>
       <c r="C16" s="2">
-        <v>4.6860929981603627E-2</v>
+        <v>2.496284289252193E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>-3.5822605189705921E-3</v>
+        <v>-2.0479391506280642E-3</v>
       </c>
       <c r="E16" s="2">
-        <v>-1.7535746041880129E-2</v>
+        <v>-1.8491805577336429E-4</v>
       </c>
       <c r="F16" s="2">
-        <v>-4.2933108658882703E-2</v>
+        <v>3.3990583752460488E-2</v>
       </c>
       <c r="G16" s="2">
-        <v>5.5821303856518067E-3</v>
+        <v>5.7926961657037701E-3</v>
       </c>
       <c r="H16" s="2">
-        <v>7.1577198051591129E-2</v>
+        <v>7.712165327919962E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>-2.2065098325696358E-3</v>
+        <v>9.5955329345957206E-3</v>
       </c>
       <c r="J16" s="2">
-        <v>8.7860818690481124E-2</v>
+        <v>1.845288410190937E-3</v>
       </c>
       <c r="K16" s="2">
-        <v>4.8987226124730951E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.8946870316199909E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5.3389986467576762E-3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>7.6120853520938794E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>39933</v>
+        <v>40543</v>
       </c>
       <c r="B17" s="2">
-        <v>9.570935909919509E-2</v>
+        <v>6.6831866766170256E-2</v>
       </c>
       <c r="C17" s="2">
-        <v>-1.821138611814976E-2</v>
+        <v>-4.4793574221025922E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>-1.610267493222628E-2</v>
+        <v>-2.5422055285312379E-3</v>
       </c>
       <c r="E17" s="2">
-        <v>-1.7011426068917701E-2</v>
+        <v>-9.0447794903439904E-3</v>
       </c>
       <c r="F17" s="2">
-        <v>3.025274933881647E-2</v>
+        <v>1.885166767243323E-2</v>
       </c>
       <c r="G17" s="2">
-        <v>-1.047704344593303E-2</v>
+        <v>6.5105515836016981E-3</v>
       </c>
       <c r="H17" s="2">
-        <v>2.5981329595619052E-3</v>
+        <v>1.129255095937864E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>3.2042417909272651E-3</v>
+        <v>2.5901549267020069E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>9.3065886188474348E-2</v>
+        <v>9.6968975323330486E-3</v>
       </c>
       <c r="K17" s="2">
-        <v>-4.8802576813306341E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-8.3024930206651026E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <v>7.0887693432522395E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>5.9248463917495027E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>39964</v>
+        <v>40574</v>
       </c>
       <c r="B18" s="2">
-        <v>5.5933147317726029E-2</v>
+        <v>2.370158478807749E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>-3.0572215627869489E-2</v>
+        <v>-1.3199892448260701E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>-8.3908161141895699E-3</v>
+        <v>-1.158786942394352E-3</v>
       </c>
       <c r="E18" s="2">
-        <v>-4.6308192626510758E-3</v>
+        <v>-3.7173127303491431E-3</v>
       </c>
       <c r="F18" s="2">
-        <v>8.4376380389969946E-2</v>
+        <v>4.6370275090979657E-2</v>
       </c>
       <c r="G18" s="2">
-        <v>4.935362125791487E-3</v>
+        <v>-4.1521541444330401E-3</v>
       </c>
       <c r="H18" s="2">
-        <v>1.6207340631036571E-2</v>
+        <v>1.966308172851372E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>1.402443726635103E-2</v>
+        <v>1.8462896675959749E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>6.107451897661053E-2</v>
+        <v>1.018235555879032E-2</v>
       </c>
       <c r="K18" s="2">
-        <v>9.4917630625560127E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.8648189896880449E-3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2.9307272563956911E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>8.1889197257202714E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>39994</v>
+        <v>40602</v>
       </c>
       <c r="B19" s="2">
-        <v>1.9839983315161902E-3</v>
+        <v>3.4258901192524061E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>-2.0426041539604482E-2</v>
+        <v>3.7221629567367738E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>-6.7713195134785353E-3</v>
+        <v>-2.3113633807876339E-3</v>
       </c>
       <c r="E19" s="2">
-        <v>2.035956447841158E-3</v>
+        <v>-5.3933737148953442E-3</v>
       </c>
       <c r="F19" s="2">
-        <v>4.108159097324867E-2</v>
+        <v>-2.8888100846192411E-2</v>
       </c>
       <c r="G19" s="2">
-        <v>-4.2483771199641751E-5</v>
+        <v>1.063041642976548E-2</v>
       </c>
       <c r="H19" s="2">
-        <v>2.3423754517362121E-3</v>
+        <v>-5.5982621482149053E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>1.7937744633358382E-2</v>
+        <v>2.1678636516189509E-2</v>
       </c>
       <c r="J19" s="2">
-        <v>4.7096825994103536E-3</v>
+        <v>7.3427278174560406E-3</v>
       </c>
       <c r="K19" s="2">
-        <v>5.0320324945738407E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.3378805366753888E-4</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3.4451062831586193E-2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2.8071421376937622E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>40025</v>
+        <v>40633</v>
       </c>
       <c r="B20" s="2">
-        <v>7.5636934707729475E-2</v>
+        <v>3.9757861223610469E-4</v>
       </c>
       <c r="C20" s="2">
-        <v>7.6883601058068676E-3</v>
+        <v>-2.288925507245021E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>-2.9141765612247239E-3</v>
+        <v>-1.902352397401885E-3</v>
       </c>
       <c r="E20" s="2">
-        <v>-1.4574820873215381E-2</v>
+        <v>-1.752319146001158E-3</v>
       </c>
       <c r="F20" s="2">
-        <v>4.244356263850043E-2</v>
+        <v>1.303588770268216E-2</v>
       </c>
       <c r="G20" s="2">
-        <v>-5.2342229812977203E-3</v>
+        <v>-5.3701114937437788E-3</v>
       </c>
       <c r="H20" s="2">
-        <v>-4.5642279163856658E-3</v>
+        <v>1.0810909024836499E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>1.317936303442482E-2</v>
+        <v>6.964290471221735E-3</v>
       </c>
       <c r="J20" s="2">
-        <v>7.8863473394695446E-2</v>
+        <v>1.8551212754978059E-3</v>
       </c>
       <c r="K20" s="2">
-        <v>5.9566868067064153E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.7558308834341219E-3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1.7843011611153739E-3</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2.0257567115102219E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>40056</v>
+        <v>40663</v>
       </c>
       <c r="B21" s="2">
-        <v>3.6104054302144917E-2</v>
+        <v>2.9615426349700821E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>6.9940478976666656E-3</v>
+        <v>-4.9558232931726787E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>-1.5374750719490131E-3</v>
+        <v>-9.7736224310729369E-4</v>
       </c>
       <c r="E21" s="2">
-        <v>-3.9327137929956457E-3</v>
+        <v>-5.3817117635994727E-3</v>
       </c>
       <c r="F21" s="2">
-        <v>4.0379666512730471E-2</v>
+        <v>8.8199352815752797E-3</v>
       </c>
       <c r="G21" s="2">
-        <v>-3.006722416311725E-3</v>
+        <v>-3.2566031914704752E-4</v>
       </c>
       <c r="H21" s="2">
-        <v>-1.8804924138184911E-3</v>
+        <v>-1.5427477244471801E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>1.6708794857041132E-2</v>
+        <v>1.691585366878923E-2</v>
       </c>
       <c r="J21" s="2">
-        <v>4.0666646478373251E-2</v>
+        <v>5.0525999969273094E-3</v>
       </c>
       <c r="K21" s="2">
-        <v>8.4232470945753857E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-5.9011509608255519E-3</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3.1279580636437578E-2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2.4310354786327118E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>40086</v>
+        <v>40694</v>
       </c>
       <c r="B22" s="2">
-        <v>3.7315259951524071E-2</v>
+        <v>-1.131946344875856E-2</v>
       </c>
       <c r="C22" s="2">
-        <v>-8.3120674187596721E-3</v>
+        <v>-1.3044566243956E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>-4.1093909172085219E-3</v>
+        <v>-1.1466574934067E-3</v>
       </c>
       <c r="E22" s="2">
-        <v>-3.9989553366558406E-3</v>
+        <v>4.4474777251801711E-4</v>
       </c>
       <c r="F22" s="2">
-        <v>2.797110530617675E-3</v>
+        <v>1.448597009899481E-2</v>
       </c>
       <c r="G22" s="2">
-        <v>-4.5151175044335634E-3</v>
+        <v>1.560249639942279E-3</v>
       </c>
       <c r="H22" s="2">
-        <v>-1.142580824408612E-2</v>
+        <v>-2.0492218759854408E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>2.881421741962216E-2</v>
+        <v>9.2176153622681722E-3</v>
       </c>
       <c r="J22" s="2">
-        <v>3.7881259700095621E-2</v>
+        <v>8.7757946320188296E-4</v>
       </c>
       <c r="K22" s="2">
-        <v>1.0449226127474741E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.532427418492468E-3</v>
+      </c>
+      <c r="L22" s="2">
+        <v>-9.738181740197336E-3</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2.3099732794387099E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>40117</v>
+        <v>40724</v>
       </c>
       <c r="B23" s="2">
-        <v>-1.8576814385936839E-2</v>
+        <v>-1.6669130481128169E-2</v>
       </c>
       <c r="C23" s="2">
-        <v>-1.9648943869267081E-3</v>
+        <v>-2.9218840733803431E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>-1.5951317305717969E-3</v>
+        <v>-2.5450823976532751E-3</v>
       </c>
       <c r="E23" s="2">
-        <v>2.0055978017841092E-3</v>
+        <v>2.8064686497679681E-3</v>
       </c>
       <c r="F23" s="2">
-        <v>3.8640808645218093E-2</v>
+        <v>-4.4190196693332743E-3</v>
       </c>
       <c r="G23" s="2">
-        <v>-5.2671440374559841E-3</v>
+        <v>-6.2227167679530524E-3</v>
       </c>
       <c r="H23" s="2">
-        <v>1.012832935842467E-2</v>
+        <v>3.8399347610427181E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>1.8859043939336701E-2</v>
+        <v>9.3065807311118551E-3</v>
       </c>
       <c r="J23" s="2">
-        <v>-1.417584941607454E-2</v>
+        <v>5.1198157261620469E-3</v>
       </c>
       <c r="K23" s="2">
-        <v>8.1248584058996372E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.1091927085015611E-2</v>
+      </c>
+      <c r="L23" s="2">
+        <v>-1.6070349310627188E-2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>8.7471352928429451E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>40147</v>
+        <v>40755</v>
       </c>
       <c r="B24" s="2">
-        <v>5.998348884085547E-2</v>
+        <v>-2.0334903150027391E-2</v>
       </c>
       <c r="C24" s="2">
-        <v>4.599728731538244E-3</v>
+        <v>-8.5411544195601596E-4</v>
       </c>
       <c r="D24" s="2">
-        <v>-3.3495156760022789E-3</v>
+        <v>7.2564024079180278E-4</v>
       </c>
       <c r="E24" s="2">
-        <v>-1.1249569304866871E-2</v>
+        <v>2.4837851569321501E-3</v>
       </c>
       <c r="F24" s="2">
-        <v>8.7038911099645792E-3</v>
+        <v>2.3480160818295251E-2</v>
       </c>
       <c r="G24" s="2">
-        <v>4.7153486762412378E-3</v>
+        <v>-9.3537634686439164E-3</v>
       </c>
       <c r="H24" s="2">
-        <v>5.4576295664903176E-3</v>
+        <v>-6.2337343292978584E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>5.6246510277788717E-3</v>
+        <v>6.5263392833909478E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>6.0781119093961777E-2</v>
+        <v>7.1467834558578414E-3</v>
       </c>
       <c r="K24" s="2">
-        <v>1.472548159580891E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.1445743546482531E-2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>-1.7078702446596181E-2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>4.7567340953178364E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>40178</v>
+        <v>40786</v>
       </c>
       <c r="B25" s="2">
-        <v>1.9315130805245499E-2</v>
+        <v>-5.4321816291672542E-2</v>
       </c>
       <c r="C25" s="2">
-        <v>-1.526378532526129E-2</v>
+        <v>8.653746491592651E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>-2.2986828182580692E-3</v>
+        <v>7.6613317629325772E-2</v>
       </c>
       <c r="E25" s="2">
-        <v>-1.1092090046187499E-3</v>
+        <v>1.833890742640398E-2</v>
       </c>
       <c r="F25" s="2">
-        <v>3.6278412322052943E-2</v>
+        <v>-1.321496660463157E-2</v>
       </c>
       <c r="G25" s="2">
-        <v>9.6447793326159825E-4</v>
+        <v>-3.502090995244167E-2</v>
       </c>
       <c r="H25" s="2">
-        <v>2.957273731593713E-3</v>
+        <v>9.8091391562851182E-2</v>
       </c>
       <c r="I25" s="2">
-        <v>2.2748521455544731E-2</v>
+        <v>5.9707382909908726E-3</v>
       </c>
       <c r="J25" s="2">
-        <v>2.2772162662833429E-2</v>
+        <v>-4.2047494677505126E-3</v>
       </c>
       <c r="K25" s="2">
-        <v>6.3822126601623189E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.9702773026470512E-2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>-4.0609730667652638E-2</v>
+      </c>
+      <c r="M25" s="2">
+        <v>2.003093517453107E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>40209</v>
+        <v>40816</v>
       </c>
       <c r="B26" s="2">
-        <v>-3.5973352910668277E-2</v>
+        <v>-7.0298596291188731E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>-1.1786935055070219E-2</v>
+        <v>3.0413564406278629E-2</v>
       </c>
       <c r="D26" s="2">
-        <v>-5.5095148446837605E-4</v>
+        <v>2.475637205546E-2</v>
       </c>
       <c r="E26" s="2">
-        <v>1.114716190668452E-2</v>
+        <v>2.0829873226945409E-2</v>
       </c>
       <c r="F26" s="2">
-        <v>1.5021762204888231E-2</v>
+        <v>8.6137846609671328E-3</v>
       </c>
       <c r="G26" s="2">
-        <v>6.727634058002252E-3</v>
+        <v>1.4596041049110831E-3</v>
       </c>
       <c r="H26" s="2">
-        <v>-3.1591650537454719E-5</v>
+        <v>-8.9204913561155008E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>3.7746357383442891E-3</v>
+        <v>1.6597288924616489E-2</v>
       </c>
       <c r="J26" s="2">
-        <v>-3.3957713611949172E-2</v>
+        <v>-6.2891960755130372E-3</v>
       </c>
       <c r="K26" s="2">
-        <v>3.721180243789114E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.121979013682607E-2</v>
+      </c>
+      <c r="L26" s="2">
+        <v>-6.1426218115613232E-2</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1.2960977414519339E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>40237</v>
+        <v>40847</v>
       </c>
       <c r="B27" s="2">
-        <v>3.0977228155389058E-2</v>
+        <v>0.10929314389091729</v>
       </c>
       <c r="C27" s="2">
-        <v>-7.284878928040861E-3</v>
+        <v>-1.0013089245186849E-2</v>
       </c>
       <c r="D27" s="2">
-        <v>-3.9781057025879418E-3</v>
+        <v>-2.2891869113276338E-2</v>
       </c>
       <c r="E27" s="2">
-        <v>-1.169638026915654E-2</v>
+        <v>-2.0450997355264011E-2</v>
       </c>
       <c r="F27" s="2">
-        <v>-1.2557177924413829E-2</v>
+        <v>-9.0669013914963202E-3</v>
       </c>
       <c r="G27" s="2">
-        <v>-8.8703543868947632E-3</v>
+        <v>6.0188392367142018E-3</v>
       </c>
       <c r="H27" s="2">
-        <v>-5.8179617546416651E-3</v>
+        <v>1.7791839797940408E-2</v>
       </c>
       <c r="I27" s="2">
-        <v>3.1629608710803002E-3</v>
+        <v>1.553627295097388E-2</v>
       </c>
       <c r="J27" s="2">
-        <v>2.7337815388362309E-2</v>
+        <v>8.3459937257068795E-3</v>
       </c>
       <c r="K27" s="2">
-        <v>-6.718915877587852E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-7.7422455146445301E-3</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.1065267258423471</v>
+      </c>
+      <c r="M27" s="2">
+        <v>-4.0412481453216929E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>40268</v>
+        <v>40877</v>
       </c>
       <c r="B28" s="2">
-        <v>6.0344822865828762E-2</v>
+        <v>-2.2102790582362308E-3</v>
       </c>
       <c r="C28" s="2">
-        <v>1.7992574554490659E-3</v>
+        <v>6.3237930166066816E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>-1.0581968325972251E-3</v>
+        <v>-1.281725350620877E-3</v>
       </c>
       <c r="E28" s="2">
-        <v>-1.2895562941469761E-2</v>
+        <v>-4.0525272038028906E-3</v>
       </c>
       <c r="F28" s="2">
-        <v>-1.55999456462759E-2</v>
+        <v>3.9565327891988127E-2</v>
       </c>
       <c r="G28" s="2">
-        <v>3.5350617773604038E-3</v>
+        <v>8.0575925594705833E-3</v>
       </c>
       <c r="H28" s="2">
-        <v>-2.73427983292085E-3</v>
+        <v>1.287840457921385E-2</v>
       </c>
       <c r="I28" s="2">
-        <v>2.327016740919579E-2</v>
+        <v>4.5049312797990522E-3</v>
       </c>
       <c r="J28" s="2">
-        <v>6.0186711370435672E-2</v>
+        <v>2.871927508956373E-3</v>
       </c>
       <c r="K28" s="2">
-        <v>-2.918981453410999E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.236760601876319E-2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>3.8433727007636778E-3</v>
+      </c>
+      <c r="M28" s="2">
+        <v>8.8433159826027917E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>40298</v>
+        <v>40908</v>
       </c>
       <c r="B29" s="2">
-        <v>1.5787432538573839E-2</v>
+        <v>1.022939276404178E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>1.7277209213352181E-2</v>
+        <v>-3.152515737736894E-2</v>
       </c>
       <c r="D29" s="2">
-        <v>-1.4518649989406769E-3</v>
+        <v>-3.418280223218551E-3</v>
       </c>
       <c r="E29" s="2">
-        <v>-3.848804693434738E-3</v>
+        <v>1.0258544772385749E-3</v>
       </c>
       <c r="F29" s="2">
-        <v>4.8704212555280978E-2</v>
+        <v>1.9146811735827841E-3</v>
       </c>
       <c r="G29" s="2">
-        <v>-3.8233196724831719E-3</v>
+        <v>2.0759219666259821E-3</v>
       </c>
       <c r="H29" s="2">
-        <v>5.0877233977919536E-3</v>
+        <v>-1.3689918035764139E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>4.381510937907329E-3</v>
+        <v>1.515375246371398E-2</v>
       </c>
       <c r="J29" s="2">
-        <v>2.0966424867023398E-2</v>
+        <v>1.0677914542982499E-2</v>
       </c>
       <c r="K29" s="2">
-        <v>9.5612166063684181E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.3759447757488721E-3</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1.0469092437847719E-2</v>
+      </c>
+      <c r="M29" s="2">
+        <v>3.5015888603789712E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>40329</v>
+        <v>40939</v>
       </c>
       <c r="B30" s="2">
-        <v>-7.9850578201153044E-2</v>
+        <v>4.4815089641295769E-2</v>
       </c>
       <c r="C30" s="2">
-        <v>2.425100622444076E-2</v>
+        <v>-1.9207420763926789E-2</v>
       </c>
       <c r="D30" s="2">
-        <v>1.099209040271765E-2</v>
+        <v>-2.0365654338819761E-3</v>
       </c>
       <c r="E30" s="2">
-        <v>1.460497650800097E-2</v>
+        <v>-5.5023350551577366E-3</v>
       </c>
       <c r="F30" s="2">
-        <v>-4.2330890273309198E-2</v>
+        <v>-2.3255290524417799E-2</v>
       </c>
       <c r="G30" s="2">
-        <v>-2.8202784054646161E-2</v>
+        <v>7.0470541366030037E-3</v>
       </c>
       <c r="H30" s="2">
-        <v>5.7988964413333566E-3</v>
+        <v>1.1959840510389339E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>-1.410911974086085E-2</v>
+        <v>1.352884835728585E-2</v>
       </c>
       <c r="J30" s="2">
-        <v>-8.2400326053040068E-2</v>
+        <v>9.1198586171825635E-3</v>
       </c>
       <c r="K30" s="2">
-        <v>-4.707226803483705E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.4872864828445769E-3</v>
+      </c>
+      <c r="L30" s="2">
+        <v>4.2968750202444117E-2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>-2.6971758070874091E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>40359</v>
+        <v>40968</v>
       </c>
       <c r="B31" s="2">
-        <v>-5.2348673658644707E-2</v>
+        <v>4.3242181664066681E-2</v>
       </c>
       <c r="C31" s="2">
-        <v>-4.9161737666217897E-3</v>
+        <v>7.9591552078854821E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>-4.6724605177073109E-5</v>
+        <v>-1.482360594498022E-3</v>
       </c>
       <c r="E31" s="2">
-        <v>2.512077075156971E-2</v>
+        <v>-5.0565988051372024E-3</v>
       </c>
       <c r="F31" s="2">
-        <v>1.4906776932318309E-2</v>
+        <v>1.2517929797031009E-2</v>
       </c>
       <c r="G31" s="2">
-        <v>-7.9875039937449266E-5</v>
+        <v>2.7252507670305631E-4</v>
       </c>
       <c r="H31" s="2">
-        <v>-1.340675058610763E-2</v>
+        <v>8.2673500091092755E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>2.2504359779677841E-2</v>
+        <v>2.4000526429026621E-2</v>
       </c>
       <c r="J31" s="2">
-        <v>-4.7838193220810683E-2</v>
+        <v>3.9687163585202523E-3</v>
       </c>
       <c r="K31" s="2">
-        <v>8.3270408083089813E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.6189457426976088E-3</v>
+      </c>
+      <c r="L31" s="2">
+        <v>4.7123433265218798E-2</v>
+      </c>
+      <c r="M31" s="2">
+        <v>5.6698230561319143E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>40390</v>
+        <v>40999</v>
       </c>
       <c r="B32" s="2">
-        <v>7.0063530875469127E-2</v>
+        <v>3.2909207421962787E-2</v>
       </c>
       <c r="C32" s="2">
-        <v>-3.041617474810809E-2</v>
+        <v>-1.3662139527374721E-2</v>
       </c>
       <c r="D32" s="2">
-        <v>-7.9966166637230884E-3</v>
+        <v>-1.335799973299356E-3</v>
       </c>
       <c r="E32" s="2">
-        <v>-1.1597841725206731E-2</v>
+        <v>-4.597882912912632E-3</v>
       </c>
       <c r="F32" s="2">
-        <v>-2.8762795234773871E-3</v>
+        <v>-3.1399140669713638E-2</v>
       </c>
       <c r="G32" s="2">
-        <v>8.1922834547827339E-3</v>
+        <v>5.2908192860030567E-3</v>
       </c>
       <c r="H32" s="2">
-        <v>-4.3542806917149512E-3</v>
+        <v>1.3535951397495969E-2</v>
       </c>
       <c r="I32" s="2">
-        <v>1.170879997086245E-2</v>
+        <v>1.229630121568788E-2</v>
       </c>
       <c r="J32" s="2">
-        <v>6.7057401410991674E-2</v>
+        <v>9.6443833917394528E-3</v>
       </c>
       <c r="K32" s="2">
-        <v>-5.5497774728814819E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-7.6500721303174313E-4</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3.096705474785779E-2</v>
+      </c>
+      <c r="M32" s="2">
+        <v>-2.8371420206049149E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>40421</v>
+        <v>41029</v>
       </c>
       <c r="B33" s="2">
-        <v>-4.5144284310157268E-2</v>
+        <v>-6.2768572515865539E-3</v>
       </c>
       <c r="C33" s="2">
-        <v>-1.0165904720351169E-2</v>
+        <v>-3.6642777251665311E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>-2.4397993871760888E-3</v>
+        <v>-2.3291273067832519E-3</v>
       </c>
       <c r="E33" s="2">
-        <v>1.352372854358341E-2</v>
+        <v>-3.0868375098247469E-5</v>
       </c>
       <c r="F33" s="2">
-        <v>2.41286670381042E-2</v>
+        <v>-6.0209136969050694E-3</v>
       </c>
       <c r="G33" s="2">
-        <v>3.4686151949991921E-3</v>
+        <v>8.3927822073004421E-4</v>
       </c>
       <c r="H33" s="2">
-        <v>1.1807188708226061E-2</v>
+        <v>2.297440773508796E-4</v>
       </c>
       <c r="I33" s="2">
-        <v>1.267296837086189E-2</v>
+        <v>2.1060019626575351E-4</v>
       </c>
       <c r="J33" s="2">
-        <v>-4.151677411263361E-2</v>
+        <v>1.371716223739883E-3</v>
       </c>
       <c r="K33" s="2">
-        <v>6.6969419031206049E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.341052126013432E-3</v>
+      </c>
+      <c r="L33" s="2">
+        <v>-7.2201670698128538E-3</v>
+      </c>
+      <c r="M33" s="2">
+        <v>-1.378009030609468E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>40451</v>
+        <v>41060</v>
       </c>
       <c r="B34" s="2">
-        <v>8.9244447791955173E-2</v>
+        <v>-6.010057058447027E-2</v>
       </c>
       <c r="C34" s="2">
-        <v>7.1760138024909992E-3</v>
+        <v>2.2901621790765159E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>-2.332121654477826E-3</v>
+        <v>1.931050324457839E-3</v>
       </c>
       <c r="E34" s="2">
-        <v>-2.4274748757004531E-2</v>
+        <v>1.9776264280821469E-2</v>
       </c>
       <c r="F34" s="2">
-        <v>4.7232735697411342E-2</v>
+        <v>-1.5298668225615561E-2</v>
       </c>
       <c r="G34" s="2">
-        <v>4.3690342504212332E-3</v>
+        <v>3.6250873515029092E-3</v>
       </c>
       <c r="H34" s="2">
-        <v>-3.4702351923007191E-3</v>
+        <v>2.4016523073870921E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>2.040706743879284E-2</v>
+        <v>1.082277679991916E-2</v>
       </c>
       <c r="J34" s="2">
-        <v>9.3505063755783449E-2</v>
+        <v>2.3815806156468611E-4</v>
       </c>
       <c r="K34" s="2">
-        <v>7.8657525486060653E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.0857627093191061E-2</v>
+      </c>
+      <c r="L34" s="2">
+        <v>-5.6983083095258853E-2</v>
+      </c>
+      <c r="M34" s="2">
+        <v>4.5540985898174799E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>40482</v>
+        <v>41090</v>
       </c>
       <c r="B35" s="2">
-        <v>3.8049169412939447E-2</v>
+        <v>4.1202070256579848E-2</v>
       </c>
       <c r="C35" s="2">
-        <v>-2.646069311225718E-2</v>
+        <v>-1.354566980527361E-2</v>
       </c>
       <c r="D35" s="2">
-        <v>-2.7202163979874738E-3</v>
+        <v>-7.0605029853723078E-3</v>
       </c>
       <c r="E35" s="2">
-        <v>-4.3677526541285872E-3</v>
+        <v>-1.1916658946393269E-2</v>
       </c>
       <c r="F35" s="2">
-        <v>-2.408636531763745E-2</v>
+        <v>2.6615358285547831E-2</v>
       </c>
       <c r="G35" s="2">
-        <v>5.7913034363481497E-3</v>
+        <v>1.610165803559882E-3</v>
       </c>
       <c r="H35" s="2">
-        <v>6.7857142857141728E-3</v>
+        <v>1.6559866597170899E-2</v>
       </c>
       <c r="I35" s="2">
-        <v>1.694596149221057E-2</v>
+        <v>1.128498227616785E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>3.5225720406146091E-2</v>
+        <v>-3.2186507018850952E-3</v>
       </c>
       <c r="K35" s="2">
-        <v>-5.2125212433108154E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.115741910345359E-3</v>
+      </c>
+      <c r="L35" s="2">
+        <v>4.2302267190140942E-2</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1.6071933956403671E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>40512</v>
+        <v>41121</v>
       </c>
       <c r="B36" s="2">
-        <v>1.2818021936977791E-4</v>
+        <v>1.3889141543513169E-2</v>
       </c>
       <c r="C36" s="2">
-        <v>2.496284289252193E-3</v>
+        <v>-7.2476023471630402E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>-2.0479391506280642E-3</v>
+        <v>-1.7709426864145339E-3</v>
       </c>
       <c r="E36" s="2">
-        <v>-1.8491805577336429E-4</v>
+        <v>-5.9829996356628454E-3</v>
       </c>
       <c r="F36" s="2">
-        <v>3.0131128900169529E-2</v>
+        <v>-5.6701551937299744E-3</v>
       </c>
       <c r="G36" s="2">
-        <v>5.7926961657037701E-3</v>
+        <v>-3.5974973931177661E-3</v>
       </c>
       <c r="H36" s="2">
-        <v>7.712165327919962E-3</v>
+        <v>-1.8206375387101129E-2</v>
       </c>
       <c r="I36" s="2">
-        <v>9.5955329345957206E-3</v>
+        <v>-7.7278726130378702E-4</v>
       </c>
       <c r="J36" s="2">
-        <v>4.0614170216733414E-3</v>
+        <v>3.3957374558777338E-3</v>
       </c>
       <c r="K36" s="2">
-        <v>7.2613602504065788E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.8637835651366141E-3</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1.148034864564567E-2</v>
+      </c>
+      <c r="M36" s="2">
+        <v>-3.518820966340307E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>40543</v>
+        <v>41152</v>
       </c>
       <c r="B37" s="2">
-        <v>6.6831866766170256E-2</v>
+        <v>2.2522552594904429E-2</v>
       </c>
       <c r="C37" s="2">
-        <v>-4.4793574221025922E-3</v>
+        <v>8.2788302042802187E-4</v>
       </c>
       <c r="D37" s="2">
-        <v>-2.5422055285312379E-3</v>
+        <v>-1.114103470528871E-3</v>
       </c>
       <c r="E37" s="2">
-        <v>-9.0447794903439904E-3</v>
+        <v>-4.4087536868731014E-3</v>
       </c>
       <c r="F37" s="2">
-        <v>3.4013858132144418E-3</v>
+        <v>7.400354337726245E-3</v>
       </c>
       <c r="G37" s="2">
-        <v>6.5105515836016981E-3</v>
+        <v>2.520363490485122E-3</v>
       </c>
       <c r="H37" s="2">
-        <v>1.129255095937864E-3</v>
+        <v>-9.3867912687903843E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>2.5901549267020069E-2</v>
+        <v>1.5713771995621451E-2</v>
       </c>
       <c r="J37" s="2">
-        <v>6.844802565072941E-2</v>
+        <v>7.8962872635224279E-3</v>
       </c>
       <c r="K37" s="2">
-        <v>2.983677940724622E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.4189095479810729E-3</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2.494834677390935E-2</v>
+      </c>
+      <c r="M37" s="2">
+        <v>3.5436568351997488E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>40574</v>
+        <v>41182</v>
       </c>
       <c r="B38" s="2">
-        <v>2.370158478807749E-2</v>
+        <v>2.5841855742965599E-2</v>
       </c>
       <c r="C38" s="2">
-        <v>-1.3199892448260701E-2</v>
+        <v>-1.612289915548137E-2</v>
       </c>
       <c r="D38" s="2">
-        <v>-1.158786942394352E-3</v>
+        <v>-1.586184219666831E-3</v>
       </c>
       <c r="E38" s="2">
-        <v>-3.7173127303491431E-3</v>
+        <v>-4.9365022825210714E-3</v>
       </c>
       <c r="F38" s="2">
-        <v>3.0170318088646751E-2</v>
+        <v>-3.2699779061244147E-2</v>
       </c>
       <c r="G38" s="2">
-        <v>-4.1521541444330401E-3</v>
+        <v>5.2281327475969253E-3</v>
       </c>
       <c r="H38" s="2">
-        <v>1.966308172851372E-3</v>
+        <v>-5.9368601389222508E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>1.8462896675959749E-2</v>
+        <v>1.286497964114721E-2</v>
       </c>
       <c r="J38" s="2">
-        <v>2.5918830521976119E-2</v>
+        <v>-2.8037740497965919E-4</v>
       </c>
       <c r="K38" s="2">
-        <v>4.0933767395051578E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.5746182037283978E-3</v>
+      </c>
+      <c r="L38" s="2">
+        <v>2.2135187295363731E-2</v>
+      </c>
+      <c r="M38" s="2">
+        <v>-5.4147879048632918E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>40602</v>
+        <v>41213</v>
       </c>
       <c r="B39" s="2">
-        <v>3.4258901192524061E-2</v>
+        <v>-1.846434620589477E-2</v>
       </c>
       <c r="C39" s="2">
-        <v>3.7221629567367738E-3</v>
+        <v>-1.617767723358687E-2</v>
       </c>
       <c r="D39" s="2">
-        <v>-2.3113633807876339E-3</v>
+        <v>-2.9918662983641209E-4</v>
       </c>
       <c r="E39" s="2">
-        <v>-5.3933737148953442E-3</v>
+        <v>5.1868861075607953E-3</v>
       </c>
       <c r="F39" s="2">
-        <v>-2.1770768156107491E-2</v>
+        <v>-9.5888178471745592E-3</v>
       </c>
       <c r="G39" s="2">
-        <v>1.063041642976548E-2</v>
+        <v>-3.8942157914745312E-4</v>
       </c>
       <c r="H39" s="2">
-        <v>-5.5982621482149053E-3</v>
+        <v>2.3432919614951859E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>2.1678636516189509E-2</v>
+        <v>1.5874883472192729E-2</v>
       </c>
       <c r="J39" s="2">
-        <v>3.4640426548244951E-2</v>
+        <v>5.5419812944321736E-3</v>
       </c>
       <c r="K39" s="2">
-        <v>7.0435450286933203E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0104392390885449E-2</v>
+      </c>
+      <c r="L39" s="2">
+        <v>-1.7827435719173099E-2</v>
+      </c>
+      <c r="M39" s="2">
+        <v>9.3041372562262833E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>40633</v>
+        <v>41243</v>
       </c>
       <c r="B40" s="2">
-        <v>3.9757861223610469E-4</v>
+        <v>5.8009943635441994E-3</v>
       </c>
       <c r="C40" s="2">
-        <v>-2.288925507245021E-3</v>
+        <v>-1.83081398876398E-2</v>
       </c>
       <c r="D40" s="2">
-        <v>-1.902352397401885E-3</v>
+        <v>-2.0292006928979141E-3</v>
       </c>
       <c r="E40" s="2">
-        <v>-1.752319146001158E-3</v>
+        <v>2.417594740253826E-3</v>
       </c>
       <c r="F40" s="2">
-        <v>8.7364733771370887E-3</v>
+        <v>1.793184807716448E-2</v>
       </c>
       <c r="G40" s="2">
-        <v>-5.3701114937437788E-3</v>
+        <v>4.4671070287682912E-3</v>
       </c>
       <c r="H40" s="2">
-        <v>1.0810909024836499E-3</v>
+        <v>5.055235425104998E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>6.964290471221735E-3</v>
+        <v>1.08650755573181E-2</v>
       </c>
       <c r="J40" s="2">
-        <v>7.4605693975588979E-4</v>
+        <v>6.6963832937787524E-3</v>
       </c>
       <c r="K40" s="2">
-        <v>6.4334460465191123E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.553394316148319E-3</v>
+      </c>
+      <c r="L40" s="2">
+        <v>8.608225525019074E-3</v>
+      </c>
+      <c r="M40" s="2">
+        <v>4.1008688945848122E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>40663</v>
+        <v>41274</v>
       </c>
       <c r="B41" s="2">
-        <v>2.9615426349700821E-2</v>
+        <v>9.1146746221122399E-3</v>
       </c>
       <c r="C41" s="2">
-        <v>-4.9558232931726787E-3</v>
+        <v>2.9101011307282039E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>-9.7736224310729369E-4</v>
+        <v>2.970950704225261E-3</v>
       </c>
       <c r="E41" s="2">
-        <v>-5.3817117635994727E-3</v>
+        <v>-2.4611847201299049E-3</v>
       </c>
       <c r="F41" s="2">
-        <v>1.264202546357281E-2</v>
+        <v>5.8755753902783184E-3</v>
       </c>
       <c r="G41" s="2">
-        <v>-3.2566031914704752E-4</v>
+        <v>9.2133727494463358E-3</v>
       </c>
       <c r="H41" s="2">
-        <v>-1.5427477244471801E-3</v>
+        <v>8.5222854462643216E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>1.691585366878923E-2</v>
+        <v>1.6380343072573061E-2</v>
       </c>
       <c r="J41" s="2">
-        <v>3.1056034184821401E-2</v>
+        <v>3.0568407831759181E-3</v>
       </c>
       <c r="K41" s="2">
-        <v>2.659583695607219E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.3646950166823508E-3</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1.2865360084157069E-2</v>
+      </c>
+      <c r="M41" s="2">
+        <v>5.4790889883789013E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>40694</v>
+        <v>41305</v>
       </c>
       <c r="B42" s="2">
-        <v>-1.131946344875856E-2</v>
+        <v>5.1795149660024187E-2</v>
       </c>
       <c r="C42" s="2">
-        <v>-1.3044566243956E-2</v>
+        <v>-1.167765494305306E-2</v>
       </c>
       <c r="D42" s="2">
-        <v>-1.1466574934067E-3</v>
+        <v>-7.0615685335269074E-3</v>
       </c>
       <c r="E42" s="2">
-        <v>4.4474777251801711E-4</v>
+        <v>-1.0049152933953479E-2</v>
       </c>
       <c r="F42" s="2">
-        <v>2.1576855798508071E-2</v>
+        <v>2.951353322067353E-2</v>
       </c>
       <c r="G42" s="2">
-        <v>1.560249639942279E-3</v>
+        <v>-1.7080002732801081E-3</v>
       </c>
       <c r="H42" s="2">
-        <v>-2.0492218759854408E-3</v>
+        <v>-2.4717452325338729E-2</v>
       </c>
       <c r="I42" s="2">
-        <v>9.2176153622681722E-3</v>
+        <v>9.3789371295559948E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>-9.8353571992980757E-3</v>
+        <v>3.487788138004877E-3</v>
       </c>
       <c r="K42" s="2">
-        <v>2.7398884605424321E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.7508869848605908E-3</v>
+      </c>
+      <c r="L42" s="2">
+        <v>5.2702913049690263E-2</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1.3260819769358139E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>40724</v>
+        <v>41333</v>
       </c>
       <c r="B43" s="2">
-        <v>-1.6669130481128169E-2</v>
+        <v>1.357472075548904E-2</v>
       </c>
       <c r="C43" s="2">
-        <v>-2.9218840733803431E-3</v>
+        <v>2.0386724215919472E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>-2.5450823976532751E-3</v>
+        <v>-2.7194422614555962E-3</v>
       </c>
       <c r="E43" s="2">
-        <v>2.8064686497679681E-3</v>
+        <v>-3.40833941801244E-3</v>
       </c>
       <c r="F43" s="2">
-        <v>3.5192914780110069E-4</v>
+        <v>2.487827007665102E-2</v>
       </c>
       <c r="G43" s="2">
-        <v>-6.2227167679530524E-3</v>
+        <v>-6.0737749794703699E-4</v>
       </c>
       <c r="H43" s="2">
-        <v>3.8399347610427181E-3</v>
+        <v>1.337468635431871E-2</v>
       </c>
       <c r="I43" s="2">
-        <v>9.3065807311118551E-3</v>
+        <v>-4.8524361902499537E-3</v>
       </c>
       <c r="J43" s="2">
-        <v>-1.6577546449416371E-2</v>
+        <v>3.7867824610260392E-4</v>
       </c>
       <c r="K43" s="2">
-        <v>1.6907821239101731E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.0061653970393518E-3</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1.532579617391675E-2</v>
+      </c>
+      <c r="M43" s="2">
+        <v>2.5580118994295931E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>40755</v>
+        <v>41364</v>
       </c>
       <c r="B44" s="2">
-        <v>-2.0334903150027391E-2</v>
+        <v>3.7503384934149731E-2</v>
       </c>
       <c r="C44" s="2">
-        <v>-8.5411544195601596E-4</v>
+        <v>2.782310076750782E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>7.2564024079180278E-4</v>
+        <v>-8.4029351756853554E-4</v>
       </c>
       <c r="E44" s="2">
-        <v>2.4837851569321501E-3</v>
+        <v>-6.7574047169549623E-3</v>
       </c>
       <c r="F44" s="2">
-        <v>1.9163919732498619E-2</v>
+        <v>1.5080248600141729E-3</v>
       </c>
       <c r="G44" s="2">
-        <v>-9.3537634686439164E-3</v>
+        <v>1.609244596618931E-3</v>
       </c>
       <c r="H44" s="2">
-        <v>-6.2337343292978584E-3</v>
+        <v>-6.1025105366753207E-3</v>
       </c>
       <c r="I44" s="2">
-        <v>6.5263392833909478E-3</v>
+        <v>9.069685695920638E-3</v>
       </c>
       <c r="J44" s="2">
-        <v>-1.889200465162013E-2</v>
+        <v>9.8135590535286532E-4</v>
       </c>
       <c r="K44" s="2">
-        <v>2.663812612444165E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-7.0076606024365162E-3</v>
+      </c>
+      <c r="L44" s="2">
+        <v>3.784344145291111E-2</v>
+      </c>
+      <c r="M44" s="2">
+        <v>4.9676251080680255E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>40786</v>
+        <v>41394</v>
       </c>
       <c r="B45" s="2">
-        <v>-5.4321816291672542E-2</v>
+        <v>1.926643923394877E-2</v>
       </c>
       <c r="C45" s="2">
-        <v>8.653746491592651E-2</v>
+        <v>-2.0057406042044419E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>7.6613317629325772E-2</v>
+        <v>-1.2392454268174149E-3</v>
       </c>
       <c r="E45" s="2">
-        <v>1.833890742640398E-2</v>
+        <v>-4.9220171073545149E-3</v>
       </c>
       <c r="F45" s="2">
-        <v>-4.9951315863778017E-2</v>
+        <v>-2.3634634699418389E-2</v>
       </c>
       <c r="G45" s="2">
-        <v>-3.502090995244167E-2</v>
+        <v>5.9138728175498478E-3</v>
       </c>
       <c r="H45" s="2">
-        <v>9.8091391562851182E-2</v>
+        <v>1.4014304608037429E-2</v>
       </c>
       <c r="I45" s="2">
-        <v>5.9707382909908726E-3</v>
+        <v>-2.333309587484299E-3</v>
       </c>
       <c r="J45" s="2">
-        <v>-4.2141451312966573E-2</v>
+        <v>-4.2797479130188831E-3</v>
       </c>
       <c r="K45" s="2">
-        <v>2.2486827652995652E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.081384169734889E-2</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1.6033222462226951E-2</v>
+      </c>
+      <c r="M45" s="2">
+        <v>-4.7231586306693231E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>40816</v>
+        <v>41425</v>
       </c>
       <c r="B46" s="2">
-        <v>-7.0298596291188731E-2</v>
+        <v>2.339185221888784E-2</v>
       </c>
       <c r="C46" s="2">
-        <v>3.0413564406278629E-2</v>
+        <v>9.0697929313368064E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>2.475637205546E-2</v>
+        <v>-2.1109730725843429E-4</v>
       </c>
       <c r="E46" s="2">
-        <v>2.0829873226945409E-2</v>
+        <v>-3.3374982005315301E-3</v>
       </c>
       <c r="F46" s="2">
-        <v>-7.335428951519651E-3</v>
+        <v>9.0734610337375975E-3</v>
       </c>
       <c r="G46" s="2">
-        <v>1.4596041049110831E-3</v>
+        <v>1.265876555796241E-3</v>
       </c>
       <c r="H46" s="2">
-        <v>-8.9204913561155008E-3</v>
+        <v>1.235475787193518E-3</v>
       </c>
       <c r="I46" s="2">
-        <v>1.6597288924616489E-2</v>
+        <v>6.2462276122290342E-4</v>
       </c>
       <c r="J46" s="2">
-        <v>-6.274190929606141E-2</v>
+        <v>1.150242596620332E-3</v>
       </c>
       <c r="K46" s="2">
-        <v>1.395080676023509E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.3190073709626879E-3</v>
+      </c>
+      <c r="L46" s="2">
+        <v>2.489051988895145E-2</v>
+      </c>
+      <c r="M46" s="2">
+        <v>2.1892887610491041E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>40847</v>
+        <v>41455</v>
       </c>
       <c r="B47" s="2">
-        <v>0.10929314389091729</v>
+        <v>-1.342878817663073E-2</v>
       </c>
       <c r="C47" s="2">
-        <v>-1.0013089245186849E-2</v>
+        <v>1.4538314516381321E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>-2.2891869113276338E-2</v>
+        <v>-2.9012458152843918E-4</v>
       </c>
       <c r="E47" s="2">
-        <v>-2.0450997355264011E-2</v>
+        <v>1.4519491468030219E-3</v>
       </c>
       <c r="F47" s="2">
-        <v>-1.517647657336784E-3</v>
+        <v>2.1812608992101998E-2</v>
       </c>
       <c r="G47" s="2">
-        <v>6.0188392367142018E-3</v>
+        <v>-6.7541195037930102E-3</v>
       </c>
       <c r="H47" s="2">
-        <v>1.7791839797940408E-2</v>
+        <v>1.127184725757235E-3</v>
       </c>
       <c r="I47" s="2">
-        <v>1.553627295097388E-2</v>
+        <v>2.112834878646041E-3</v>
       </c>
       <c r="J47" s="2">
-        <v>0.10641035234823309</v>
+        <v>-2.7398633828413792E-3</v>
       </c>
       <c r="K47" s="2">
-        <v>-5.3220766941861359E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.3778860019043631E-3</v>
+      </c>
+      <c r="L47" s="2">
+        <v>-1.1842814567896969E-2</v>
+      </c>
+      <c r="M47" s="2">
+        <v>2.316827316875348E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>40877</v>
+        <v>41486</v>
       </c>
       <c r="B48" s="2">
-        <v>-2.2102790582362308E-3</v>
+        <v>5.0884320905109082E-2</v>
       </c>
       <c r="C48" s="2">
-        <v>6.3237930166066816E-3</v>
+        <v>-8.2848209648520577E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>-1.281725350620877E-3</v>
+        <v>-8.5811059222928865E-4</v>
       </c>
       <c r="E48" s="2">
-        <v>-4.0525272038028906E-3</v>
+        <v>-7.7009071808702423E-3</v>
       </c>
       <c r="F48" s="2">
-        <v>2.3175734604794909E-2</v>
+        <v>2.7054511188498349E-2</v>
       </c>
       <c r="G48" s="2">
-        <v>8.0575925594705833E-3</v>
+        <v>-2.9899707837122152E-4</v>
       </c>
       <c r="H48" s="2">
-        <v>1.287840457921385E-2</v>
+        <v>-4.284240675034634E-3</v>
       </c>
       <c r="I48" s="2">
-        <v>4.5049312797990522E-3</v>
+        <v>1.504422083575181E-2</v>
       </c>
       <c r="J48" s="2">
-        <v>1.0919683345467441E-3</v>
+        <v>3.377472567985151E-3</v>
       </c>
       <c r="K48" s="2">
-        <v>6.0964567251378006E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-5.4719142171866242E-3</v>
+      </c>
+      <c r="L48" s="2">
+        <v>5.356810663652728E-2</v>
+      </c>
+      <c r="M48" s="2">
+        <v>3.9205369250465008E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>40908</v>
+        <v>41517</v>
       </c>
       <c r="B49" s="2">
-        <v>1.022939276404178E-2</v>
+        <v>-2.89616906275495E-2</v>
       </c>
       <c r="C49" s="2">
-        <v>-3.152515737736894E-2</v>
+        <v>-2.4744510041876389E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>-3.418280223218551E-3</v>
+        <v>1.080409898120527E-3</v>
       </c>
       <c r="E49" s="2">
-        <v>1.0258544772385749E-3</v>
+        <v>5.331736217010663E-3</v>
       </c>
       <c r="F49" s="2">
-        <v>2.7988168985366392E-3</v>
+        <v>1.216100980746045E-2</v>
       </c>
       <c r="G49" s="2">
-        <v>2.0759219666259821E-3</v>
+        <v>-3.7513992975742871E-3</v>
       </c>
       <c r="H49" s="2">
-        <v>-1.3689918035764139E-3</v>
+        <v>-3.5701732949805498E-3</v>
       </c>
       <c r="I49" s="2">
-        <v>1.515375246371398E-2</v>
+        <v>1.1715847817497901E-2</v>
       </c>
       <c r="J49" s="2">
-        <v>8.972233613944192E-3</v>
+        <v>4.0917657806449632E-5</v>
       </c>
       <c r="K49" s="2">
-        <v>-2.3209092001801632E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.58974756161121E-2</v>
+      </c>
+      <c r="L49" s="2">
+        <v>-2.611142583970251E-2</v>
+      </c>
+      <c r="M49" s="2">
+        <v>4.163733421821642E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>40939</v>
+        <v>41547</v>
       </c>
       <c r="B50" s="2">
-        <v>4.4815089641295769E-2</v>
+        <v>3.1359715086689333E-2</v>
       </c>
       <c r="C50" s="2">
-        <v>-1.9207420763926789E-2</v>
+        <v>-3.5284877683658959E-3</v>
       </c>
       <c r="D50" s="2">
-        <v>-2.0365654338819761E-3</v>
+        <v>-2.225744971544708E-3</v>
       </c>
       <c r="E50" s="2">
-        <v>-5.5023350551577366E-3</v>
+        <v>-5.6965522503815702E-3</v>
       </c>
       <c r="F50" s="2">
-        <v>-1.6113268506973949E-2</v>
+        <v>-9.2660144642879253E-3</v>
       </c>
       <c r="G50" s="2">
-        <v>7.0470541366030037E-3</v>
+        <v>2.7362245248061519E-3</v>
       </c>
       <c r="H50" s="2">
-        <v>1.1959840510389339E-3</v>
+        <v>-4.7752276263908211E-3</v>
       </c>
       <c r="I50" s="2">
-        <v>1.352884835728585E-2</v>
+        <v>8.3014773985466955E-3</v>
       </c>
       <c r="J50" s="2">
-        <v>4.2940603590315568E-2</v>
+        <v>2.459134117584139E-3</v>
       </c>
       <c r="K50" s="2">
-        <v>-3.460589632578824E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.1235135107012019E-2</v>
+      </c>
+      <c r="L50" s="2">
+        <v>3.017487656820993E-2</v>
+      </c>
+      <c r="M50" s="2">
+        <v>-1.7308398012315319E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>40968</v>
+        <v>41578</v>
       </c>
       <c r="B51" s="2">
-        <v>4.3242181664066681E-2</v>
+        <v>4.5967590600427537E-2</v>
       </c>
       <c r="C51" s="2">
-        <v>7.9591552078854821E-3</v>
+        <v>4.372536282635453E-3</v>
       </c>
       <c r="D51" s="2">
-        <v>-1.482360594498022E-3</v>
+        <v>-4.2482248768838096E-3</v>
       </c>
       <c r="E51" s="2">
-        <v>-5.0565988051372024E-3</v>
+        <v>-7.9814123864996311E-3</v>
       </c>
       <c r="F51" s="2">
-        <v>2.4253282880733779E-2</v>
+        <v>3.6405012549561351E-4</v>
       </c>
       <c r="G51" s="2">
-        <v>2.7252507670305631E-4</v>
+        <v>-1.3686560652853559E-3</v>
       </c>
       <c r="H51" s="2">
-        <v>8.2673500091092755E-3</v>
+        <v>-3.7739573356609929E-4</v>
       </c>
       <c r="I51" s="2">
-        <v>2.4000526429026621E-2</v>
+        <v>1.439162768615836E-2</v>
       </c>
       <c r="J51" s="2">
-        <v>4.7545746459763893E-2</v>
+        <v>4.6363203975607892E-3</v>
       </c>
       <c r="K51" s="2">
-        <v>7.9450426997486959E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.984384319931312E-3</v>
+      </c>
+      <c r="L51" s="2">
+        <v>4.6626461888837643E-2</v>
+      </c>
+      <c r="M51" s="2">
+        <v>9.6249457802273096E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>40999</v>
+        <v>41608</v>
       </c>
       <c r="B52" s="2">
-        <v>3.2909207421962787E-2</v>
+        <v>3.0473950715243839E-2</v>
       </c>
       <c r="C52" s="2">
-        <v>-1.3662139527374721E-2</v>
+        <v>2.917782780025524E-3</v>
       </c>
       <c r="D52" s="2">
-        <v>-1.335799973299356E-3</v>
+        <v>-1.519198178221437E-4</v>
       </c>
       <c r="E52" s="2">
-        <v>-4.597882912912632E-3</v>
+        <v>-5.1006307473752122E-3</v>
       </c>
       <c r="F52" s="2">
-        <v>-3.7320348173072317E-2</v>
+        <v>9.8663583707005609E-5</v>
       </c>
       <c r="G52" s="2">
-        <v>5.2908192860030567E-3</v>
+        <v>1.404795148316484E-3</v>
       </c>
       <c r="H52" s="2">
-        <v>1.3535951397495969E-2</v>
+        <v>-2.235423640722933E-4</v>
       </c>
       <c r="I52" s="2">
-        <v>1.229630121568788E-2</v>
+        <v>9.9920275671750991E-3</v>
       </c>
       <c r="J52" s="2">
-        <v>2.9885956402886209E-2</v>
+        <v>2.389545696123152E-3</v>
       </c>
       <c r="K52" s="2">
-        <v>-5.5813864967567597E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.315926929742806E-3</v>
+      </c>
+      <c r="L52" s="2">
+        <v>3.1382931487687643E-2</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1.3278603581516281E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>41029</v>
+        <v>41639</v>
       </c>
       <c r="B53" s="2">
-        <v>-6.2768572515865539E-3</v>
+        <v>2.5316044679193132E-2</v>
       </c>
       <c r="C53" s="2">
-        <v>-3.6642777251665311E-3</v>
+        <v>-1.29710404454908E-3</v>
       </c>
       <c r="D53" s="2">
-        <v>-2.3291273067832519E-3</v>
+        <v>-5.9045168766835854E-4</v>
       </c>
       <c r="E53" s="2">
-        <v>-3.0868375098247469E-5</v>
+        <v>-6.0851415205714909E-3</v>
       </c>
       <c r="F53" s="2">
-        <v>6.5826119447311652E-3</v>
+        <v>1.4950547296215481E-2</v>
       </c>
       <c r="G53" s="2">
-        <v>8.3927822073004421E-4</v>
+        <v>-2.8655255887152231E-3</v>
       </c>
       <c r="H53" s="2">
-        <v>2.297440773508796E-4</v>
+        <v>-7.2543294620801557E-3</v>
       </c>
       <c r="I53" s="2">
-        <v>2.1060019626575351E-4</v>
+        <v>1.5538063340502759E-2</v>
       </c>
       <c r="J53" s="2">
-        <v>-6.186576322643151E-3</v>
+        <v>1.9189904786642839E-4</v>
       </c>
       <c r="K53" s="2">
-        <v>1.6667248420320599E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.1735079207887409E-3</v>
+      </c>
+      <c r="L53" s="2">
+        <v>2.7085032264376582E-2</v>
+      </c>
+      <c r="M53" s="2">
+        <v>2.584178411290564E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>41060</v>
+        <v>41670</v>
       </c>
       <c r="B54" s="2">
-        <v>-6.010057058447027E-2</v>
+        <v>-3.4573989205524791E-2</v>
       </c>
       <c r="C54" s="2">
-        <v>2.2901621790765159E-3</v>
+        <v>-5.7893375231100608E-3</v>
       </c>
       <c r="D54" s="2">
-        <v>1.931050324457839E-3</v>
+        <v>1.1603322347069069E-3</v>
       </c>
       <c r="E54" s="2">
-        <v>1.9776264280821469E-2</v>
+        <v>6.698409177139153E-3</v>
       </c>
       <c r="F54" s="2">
-        <v>-5.0400968449645291E-2</v>
+        <v>-2.2200805982831948E-2</v>
       </c>
       <c r="G54" s="2">
-        <v>3.6250873515029092E-3</v>
+        <v>3.3455718354358233E-4</v>
       </c>
       <c r="H54" s="2">
-        <v>2.4016523073870921E-3</v>
+        <v>5.0087806941097046E-3</v>
       </c>
       <c r="I54" s="2">
-        <v>1.082277679991916E-2</v>
+        <v>6.670833381218589E-3</v>
       </c>
       <c r="J54" s="2">
-        <v>-6.1006608239129123E-2</v>
+        <v>-1.7292410442929511E-3</v>
       </c>
       <c r="K54" s="2">
-        <v>-1.67268490090864E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.5530869654056371E-2</v>
+      </c>
+      <c r="L54" s="2">
+        <v>-3.5351543591526598E-2</v>
+      </c>
+      <c r="M54" s="2">
+        <v>-1.135869620985411E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>41090</v>
+        <v>41698</v>
       </c>
       <c r="B55" s="2">
-        <v>4.1202070256579848E-2</v>
+        <v>4.5743891192370212E-2</v>
       </c>
       <c r="C55" s="2">
-        <v>-1.354566980527361E-2</v>
+        <v>5.7987203043006197E-3</v>
       </c>
       <c r="D55" s="2">
-        <v>-7.0605029853723078E-3</v>
+        <v>-8.7864307986941226E-3</v>
       </c>
       <c r="E55" s="2">
-        <v>-1.1916658946393269E-2</v>
+        <v>-7.7476757388112993E-3</v>
       </c>
       <c r="F55" s="2">
-        <v>3.011816065992387E-2</v>
+        <v>1.149464007206684E-3</v>
       </c>
       <c r="G55" s="2">
-        <v>1.610165803559882E-3</v>
+        <v>4.7165361758350072E-4</v>
       </c>
       <c r="H55" s="2">
-        <v>1.6559866597170899E-2</v>
+        <v>-1.009711783934142E-2</v>
       </c>
       <c r="I55" s="2">
-        <v>1.128498227616785E-2</v>
+        <v>9.2507655101985668E-3</v>
       </c>
       <c r="J55" s="2">
-        <v>4.2274180082043353E-2</v>
+        <v>1.7844272684346409E-3</v>
       </c>
       <c r="K55" s="2">
-        <v>1.9792796777787802E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-6.3137568771344244E-3</v>
+      </c>
+      <c r="L55" s="2">
+        <v>4.538282634293174E-2</v>
+      </c>
+      <c r="M55" s="2">
+        <v>-5.274519712912568E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>41121</v>
+        <v>41729</v>
       </c>
       <c r="B56" s="2">
-        <v>1.3889141543513169E-2</v>
+        <v>8.4056885154222272E-3</v>
       </c>
       <c r="C56" s="2">
-        <v>-7.2476023471630402E-3</v>
+        <v>-5.3214816435175338E-3</v>
       </c>
       <c r="D56" s="2">
-        <v>-1.7709426864145339E-3</v>
+        <v>-2.3377283154861761E-3</v>
       </c>
       <c r="E56" s="2">
-        <v>-5.9829996356628454E-3</v>
+        <v>-3.347555148004222E-3</v>
       </c>
       <c r="F56" s="2">
-        <v>4.4788773640478067E-3</v>
+        <v>-1.570004843275368E-3</v>
       </c>
       <c r="G56" s="2">
-        <v>-3.5974973931177661E-3</v>
+        <v>5.9314624654998038E-3</v>
       </c>
       <c r="H56" s="2">
-        <v>-1.8206375387101129E-2</v>
+        <v>5.7760792967331831E-3</v>
       </c>
       <c r="I56" s="2">
-        <v>-7.7278726130378702E-4</v>
+        <v>1.4153374329733339E-2</v>
       </c>
       <c r="J56" s="2">
-        <v>1.223186808701375E-2</v>
+        <v>-3.1589462681436142E-4</v>
       </c>
       <c r="K56" s="2">
-        <v>-3.0595817658450901E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.712537932539894E-3</v>
+      </c>
+      <c r="L56" s="2">
+        <v>9.1277749815807854E-3</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1.0548407872170149E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>41152</v>
+        <v>41759</v>
       </c>
       <c r="B57" s="2">
-        <v>2.2522552594904429E-2</v>
+        <v>7.3920615918232624E-3</v>
       </c>
       <c r="C57" s="2">
-        <v>8.2788302042802187E-4</v>
+        <v>-6.1852203894467994E-3</v>
       </c>
       <c r="D57" s="2">
-        <v>-1.114103470528871E-3</v>
+        <v>-1.002526206910326E-3</v>
       </c>
       <c r="E57" s="2">
-        <v>-4.4087536868731014E-3</v>
+        <v>-3.980013679884542E-3</v>
       </c>
       <c r="F57" s="2">
-        <v>1.147708949781686E-2</v>
+        <v>3.5171257773777159E-3</v>
       </c>
       <c r="G57" s="2">
-        <v>2.520363490485122E-3</v>
+        <v>2.4710714224851488E-4</v>
       </c>
       <c r="H57" s="2">
-        <v>-9.3867912687903843E-3</v>
+        <v>-4.2510647982573202E-3</v>
       </c>
       <c r="I57" s="2">
-        <v>1.5713771995621451E-2</v>
+        <v>7.1655190744856819E-3</v>
       </c>
       <c r="J57" s="2">
-        <v>2.438847152508106E-2</v>
+        <v>2.628048064244437E-3</v>
       </c>
       <c r="K57" s="2">
-        <v>3.4447734095568719E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-6.0788651536144434E-3</v>
+      </c>
+      <c r="L57" s="2">
+        <v>7.4438348166138858E-3</v>
+      </c>
+      <c r="M57" s="2">
+        <v>7.5631536878732181E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>41182</v>
+        <v>41790</v>
       </c>
       <c r="B58" s="2">
-        <v>2.5841855742965599E-2</v>
+        <v>2.3474142506980659E-2</v>
       </c>
       <c r="C58" s="2">
-        <v>-1.612289915548137E-2</v>
+        <v>-1.1606963326890041E-3</v>
       </c>
       <c r="D58" s="2">
-        <v>-1.586184219666831E-3</v>
+        <v>-2.0468872579282321E-4</v>
       </c>
       <c r="E58" s="2">
-        <v>-4.9365022825210714E-3</v>
+        <v>-8.0353704576053842E-3</v>
       </c>
       <c r="F58" s="2">
-        <v>-4.4539762644530186E-3</v>
+        <v>1.215605532548324E-2</v>
       </c>
       <c r="G58" s="2">
-        <v>5.2281327475969253E-3</v>
+        <v>-1.593021373746728E-3</v>
       </c>
       <c r="H58" s="2">
-        <v>-5.9368601389222508E-3</v>
+        <v>1.312348318593948E-4</v>
       </c>
       <c r="I58" s="2">
-        <v>1.286497964114721E-2</v>
+        <v>6.5936928846640928E-3</v>
       </c>
       <c r="J58" s="2">
-        <v>2.4934588191046811E-2</v>
+        <v>5.2810960522549077E-3</v>
       </c>
       <c r="K58" s="2">
-        <v>-1.674955480465451E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.7856129361832909E-3</v>
+      </c>
+      <c r="L58" s="2">
+        <v>2.4656028962299639E-2</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1.7265273583676991E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>41213</v>
+        <v>41820</v>
       </c>
       <c r="B59" s="2">
-        <v>-1.846434620589477E-2</v>
+        <v>2.0657485817265678E-2</v>
       </c>
       <c r="C59" s="2">
-        <v>-1.617767723358687E-2</v>
+        <v>-2.8673010516987452E-3</v>
       </c>
       <c r="D59" s="2">
-        <v>-2.9918662983641209E-4</v>
+        <v>-1.3542493157059349E-4</v>
       </c>
       <c r="E59" s="2">
-        <v>5.1868861075607953E-3</v>
+        <v>-4.9890066347201278E-3</v>
       </c>
       <c r="F59" s="2">
-        <v>9.6359015433319451E-4</v>
+        <v>-1.5432048083219289E-2</v>
       </c>
       <c r="G59" s="2">
-        <v>-3.8942157914745312E-4</v>
+        <v>-1.262798634812379E-3</v>
       </c>
       <c r="H59" s="2">
-        <v>2.3432919614951859E-3</v>
+        <v>-4.2272161650053208E-3</v>
       </c>
       <c r="I59" s="2">
-        <v>1.5874883472192729E-2</v>
+        <v>1.362368243270775E-2</v>
       </c>
       <c r="J59" s="2">
-        <v>-1.799183782052555E-2</v>
+        <v>5.4929993598475946E-3</v>
       </c>
       <c r="K59" s="2">
-        <v>8.723231729893346E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.525764043411648E-3</v>
+      </c>
+      <c r="L59" s="2">
+        <v>2.0030067977080721E-2</v>
+      </c>
+      <c r="M59" s="2">
+        <v>-9.1654664568851716E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>41243</v>
+        <v>41851</v>
       </c>
       <c r="B60" s="2">
-        <v>5.8009943635441994E-3</v>
+        <v>-1.3790960035268361E-2</v>
       </c>
       <c r="C60" s="2">
-        <v>-1.83081398876398E-2</v>
+        <v>2.259205058910307E-3</v>
       </c>
       <c r="D60" s="2">
-        <v>-2.0292006928979141E-3</v>
+        <v>1.7129590531084199E-4</v>
       </c>
       <c r="E60" s="2">
-        <v>2.417594740253826E-3</v>
+        <v>3.6812679123743308E-3</v>
       </c>
       <c r="F60" s="2">
-        <v>2.724887742685464E-2</v>
+        <v>1.6095720735244019E-2</v>
       </c>
       <c r="G60" s="2">
-        <v>4.4671070287682912E-3</v>
+        <v>-7.8853842736564816E-3</v>
       </c>
       <c r="H60" s="2">
-        <v>5.055235425104998E-3</v>
+        <v>6.6889821889850598E-3</v>
       </c>
       <c r="I60" s="2">
-        <v>1.08650755573181E-2</v>
+        <v>4.6672531882057337E-3</v>
       </c>
       <c r="J60" s="2">
-        <v>7.9191462681866102E-3</v>
+        <v>1.809569906779052E-3</v>
       </c>
       <c r="K60" s="2">
-        <v>3.9104342854936799E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.607816161237619E-4</v>
+      </c>
+      <c r="L60" s="2">
+        <v>-1.164919294028416E-2</v>
+      </c>
+      <c r="M60" s="2">
+        <v>3.1287434322478389E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>41274</v>
+        <v>41882</v>
       </c>
       <c r="B61" s="2">
-        <v>9.1146746221122399E-3</v>
+        <v>4.0004921223318002E-2</v>
       </c>
       <c r="C61" s="2">
-        <v>2.9101011307282039E-3</v>
+        <v>3.4850818248166599E-4</v>
       </c>
       <c r="D61" s="2">
-        <v>2.970950704225261E-3</v>
+        <v>-3.1887445204655811E-3</v>
       </c>
       <c r="E61" s="2">
-        <v>-2.4611847201299049E-3</v>
+        <v>-7.2466703411497857E-3</v>
       </c>
       <c r="F61" s="2">
-        <v>1.6889913956195289E-2</v>
+        <v>9.2374159160488536E-3</v>
       </c>
       <c r="G61" s="2">
-        <v>9.2133727494463358E-3</v>
+        <v>7.7500021527798779E-4</v>
       </c>
       <c r="H61" s="2">
-        <v>8.5222854462643216E-3</v>
+        <v>-1.696677418344561E-3</v>
       </c>
       <c r="I61" s="2">
-        <v>1.6380343072573061E-2</v>
+        <v>1.6986525278803979E-2</v>
       </c>
       <c r="J61" s="2">
-        <v>1.317940844966729E-2</v>
+        <v>2.9762826205625981E-3</v>
       </c>
       <c r="K61" s="2">
-        <v>7.5041239893324056E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.395314815223148E-3</v>
+      </c>
+      <c r="L61" s="2">
+        <v>4.1804375366441611E-2</v>
+      </c>
+      <c r="M61" s="2">
+        <v>2.628684671229716E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>41305</v>
+        <v>41912</v>
       </c>
       <c r="B62" s="2">
-        <v>5.1795149660024187E-2</v>
+        <v>-1.402367443710284E-2</v>
       </c>
       <c r="C62" s="2">
-        <v>-1.167765494305306E-2</v>
+        <v>2.1009746306248629E-3</v>
       </c>
       <c r="D62" s="2">
-        <v>-7.0615685335269074E-3</v>
+        <v>6.792663922960962E-5</v>
       </c>
       <c r="E62" s="2">
-        <v>-1.0049152933953479E-2</v>
+        <v>4.5502511409001301E-4</v>
       </c>
       <c r="F62" s="2">
-        <v>2.1708726814368501E-2</v>
+        <v>-2.5569704752596189E-2</v>
       </c>
       <c r="G62" s="2">
-        <v>-1.7080002732801081E-3</v>
+        <v>8.5184006057503758E-4</v>
       </c>
       <c r="H62" s="2">
-        <v>-2.4717452325338729E-2</v>
+        <v>5.4286827429621543E-3</v>
       </c>
       <c r="I62" s="2">
-        <v>9.3789371295559948E-3</v>
+        <v>1.2142521122817751E-2</v>
       </c>
       <c r="J62" s="2">
-        <v>5.1182360663807068E-2</v>
+        <v>2.8261047925179921E-3</v>
       </c>
       <c r="K62" s="2">
-        <v>-1.131302762246995E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.8085884278317206E-3</v>
+      </c>
+      <c r="L62" s="2">
+        <v>-1.4508260381840251E-2</v>
+      </c>
+      <c r="M62" s="2">
+        <v>-7.0789447438400217E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>41333</v>
+        <v>41943</v>
       </c>
       <c r="B63" s="2">
-        <v>1.357472075548904E-2</v>
+        <v>2.442538734819388E-2</v>
       </c>
       <c r="C63" s="2">
-        <v>2.0386724215919472E-3</v>
+        <v>8.6658926794416224E-3</v>
       </c>
       <c r="D63" s="2">
-        <v>-2.7194422614555962E-3</v>
+        <v>-1.0793209395613901E-2</v>
       </c>
       <c r="E63" s="2">
-        <v>-3.40833941801244E-3</v>
+        <v>3.878632518212521E-3</v>
       </c>
       <c r="F63" s="2">
-        <v>2.4601666891835822E-2</v>
+        <v>2.1607712306906019E-2</v>
       </c>
       <c r="G63" s="2">
-        <v>-6.0737749794703699E-4</v>
+        <v>7.3849275262642946E-3</v>
       </c>
       <c r="H63" s="2">
-        <v>1.337468635431871E-2</v>
+        <v>1.0114851297333689E-3</v>
       </c>
       <c r="I63" s="2">
-        <v>-4.8524361902499537E-3</v>
+        <v>7.9839746163550256E-4</v>
       </c>
       <c r="J63" s="2">
-        <v>1.5051100336237249E-2</v>
+        <v>-5.3535757738747414E-3</v>
       </c>
       <c r="K63" s="2">
-        <v>2.72562384138131E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0350692443579669E-2</v>
+      </c>
+      <c r="L63" s="2">
+        <v>2.724259540047062E-2</v>
+      </c>
+      <c r="M63" s="2">
+        <v>4.1154433698597807E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>41364</v>
+        <v>41973</v>
       </c>
       <c r="B64" s="2">
-        <v>3.7503384934149731E-2</v>
+        <v>2.689465291734661E-2</v>
       </c>
       <c r="C64" s="2">
-        <v>2.782310076750782E-3</v>
+        <v>2.0848814474008211E-3</v>
       </c>
       <c r="D64" s="2">
-        <v>-8.4029351756853554E-4</v>
+        <v>-2.6172766105936329E-4</v>
       </c>
       <c r="E64" s="2">
-        <v>-6.7574047169549623E-3</v>
+        <v>-3.9292022699024542E-3</v>
       </c>
       <c r="F64" s="2">
-        <v>1.410743010459733E-2</v>
+        <v>-8.0649801989906168E-4</v>
       </c>
       <c r="G64" s="2">
-        <v>1.609244596618931E-3</v>
+        <v>2.875991022129432E-3</v>
       </c>
       <c r="H64" s="2">
-        <v>-6.1025105366753207E-3</v>
+        <v>-1.2997010999149521E-3</v>
       </c>
       <c r="I64" s="2">
-        <v>9.069685695920638E-3</v>
+        <v>1.557029282997484E-2</v>
       </c>
       <c r="J64" s="2">
-        <v>3.9022990869633338E-2</v>
+        <v>-1.7574821258855571E-3</v>
       </c>
       <c r="K64" s="2">
-        <v>2.805426342431265E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.4676545447349696E-5</v>
+      </c>
+      <c r="L64" s="2">
+        <v>2.8077340962481798E-2</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1.727698339506918E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>41394</v>
+        <v>42004</v>
       </c>
       <c r="B65" s="2">
-        <v>1.926643923394877E-2</v>
+        <v>-2.519211634947172E-3</v>
       </c>
       <c r="C65" s="2">
-        <v>-2.0057406042044419E-3</v>
+        <v>1.322691495751083E-2</v>
       </c>
       <c r="D65" s="2">
-        <v>-1.2392454268174149E-3</v>
+        <v>-5.4258066392804949E-3</v>
       </c>
       <c r="E65" s="2">
-        <v>-4.9220171073545149E-3</v>
+        <v>2.42100156739733E-3</v>
       </c>
       <c r="F65" s="2">
-        <v>1.0225524326230261E-3</v>
+        <v>2.4905756786328351E-2</v>
       </c>
       <c r="G65" s="2">
-        <v>5.9138728175498478E-3</v>
+        <v>3.6676481100119669E-3</v>
       </c>
       <c r="H65" s="2">
-        <v>1.4014304608037429E-2</v>
+        <v>-2.4873761804597549E-2</v>
       </c>
       <c r="I65" s="2">
-        <v>-2.333309587484299E-3</v>
+        <v>-1.7612718332473459E-3</v>
       </c>
       <c r="J65" s="2">
-        <v>1.9235595677250202E-2</v>
+        <v>2.461380314668471E-3</v>
       </c>
       <c r="K65" s="2">
-        <v>-5.6941950828121942E-5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.9237264803196901E-3</v>
+      </c>
+      <c r="L65" s="2">
+        <v>3.580938326286889E-4</v>
+      </c>
+      <c r="M65" s="2">
+        <v>4.2032350787960804E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>41425</v>
+        <v>42035</v>
       </c>
       <c r="B66" s="2">
-        <v>2.339185221888784E-2</v>
+        <v>-3.0019313213633821E-2</v>
       </c>
       <c r="C66" s="2">
-        <v>9.0697929313368064E-3</v>
+        <v>-8.0827333050966788E-3</v>
       </c>
       <c r="D66" s="2">
-        <v>-2.1109730725843429E-4</v>
+        <v>-3.4714746821200571E-3</v>
       </c>
       <c r="E66" s="2">
-        <v>-3.3374982005315301E-3</v>
+        <v>4.2055994335565838E-3</v>
       </c>
       <c r="F66" s="2">
-        <v>-1.188867451512036E-2</v>
+        <v>4.005580664302083E-2</v>
       </c>
       <c r="G66" s="2">
-        <v>1.265876555796241E-3</v>
+        <v>7.800245877315648E-3</v>
       </c>
       <c r="H66" s="2">
-        <v>1.235475787193518E-3</v>
+        <v>6.4201080600838623E-3</v>
       </c>
       <c r="I66" s="2">
-        <v>6.2462276122290342E-4</v>
+        <v>-1.9469878782717449E-4</v>
       </c>
       <c r="J66" s="2">
-        <v>2.304011195600696E-2</v>
+        <v>6.4048725861676203E-4</v>
       </c>
       <c r="K66" s="2">
-        <v>-6.4936663916470821E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.2288730588144061E-2</v>
+      </c>
+      <c r="L66" s="2">
+        <v>-2.5204088045282531E-2</v>
+      </c>
+      <c r="M66" s="2">
+        <v>7.0341934730231426E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>41455</v>
+        <v>42063</v>
       </c>
       <c r="B67" s="2">
-        <v>-1.342878817663073E-2</v>
+        <v>5.7471739066221383E-2</v>
       </c>
       <c r="C67" s="2">
-        <v>1.4538314516381321E-3</v>
+        <v>-2.0952337096102891E-3</v>
       </c>
       <c r="D67" s="2">
-        <v>-2.9012458152843918E-4</v>
+        <v>-4.0297860129004937E-3</v>
       </c>
       <c r="E67" s="2">
-        <v>1.4519491468030219E-3</v>
+        <v>-9.2006628447888206E-3</v>
       </c>
       <c r="F67" s="2">
-        <v>1.575203889479956E-2</v>
+        <v>-3.1122161901463118E-2</v>
       </c>
       <c r="G67" s="2">
-        <v>-6.7541195037930102E-3</v>
+        <v>1.0861060867370259E-2</v>
       </c>
       <c r="H67" s="2">
-        <v>1.127184725757235E-3</v>
+        <v>1.074534331356003E-2</v>
       </c>
       <c r="I67" s="2">
-        <v>2.112834878646041E-3</v>
+        <v>1.0301245302461371E-2</v>
       </c>
       <c r="J67" s="2">
-        <v>-1.226748189974552E-2</v>
+        <v>6.0941539877954476E-3</v>
       </c>
       <c r="K67" s="2">
-        <v>2.143950049634232E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.5511596227168471E-2</v>
+      </c>
+      <c r="L67" s="2">
+        <v>5.5142851494575158E-2</v>
+      </c>
+      <c r="M67" s="2">
+        <v>-3.4020933981551778E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>41486</v>
+        <v>42094</v>
       </c>
       <c r="B68" s="2">
-        <v>5.0884320905109082E-2</v>
+        <v>-1.5814641824717701E-2</v>
       </c>
       <c r="C68" s="2">
-        <v>-8.2848209648520577E-3</v>
+        <v>-9.4326166754064023E-3</v>
       </c>
       <c r="D68" s="2">
-        <v>-8.5811059222928865E-4</v>
+        <v>-8.889449140645489E-4</v>
       </c>
       <c r="E68" s="2">
-        <v>-7.7009071808702423E-3</v>
+        <v>1.639101880301919E-3</v>
       </c>
       <c r="F68" s="2">
-        <v>9.1747758481119605E-3</v>
+        <v>1.2692827446131269E-2</v>
       </c>
       <c r="G68" s="2">
-        <v>-2.9899707837122152E-4</v>
+        <v>3.5620360198411749E-3</v>
       </c>
       <c r="H68" s="2">
-        <v>-4.284240675034634E-3</v>
+        <v>5.8003881188317674E-3</v>
       </c>
       <c r="I68" s="2">
-        <v>1.504422083575181E-2</v>
+        <v>-7.660311697473166E-4</v>
       </c>
       <c r="J68" s="2">
-        <v>5.1366868659336172E-2</v>
+        <v>4.4525929806182862E-3</v>
       </c>
       <c r="K68" s="2">
-        <v>8.908573924192283E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.045014959934921E-4</v>
+      </c>
+      <c r="L68" s="2">
+        <v>-1.437549077807247E-2</v>
+      </c>
+      <c r="M68" s="2">
+        <v>2.102345486467132E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>41517</v>
+        <v>42124</v>
       </c>
       <c r="B69" s="2">
-        <v>-2.89616906275495E-2</v>
+        <v>9.5932720691902507E-3</v>
       </c>
       <c r="C69" s="2">
-        <v>-2.4744510041876389E-3</v>
+        <v>-7.9427764355122221E-3</v>
       </c>
       <c r="D69" s="2">
-        <v>1.080409898120527E-3</v>
+        <v>-3.8587990860139421E-4</v>
       </c>
       <c r="E69" s="2">
-        <v>5.331736217010663E-3</v>
+        <v>-3.594459020119789E-3</v>
       </c>
       <c r="F69" s="2">
-        <v>1.2411628357531479E-2</v>
+        <v>-1.512574237923054E-2</v>
       </c>
       <c r="G69" s="2">
-        <v>-3.7513992975742871E-3</v>
+        <v>6.4021760764281233E-3</v>
       </c>
       <c r="H69" s="2">
-        <v>-3.5701732949805498E-3</v>
+        <v>8.0078977891862024E-5</v>
       </c>
       <c r="I69" s="2">
-        <v>1.1715847817497901E-2</v>
+        <v>8.3813677004296316E-3</v>
       </c>
       <c r="J69" s="2">
-        <v>-2.6987413032617528E-2</v>
+        <v>1.903359247992009E-3</v>
       </c>
       <c r="K69" s="2">
-        <v>3.6448201752590221E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-6.1063776415009041E-3</v>
+      </c>
+      <c r="L69" s="2">
+        <v>8.4378078363611577E-3</v>
+      </c>
+      <c r="M69" s="2">
+        <v>-1.6879291581832711E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>41547</v>
+        <v>42155</v>
       </c>
       <c r="B70" s="2">
-        <v>3.1359715086689333E-2</v>
+        <v>1.285915680664362E-2</v>
       </c>
       <c r="C70" s="2">
-        <v>-3.5284877683658959E-3</v>
+        <v>-1.045459784590042E-2</v>
       </c>
       <c r="D70" s="2">
-        <v>-2.225744971544708E-3</v>
+        <v>-7.1468614459602176E-4</v>
       </c>
       <c r="E70" s="2">
-        <v>-5.6965522503815702E-3</v>
+        <v>-6.9401489098086522E-3</v>
       </c>
       <c r="F70" s="2">
-        <v>-8.4969242782613526E-3</v>
+        <v>-1.5037157127124889E-2</v>
       </c>
       <c r="G70" s="2">
-        <v>2.7362245248061519E-3</v>
+        <v>-1.0184910511222721E-2</v>
       </c>
       <c r="H70" s="2">
-        <v>-4.7752276263908211E-3</v>
+        <v>3.321760345313951E-4</v>
       </c>
       <c r="I70" s="2">
-        <v>8.3014773985466955E-3</v>
+        <v>1.0016090430947199E-3</v>
       </c>
       <c r="J70" s="2">
-        <v>3.047136087879895E-2</v>
+        <v>1.1671573332905361E-3</v>
       </c>
       <c r="K70" s="2">
-        <v>-1.640038537643779E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.1589630757467E-3</v>
+      </c>
+      <c r="L70" s="2">
+        <v>9.2195618441382587E-3</v>
+      </c>
+      <c r="M70" s="2">
+        <v>-5.316805390114073E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>41578</v>
+        <v>42185</v>
       </c>
       <c r="B71" s="2">
-        <v>4.5967590600427537E-2</v>
+        <v>-1.9357891106497771E-2</v>
       </c>
       <c r="C71" s="2">
-        <v>4.372536282635453E-3</v>
+        <v>-7.1655982260722118E-3</v>
       </c>
       <c r="D71" s="2">
-        <v>-4.2482248768838096E-3</v>
+        <v>5.5936301511416708E-4</v>
       </c>
       <c r="E71" s="2">
-        <v>-7.9814123864996311E-3</v>
+        <v>3.2602877613319152E-3</v>
       </c>
       <c r="F71" s="2">
-        <v>1.0130334793327601E-3</v>
+        <v>-1.187943875004225E-3</v>
       </c>
       <c r="G71" s="2">
-        <v>-1.3686560652853559E-3</v>
+        <v>-5.0616050616049124E-3</v>
       </c>
       <c r="H71" s="2">
-        <v>-3.7739573356609929E-4</v>
+        <v>4.4294191476230704E-3</v>
       </c>
       <c r="I71" s="2">
-        <v>1.439162768615836E-2</v>
+        <v>1.920208342308212E-2</v>
       </c>
       <c r="J71" s="2">
-        <v>4.6386132180997977E-2</v>
+        <v>-1.9857857854645999E-3</v>
       </c>
       <c r="K71" s="2">
-        <v>7.7269214874543064E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.2892270455351129E-2</v>
+      </c>
+      <c r="L71" s="2">
+        <v>-1.7984181916025951E-2</v>
+      </c>
+      <c r="M71" s="2">
+        <v>2.0067464933851312E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>41608</v>
+        <v>42216</v>
       </c>
       <c r="B72" s="2">
-        <v>3.0473950715243839E-2</v>
+        <v>2.0951278783537971E-2</v>
       </c>
       <c r="C72" s="2">
-        <v>2.917782780025524E-3</v>
+        <v>-1.0804246092612661E-2</v>
       </c>
       <c r="D72" s="2">
-        <v>-1.519198178221437E-4</v>
+        <v>-6.4085854387888608E-3</v>
       </c>
       <c r="E72" s="2">
-        <v>-5.1006307473752122E-3</v>
+        <v>-8.2141188772648643E-3</v>
       </c>
       <c r="F72" s="2">
-        <v>6.2306919728196356E-3</v>
+        <v>3.8395488198949101E-3</v>
       </c>
       <c r="G72" s="2">
-        <v>1.404795148316484E-3</v>
+        <v>1.7119619787134392E-2</v>
       </c>
       <c r="H72" s="2">
-        <v>-2.235423640722933E-4</v>
+        <v>-1.1697435629238419E-2</v>
       </c>
       <c r="I72" s="2">
-        <v>9.9920275671750991E-3</v>
+        <v>6.611956050830114E-3</v>
       </c>
       <c r="J72" s="2">
-        <v>3.1740524161715987E-2</v>
+        <v>3.0597733066535242E-3</v>
       </c>
       <c r="K72" s="2">
-        <v>2.3382894396408891E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.5554412901712693E-3</v>
+      </c>
+      <c r="L72" s="2">
+        <v>2.124547559677117E-2</v>
+      </c>
+      <c r="M72" s="2">
+        <v>4.2976958108435992E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>41639</v>
+        <v>42247</v>
       </c>
       <c r="B73" s="2">
-        <v>2.5316044679193132E-2</v>
+        <v>-6.0333949381385032E-2</v>
       </c>
       <c r="C73" s="2">
-        <v>-1.29710404454908E-3</v>
+        <v>5.3468084311972808E-2</v>
       </c>
       <c r="D73" s="2">
-        <v>-5.9045168766835854E-4</v>
+        <v>4.8553429232378598E-2</v>
       </c>
       <c r="E73" s="2">
-        <v>-6.0851415205714909E-3</v>
+        <v>2.7582917271506521E-2</v>
       </c>
       <c r="F73" s="2">
-        <v>1.4064540728319939E-2</v>
+        <v>-2.3408516331840531E-3</v>
       </c>
       <c r="G73" s="2">
-        <v>-2.8655255887152231E-3</v>
+        <v>-8.5638131591500022E-3</v>
       </c>
       <c r="H73" s="2">
-        <v>-7.2543294620801557E-3</v>
+        <v>-3.1676804991381813E-2</v>
       </c>
       <c r="I73" s="2">
-        <v>1.5538063340502759E-2</v>
+        <v>-2.8547169737788359E-2</v>
       </c>
       <c r="J73" s="2">
-        <v>2.6716310174183251E-2</v>
+        <v>-5.3514938418147704E-3</v>
       </c>
       <c r="K73" s="2">
-        <v>2.5851055292125261E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.8758618712747541E-3</v>
+      </c>
+      <c r="L73" s="2">
+        <v>-5.4175942106957767E-2</v>
+      </c>
+      <c r="M73" s="2">
+        <v>8.9957609586586839E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>41670</v>
+        <v>42277</v>
       </c>
       <c r="B74" s="2">
-        <v>-3.4573989205524791E-2</v>
+        <v>-2.4743556718279991E-2</v>
       </c>
       <c r="C74" s="2">
-        <v>-5.7893375231100608E-3</v>
+        <v>-1.9031446658890231E-2</v>
       </c>
       <c r="D74" s="2">
-        <v>1.1603322347069069E-3</v>
+        <v>-2.1752061433876761E-2</v>
       </c>
       <c r="E74" s="2">
-        <v>6.698409177139153E-3</v>
+        <v>8.9751700024736092E-3</v>
       </c>
       <c r="F74" s="2">
-        <v>-1.117972553919847E-2</v>
+        <v>1.228367234107215E-2</v>
       </c>
       <c r="G74" s="2">
-        <v>3.3455718354358233E-4</v>
+        <v>4.4475053311983093E-3</v>
       </c>
       <c r="H74" s="2">
-        <v>5.0087806941097046E-3</v>
+        <v>2.0807459275398399E-2</v>
       </c>
       <c r="I74" s="2">
-        <v>6.670833381218589E-3</v>
+        <v>1.3941455847165621E-2</v>
       </c>
       <c r="J74" s="2">
-        <v>-3.4620876943316142E-2</v>
+        <v>4.987058948664469E-3</v>
       </c>
       <c r="K74" s="2">
-        <v>-8.6561977460945707E-5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.6158878333087271E-2</v>
+      </c>
+      <c r="L74" s="2">
+        <v>-2.2913076908255541E-2</v>
+      </c>
+      <c r="M74" s="2">
+        <v>2.6740076906067692E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>41698</v>
+        <v>42308</v>
       </c>
       <c r="B75" s="2">
-        <v>4.5743891192370212E-2</v>
+        <v>8.4354222808935564E-2</v>
       </c>
       <c r="C75" s="2">
-        <v>5.7987203043006197E-3</v>
+        <v>2.9860262472769521E-3</v>
       </c>
       <c r="D75" s="2">
-        <v>-8.7864307986941226E-3</v>
+        <v>-5.9124243754996586E-3</v>
       </c>
       <c r="E75" s="2">
-        <v>-7.7476757388112993E-3</v>
+        <v>-1.1620878268543629E-2</v>
       </c>
       <c r="F75" s="2">
-        <v>1.5368791589550699E-4</v>
+        <v>8.2608867021027876E-3</v>
       </c>
       <c r="G75" s="2">
-        <v>4.7165361758350072E-4</v>
+        <v>2.230427994356354E-4</v>
       </c>
       <c r="H75" s="2">
-        <v>-1.009711783934142E-2</v>
+        <v>-1.339833124717993E-2</v>
       </c>
       <c r="I75" s="2">
-        <v>9.2507655101985668E-3</v>
+        <v>4.7321219236691843E-3</v>
       </c>
       <c r="J75" s="2">
-        <v>4.5278877329950527E-2</v>
+        <v>3.628925890854839E-3</v>
       </c>
       <c r="K75" s="2">
-        <v>-8.584871306209405E-4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.148650270162987E-2</v>
+      </c>
+      <c r="L75" s="2">
+        <v>8.3886074360985358E-2</v>
+      </c>
+      <c r="M75" s="2">
+        <v>-6.8388219488078807E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>41729</v>
+        <v>42338</v>
       </c>
       <c r="B76" s="2">
-        <v>8.4056885154222272E-3</v>
+        <v>2.9739133579416151E-3</v>
       </c>
       <c r="C76" s="2">
-        <v>-5.3214816435175338E-3</v>
+        <v>-6.3568749602693764E-4</v>
       </c>
       <c r="D76" s="2">
-        <v>-2.3377283154861761E-3</v>
+        <v>-3.436996091306987E-3</v>
       </c>
       <c r="E76" s="2">
-        <v>-3.347555148004222E-3</v>
+        <v>-1.2346219836638641E-3</v>
       </c>
       <c r="F76" s="2">
-        <v>8.6512079170970261E-3</v>
+        <v>8.1030243251485577E-3</v>
       </c>
       <c r="G76" s="2">
-        <v>5.9314624654998038E-3</v>
+        <v>-1.197555335315625E-3</v>
       </c>
       <c r="H76" s="2">
-        <v>5.7760792967331831E-3</v>
+        <v>5.687789759136308E-3</v>
       </c>
       <c r="I76" s="2">
-        <v>1.4153374329733339E-2</v>
+        <v>5.6263385851517116E-3</v>
       </c>
       <c r="J76" s="2">
-        <v>9.9547607946417274E-3</v>
+        <v>8.5889335294355718E-3</v>
       </c>
       <c r="K76" s="2">
-        <v>2.859825746251383E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.1034414134568653E-3</v>
+      </c>
+      <c r="L76" s="2">
+        <v>4.7648627829531389E-3</v>
+      </c>
+      <c r="M76" s="2">
+        <v>2.6162607802293191E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>41759</v>
+        <v>42369</v>
       </c>
       <c r="B77" s="2">
-        <v>7.3920615918232624E-3</v>
+        <v>-1.5771948543889081E-2</v>
       </c>
       <c r="C77" s="2">
-        <v>-6.1852203894467994E-3</v>
+        <v>-9.5827237453087744E-3</v>
       </c>
       <c r="D77" s="2">
-        <v>-1.002526206910326E-3</v>
+        <v>-1.076141802283803E-2</v>
       </c>
       <c r="E77" s="2">
-        <v>-3.980013679884542E-3</v>
+        <v>1.619225305116823E-3</v>
       </c>
       <c r="F77" s="2">
-        <v>-2.604827571832257E-3</v>
+        <v>-2.5511763500065772E-3</v>
       </c>
       <c r="G77" s="2">
-        <v>2.4710714224851488E-4</v>
+        <v>-3.8285029147886451E-3</v>
       </c>
       <c r="H77" s="2">
-        <v>-4.2510647982573202E-3</v>
+        <v>2.2468330445035711E-3</v>
       </c>
       <c r="I77" s="2">
-        <v>7.1655190744856819E-3</v>
+        <v>3.7605389643311391E-3</v>
       </c>
       <c r="J77" s="2">
-        <v>6.7526149766039614E-3</v>
+        <v>6.4151612938998506E-3</v>
       </c>
       <c r="K77" s="2">
-        <v>-1.180516828097175E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-6.6907529245484598E-3</v>
+      </c>
+      <c r="L77" s="2">
+        <v>-1.717440290071787E-2</v>
+      </c>
+      <c r="M77" s="2">
+        <v>-2.0487381042651638E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>41790</v>
+        <v>42400</v>
       </c>
       <c r="B78" s="2">
-        <v>2.3474142506980659E-2</v>
+        <v>-4.9624202199966883E-2</v>
       </c>
       <c r="C78" s="2">
-        <v>-1.1606963326890041E-3</v>
+        <v>-1.568900720493327E-2</v>
       </c>
       <c r="D78" s="2">
-        <v>-2.0468872579282321E-4</v>
+        <v>-2.9955845903846261E-3</v>
       </c>
       <c r="E78" s="2">
-        <v>-8.0353704576053842E-3</v>
+        <v>1.6009446330660589E-2</v>
       </c>
       <c r="F78" s="2">
-        <v>-1.1916215375822651E-3</v>
+        <v>2.353935331727014E-2</v>
       </c>
       <c r="G78" s="2">
-        <v>-1.593021373746728E-3</v>
+        <v>1.6518361112955789E-2</v>
       </c>
       <c r="H78" s="2">
-        <v>1.312348318593948E-4</v>
+        <v>1.9057189513162379E-2</v>
       </c>
       <c r="I78" s="2">
-        <v>6.5936928846640928E-3</v>
+        <v>-1.016012191042393E-3</v>
       </c>
       <c r="J78" s="2">
-        <v>2.30066367556277E-2</v>
+        <v>9.5232323582128409E-4</v>
       </c>
       <c r="K78" s="2">
-        <v>-8.6308754095930297E-4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.5523894183117731E-2</v>
+      </c>
+      <c r="L78" s="2">
+        <v>-4.4405717832299997E-2</v>
+      </c>
+      <c r="M78" s="2">
+        <v>7.6232839368307638E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>41820</v>
+        <v>42429</v>
       </c>
       <c r="B79" s="2">
-        <v>2.0657485817265678E-2</v>
+        <v>-1.349134172494715E-3</v>
       </c>
       <c r="C79" s="2">
-        <v>-2.8673010516987452E-3</v>
+        <v>1.5159358130591989E-3</v>
       </c>
       <c r="D79" s="2">
-        <v>-1.3542493157059349E-4</v>
+        <v>-5.6642602546899123E-3</v>
       </c>
       <c r="E79" s="2">
-        <v>-4.9890066347201278E-3</v>
+        <v>1.2604063317289691E-3</v>
       </c>
       <c r="F79" s="2">
-        <v>-1.4271835613561301E-2</v>
+        <v>2.406948215906286E-2</v>
       </c>
       <c r="G79" s="2">
-        <v>-1.262798634812379E-3</v>
+        <v>4.0665675883131414E-3</v>
       </c>
       <c r="H79" s="2">
-        <v>-4.2272161650053208E-3</v>
+        <v>-5.709732518621502E-3</v>
       </c>
       <c r="I79" s="2">
-        <v>1.362368243270775E-2</v>
+        <v>-7.8570650260103572E-4</v>
       </c>
       <c r="J79" s="2">
-        <v>1.9741373758282391E-2</v>
+        <v>7.8999077675743212E-3</v>
       </c>
       <c r="K79" s="2">
-        <v>-1.691283801199904E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.4192004391785371E-3</v>
+      </c>
+      <c r="L79" s="2">
+        <v>1.5767908548496149E-3</v>
+      </c>
+      <c r="M79" s="2">
+        <v>4.2742596680992876E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>41851</v>
+        <v>42460</v>
       </c>
       <c r="B80" s="2">
-        <v>-1.3790960035268361E-2</v>
+        <v>6.7838157581666003E-2</v>
       </c>
       <c r="C80" s="2">
-        <v>2.259205058910307E-3</v>
+        <v>-6.4215740565801696E-3</v>
       </c>
       <c r="D80" s="2">
-        <v>1.7129590531084199E-4</v>
+        <v>-1.35603996592526E-3</v>
       </c>
       <c r="E80" s="2">
-        <v>3.6812679123743308E-3</v>
+        <v>-1.7027623655468279E-2</v>
       </c>
       <c r="F80" s="2">
-        <v>1.202165627605886E-2</v>
+        <v>-1.046097378681503E-3</v>
       </c>
       <c r="G80" s="2">
-        <v>-7.8853842736564816E-3</v>
+        <v>-1.7891997397478929E-4</v>
       </c>
       <c r="H80" s="2">
-        <v>6.6889821889850598E-3</v>
+        <v>-6.0549786750646586E-3</v>
       </c>
       <c r="I80" s="2">
-        <v>4.6672531882057337E-3</v>
+        <v>1.457240383036278E-2</v>
       </c>
       <c r="J80" s="2">
-        <v>-1.2405096402703569E-2</v>
+        <v>6.0374432258778477E-3</v>
       </c>
       <c r="K80" s="2">
-        <v>2.5585174755042412E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-5.3373540062349178E-3</v>
+      </c>
+      <c r="L80" s="2">
+        <v>6.7131949436329608E-2</v>
+      </c>
+      <c r="M80" s="2">
+        <v>-1.031645365033245E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>41882</v>
+        <v>42490</v>
       </c>
       <c r="B81" s="2">
-        <v>4.0004921223318002E-2</v>
+        <v>3.876727551384906E-3</v>
       </c>
       <c r="C81" s="2">
-        <v>3.4850818248166599E-4</v>
+        <v>5.4642181140929218E-5</v>
       </c>
       <c r="D81" s="2">
-        <v>-3.1887445204655811E-3</v>
+        <v>-5.9438394218302992E-4</v>
       </c>
       <c r="E81" s="2">
-        <v>-7.2466703411497857E-3</v>
+        <v>-8.4716390568173594E-4</v>
       </c>
       <c r="F81" s="2">
-        <v>-3.588672667010605E-3</v>
+        <v>-1.0881683328544519E-2</v>
       </c>
       <c r="G81" s="2">
-        <v>7.7500021527798779E-4</v>
+        <v>3.4163562120743669E-3</v>
       </c>
       <c r="H81" s="2">
-        <v>-1.696677418344561E-3</v>
+        <v>5.3893244412768224E-3</v>
       </c>
       <c r="I81" s="2">
-        <v>1.6986525278803979E-2</v>
+        <v>2.6751539797304049E-3</v>
       </c>
       <c r="J81" s="2">
-        <v>4.0243637111920923E-2</v>
+        <v>1.7835361007079159E-4</v>
       </c>
       <c r="K81" s="2">
-        <v>4.4070625588232609E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.4886080642523325E-4</v>
+      </c>
+      <c r="L81" s="2">
+        <v>3.3677518224383908E-3</v>
+      </c>
+      <c r="M81" s="2">
+        <v>-7.4352364122333046E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>41912</v>
+        <v>42521</v>
       </c>
       <c r="B82" s="2">
-        <v>-1.402367443710284E-2</v>
+        <v>1.7958003943801201E-2</v>
       </c>
       <c r="C82" s="2">
-        <v>2.1009746306248629E-3</v>
+        <v>-1.0266704841251251E-2</v>
       </c>
       <c r="D82" s="2">
-        <v>6.792663922960962E-5</v>
+        <v>-1.9940708741230662E-3</v>
       </c>
       <c r="E82" s="2">
-        <v>4.5502511409001301E-4</v>
+        <v>-6.6774401406676231E-3</v>
       </c>
       <c r="F82" s="2">
-        <v>-1.9065320583214449E-2</v>
+        <v>4.7823950783512292E-3</v>
       </c>
       <c r="G82" s="2">
-        <v>8.5184006057503758E-4</v>
+        <v>-2.237390359765334E-3</v>
       </c>
       <c r="H82" s="2">
-        <v>5.4286827429621543E-3</v>
+        <v>8.7979750732478657E-3</v>
       </c>
       <c r="I82" s="2">
-        <v>1.2142521122817751E-2</v>
+        <v>1.540839450619314E-3</v>
       </c>
       <c r="J82" s="2">
-        <v>-1.419641449296361E-2</v>
+        <v>1.693281842265915E-3</v>
       </c>
       <c r="K82" s="2">
-        <v>-3.1890471851218948E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.8600666165863329E-3</v>
+      </c>
+      <c r="L82" s="2">
+        <v>1.7035458330321839E-2</v>
+      </c>
+      <c r="M82" s="2">
+        <v>-1.3476761949897699E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>41943</v>
+        <v>42551</v>
       </c>
       <c r="B83" s="2">
-        <v>2.442538734819388E-2</v>
+        <v>2.5912404148613621E-3</v>
       </c>
       <c r="C83" s="2">
-        <v>8.6658926794416224E-3</v>
+        <v>6.750587115586848E-3</v>
       </c>
       <c r="D83" s="2">
-        <v>-1.0793209395613901E-2</v>
+        <v>-1.8495308227432509E-2</v>
       </c>
       <c r="E83" s="2">
-        <v>3.878632518212521E-3</v>
+        <v>4.3875512962832097E-3</v>
       </c>
       <c r="F83" s="2">
-        <v>1.4662984901413011E-2</v>
+        <v>2.553910396172103E-2</v>
       </c>
       <c r="G83" s="2">
-        <v>7.3849275262642946E-3</v>
+        <v>-4.5741863148146544E-3</v>
       </c>
       <c r="H83" s="2">
-        <v>1.0114851297333689E-3</v>
+        <v>2.396774017463521E-4</v>
       </c>
       <c r="I83" s="2">
-        <v>7.9839746163550256E-4</v>
+        <v>1.709579980714385E-2</v>
       </c>
       <c r="J83" s="2">
-        <v>2.627140356693412E-2</v>
+        <v>1.5952172893380909E-3</v>
       </c>
       <c r="K83" s="2">
-        <v>3.4080299422896798E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.345342513865133E-2</v>
+      </c>
+      <c r="L83" s="2">
+        <v>6.1311543929288888E-3</v>
+      </c>
+      <c r="M83" s="2">
+        <v>5.1711890781862956E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>41973</v>
+        <v>42582</v>
       </c>
       <c r="B84" s="2">
-        <v>2.689465291734661E-2</v>
+        <v>3.6868549667028239E-2</v>
       </c>
       <c r="C84" s="2">
-        <v>2.0848814474008211E-3</v>
+        <v>-4.612787929103801E-3</v>
       </c>
       <c r="D84" s="2">
-        <v>-2.6172766105936329E-4</v>
+        <v>-6.2832527603551291E-4</v>
       </c>
       <c r="E84" s="2">
-        <v>-3.9292022699024542E-3</v>
+        <v>-4.6018784905876853E-3</v>
       </c>
       <c r="F84" s="2">
-        <v>-6.766188157157715E-3</v>
+        <v>-6.3992536401886293E-3</v>
       </c>
       <c r="G84" s="2">
-        <v>2.875991022129432E-3</v>
+        <v>-7.7702233939225263E-3</v>
       </c>
       <c r="H84" s="2">
-        <v>-1.2997010999149521E-3</v>
+        <v>4.6794894714619062E-4</v>
       </c>
       <c r="I84" s="2">
-        <v>1.557029282997484E-2</v>
+        <v>7.493221968924677E-3</v>
       </c>
       <c r="J84" s="2">
-        <v>2.765996041910844E-2</v>
+        <v>7.9247446771679719E-3</v>
       </c>
       <c r="K84" s="2">
-        <v>1.412875387867998E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-5.3676671938123199E-3</v>
+      </c>
+      <c r="L84" s="2">
+        <v>3.5927521623244162E-2</v>
+      </c>
+      <c r="M84" s="2">
+        <v>-1.374675761171968E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>42004</v>
+        <v>42613</v>
       </c>
       <c r="B85" s="2">
-        <v>-2.519211634947172E-3</v>
+        <v>1.40405608641414E-3</v>
       </c>
       <c r="C85" s="2">
-        <v>1.322691495751083E-2</v>
+        <v>-7.3313669903384282E-3</v>
       </c>
       <c r="D85" s="2">
-        <v>-5.4258066392804949E-3</v>
+        <v>-2.6436757260572818E-4</v>
       </c>
       <c r="E85" s="2">
-        <v>2.42100156739733E-3</v>
+        <v>-1.727641262115998E-3</v>
       </c>
       <c r="F85" s="2">
-        <v>1.3315917873220029E-2</v>
+        <v>1.5453432002116159E-2</v>
       </c>
       <c r="G85" s="2">
-        <v>3.6676481100119669E-3</v>
+        <v>2.0811568929066659E-3</v>
       </c>
       <c r="H85" s="2">
-        <v>-2.4873761804597549E-2</v>
+        <v>1.5674600313264619E-5</v>
       </c>
       <c r="I85" s="2">
-        <v>-1.7612718332473459E-3</v>
+        <v>1.018050780520412E-2</v>
       </c>
       <c r="J85" s="2">
-        <v>-1.030085641226939E-3</v>
+        <v>3.482319675719658E-3</v>
       </c>
       <c r="K85" s="2">
-        <v>2.749155680714278E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.4795003758978371E-3</v>
+      </c>
+      <c r="L85" s="2">
+        <v>3.7932435825593172E-3</v>
+      </c>
+      <c r="M85" s="2">
+        <v>3.490180937263871E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>42035</v>
+        <v>42643</v>
       </c>
       <c r="B86" s="2">
-        <v>-3.0019313213633821E-2</v>
+        <v>1.8906459140577431E-4</v>
       </c>
       <c r="C86" s="2">
-        <v>-8.0827333050966788E-3</v>
+        <v>-7.6208192880206083E-3</v>
       </c>
       <c r="D86" s="2">
-        <v>-3.4714746821200571E-3</v>
+        <v>-2.6384419207993171E-3</v>
       </c>
       <c r="E86" s="2">
-        <v>4.2055994335565838E-3</v>
+        <v>-2.824646714681522E-3</v>
       </c>
       <c r="F86" s="2">
-        <v>2.841636689636081E-2</v>
+        <v>-8.4560986902230025E-3</v>
       </c>
       <c r="G86" s="2">
-        <v>7.800245877315648E-3</v>
+        <v>4.9252996223714263E-5</v>
       </c>
       <c r="H86" s="2">
-        <v>6.4201080600838623E-3</v>
+        <v>1.557027690941859E-2</v>
       </c>
       <c r="I86" s="2">
-        <v>-1.9469878782717449E-4</v>
+        <v>3.3264412176906548E-4</v>
       </c>
       <c r="J86" s="2">
-        <v>-2.756844123224382E-2</v>
+        <v>6.3032673846024068E-3</v>
       </c>
       <c r="K86" s="2">
-        <v>4.5246867348738597E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-5.9796691249749401E-3</v>
+      </c>
+      <c r="L86" s="2">
+        <v>-9.9157105253705686E-4</v>
+      </c>
+      <c r="M86" s="2">
+        <v>-1.7247001438739911E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>42063</v>
+        <v>42674</v>
       </c>
       <c r="B87" s="2">
-        <v>5.7471739066221383E-2</v>
+        <v>-1.824116296179823E-2</v>
       </c>
       <c r="C87" s="2">
-        <v>-2.0952337096102891E-3</v>
+        <v>-1.245628221862072E-2</v>
       </c>
       <c r="D87" s="2">
-        <v>-4.0297860129004937E-3</v>
+        <v>-7.1298066709157837E-4</v>
       </c>
       <c r="E87" s="2">
-        <v>-9.2006628447888206E-3</v>
+        <v>2.536254100595325E-3</v>
       </c>
       <c r="F87" s="2">
-        <v>-3.094282726231682E-2</v>
+        <v>-5.9961235683645524E-3</v>
       </c>
       <c r="G87" s="2">
-        <v>1.0861060867370259E-2</v>
+        <v>-5.9921527424358079E-3</v>
       </c>
       <c r="H87" s="2">
-        <v>1.074534331356003E-2</v>
+        <v>3.1794127161699492E-4</v>
       </c>
       <c r="I87" s="2">
-        <v>1.0301245302461371E-2</v>
+        <v>1.181811401525064E-2</v>
       </c>
       <c r="J87" s="2">
-        <v>5.5519462871669721E-2</v>
+        <v>2.9322106605826899E-3</v>
       </c>
       <c r="K87" s="2">
-        <v>-3.604202205326141E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.4114698215362846E-3</v>
+      </c>
+      <c r="L87" s="2">
+        <v>-1.861767222653549E-2</v>
+      </c>
+      <c r="M87" s="2">
+        <v>-5.5001353414474115E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>42094</v>
+        <v>42704</v>
       </c>
       <c r="B88" s="2">
-        <v>-1.5814641824717701E-2</v>
+        <v>3.7034858329104692E-2</v>
       </c>
       <c r="C88" s="2">
-        <v>-9.4326166754064023E-3</v>
+        <v>1.582196047341444E-3</v>
       </c>
       <c r="D88" s="2">
-        <v>-8.889449140645489E-4</v>
+        <v>-3.5113201594337839E-3</v>
       </c>
       <c r="E88" s="2">
-        <v>1.639101880301919E-3</v>
+        <v>-3.9605308902808112E-3</v>
       </c>
       <c r="F88" s="2">
-        <v>1.535168685675644E-2</v>
+        <v>-2.3534150332630451E-2</v>
       </c>
       <c r="G88" s="2">
-        <v>3.5620360198411749E-3</v>
+        <v>2.8109929312281508E-2</v>
       </c>
       <c r="H88" s="2">
-        <v>5.8003881188317674E-3</v>
+        <v>-6.7814141853015384E-3</v>
       </c>
       <c r="I88" s="2">
-        <v>-7.660311697473166E-4</v>
+        <v>1.5841909601487261E-2</v>
       </c>
       <c r="J88" s="2">
-        <v>-1.492355075814494E-2</v>
+        <v>6.2530423019069303E-4</v>
       </c>
       <c r="K88" s="2">
-        <v>1.645091199826626E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-6.8876023158305211E-3</v>
+      </c>
+      <c r="L88" s="2">
+        <v>3.7777468999765883E-2</v>
+      </c>
+      <c r="M88" s="2">
+        <v>1.084823024870248E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>42124</v>
+        <v>42735</v>
       </c>
       <c r="B89" s="2">
-        <v>9.5932720691902507E-3</v>
+        <v>1.9766286200494369E-2</v>
       </c>
       <c r="C89" s="2">
-        <v>-7.9427764355122221E-3</v>
+        <v>1.467749650306827E-3</v>
       </c>
       <c r="D89" s="2">
-        <v>-3.8587990860139421E-4</v>
+        <v>-1.877482330331359E-4</v>
       </c>
       <c r="E89" s="2">
-        <v>-3.594459020119789E-3</v>
+        <v>-3.3734310133509689E-3</v>
       </c>
       <c r="F89" s="2">
-        <v>-1.035312238409517E-2</v>
+        <v>1.0005856791382991E-2</v>
       </c>
       <c r="G89" s="2">
-        <v>6.4021760764281233E-3</v>
+        <v>-3.084337349398059E-3</v>
       </c>
       <c r="H89" s="2">
-        <v>8.0078977891862024E-5</v>
+        <v>-5.4805654303080598E-4</v>
       </c>
       <c r="I89" s="2">
-        <v>8.3813677004296316E-3</v>
+        <v>5.6986444530973566E-3</v>
       </c>
       <c r="J89" s="2">
-        <v>8.9625100521779008E-3</v>
+        <v>2.5405077838041019E-3</v>
       </c>
       <c r="K89" s="2">
-        <v>-1.164483723715108E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.1056387576635629E-3</v>
+      </c>
+      <c r="L89" s="2">
+        <v>2.1047238957772042E-2</v>
+      </c>
+      <c r="M89" s="2">
+        <v>1.8712457277628681E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>42155</v>
+        <v>42766</v>
       </c>
       <c r="B90" s="2">
-        <v>1.285915680664362E-2</v>
+        <v>1.8966434382321259E-2</v>
       </c>
       <c r="C90" s="2">
-        <v>-1.045459784590042E-2</v>
+        <v>-1.2505010472593449E-2</v>
       </c>
       <c r="D90" s="2">
-        <v>-7.1468614459602176E-4</v>
+        <v>-4.3360914744583479E-4</v>
       </c>
       <c r="E90" s="2">
-        <v>-6.9401489098086522E-3</v>
+        <v>-5.8003681028371279E-3</v>
       </c>
       <c r="F90" s="2">
-        <v>-1.359334068579646E-2</v>
+        <v>-2.043027057119532E-3</v>
       </c>
       <c r="G90" s="2">
-        <v>-1.0184910511222721E-2</v>
+        <v>-1.0224306294112639E-2</v>
       </c>
       <c r="H90" s="2">
-        <v>3.321760345313951E-4</v>
+        <v>-2.453307270829264E-3</v>
       </c>
       <c r="I90" s="2">
-        <v>1.0016090430947199E-3</v>
+        <v>4.5821002135177924E-3</v>
       </c>
       <c r="J90" s="2">
-        <v>9.4440149248314776E-3</v>
+        <v>4.4380182939023349E-3</v>
       </c>
       <c r="K90" s="2">
-        <v>-6.3048773202685716E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.807228915662318E-3</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1.7059465708099679E-2</v>
+      </c>
+      <c r="M90" s="2">
+        <v>-2.785744411213464E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>42185</v>
+        <v>42794</v>
       </c>
       <c r="B91" s="2">
-        <v>-1.9357891106497771E-2</v>
+        <v>3.9705813205376923E-2</v>
       </c>
       <c r="C91" s="2">
-        <v>-7.1655982260722118E-3</v>
+        <v>1.383537052494388E-3</v>
       </c>
       <c r="D91" s="2">
-        <v>5.5936301511416708E-4</v>
+        <v>-1.024717903700401E-4</v>
       </c>
       <c r="E91" s="2">
-        <v>3.2602877613319152E-3</v>
+        <v>-6.4964672691250058E-3</v>
       </c>
       <c r="F91" s="2">
-        <v>-1.618851749112948E-3</v>
+        <v>7.6210711214236776E-3</v>
       </c>
       <c r="G91" s="2">
-        <v>-5.0616050616049124E-3</v>
+        <v>8.6530399602751107E-3</v>
       </c>
       <c r="H91" s="2">
-        <v>4.4294191476230704E-3</v>
+        <v>-5.0377221493367319E-3</v>
       </c>
       <c r="I91" s="2">
-        <v>1.920208342308212E-2</v>
+        <v>7.0743753119562056E-3</v>
       </c>
       <c r="J91" s="2">
-        <v>-1.84893182145459E-2</v>
+        <v>3.357570348198502E-3</v>
       </c>
       <c r="K91" s="2">
-        <v>1.6035191851419129E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.7215851941261309E-3</v>
+      </c>
+      <c r="L91" s="2">
+        <v>4.1462971774876782E-2</v>
+      </c>
+      <c r="M91" s="2">
+        <v>2.566898308698331E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>42216</v>
+        <v>42825</v>
       </c>
       <c r="B92" s="2">
-        <v>2.0951278783537971E-2</v>
+        <v>1.166575665822789E-3</v>
       </c>
       <c r="C92" s="2">
-        <v>-1.0804246092612661E-2</v>
+        <v>-1.3015825892347401E-2</v>
       </c>
       <c r="D92" s="2">
-        <v>-6.4085854387888608E-3</v>
+        <v>-4.27863568740805E-4</v>
       </c>
       <c r="E92" s="2">
-        <v>-8.2141188772648643E-3</v>
+        <v>-3.7572832328532919E-3</v>
       </c>
       <c r="F92" s="2">
-        <v>6.8387363952986061E-3</v>
+        <v>-8.2056665049609987E-3</v>
       </c>
       <c r="G92" s="2">
-        <v>1.7119619787134392E-2</v>
+        <v>-9.1356629811963908E-3</v>
       </c>
       <c r="H92" s="2">
-        <v>-1.1697435629238419E-2</v>
+        <v>3.6932821853004061E-3</v>
       </c>
       <c r="I92" s="2">
-        <v>6.611956050830114E-3</v>
+        <v>4.5546557439132716E-3</v>
       </c>
       <c r="J92" s="2">
-        <v>2.1002683496670459E-2</v>
+        <v>8.0344981733304621E-4</v>
       </c>
       <c r="K92" s="2">
-        <v>9.4901008859985328E-5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.9469964664314858E-3</v>
+      </c>
+      <c r="L92" s="2">
+        <v>-1.067364752512439E-3</v>
+      </c>
+      <c r="M92" s="2">
+        <v>-3.2633923773821398E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>42247</v>
+        <v>42855</v>
       </c>
       <c r="B93" s="2">
-        <v>-6.0333949381385032E-2</v>
+        <v>1.02699013907015E-2</v>
       </c>
       <c r="C93" s="2">
-        <v>5.3468084311972808E-2</v>
+        <v>-5.3772584080401531E-3</v>
       </c>
       <c r="D93" s="2">
-        <v>4.8553429232378598E-2</v>
+        <v>-2.012930257434653E-3</v>
       </c>
       <c r="E93" s="2">
-        <v>2.7582917271506521E-2</v>
+        <v>-5.2685309406315106E-3</v>
       </c>
       <c r="F93" s="2">
-        <v>2.8691058261835719E-3</v>
+        <v>-7.6443587558452479E-3</v>
       </c>
       <c r="G93" s="2">
-        <v>-8.5638131591500022E-3</v>
+        <v>-1.1671472087833481E-2</v>
       </c>
       <c r="H93" s="2">
-        <v>-3.1676804991381813E-2</v>
+        <v>1.193902795217916E-3</v>
       </c>
       <c r="I93" s="2">
-        <v>-2.8547169737788359E-2</v>
+        <v>9.1970001713444615E-3</v>
       </c>
       <c r="J93" s="2">
-        <v>-5.2035473564272343E-2</v>
+        <v>3.81350986559581E-3</v>
       </c>
       <c r="K93" s="2">
-        <v>1.532026304697728E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.6166365280292379E-3</v>
+      </c>
+      <c r="L93" s="2">
+        <v>8.4676212475076045E-3</v>
+      </c>
+      <c r="M93" s="2">
+        <v>-2.6328129581849719E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>42277</v>
+        <v>42886</v>
       </c>
       <c r="B94" s="2">
-        <v>-2.4743556718279991E-2</v>
+        <v>1.407274440436068E-2</v>
       </c>
       <c r="C94" s="2">
-        <v>-1.9031446658890231E-2</v>
+        <v>1.770317063553462E-3</v>
       </c>
       <c r="D94" s="2">
-        <v>-2.1752061433876761E-2</v>
+        <v>-9.8195581284454825E-4</v>
       </c>
       <c r="E94" s="2">
-        <v>8.9751700024736092E-3</v>
+        <v>-5.5507216360122236E-3</v>
       </c>
       <c r="F94" s="2">
-        <v>2.8512108556318988E-4</v>
+        <v>6.8119168210442364E-3</v>
       </c>
       <c r="G94" s="2">
-        <v>4.4475053311983093E-3</v>
+        <v>-2.3404342988999631E-3</v>
       </c>
       <c r="H94" s="2">
-        <v>2.0807459275398399E-2</v>
+        <v>-5.2629905729946191E-3</v>
       </c>
       <c r="I94" s="2">
-        <v>1.3941455847165621E-2</v>
+        <v>8.7421918242865937E-3</v>
       </c>
       <c r="J94" s="2">
-        <v>-2.5857757248778809E-2</v>
+        <v>-2.8382728573014271E-3</v>
       </c>
       <c r="K94" s="2">
-        <v>-2.0569855947670541E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.008267795927775E-4</v>
+      </c>
+      <c r="L94" s="2">
+        <v>1.450638188193052E-2</v>
+      </c>
+      <c r="M94" s="2">
+        <v>6.3346776271822221E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>42308</v>
+        <v>42916</v>
       </c>
       <c r="B95" s="2">
-        <v>8.4354222808935564E-2</v>
+        <v>6.2415297135656189E-3</v>
       </c>
       <c r="C95" s="2">
-        <v>2.9860262472769521E-3</v>
+        <v>-5.68124423080274E-3</v>
       </c>
       <c r="D95" s="2">
-        <v>-5.9124243754996586E-3</v>
+        <v>-2.5108618340430322E-4</v>
       </c>
       <c r="E95" s="2">
-        <v>-1.1620878268543629E-2</v>
+        <v>-3.1583536629994362E-3</v>
       </c>
       <c r="F95" s="2">
-        <v>4.3029757754493251E-3</v>
+        <v>1.6752596995444581E-3</v>
       </c>
       <c r="G95" s="2">
-        <v>2.230427994356354E-4</v>
+        <v>7.7151188243946836E-3</v>
       </c>
       <c r="H95" s="2">
-        <v>-1.339833124717993E-2</v>
+        <v>6.3730669303629917E-4</v>
       </c>
       <c r="I95" s="2">
-        <v>4.7321219236691843E-3</v>
+        <v>-1.197183756463915E-3</v>
       </c>
       <c r="J95" s="2">
-        <v>8.3511154075278718E-2</v>
+        <v>2.6781716675896572E-3</v>
       </c>
       <c r="K95" s="2">
-        <v>-1.556434585212629E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.2097993749373699E-3</v>
+      </c>
+      <c r="L95" s="2">
+        <v>6.5792531193244082E-3</v>
+      </c>
+      <c r="M95" s="2">
+        <v>4.9335424480035793E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>42338</v>
+        <v>42947</v>
       </c>
       <c r="B96" s="2">
-        <v>2.9739133579416151E-3</v>
+        <v>2.0562761309518951E-2</v>
       </c>
       <c r="C96" s="2">
-        <v>-6.3568749602693764E-4</v>
+        <v>-6.8218814006225648E-3</v>
       </c>
       <c r="D96" s="2">
-        <v>-3.436996091306987E-3</v>
+        <v>-1.774330832984283E-4</v>
       </c>
       <c r="E96" s="2">
-        <v>-1.2346219836638641E-3</v>
+        <v>-5.6380667253896899E-3</v>
       </c>
       <c r="F96" s="2">
-        <v>1.1091621073507659E-2</v>
+        <v>-1.6050776642418331E-3</v>
       </c>
       <c r="G96" s="2">
-        <v>-1.197555335315625E-3</v>
+        <v>-8.7544571498833212E-3</v>
       </c>
       <c r="H96" s="2">
-        <v>5.687789759136308E-3</v>
+        <v>-5.6550778277730807E-4</v>
       </c>
       <c r="I96" s="2">
-        <v>5.6263385851517116E-3</v>
+        <v>3.462301040589377E-3</v>
       </c>
       <c r="J96" s="2">
-        <v>3.8718964553835561E-3</v>
+        <v>1.32619073887974E-3</v>
       </c>
       <c r="K96" s="2">
-        <v>1.657814949123583E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.4166750578989982E-3</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1.891718926011306E-2</v>
+      </c>
+      <c r="M96" s="2">
+        <v>-2.4038901120139152E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>42369</v>
+        <v>42978</v>
       </c>
       <c r="B97" s="2">
-        <v>-1.5771948543889081E-2</v>
+        <v>3.0612244897958441E-3</v>
       </c>
       <c r="C97" s="2">
-        <v>-9.5827237453087744E-3</v>
+        <v>4.7935380708270534E-3</v>
       </c>
       <c r="D97" s="2">
-        <v>-1.076141802283803E-2</v>
+        <v>-5.210771327897934E-3</v>
       </c>
       <c r="E97" s="2">
-        <v>1.619225305116823E-3</v>
+        <v>-3.263594259630298E-3</v>
       </c>
       <c r="F97" s="2">
-        <v>-5.5215468439543313E-4</v>
+        <v>7.7722494137447782E-3</v>
       </c>
       <c r="G97" s="2">
-        <v>-3.8285029147886451E-3</v>
+        <v>-8.1040627816784117E-3</v>
       </c>
       <c r="H97" s="2">
-        <v>2.2468330445035711E-3</v>
+        <v>2.678752697550912E-3</v>
       </c>
       <c r="I97" s="2">
-        <v>3.7605389643311391E-3</v>
+        <v>1.3932807960472581E-3</v>
       </c>
       <c r="J97" s="2">
-        <v>-1.7561421989094619E-2</v>
+        <v>5.5426718730806623E-3</v>
       </c>
       <c r="K97" s="2">
-        <v>-3.3036432834563909E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.0187746038151651E-3</v>
+      </c>
+      <c r="L97" s="2">
+        <v>3.439901951038112E-3</v>
+      </c>
+      <c r="M97" s="2">
+        <v>5.5318088627688631E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>42400</v>
+        <v>43008</v>
       </c>
       <c r="B98" s="2">
-        <v>-4.9624202199966883E-2</v>
+        <v>2.0627974415640349E-2</v>
       </c>
       <c r="C98" s="2">
-        <v>-1.568900720493327E-2</v>
+        <v>-3.190977735704648E-3</v>
       </c>
       <c r="D98" s="2">
-        <v>-2.9955845903846261E-3</v>
+        <v>-2.5250958329892098E-4</v>
       </c>
       <c r="E98" s="2">
-        <v>1.6009446330660589E-2</v>
+        <v>-6.5237022240289821E-3</v>
       </c>
       <c r="F98" s="2">
-        <v>2.906063093518008E-3</v>
+        <v>-1.397016665319421E-2</v>
       </c>
       <c r="G98" s="2">
-        <v>1.6518361112955789E-2</v>
+        <v>3.076358725103701E-3</v>
       </c>
       <c r="H98" s="2">
-        <v>1.9057189513162379E-2</v>
+        <v>-3.0553061024254369E-3</v>
       </c>
       <c r="I98" s="2">
-        <v>-1.016012191042393E-3</v>
+        <v>3.515512070982552E-3</v>
       </c>
       <c r="J98" s="2">
-        <v>-4.7978479884844501E-2</v>
+        <v>2.958553596019708E-3</v>
       </c>
       <c r="K98" s="2">
-        <v>3.0382565817643902E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.022061045632185E-4</v>
+      </c>
+      <c r="L98" s="2">
+        <v>1.91981934261829E-2</v>
+      </c>
+      <c r="M98" s="2">
+        <v>-2.0886574879192378E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>42429</v>
+        <v>43039</v>
       </c>
       <c r="B99" s="2">
-        <v>-1.349134172494715E-3</v>
+        <v>2.3335468508686841E-2</v>
       </c>
       <c r="C99" s="2">
-        <v>1.5159358130591989E-3</v>
+        <v>2.8995034453616059E-4</v>
       </c>
       <c r="D99" s="2">
-        <v>-5.6642602546899123E-3</v>
+        <v>-2.5429741073512702E-4</v>
       </c>
       <c r="E99" s="2">
-        <v>1.2604063317289691E-3</v>
+        <v>-3.9941496973719959E-3</v>
       </c>
       <c r="F99" s="2">
-        <v>4.2974163485031917E-3</v>
+        <v>-8.0902860336171979E-4</v>
       </c>
       <c r="G99" s="2">
-        <v>4.0665675883131414E-3</v>
+        <v>7.5551048904554108E-3</v>
       </c>
       <c r="H99" s="2">
-        <v>-5.709732518621502E-3</v>
+        <v>-2.09994746997122E-4</v>
       </c>
       <c r="I99" s="2">
-        <v>-7.8570650260103572E-4</v>
+        <v>5.4642170802854158E-3</v>
       </c>
       <c r="J99" s="2">
-        <v>-1.1952290782459071E-3</v>
+        <v>1.183326246663396E-3</v>
       </c>
       <c r="K99" s="2">
-        <v>2.8413248169010749E-4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.007049345420619E-4</v>
+      </c>
+      <c r="L99" s="2">
+        <v>2.41798515180719E-2</v>
+      </c>
+      <c r="M99" s="2">
+        <v>1.233494436020668E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>42460</v>
+        <v>43069</v>
       </c>
       <c r="B100" s="2">
-        <v>6.7838157581666003E-2</v>
+        <v>3.0669748082278629E-2</v>
       </c>
       <c r="C100" s="2">
-        <v>-6.4215740565801696E-3</v>
+        <v>6.7795854325169991E-3</v>
       </c>
       <c r="D100" s="2">
-        <v>-1.35603996592526E-3</v>
+        <v>-2.2159680762634529E-4</v>
       </c>
       <c r="E100" s="2">
-        <v>-1.7027623655468279E-2</v>
+        <v>-4.7461583657780748E-3</v>
       </c>
       <c r="F100" s="2">
-        <v>3.2322004255877731E-3</v>
+        <v>-1.228224821016451E-2</v>
       </c>
       <c r="G100" s="2">
-        <v>-1.7891997397478929E-4</v>
+        <v>-1.51783872963529E-3</v>
       </c>
       <c r="H100" s="2">
-        <v>-6.0549786750646586E-3</v>
+        <v>1.5517795933772669E-3</v>
       </c>
       <c r="I100" s="2">
-        <v>1.457240383036278E-2</v>
+        <v>-2.466848165096857E-3</v>
       </c>
       <c r="J100" s="2">
-        <v>6.7085465243645545E-2</v>
+        <v>3.4255993877274631E-3</v>
       </c>
       <c r="K100" s="2">
-        <v>-1.3895858548069889E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.3298761454036994E-3</v>
+      </c>
+      <c r="L100" s="2">
+        <v>2.9307140035254892E-2</v>
+      </c>
+      <c r="M100" s="2">
+        <v>-1.9905296835672211E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>42490</v>
+        <v>43100</v>
       </c>
       <c r="B101" s="2">
-        <v>3.876727551384906E-3</v>
+        <v>1.111873843576139E-2</v>
       </c>
       <c r="C101" s="2">
-        <v>5.4642181140929218E-5</v>
+        <v>-5.426078280067248E-3</v>
       </c>
       <c r="D101" s="2">
-        <v>-5.9438394218302992E-4</v>
+        <v>-2.7252961819113081E-4</v>
       </c>
       <c r="E101" s="2">
-        <v>-8.4716390568173594E-4</v>
+        <v>-2.7080835801243102E-3</v>
       </c>
       <c r="F101" s="2">
-        <v>-6.315015044228189E-3</v>
+        <v>-2.1741112908197729E-2</v>
       </c>
       <c r="G101" s="2">
-        <v>3.4163562120743669E-3</v>
+        <v>-6.7415173371004888E-3</v>
       </c>
       <c r="H101" s="2">
-        <v>5.3893244412768224E-3</v>
+        <v>-2.453960078076189E-3</v>
       </c>
       <c r="I101" s="2">
-        <v>2.6751539797304049E-3</v>
+        <v>5.7396833021414956E-3</v>
       </c>
       <c r="J101" s="2">
-        <v>3.842421268520422E-3</v>
+        <v>9.3173292772097405E-4</v>
       </c>
       <c r="K101" s="2">
-        <v>-6.3334676057508709E-5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.0339805825185811E-4</v>
+      </c>
+      <c r="L101" s="2">
+        <v>8.2323881881903385E-3</v>
+      </c>
+      <c r="M101" s="2">
+        <v>-4.216447904818268E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>42521</v>
+        <v>43131</v>
       </c>
       <c r="B102" s="2">
-        <v>1.7958003943801201E-2</v>
+        <v>5.7253897788946073E-2</v>
       </c>
       <c r="C102" s="2">
-        <v>-1.0266704841251251E-2</v>
+        <v>1.3092462955865971E-2</v>
       </c>
       <c r="D102" s="2">
-        <v>-1.9940708741230662E-3</v>
+        <v>-2.3033305124009471E-4</v>
       </c>
       <c r="E102" s="2">
-        <v>-6.6774401406676231E-3</v>
+        <v>-3.5923528639902891E-3</v>
       </c>
       <c r="F102" s="2">
-        <v>2.51059805303574E-3</v>
+        <v>1.9298867139544571E-2</v>
       </c>
       <c r="G102" s="2">
-        <v>-2.237390359765334E-3</v>
+        <v>6.3154575171553429E-3</v>
       </c>
       <c r="H102" s="2">
-        <v>8.7979750732478657E-3</v>
+        <v>1.592596915716249E-2</v>
       </c>
       <c r="I102" s="2">
-        <v>1.540839450619314E-3</v>
+        <v>-4.2338727731142563E-3</v>
       </c>
       <c r="J102" s="2">
-        <v>1.6672737888603621E-2</v>
+        <v>4.1331020362318496E-3</v>
       </c>
       <c r="K102" s="2">
-        <v>-2.3727988711340041E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.3253462743902942E-3</v>
+      </c>
+      <c r="L102" s="2">
+        <v>6.0601857741639308E-2</v>
+      </c>
+      <c r="M102" s="2">
+        <v>4.8907781513447043E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>42551</v>
+        <v>43159</v>
       </c>
       <c r="B103" s="2">
-        <v>2.5912404148613621E-3</v>
+        <v>-3.6857033677153428E-2</v>
       </c>
       <c r="C103" s="2">
-        <v>6.750587115586848E-3</v>
+        <v>1.485753288370106E-2</v>
       </c>
       <c r="D103" s="2">
-        <v>-1.8495308227432509E-2</v>
+        <v>-3.1895102698710209E-2</v>
       </c>
       <c r="E103" s="2">
-        <v>4.3875512962832097E-3</v>
+        <v>7.8573542573217026E-3</v>
       </c>
       <c r="F103" s="2">
-        <v>1.44413949878219E-2</v>
+        <v>1.089141356873201E-2</v>
       </c>
       <c r="G103" s="2">
-        <v>-4.5741863148146544E-3</v>
+        <v>-7.1452639089845116E-3</v>
       </c>
       <c r="H103" s="2">
-        <v>2.396774017463521E-4</v>
+        <v>0.1052458619437191</v>
       </c>
       <c r="I103" s="2">
-        <v>1.709579980714385E-2</v>
+        <v>-2.654289277610656E-3</v>
       </c>
       <c r="J103" s="2">
-        <v>3.8447346613752868E-3</v>
+        <v>-6.0681253075345332E-5</v>
       </c>
       <c r="K103" s="2">
-        <v>2.3141432243333998E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.0133765707337041E-2</v>
+      </c>
+      <c r="L103" s="2">
+        <v>-3.5199883415199147E-2</v>
+      </c>
+      <c r="M103" s="2">
+        <v>2.420803835524205E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>42582</v>
+        <v>43190</v>
       </c>
       <c r="B104" s="2">
-        <v>3.6868549667028239E-2</v>
+        <v>-2.541329861398289E-2</v>
       </c>
       <c r="C104" s="2">
-        <v>-4.612787929103801E-3</v>
+        <v>-5.5502802498254011E-3</v>
       </c>
       <c r="D104" s="2">
-        <v>-6.2832527603551291E-4</v>
+        <v>-6.9940104816571544E-3</v>
       </c>
       <c r="E104" s="2">
-        <v>-4.6018784905876853E-3</v>
+        <v>7.6067071555354637E-3</v>
       </c>
       <c r="F104" s="2">
-        <v>-1.2459491284332141E-2</v>
+        <v>1.9105791318741821E-3</v>
       </c>
       <c r="G104" s="2">
-        <v>-7.7702233939225263E-3</v>
+        <v>1.690871887009027E-2</v>
       </c>
       <c r="H104" s="2">
-        <v>4.6794894714619062E-4</v>
+        <v>-6.4881716199358666E-3</v>
       </c>
       <c r="I104" s="2">
-        <v>7.493221968924677E-3</v>
+        <v>-1.194371544304251E-3</v>
       </c>
       <c r="J104" s="2">
-        <v>3.4983584793088301E-2</v>
+        <v>3.315005995379261E-3</v>
       </c>
       <c r="K104" s="2">
-        <v>-3.4799351518891271E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.3298555377201442E-3</v>
+      </c>
+      <c r="L104" s="2">
+        <v>-2.3636650833733099E-2</v>
+      </c>
+      <c r="M104" s="2">
+        <v>2.5953686032865451E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>42613</v>
+        <v>43220</v>
       </c>
       <c r="B105" s="2">
-        <v>1.40405608641414E-3</v>
+        <v>3.8370901055075901E-3</v>
       </c>
       <c r="C105" s="2">
-        <v>-7.3313669903384282E-3</v>
+        <v>-2.0628530555351739E-2</v>
       </c>
       <c r="D105" s="2">
-        <v>-2.6436757260572818E-4</v>
+        <v>-9.2782329979095302E-3</v>
       </c>
       <c r="E105" s="2">
-        <v>-1.727641262115998E-3</v>
+        <v>8.2780977959329149E-5</v>
       </c>
       <c r="F105" s="2">
-        <v>1.3612620411149931E-2</v>
+        <v>1.4743448971258479E-2</v>
       </c>
       <c r="G105" s="2">
-        <v>2.0811568929066659E-3</v>
+        <v>1.668646139048047E-4</v>
       </c>
       <c r="H105" s="2">
-        <v>1.5674600313264619E-5</v>
+        <v>6.5035409167286673E-3</v>
       </c>
       <c r="I105" s="2">
-        <v>1.018050780520412E-2</v>
+        <v>4.317617068899215E-4</v>
       </c>
       <c r="J105" s="2">
-        <v>2.7781174231747609E-3</v>
+        <v>-5.1156710055133559E-4</v>
       </c>
       <c r="K105" s="2">
-        <v>2.5367286217119148E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-8.9454328595568455E-3</v>
+      </c>
+      <c r="L105" s="2">
+        <v>2.7938371865458621E-3</v>
+      </c>
+      <c r="M105" s="2">
+        <v>-1.524008248151264E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>42643</v>
+        <v>43251</v>
       </c>
       <c r="B106" s="2">
-        <v>1.8906459140577431E-4</v>
+        <v>2.4081843374623931E-2</v>
       </c>
       <c r="C106" s="2">
-        <v>-7.6208192880206083E-3</v>
+        <v>9.9486416007765754E-5</v>
       </c>
       <c r="D106" s="2">
-        <v>-2.6384419207993171E-3</v>
+        <v>-1.6642869567738969E-3</v>
       </c>
       <c r="E106" s="2">
-        <v>-2.824646714681522E-3</v>
+        <v>-7.50059061603503E-3</v>
       </c>
       <c r="F106" s="2">
-        <v>-5.1154026401522331E-3</v>
+        <v>1.2835082220047369E-3</v>
       </c>
       <c r="G106" s="2">
-        <v>4.9252996223714263E-5</v>
+        <v>-1.9529716573761791E-3</v>
       </c>
       <c r="H106" s="2">
-        <v>1.557027690941859E-2</v>
+        <v>6.5319403892669659E-3</v>
       </c>
       <c r="I106" s="2">
-        <v>3.3264412176906548E-4</v>
+        <v>-1.3508703594942611E-3</v>
       </c>
       <c r="J106" s="2">
-        <v>-1.026306633469732E-3</v>
+        <v>3.3159515643592652E-3</v>
       </c>
       <c r="K106" s="2">
-        <v>-2.2437622613086278E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-8.0232674756798295E-3</v>
+      </c>
+      <c r="L106" s="2">
+        <v>2.3230181506528551E-2</v>
+      </c>
+      <c r="M106" s="2">
+        <v>-1.244127562954743E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>42674</v>
+        <v>43281</v>
       </c>
       <c r="B107" s="2">
-        <v>-1.824116296179823E-2</v>
+        <v>6.155018926875977E-3</v>
       </c>
       <c r="C107" s="2">
-        <v>-1.245628221862072E-2</v>
+        <v>7.876199716083665E-4</v>
       </c>
       <c r="D107" s="2">
-        <v>-7.1298066709157837E-4</v>
+        <v>-7.8452618520624684E-3</v>
       </c>
       <c r="E107" s="2">
-        <v>2.536254100595325E-3</v>
+        <v>-1.610324714430456E-3</v>
       </c>
       <c r="F107" s="2">
-        <v>8.7001211080181074E-4</v>
+        <v>8.5326413027162484E-3</v>
       </c>
       <c r="G107" s="2">
-        <v>-5.9921527424358079E-3</v>
+        <v>5.6737170221343716E-3</v>
       </c>
       <c r="H107" s="2">
-        <v>3.1794127161699492E-4</v>
+        <v>5.1407772246578887E-3</v>
       </c>
       <c r="I107" s="2">
-        <v>1.181811401525064E-2</v>
+        <v>7.1316917299836906E-3</v>
       </c>
       <c r="J107" s="2">
-        <v>-1.857747923266231E-2</v>
+        <v>-4.8179638107703759E-4</v>
       </c>
       <c r="K107" s="2">
-        <v>-6.2089157697984296E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.516530178951037E-3</v>
+      </c>
+      <c r="L107" s="2">
+        <v>7.4889296585191048E-3</v>
+      </c>
+      <c r="M107" s="2">
+        <v>1.9486079745118731E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>42704</v>
+        <v>43312</v>
       </c>
       <c r="B108" s="2">
-        <v>3.7034858329104692E-2</v>
+        <v>3.7213652007762388E-2</v>
       </c>
       <c r="C108" s="2">
-        <v>1.582196047341444E-3</v>
+        <v>-2.8381118545839361E-3</v>
       </c>
       <c r="D108" s="2">
-        <v>-3.5113201594337839E-3</v>
+        <v>-2.896750553830985E-3</v>
       </c>
       <c r="E108" s="2">
-        <v>-3.9605308902808112E-3</v>
+        <v>-9.1898590413961312E-3</v>
       </c>
       <c r="F108" s="2">
-        <v>-1.447047291504347E-2</v>
+        <v>-1.4863223209132299E-4</v>
       </c>
       <c r="G108" s="2">
-        <v>2.8109929312281508E-2</v>
+        <v>6.2870328724797808E-3</v>
       </c>
       <c r="H108" s="2">
-        <v>-6.7814141853015384E-3</v>
+        <v>-4.2720145755635866E-3</v>
       </c>
       <c r="I108" s="2">
-        <v>1.5841909601487261E-2</v>
+        <v>2.2879875734213911E-3</v>
       </c>
       <c r="J108" s="2">
-        <v>3.8786402279952052E-2</v>
+        <v>1.5776804026648159E-3</v>
       </c>
       <c r="K108" s="2">
-        <v>3.233619601564357E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-8.3787603472645911E-3</v>
+      </c>
+      <c r="L108" s="2">
+        <v>3.6422564628042907E-2</v>
+      </c>
+      <c r="M108" s="2">
+        <v>-1.1556389345171579E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>42735</v>
+        <v>43343</v>
       </c>
       <c r="B109" s="2">
-        <v>1.9766286200494369E-2</v>
+        <v>3.25853033789818E-2</v>
       </c>
       <c r="C109" s="2">
-        <v>1.467749650306827E-3</v>
+        <v>4.1889532190555467E-3</v>
       </c>
       <c r="D109" s="2">
-        <v>-1.877482330331359E-4</v>
+        <v>-2.3969684266144098E-3</v>
       </c>
       <c r="E109" s="2">
-        <v>-3.3734310133509689E-3</v>
+        <v>-5.3345047792155986E-3</v>
       </c>
       <c r="F109" s="2">
-        <v>2.0827670085831981E-3</v>
+        <v>5.806377652610919E-3</v>
       </c>
       <c r="G109" s="2">
-        <v>-3.084337349398059E-3</v>
+        <v>-5.7716412254535943E-3</v>
       </c>
       <c r="H109" s="2">
-        <v>-5.4805654303080598E-4</v>
+        <v>1.458594556207782E-3</v>
       </c>
       <c r="I109" s="2">
-        <v>5.6986444530973566E-3</v>
+        <v>1.919811401395588E-3</v>
       </c>
       <c r="J109" s="2">
-        <v>1.9967927310676811E-2</v>
+        <v>3.9902526627693113E-3</v>
       </c>
       <c r="K109" s="2">
-        <v>3.7226051110603588E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-6.2099155044280652E-3</v>
+      </c>
+      <c r="L109" s="2">
+        <v>3.2584997758268557E-2</v>
+      </c>
+      <c r="M109" s="2">
+        <v>-4.4645788123386302E-7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>42766</v>
+        <v>43373</v>
       </c>
       <c r="B110" s="2">
-        <v>1.8966434382321259E-2</v>
+        <v>5.6918725002412804E-3</v>
       </c>
       <c r="C110" s="2">
-        <v>-1.2505010472593449E-2</v>
+        <v>-7.7076601295587022E-3</v>
       </c>
       <c r="D110" s="2">
-        <v>-4.3360914744583479E-4</v>
+        <v>-3.3286927800479932E-4</v>
       </c>
       <c r="E110" s="2">
-        <v>-5.8003681028371279E-3</v>
+        <v>-2.78941941902211E-3</v>
       </c>
       <c r="F110" s="2">
-        <v>8.061383869552804E-4</v>
+        <v>-2.994561424936057E-3</v>
       </c>
       <c r="G110" s="2">
-        <v>-1.0224306294112639E-2</v>
+        <v>4.5542057992826726E-3</v>
       </c>
       <c r="H110" s="2">
-        <v>-2.453307270829264E-3</v>
+        <v>-3.3301035041154452E-3</v>
       </c>
       <c r="I110" s="2">
-        <v>4.5821002135177924E-3</v>
+        <v>1.1780380331690619E-2</v>
       </c>
       <c r="J110" s="2">
-        <v>1.6941702338897531E-2</v>
+        <v>1.293467447133434E-3</v>
       </c>
       <c r="K110" s="2">
-        <v>-3.7379668493976552E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.741446424912807E-3</v>
+      </c>
+      <c r="L110" s="2">
+        <v>6.1442610433341694E-3</v>
+      </c>
+      <c r="M110" s="2">
+        <v>6.6085975750621105E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>42794</v>
+        <v>43404</v>
       </c>
       <c r="B111" s="2">
-        <v>3.9705813205376923E-2</v>
+        <v>-6.8350191951934036E-2</v>
       </c>
       <c r="C111" s="2">
-        <v>1.383537052494388E-3</v>
+        <v>-6.4435188792161258E-3</v>
       </c>
       <c r="D111" s="2">
-        <v>-1.024717903700401E-4</v>
+        <v>7.3448790969432576E-3</v>
       </c>
       <c r="E111" s="2">
-        <v>-6.4964672691250058E-3</v>
+        <v>2.1806781230029101E-2</v>
       </c>
       <c r="F111" s="2">
-        <v>8.673826806696117E-3</v>
+        <v>1.4828713439315791E-2</v>
       </c>
       <c r="G111" s="2">
-        <v>8.6530399602751107E-3</v>
+        <v>2.4010351302181879E-2</v>
       </c>
       <c r="H111" s="2">
-        <v>-5.0377221493367319E-3</v>
+        <v>-1.8661640276636641E-2</v>
       </c>
       <c r="I111" s="2">
-        <v>7.0743753119562056E-3</v>
+        <v>2.7428663889505259E-3</v>
       </c>
       <c r="J111" s="2">
-        <v>4.1197545837626928E-2</v>
+        <v>-1.2874640856729289E-3</v>
       </c>
       <c r="K111" s="2">
-        <v>2.7539679364615511E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.8304530115553549E-2</v>
+      </c>
+      <c r="L111" s="2">
+        <v>-6.2095299370579379E-2</v>
+      </c>
+      <c r="M111" s="2">
+        <v>9.1372932795353683E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>42825</v>
+        <v>43434</v>
       </c>
       <c r="B112" s="2">
-        <v>1.166575665822789E-3</v>
+        <v>2.037846790319597E-2</v>
       </c>
       <c r="C112" s="2">
-        <v>-1.3015825892347401E-2</v>
+        <v>-1.486586371260423E-3</v>
       </c>
       <c r="D112" s="2">
-        <v>-4.27863568740805E-4</v>
+        <v>-7.2529738288452661E-3</v>
       </c>
       <c r="E112" s="2">
-        <v>-3.7572832328532919E-3</v>
+        <v>-6.3889281367557338E-4</v>
       </c>
       <c r="F112" s="2">
-        <v>-1.2289004891160909E-3</v>
+        <v>-2.9145284003037372E-3</v>
       </c>
       <c r="G112" s="2">
-        <v>-9.1356629811963908E-3</v>
+        <v>3.9522312055255693E-3</v>
       </c>
       <c r="H112" s="2">
-        <v>3.6932821853004061E-3</v>
+        <v>-1.011065073507544E-2</v>
       </c>
       <c r="I112" s="2">
-        <v>4.5546557439132716E-3</v>
+        <v>6.6789812456414799E-3</v>
       </c>
       <c r="J112" s="2">
-        <v>-6.829681480272781E-4</v>
+        <v>-6.4629711302788273E-3</v>
       </c>
       <c r="K112" s="2">
-        <v>-3.4145424255693549E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.1257280578430606E-3</v>
+      </c>
+      <c r="L112" s="2">
+        <v>1.9651737530022771E-2</v>
+      </c>
+      <c r="M112" s="2">
+        <v>-1.061624715126852E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>42855</v>
+        <v>43465</v>
       </c>
       <c r="B113" s="2">
-        <v>1.02699013907015E-2</v>
+        <v>-9.0290902593269884E-2</v>
       </c>
       <c r="C113" s="2">
-        <v>-5.3772584080401531E-3</v>
+        <v>-1.280723544742879E-2</v>
       </c>
       <c r="D113" s="2">
-        <v>-2.012930257434653E-3</v>
+        <v>6.5563275735518456E-3</v>
       </c>
       <c r="E113" s="2">
-        <v>-5.2685309406315106E-3</v>
+        <v>1.6592571287071589E-2</v>
       </c>
       <c r="F113" s="2">
-        <v>-3.291727093840101E-3</v>
+        <v>-1.7023126704374121E-2</v>
       </c>
       <c r="G113" s="2">
-        <v>-1.1671472087833481E-2</v>
+        <v>-8.1856292525054331E-3</v>
       </c>
       <c r="H113" s="2">
-        <v>1.193902795217916E-3</v>
+        <v>1.722919521748079E-3</v>
       </c>
       <c r="I113" s="2">
-        <v>9.1970001713444615E-3</v>
+        <v>-5.9638096672464773E-3</v>
       </c>
       <c r="J113" s="2">
-        <v>8.717428433869032E-3</v>
+        <v>7.9029465765176887E-3</v>
       </c>
       <c r="K113" s="2">
-        <v>-2.8661039203060948E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.707256213194901E-2</v>
+      </c>
+      <c r="L113" s="2">
+        <v>-8.8913041218050201E-2</v>
+      </c>
+      <c r="M113" s="2">
+        <v>2.0128121019145169E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>42886</v>
+        <v>43496</v>
       </c>
       <c r="B114" s="2">
-        <v>1.407274440436068E-2</v>
+        <v>8.0135957162378757E-2</v>
       </c>
       <c r="C114" s="2">
-        <v>1.770317063553462E-3</v>
+        <v>-2.8672198422187161E-3</v>
       </c>
       <c r="D114" s="2">
-        <v>-9.8195581284454825E-4</v>
+        <v>-1.159622122190718E-2</v>
       </c>
       <c r="E114" s="2">
-        <v>-5.5507216360122236E-3</v>
+        <v>-2.2830514056816579E-2</v>
       </c>
       <c r="F114" s="2">
-        <v>4.6449542939821179E-3</v>
+        <v>1.194827653943986E-2</v>
       </c>
       <c r="G114" s="2">
-        <v>-2.3404342988999631E-3</v>
+        <v>-5.0187008625295348E-3</v>
       </c>
       <c r="H114" s="2">
-        <v>-5.2629905729946191E-3</v>
+        <v>1.5279105874127291E-2</v>
       </c>
       <c r="I114" s="2">
-        <v>8.7421918242865937E-3</v>
+        <v>-1.864903598181067E-3</v>
       </c>
       <c r="J114" s="2">
-        <v>1.4466337307494481E-2</v>
+        <v>2.1927307042226558E-3</v>
       </c>
       <c r="K114" s="2">
-        <v>7.2663305193933041E-4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-9.6342718174163844E-3</v>
+      </c>
+      <c r="L114" s="2">
+        <v>7.753524851769511E-2</v>
+      </c>
+      <c r="M114" s="2">
+        <v>-3.7991759749694712E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>42916</v>
+        <v>43524</v>
       </c>
       <c r="B115" s="2">
-        <v>6.2415297135656189E-3</v>
+        <v>3.2108063849832343E-2</v>
       </c>
       <c r="C115" s="2">
-        <v>-5.68124423080274E-3</v>
+        <v>-3.234596199711004E-3</v>
       </c>
       <c r="D115" s="2">
-        <v>-2.5108618340430322E-4</v>
+        <v>-6.9247211620959703E-4</v>
       </c>
       <c r="E115" s="2">
-        <v>-3.1583536629994362E-3</v>
+        <v>-6.444682232947474E-3</v>
       </c>
       <c r="F115" s="2">
-        <v>5.1688956697634961E-3</v>
+        <v>-4.3477301541709531E-3</v>
       </c>
       <c r="G115" s="2">
-        <v>7.7151188243946836E-3</v>
+        <v>-8.78387449415996E-3</v>
       </c>
       <c r="H115" s="2">
-        <v>6.3730669303629917E-4</v>
+        <v>1.179267841208365E-3</v>
       </c>
       <c r="I115" s="2">
-        <v>-1.197183756463915E-3</v>
+        <v>4.0653482303681489E-3</v>
       </c>
       <c r="J115" s="2">
-        <v>6.4659215292236002E-3</v>
+        <v>6.0573401303105623E-3</v>
       </c>
       <c r="K115" s="2">
-        <v>4.1426181352242832E-4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.8889308651415251E-4</v>
+      </c>
+      <c r="L115" s="2">
+        <v>3.0942451870385839E-2</v>
+      </c>
+      <c r="M115" s="2">
+        <v>-1.702753223627037E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>42947</v>
+        <v>43555</v>
       </c>
       <c r="B116" s="2">
-        <v>2.0562761309518951E-2</v>
+        <v>1.9431871559203669E-2</v>
       </c>
       <c r="C116" s="2">
-        <v>-6.8218814006225648E-3</v>
+        <v>-7.4961159238073893E-4</v>
       </c>
       <c r="D116" s="2">
-        <v>-1.774330832984283E-4</v>
+        <v>-2.585848792144962E-3</v>
       </c>
       <c r="E116" s="2">
-        <v>-5.6380667253896899E-3</v>
+        <v>-3.2831102974262279E-3</v>
       </c>
       <c r="F116" s="2">
-        <v>1.855851012533461E-3</v>
+        <v>7.4893594118268254E-3</v>
       </c>
       <c r="G116" s="2">
-        <v>-8.7544571498833212E-3</v>
+        <v>2.3218466420282799E-4</v>
       </c>
       <c r="H116" s="2">
-        <v>-5.6550778277730807E-4</v>
+        <v>-2.0680314925225479E-4</v>
       </c>
       <c r="I116" s="2">
-        <v>3.462301040589377E-3</v>
+        <v>-2.7228366209964602E-3</v>
       </c>
       <c r="J116" s="2">
-        <v>1.920780951596978E-2</v>
+        <v>1.145741136976408E-4</v>
       </c>
       <c r="K116" s="2">
-        <v>-2.501449465013861E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.9102927289901288E-3</v>
+      </c>
+      <c r="L116" s="2">
+        <v>1.9193861316523099E-2</v>
+      </c>
+      <c r="M116" s="2">
+        <v>-3.4769092556259429E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>42978</v>
+        <v>43585</v>
       </c>
       <c r="B117" s="2">
-        <v>3.0612244897958441E-3</v>
+        <v>4.0489628054768863E-2</v>
       </c>
       <c r="C117" s="2">
-        <v>4.7935380708270534E-3</v>
+        <v>8.5060044163465243E-3</v>
       </c>
       <c r="D117" s="2">
-        <v>-5.210771327897934E-3</v>
+        <v>-2.9032880432766639E-4</v>
       </c>
       <c r="E117" s="2">
-        <v>-3.263594259630298E-3</v>
+        <v>-6.3685951374957686E-3</v>
       </c>
       <c r="F117" s="2">
-        <v>5.736458001449141E-3</v>
+        <v>-3.0647397250759621E-2</v>
       </c>
       <c r="G117" s="2">
-        <v>-8.1040627816784117E-3</v>
+        <v>1.354096140824268E-4</v>
       </c>
       <c r="H117" s="2">
-        <v>2.678752697550912E-3</v>
+        <v>7.9759339262164275E-4</v>
       </c>
       <c r="I117" s="2">
-        <v>1.3932807960472581E-3</v>
+        <v>7.0828676824820757E-3</v>
       </c>
       <c r="J117" s="2">
-        <v>2.6205448099233491E-3</v>
+        <v>2.9699936132248079E-3</v>
       </c>
       <c r="K117" s="2">
-        <v>-8.1356248591845336E-4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.992788005313884E-3</v>
+      </c>
+      <c r="L117" s="2">
+        <v>3.8308568491440223E-2</v>
+      </c>
+      <c r="M117" s="2">
+        <v>-3.186142788395096E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>43008</v>
+        <v>43616</v>
       </c>
       <c r="B118" s="2">
-        <v>2.0627974415640349E-2</v>
+        <v>-6.3548143265440005E-2</v>
       </c>
       <c r="C118" s="2">
-        <v>-3.190977735704648E-3</v>
+        <v>-2.4830085002489399E-2</v>
       </c>
       <c r="D118" s="2">
-        <v>-2.5250958329892098E-4</v>
+        <v>-7.1517710097191989E-3</v>
       </c>
       <c r="E118" s="2">
-        <v>-6.5237022240289821E-3</v>
+        <v>1.2757180260787541E-2</v>
       </c>
       <c r="F118" s="2">
-        <v>-7.7168264046473586E-3</v>
+        <v>4.1108401194849632E-2</v>
       </c>
       <c r="G118" s="2">
-        <v>3.076358725103701E-3</v>
+        <v>1.015434606011389E-3</v>
       </c>
       <c r="H118" s="2">
-        <v>-3.0553061024254369E-3</v>
+        <v>1.8127278476355979E-2</v>
       </c>
       <c r="I118" s="2">
-        <v>3.515512070982552E-3</v>
+        <v>-1.08397443944005E-2</v>
       </c>
       <c r="J118" s="2">
-        <v>1.9634716159554959E-2</v>
+        <v>-1.079538315686057E-2</v>
       </c>
       <c r="K118" s="2">
-        <v>-1.833707549696115E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.177427022915213E-2</v>
+      </c>
+      <c r="L118" s="2">
+        <v>-6.1437245832768682E-2</v>
+      </c>
+      <c r="M118" s="2">
+        <v>3.0836483080191861E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>43039</v>
+        <v>43646</v>
       </c>
       <c r="B119" s="2">
-        <v>2.3335468508686841E-2</v>
+        <v>7.0476116967557623E-2</v>
       </c>
       <c r="C119" s="2">
-        <v>2.8995034453616059E-4</v>
+        <v>1.322943028435963E-2</v>
       </c>
       <c r="D119" s="2">
-        <v>-2.5429741073512702E-4</v>
+        <v>-1.6933519116091309E-3</v>
       </c>
       <c r="E119" s="2">
-        <v>-3.9941496973719959E-3</v>
+        <v>-9.7575272020716808E-3</v>
       </c>
       <c r="F119" s="2">
-        <v>7.2503677081355933E-4</v>
+        <v>-1.436298003323988E-2</v>
       </c>
       <c r="G119" s="2">
-        <v>7.5551048904554108E-3</v>
+        <v>8.9847259658581979E-3</v>
       </c>
       <c r="H119" s="2">
-        <v>-2.09994746997122E-4</v>
+        <v>-7.4172673498466013E-3</v>
       </c>
       <c r="I119" s="2">
-        <v>5.4642170802854158E-3</v>
+        <v>7.7680358953529536E-3</v>
       </c>
       <c r="J119" s="2">
-        <v>2.4141284253566032E-2</v>
+        <v>1.7652212444303479E-3</v>
       </c>
       <c r="K119" s="2">
-        <v>1.4876598367000559E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.0701656430299409E-2</v>
+      </c>
+      <c r="L119" s="2">
+        <v>7.0100183887584905E-2</v>
+      </c>
+      <c r="M119" s="2">
+        <v>-5.4917182997343459E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>43069</v>
+        <v>43677</v>
       </c>
       <c r="B120" s="2">
-        <v>3.0669748082278629E-2</v>
+        <v>1.437227362209215E-2</v>
       </c>
       <c r="C120" s="2">
-        <v>6.7795854325169991E-3</v>
+        <v>-4.7088136655163426E-3</v>
       </c>
       <c r="D120" s="2">
-        <v>-2.2159680762634529E-4</v>
+        <v>-3.959728716459443E-4</v>
       </c>
       <c r="E120" s="2">
-        <v>-4.7461583657780748E-3</v>
+        <v>-2.4799132648783968E-3</v>
       </c>
       <c r="F120" s="2">
-        <v>-6.6625285772376249E-3</v>
+        <v>-1.38965721415167E-3</v>
       </c>
       <c r="G120" s="2">
-        <v>-1.51783872963529E-3</v>
+        <v>-7.7844483382645269E-3</v>
       </c>
       <c r="H120" s="2">
-        <v>1.5517795933772669E-3</v>
+        <v>-5.2618972062704614E-3</v>
       </c>
       <c r="I120" s="2">
-        <v>-2.466848165096857E-3</v>
+        <v>3.9355856539855516E-3</v>
       </c>
       <c r="J120" s="2">
-        <v>2.9961178122577009E-2</v>
+        <v>1.802453411406058E-3</v>
       </c>
       <c r="K120" s="2">
-        <v>-1.308129156372225E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.7625811306574159E-4</v>
+      </c>
+      <c r="L120" s="2">
+        <v>1.3347027950310959E-2</v>
+      </c>
+      <c r="M120" s="2">
+        <v>-1.4977028405834111E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>43100</v>
+        <v>43708</v>
       </c>
       <c r="B121" s="2">
-        <v>1.111873843576139E-2</v>
+        <v>-1.5840375521051889E-2</v>
       </c>
       <c r="C121" s="2">
-        <v>-5.426078280067248E-3</v>
+        <v>2.0229747073262191E-2</v>
       </c>
       <c r="D121" s="2">
-        <v>-2.7252961819113081E-4</v>
+        <v>-1.033589553412884E-2</v>
       </c>
       <c r="E121" s="2">
-        <v>-2.7080835801243102E-3</v>
+        <v>5.1787213385487973E-3</v>
       </c>
       <c r="F121" s="2">
-        <v>-1.6754704109519319E-2</v>
+        <v>3.935736352131098E-2</v>
       </c>
       <c r="G121" s="2">
-        <v>-6.7415173371004888E-3</v>
+        <v>-4.8539941713469092E-3</v>
       </c>
       <c r="H121" s="2">
-        <v>-2.453960078076189E-3</v>
+        <v>2.263555774315984E-2</v>
       </c>
       <c r="I121" s="2">
-        <v>5.7396833021414956E-3</v>
+        <v>-9.2579167563885973E-3</v>
       </c>
       <c r="J121" s="2">
-        <v>8.8816674318507368E-3</v>
+        <v>-1.7150746794573071E-3</v>
       </c>
       <c r="K121" s="2">
-        <v>-4.1299772379888976E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.3596614950635058E-3</v>
+      </c>
+      <c r="L121" s="2">
+        <v>-1.1672850011212691E-2</v>
+      </c>
+      <c r="M121" s="2">
+        <v>6.0880186730718688E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>43131</v>
+        <v>43738</v>
       </c>
       <c r="B122" s="2">
-        <v>5.7253897788946073E-2</v>
+        <v>1.8710352525977299E-2</v>
       </c>
       <c r="C122" s="2">
-        <v>1.3092462955865971E-2</v>
+        <v>-7.3027003369740004E-3</v>
       </c>
       <c r="D122" s="2">
-        <v>-2.3033305124009471E-4</v>
+        <v>-1.8234378474538679E-3</v>
       </c>
       <c r="E122" s="2">
-        <v>-3.5923528639902891E-3</v>
+        <v>-2.7105296734676321E-3</v>
       </c>
       <c r="F122" s="2">
-        <v>6.5215593879805692E-3</v>
+        <v>-1.475347613852275E-2</v>
       </c>
       <c r="G122" s="2">
-        <v>6.3154575171553429E-3</v>
+        <v>5.498288451654787E-3</v>
       </c>
       <c r="H122" s="2">
-        <v>1.592596915716249E-2</v>
+        <v>-9.8393901217119772E-4</v>
       </c>
       <c r="I122" s="2">
-        <v>-4.2338727731142563E-3</v>
+        <v>1.3945968547556699E-2</v>
       </c>
       <c r="J122" s="2">
-        <v>5.9070300305540897E-2</v>
+        <v>-8.0167119883304272E-3</v>
       </c>
       <c r="K122" s="2">
-        <v>3.3533584921750519E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.496445940890379E-3</v>
+      </c>
+      <c r="L122" s="2">
+        <v>1.7364431241573851E-2</v>
+      </c>
+      <c r="M122" s="2">
+        <v>-1.966153270708885E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>43159</v>
+        <v>43769</v>
       </c>
       <c r="B123" s="2">
-        <v>-3.6857033677153428E-2</v>
+        <v>2.1659823685756589E-2</v>
       </c>
       <c r="C123" s="2">
-        <v>1.485753288370106E-2</v>
+        <v>-7.5359057722678147E-3</v>
       </c>
       <c r="D123" s="2">
-        <v>-3.1895102698710209E-2</v>
+        <v>-3.635525961542041E-3</v>
       </c>
       <c r="E123" s="2">
-        <v>7.8573542573217026E-3</v>
+        <v>-2.9792238267978281E-3</v>
       </c>
       <c r="F123" s="2">
-        <v>5.1942877176510771E-4</v>
+        <v>-1.4381203026660971E-2</v>
       </c>
       <c r="G123" s="2">
-        <v>-7.1452639089845116E-3</v>
+        <v>-8.0142733146881806E-3</v>
       </c>
       <c r="H123" s="2">
-        <v>0.1052458619437191</v>
+        <v>-8.626832484139535E-3</v>
       </c>
       <c r="I123" s="2">
-        <v>-2.654289277610656E-3</v>
+        <v>-2.904878704725345E-3</v>
       </c>
       <c r="J123" s="2">
-        <v>-3.686725452392553E-2</v>
+        <v>3.9256522421096118E-3</v>
       </c>
       <c r="K123" s="2">
-        <v>-1.8869255579274461E-5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.4942099364952941E-3</v>
+      </c>
+      <c r="L123" s="2">
+        <v>1.8201809780417019E-2</v>
+      </c>
+      <c r="M123" s="2">
+        <v>-5.0515475376806552E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>43190</v>
+        <v>43799</v>
       </c>
       <c r="B124" s="2">
-        <v>-2.541329861398289E-2</v>
+        <v>3.629884658647109E-2</v>
       </c>
       <c r="C124" s="2">
-        <v>-5.5502802498254011E-3</v>
+        <v>1.2780630729587461E-3</v>
       </c>
       <c r="D124" s="2">
-        <v>-6.9940104816571544E-3</v>
+        <v>-2.2929822374750941E-4</v>
       </c>
       <c r="E124" s="2">
-        <v>7.6067071555354637E-3</v>
+        <v>-4.3566074953222964E-3</v>
       </c>
       <c r="F124" s="2">
-        <v>6.0455600893216336E-3</v>
+        <v>6.3090522715573234E-3</v>
       </c>
       <c r="G124" s="2">
-        <v>1.690871887009027E-2</v>
+        <v>-3.1596651727121561E-3</v>
       </c>
       <c r="H124" s="2">
-        <v>-6.4881716199358666E-3</v>
+        <v>-6.6526112326525944E-4</v>
       </c>
       <c r="I124" s="2">
-        <v>-1.194371544304251E-3</v>
+        <v>2.927030703338484E-3</v>
       </c>
       <c r="J124" s="2">
-        <v>-2.4292317087836031E-2</v>
+        <v>1.5074119241780259E-3</v>
       </c>
       <c r="K124" s="2">
-        <v>2.0695043559634321E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.8705574261125291E-3</v>
+      </c>
+      <c r="L124" s="2">
+        <v>3.6639759919563683E-2</v>
+      </c>
+      <c r="M124" s="2">
+        <v>4.9801416520831097E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>43220</v>
+        <v>43830</v>
       </c>
       <c r="B125" s="2">
-        <v>3.8370901055075901E-3</v>
+        <v>3.018204328369567E-2</v>
       </c>
       <c r="C125" s="2">
-        <v>-2.0628530555351739E-2</v>
+        <v>-3.726259339892124E-3</v>
       </c>
       <c r="D125" s="2">
-        <v>-9.2782329979095302E-3</v>
+        <v>-1.3056818095303899E-3</v>
       </c>
       <c r="E125" s="2">
-        <v>8.2780977959329149E-5</v>
+        <v>-4.7379888087035749E-3</v>
       </c>
       <c r="F125" s="2">
-        <v>9.6944568613097307E-3</v>
+        <v>-2.2065648785496932E-2</v>
       </c>
       <c r="G125" s="2">
-        <v>1.668646139048047E-4</v>
+        <v>-6.5344178516394402E-3</v>
       </c>
       <c r="H125" s="2">
-        <v>6.5035409167286673E-3</v>
+        <v>-3.6966995213113529E-3</v>
       </c>
       <c r="I125" s="2">
-        <v>4.317617068899215E-4</v>
+        <v>3.0176346736779051E-3</v>
       </c>
       <c r="J125" s="2">
-        <v>2.151709071049866E-3</v>
+        <v>5.3503357682369579E-3</v>
       </c>
       <c r="K125" s="2">
-        <v>-3.1114726789988759E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.9985007496246001E-3</v>
+      </c>
+      <c r="L125" s="2">
+        <v>2.7135408706089281E-2</v>
+      </c>
+      <c r="M125" s="2">
+        <v>-4.4505950004874286E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>43251</v>
+        <v>43861</v>
       </c>
       <c r="B126" s="2">
-        <v>2.4081843374623931E-2</v>
+        <v>-3.9215273387682709E-4</v>
       </c>
       <c r="C126" s="2">
-        <v>9.9486416007765754E-5</v>
+        <v>-9.2105679404097529E-4</v>
       </c>
       <c r="D126" s="2">
-        <v>-1.6642869567738969E-3</v>
+        <v>1.391244687540816E-4</v>
       </c>
       <c r="E126" s="2">
-        <v>-7.50059061603503E-3</v>
+        <v>8.2230473664046677E-4</v>
       </c>
       <c r="F126" s="2">
-        <v>4.0373539033859646E-3</v>
+        <v>6.4734049766025474E-3</v>
       </c>
       <c r="G126" s="2">
-        <v>-1.9529716573761791E-3</v>
+        <v>6.0865467682398311E-3</v>
       </c>
       <c r="H126" s="2">
-        <v>6.5319403892669659E-3</v>
+        <v>2.2638135007722049E-3</v>
       </c>
       <c r="I126" s="2">
-        <v>-1.3508703594942611E-3</v>
+        <v>1.72636644008155E-3</v>
       </c>
       <c r="J126" s="2">
-        <v>2.3488929548610399E-2</v>
+        <v>9.971307347589331E-4</v>
       </c>
       <c r="K126" s="2">
-        <v>-1.0946101403326719E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.7330827067665346E-3</v>
+      </c>
+      <c r="L126" s="2">
+        <v>1.332327572976728E-3</v>
+      </c>
+      <c r="M126" s="2">
+        <v>2.5191611388298949E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>43281</v>
+        <v>43890</v>
       </c>
       <c r="B127" s="2">
-        <v>6.155018926875977E-3</v>
+        <v>-8.2319200476141163E-2</v>
       </c>
       <c r="C127" s="2">
-        <v>7.876199716083665E-4</v>
+        <v>4.0814735880651432E-2</v>
       </c>
       <c r="D127" s="2">
-        <v>-7.8452618520624684E-3</v>
+        <v>7.8073222646312779E-2</v>
       </c>
       <c r="E127" s="2">
-        <v>-1.610324714430456E-3</v>
+        <v>1.281342865225343E-2</v>
       </c>
       <c r="F127" s="2">
-        <v>8.4628667508099501E-3</v>
+        <v>8.9800915429904468E-3</v>
       </c>
       <c r="G127" s="2">
-        <v>5.6737170221343716E-3</v>
+        <v>1.6207407985636909E-2</v>
       </c>
       <c r="H127" s="2">
-        <v>5.1407772246578887E-3</v>
+        <v>-3.5456507859292767E-2</v>
       </c>
       <c r="I127" s="2">
-        <v>7.1316917299836906E-3</v>
+        <v>-1.9519811696924062E-2</v>
       </c>
       <c r="J127" s="2">
-        <v>7.1487012394753366E-3</v>
+        <v>-4.1331092263283686E-3</v>
       </c>
       <c r="K127" s="2">
-        <v>1.834490423260355E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.0278478646854951E-2</v>
+      </c>
+      <c r="L127" s="2">
+        <v>-7.2346051431015523E-2</v>
+      </c>
+      <c r="M127" s="2">
+        <v>1.45690092292672E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>43312</v>
+        <v>43921</v>
       </c>
       <c r="B128" s="2">
-        <v>3.7213652007762388E-2</v>
+        <v>-0.123512781520648</v>
       </c>
       <c r="C128" s="2">
-        <v>-2.8381118545839361E-3</v>
+        <v>0.33335361480110309</v>
       </c>
       <c r="D128" s="2">
-        <v>-2.896750553830985E-3</v>
+        <v>0.43271949228861639</v>
       </c>
       <c r="E128" s="2">
-        <v>-9.1898590413961312E-3</v>
+        <v>6.400660629193311E-4</v>
       </c>
       <c r="F128" s="2">
-        <v>1.543603895370416E-3</v>
+        <v>5.718655989636974E-2</v>
       </c>
       <c r="G128" s="2">
-        <v>6.2870328724797808E-3</v>
+        <v>5.68726295069375E-2</v>
       </c>
       <c r="H128" s="2">
-        <v>-4.2720145755635866E-3</v>
+        <v>0.60844340876996705</v>
       </c>
       <c r="I128" s="2">
-        <v>2.2879875734213911E-3</v>
+        <v>9.7783028682561668E-2</v>
       </c>
       <c r="J128" s="2">
-        <v>3.6663794641855041E-2</v>
+        <v>1.5847243811899501E-3</v>
       </c>
       <c r="K128" s="2">
-        <v>-1.015121290905862E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.1171308660816479</v>
+      </c>
+      <c r="L128" s="2">
+        <v>-2.2968928875296571E-2</v>
+      </c>
+      <c r="M128" s="2">
+        <v>0.146876809973289</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>43343</v>
+        <v>43951</v>
       </c>
       <c r="B129" s="2">
-        <v>3.25853033789818E-2</v>
+        <v>0.12819381913880301</v>
       </c>
       <c r="C129" s="2">
-        <v>4.1889532190555467E-3</v>
+        <v>5.6350128473343641E-2</v>
       </c>
       <c r="D129" s="2">
-        <v>-2.3969684266144098E-3</v>
+        <v>-2.690584066101831E-2</v>
       </c>
       <c r="E129" s="2">
-        <v>-5.3345047792155986E-3</v>
+        <v>-1.094402887357826E-2</v>
       </c>
       <c r="F129" s="2">
-        <v>9.2366925753597177E-3</v>
+        <v>1.408666914159125E-3</v>
       </c>
       <c r="G129" s="2">
-        <v>-5.7716412254535943E-3</v>
+        <v>2.2985790602172429E-3</v>
       </c>
       <c r="H129" s="2">
-        <v>1.458594556207782E-3</v>
+        <v>4.8381711838347607E-2</v>
       </c>
       <c r="I129" s="2">
-        <v>1.919811401395588E-3</v>
+        <v>-3.3981213000015991E-3</v>
       </c>
       <c r="J129" s="2">
-        <v>3.2719282487058937E-2</v>
+        <v>1.03646366225314E-2</v>
       </c>
       <c r="K129" s="2">
-        <v>2.4734604568086047E-4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.9040300546448011E-2</v>
+      </c>
+      <c r="L129" s="2">
+        <v>0.13015350411486129</v>
+      </c>
+      <c r="M129" s="2">
+        <v>2.862753617083822E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>43373</v>
+        <v>43982</v>
       </c>
       <c r="B130" s="2">
-        <v>5.6918725002412804E-3</v>
+        <v>4.762796315360962E-2</v>
       </c>
       <c r="C130" s="2">
-        <v>-7.7076601295587022E-3</v>
+        <v>-1.494497607059331E-3</v>
       </c>
       <c r="D130" s="2">
-        <v>-3.3286927800479932E-4</v>
+        <v>-1.315738594259208E-2</v>
       </c>
       <c r="E130" s="2">
-        <v>-2.78941941902211E-3</v>
+        <v>-7.3850868527510771E-3</v>
       </c>
       <c r="F130" s="2">
-        <v>-6.9738282088542044E-3</v>
+        <v>8.0774241620542426E-4</v>
       </c>
       <c r="G130" s="2">
-        <v>4.5542057992826726E-3</v>
+        <v>5.2936430960559564E-3</v>
       </c>
       <c r="H130" s="2">
-        <v>-3.3301035041154452E-3</v>
+        <v>5.330865421903086E-3</v>
       </c>
       <c r="I130" s="2">
-        <v>1.1780380331690619E-2</v>
+        <v>-2.2750897116867951E-3</v>
       </c>
       <c r="J130" s="2">
-        <v>5.4931279919082331E-3</v>
+        <v>3.583466205962615E-3</v>
       </c>
       <c r="K130" s="2">
-        <v>-3.6691293846101289E-4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.3500739838107081E-3</v>
+      </c>
+      <c r="L130" s="2">
+        <v>4.6529653517948619E-2</v>
+      </c>
+      <c r="M130" s="2">
+        <v>-1.6044363867557621E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>43404</v>
+        <v>44012</v>
       </c>
       <c r="B131" s="2">
-        <v>-6.8350191951934036E-2</v>
+        <v>1.9887238104291161E-2</v>
       </c>
       <c r="C131" s="2">
-        <v>-6.4435188792161258E-3</v>
+        <v>5.4536378385123818E-3</v>
       </c>
       <c r="D131" s="2">
-        <v>7.3448790969432576E-3</v>
+        <v>-1.6504781401897931E-2</v>
       </c>
       <c r="E131" s="2">
-        <v>2.1806781230029101E-2</v>
+        <v>-5.871031638571278E-4</v>
       </c>
       <c r="F131" s="2">
-        <v>5.5844537037363588E-3</v>
+        <v>1.254346750174215E-2</v>
       </c>
       <c r="G131" s="2">
-        <v>2.4010351302181879E-2</v>
+        <v>3.9132590956225677E-3</v>
       </c>
       <c r="H131" s="2">
-        <v>-1.8661640276636641E-2</v>
+        <v>-3.43409565433761E-3</v>
       </c>
       <c r="I131" s="2">
-        <v>2.7428663889505259E-3</v>
+        <v>-7.2633546834797811E-3</v>
       </c>
       <c r="J131" s="2">
-        <v>-6.3998806739625561E-2</v>
+        <v>7.1782404795710519E-3</v>
       </c>
       <c r="K131" s="2">
-        <v>8.0333265458002543E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.1201806182702169E-2</v>
+      </c>
+      <c r="L131" s="2">
+        <v>1.9853276320209931E-2</v>
+      </c>
+      <c r="M131" s="2">
+        <v>-4.9612167980539369E-5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>43434</v>
+        <v>44043</v>
       </c>
       <c r="B132" s="2">
-        <v>2.037846790319597E-2</v>
+        <v>5.6385040336654813E-2</v>
       </c>
       <c r="C132" s="2">
-        <v>-1.486586371260423E-3</v>
+        <v>8.0082415877467117E-3</v>
       </c>
       <c r="D132" s="2">
-        <v>-7.2529738288452661E-3</v>
+        <v>-5.9167887492840299E-3</v>
       </c>
       <c r="E132" s="2">
-        <v>-6.3889281367557338E-4</v>
+        <v>-4.0269050358439076E-3</v>
       </c>
       <c r="F132" s="2">
-        <v>1.6355033449461881E-3</v>
+        <v>-3.9008369396654852E-3</v>
       </c>
       <c r="G132" s="2">
-        <v>3.9522312055255693E-3</v>
+        <v>1.6346473383091139E-2</v>
       </c>
       <c r="H132" s="2">
-        <v>-1.011065073507544E-2</v>
+        <v>5.4467258243870997E-3</v>
       </c>
       <c r="I132" s="2">
-        <v>6.6789812456414799E-3</v>
+        <v>2.7126912308021332E-3</v>
       </c>
       <c r="J132" s="2">
-        <v>2.0257414289975281E-2</v>
+        <v>1.0079084103918889E-2</v>
       </c>
       <c r="K132" s="2">
-        <v>-2.2348359363818479E-4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-5.2691665934833098E-3</v>
+      </c>
+      <c r="L132" s="2">
+        <v>5.8244613779515293E-2</v>
+      </c>
+      <c r="M132" s="2">
+        <v>2.7165083494641801E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>43465</v>
+        <v>44074</v>
       </c>
       <c r="B133" s="2">
-        <v>-9.0290902593269884E-2</v>
+        <v>7.1880617710854855E-2</v>
       </c>
       <c r="C133" s="2">
-        <v>-1.280723544742879E-2</v>
+        <v>7.416127133607997E-2</v>
       </c>
       <c r="D133" s="2">
-        <v>6.5563275735518456E-3</v>
+        <v>-1.496049955059364E-3</v>
       </c>
       <c r="E133" s="2">
-        <v>1.6592571287071589E-2</v>
+        <v>-8.3307415470742496E-3</v>
       </c>
       <c r="F133" s="2">
-        <v>-9.4374765620420017E-3</v>
+        <v>-1.555681392650159E-2</v>
       </c>
       <c r="G133" s="2">
-        <v>-8.1856292525054331E-3</v>
+        <v>1.1541282620030289E-2</v>
       </c>
       <c r="H133" s="2">
-        <v>1.722919521748079E-3</v>
+        <v>1.2233280542207851E-2</v>
       </c>
       <c r="I133" s="2">
-        <v>-5.9638096672464773E-3</v>
+        <v>1.1897102877061E-2</v>
       </c>
       <c r="J133" s="2">
-        <v>-9.1222189284501071E-2</v>
+        <v>-2.2145791148797671E-3</v>
       </c>
       <c r="K133" s="2">
-        <v>-1.719298506888352E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.4719696300871119E-3</v>
+      </c>
+      <c r="L133" s="2">
+        <v>7.6920472556533323E-2</v>
+      </c>
+      <c r="M133" s="2">
+        <v>7.3623377559711998E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>43496</v>
+        <v>44104</v>
       </c>
       <c r="B134" s="2">
-        <v>8.0135957162378757E-2</v>
+        <v>-3.799663269935627E-2</v>
       </c>
       <c r="C134" s="2">
-        <v>-2.8672198422187161E-3</v>
+        <v>-7.77264477178502E-2</v>
       </c>
       <c r="D134" s="2">
-        <v>-1.159622122190718E-2</v>
+        <v>-1.4478220158699149E-2</v>
       </c>
       <c r="E134" s="2">
-        <v>-2.2830514056816579E-2</v>
+        <v>4.5923967830820978E-3</v>
       </c>
       <c r="F134" s="2">
-        <v>1.0804295350843559E-2</v>
+        <v>1.0992630243690901E-2</v>
       </c>
       <c r="G134" s="2">
-        <v>-5.0187008625295348E-3</v>
+        <v>-1.9822653212772549E-2</v>
       </c>
       <c r="H134" s="2">
-        <v>1.5279105874127291E-2</v>
+        <v>4.3725959455225498E-2</v>
       </c>
       <c r="I134" s="2">
-        <v>-1.864903598181067E-3</v>
+        <v>-2.6088229928169018E-2</v>
       </c>
       <c r="J134" s="2">
-        <v>7.7431578573399218E-2</v>
+        <v>3.750421179638419E-3</v>
       </c>
       <c r="K134" s="2">
-        <v>-4.992698933500692E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.336666961677782E-3</v>
+      </c>
+      <c r="L134" s="2">
+        <v>-4.6209715679698747E-2</v>
+      </c>
+      <c r="M134" s="2">
+        <v>-1.1997863583501651E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>43524</v>
+        <v>44135</v>
       </c>
       <c r="B135" s="2">
-        <v>3.2108063849832343E-2</v>
+        <v>-2.6593783491006721E-2</v>
       </c>
       <c r="C135" s="2">
-        <v>-3.234596199711004E-3</v>
+        <v>3.7835033948780961E-3</v>
       </c>
       <c r="D135" s="2">
-        <v>-6.9247211620959703E-4</v>
+        <v>3.0846722502351209E-3</v>
       </c>
       <c r="E135" s="2">
-        <v>-6.444682232947474E-3</v>
+        <v>5.0508429221300943E-3</v>
       </c>
       <c r="F135" s="2">
-        <v>7.8090714671523401E-3</v>
+        <v>-1.0013741041650301E-3</v>
       </c>
       <c r="G135" s="2">
-        <v>-8.78387449415996E-3</v>
+        <v>-1.216620913401556E-2</v>
       </c>
       <c r="H135" s="2">
-        <v>1.179267841208365E-3</v>
+        <v>3.536523208713005E-3</v>
       </c>
       <c r="I135" s="2">
-        <v>4.0653482303681489E-3</v>
+        <v>6.6492114820448931E-3</v>
       </c>
       <c r="J135" s="2">
-        <v>3.151143831531085E-2</v>
+        <v>-2.5636007691498541E-3</v>
       </c>
       <c r="K135" s="2">
-        <v>-1.101462525270439E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.7240042298202258E-3</v>
+      </c>
+      <c r="L135" s="2">
+        <v>-2.6022582583506929E-2</v>
+      </c>
+      <c r="M135" s="2">
+        <v>8.3442363645388074E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>43555</v>
+        <v>44165</v>
       </c>
       <c r="B136" s="2">
-        <v>1.9431871559203669E-2</v>
+        <v>0.1094638222127722</v>
       </c>
       <c r="C136" s="2">
-        <v>-7.4961159238073893E-4</v>
+        <v>-8.907992841246104E-3</v>
       </c>
       <c r="D136" s="2">
-        <v>-2.585848792144962E-3</v>
+        <v>-2.118217616690676E-2</v>
       </c>
       <c r="E136" s="2">
-        <v>-3.2831102974262279E-3</v>
+        <v>-2.5903861727737731E-2</v>
       </c>
       <c r="F136" s="2">
-        <v>-3.6399178455962852E-3</v>
+        <v>-7.8182592088216415E-3</v>
       </c>
       <c r="G136" s="2">
-        <v>2.3218466420282799E-4</v>
+        <v>2.3585458941992821E-2</v>
       </c>
       <c r="H136" s="2">
-        <v>-2.0680314925225479E-4</v>
+        <v>-4.8146033697831991E-2</v>
       </c>
       <c r="I136" s="2">
-        <v>-2.7228366209964602E-3</v>
+        <v>5.250768674645032E-5</v>
       </c>
       <c r="J136" s="2">
-        <v>1.8311262936729411E-2</v>
+        <v>7.6037397272707974E-3</v>
       </c>
       <c r="K136" s="2">
-        <v>-2.068815918414024E-3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.515943041845015E-2</v>
+      </c>
+      <c r="L136" s="2">
+        <v>0.1046721703164798</v>
+      </c>
+      <c r="M136" s="2">
+        <v>-6.9997570862173376E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>43585</v>
+        <v>44196</v>
       </c>
       <c r="B137" s="2">
-        <v>4.0489628054768863E-2</v>
+        <v>3.8448175857307421E-2</v>
       </c>
       <c r="C137" s="2">
-        <v>8.5060044163465243E-3</v>
+        <v>9.0480287657850322E-3</v>
       </c>
       <c r="D137" s="2">
-        <v>-2.9032880432766639E-4</v>
+        <v>-2.780639567501519E-3</v>
       </c>
       <c r="E137" s="2">
-        <v>-6.3685951374957686E-3</v>
+        <v>-4.0999476117804523E-3</v>
       </c>
       <c r="F137" s="2">
-        <v>-1.9059067258636299E-2</v>
+        <v>2.0105657014187039E-2</v>
       </c>
       <c r="G137" s="2">
-        <v>1.354096140824268E-4</v>
+        <v>-1.16796685618582E-2</v>
       </c>
       <c r="H137" s="2">
-        <v>7.9759339262164275E-4</v>
+        <v>-9.078253380691681E-3</v>
       </c>
       <c r="I137" s="2">
-        <v>7.0828676824820757E-3</v>
+        <v>1.099009619429667E-2</v>
       </c>
       <c r="J137" s="2">
-        <v>3.9667386943062592E-2</v>
+        <v>7.336391606840964E-3</v>
       </c>
       <c r="K137" s="2">
-        <v>-1.5179835908423411E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.494936822295402E-3</v>
+      </c>
+      <c r="L137" s="2">
+        <v>4.0778621746557782E-2</v>
+      </c>
+      <c r="M137" s="2">
+        <v>3.404369824934131E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>43616</v>
+        <v>44227</v>
       </c>
       <c r="B138" s="2">
-        <v>-6.3548143265440005E-2</v>
+        <v>-1.0095697510550171E-2</v>
       </c>
       <c r="C138" s="2">
-        <v>-2.4830085002489399E-2</v>
+        <v>1.8327533150192869E-2</v>
       </c>
       <c r="D138" s="2">
-        <v>-7.1517710097191989E-3</v>
+        <v>3.9415289859223712E-3</v>
       </c>
       <c r="E138" s="2">
-        <v>1.2757180260787541E-2</v>
+        <v>-1.223612286439635E-3</v>
       </c>
       <c r="F138" s="2">
-        <v>2.4546524386019199E-2</v>
+        <v>3.308689957420094E-2</v>
       </c>
       <c r="G138" s="2">
-        <v>1.015434606011389E-3</v>
+        <v>-1.685693899393548E-3</v>
       </c>
       <c r="H138" s="2">
-        <v>1.8127278476355979E-2</v>
+        <v>1.151841292869338E-2</v>
       </c>
       <c r="I138" s="2">
-        <v>-1.08397443944005E-2</v>
+        <v>9.7262976414237874E-3</v>
       </c>
       <c r="J138" s="2">
-        <v>-6.3694691956034333E-2</v>
+        <v>2.5514784335063379E-3</v>
       </c>
       <c r="K138" s="2">
-        <v>-2.705514287895032E-4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.5647482014390413E-3</v>
+      </c>
+      <c r="L138" s="2">
+        <v>-3.7645384940983751E-3</v>
+      </c>
+      <c r="M138" s="2">
+        <v>9.2487050705139136E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>43646</v>
+        <v>44255</v>
       </c>
       <c r="B139" s="2">
-        <v>7.0476116967557623E-2</v>
+        <v>2.7574892829835159E-2</v>
       </c>
       <c r="C139" s="2">
-        <v>1.322943028435963E-2</v>
+        <v>-6.2180878184328048E-3</v>
       </c>
       <c r="D139" s="2">
-        <v>-1.6933519116091309E-3</v>
+        <v>-1.545697098795284E-2</v>
       </c>
       <c r="E139" s="2">
-        <v>-9.7575272020716808E-3</v>
+        <v>-1.946438589861543E-4</v>
       </c>
       <c r="F139" s="2">
-        <v>-2.1515882325601011E-2</v>
+        <v>7.3197583133720878E-2</v>
       </c>
       <c r="G139" s="2">
-        <v>8.9847259658581979E-3</v>
+        <v>-1.126586915153072E-2</v>
       </c>
       <c r="H139" s="2">
-        <v>-7.4172673498466013E-3</v>
+        <v>-1.0049731662492569E-3</v>
       </c>
       <c r="I139" s="2">
-        <v>7.7680358953529536E-3</v>
+        <v>4.8994026137382908E-3</v>
       </c>
       <c r="J139" s="2">
-        <v>7.0037598291801381E-2</v>
+        <v>4.905391607930909E-3</v>
       </c>
       <c r="K139" s="2">
-        <v>-8.0957293985768814E-4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-9.0234968283748884E-3</v>
+      </c>
+      <c r="L139" s="2">
+        <v>3.2537587271285973E-2</v>
+      </c>
+      <c r="M139" s="2">
+        <v>7.2496200339918927E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>43677</v>
+        <v>44286</v>
       </c>
       <c r="B140" s="2">
-        <v>1.437227362209215E-2</v>
+        <v>4.3795671301939183E-2</v>
       </c>
       <c r="C140" s="2">
-        <v>-4.7088136655163426E-3</v>
+        <v>-1.494386568220896E-2</v>
       </c>
       <c r="D140" s="2">
-        <v>-3.959728716459443E-4</v>
+        <v>-5.9456625225945414E-3</v>
       </c>
       <c r="E140" s="2">
-        <v>-2.4799132648783968E-3</v>
+        <v>-7.3864547307666006E-3</v>
       </c>
       <c r="F140" s="2">
-        <v>7.5372206831022604E-4</v>
+        <v>1.407958170979895E-2</v>
       </c>
       <c r="G140" s="2">
-        <v>-7.7844483382645269E-3</v>
+        <v>1.044546850998462E-2</v>
       </c>
       <c r="H140" s="2">
-        <v>-5.2618972062704614E-3</v>
+        <v>-1.4427008053549131E-3</v>
       </c>
       <c r="I140" s="2">
-        <v>3.9355856539855516E-3</v>
+        <v>2.8369345032142612E-3</v>
       </c>
       <c r="J140" s="2">
-        <v>1.336441462730144E-2</v>
+        <v>5.8885986924088751E-3</v>
       </c>
       <c r="K140" s="2">
-        <v>-1.860662759613621E-3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-8.9253516047593795E-3</v>
+      </c>
+      <c r="L140" s="2">
+        <v>4.4292886752859452E-2</v>
+      </c>
+      <c r="M140" s="2">
+        <v>7.2634395220755831E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>43708</v>
+        <v>44316</v>
       </c>
       <c r="B141" s="2">
-        <v>-1.5840375521051889E-2</v>
+        <v>5.3368805883316162E-2</v>
       </c>
       <c r="C141" s="2">
-        <v>2.0229747073262191E-2</v>
+        <v>6.4305806153517331E-3</v>
       </c>
       <c r="D141" s="2">
-        <v>-1.033589553412884E-2</v>
+        <v>-9.1960117764489091E-4</v>
       </c>
       <c r="E141" s="2">
-        <v>5.1787213385487973E-3</v>
+        <v>-7.8682926266483433E-3</v>
       </c>
       <c r="F141" s="2">
-        <v>2.1642457718059359E-2</v>
+        <v>-7.3693265588813074E-3</v>
       </c>
       <c r="G141" s="2">
-        <v>-4.8539941713469092E-3</v>
+        <v>-1.9190528141934778E-2</v>
       </c>
       <c r="H141" s="2">
-        <v>2.263555774315984E-2</v>
+        <v>2.4258080565582318E-3</v>
       </c>
       <c r="I141" s="2">
-        <v>-9.2579167563885973E-3</v>
+        <v>-4.0861571348999367E-3</v>
       </c>
       <c r="J141" s="2">
-        <v>-1.370053925269658E-2</v>
+        <v>1.36089424762873E-2</v>
       </c>
       <c r="K141" s="2">
-        <v>3.9504669569636539E-3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.54771218047778E-3</v>
+      </c>
+      <c r="L141" s="2">
+        <v>5.1343480397269672E-2</v>
+      </c>
+      <c r="M141" s="2">
+        <v>-2.95864280830165E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>43738</v>
+        <v>44347</v>
       </c>
       <c r="B142" s="2">
-        <v>1.8710352525977299E-2</v>
+        <v>6.9843138425296214E-3</v>
       </c>
       <c r="C142" s="2">
-        <v>-7.3027003369740004E-3</v>
+        <v>-3.8430748548048399E-3</v>
       </c>
       <c r="D142" s="2">
-        <v>-1.8234378474538679E-3</v>
+        <v>-1.171156714370147E-2</v>
       </c>
       <c r="E142" s="2">
-        <v>-2.7105296734676321E-3</v>
+        <v>-2.2675736961451638E-3</v>
       </c>
       <c r="F142" s="2">
-        <v>-1.4108737699590229E-2</v>
+        <v>1.1299094335513781E-5</v>
       </c>
       <c r="G142" s="2">
-        <v>5.498288451654787E-3</v>
+        <v>-1.1943836615608829E-3</v>
       </c>
       <c r="H142" s="2">
-        <v>-9.8393901217119772E-4</v>
+        <v>-6.8979066454394333E-3</v>
       </c>
       <c r="I142" s="2">
-        <v>1.3945968547556699E-2</v>
+        <v>-6.7689182858616586E-3</v>
       </c>
       <c r="J142" s="2">
-        <v>1.8110103128212259E-2</v>
+        <v>4.1575224166667812E-3</v>
       </c>
       <c r="K142" s="2">
-        <v>-1.1081527343354629E-3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.7471243381412842E-3</v>
+      </c>
+      <c r="L142" s="2">
+        <v>4.7722847957673686E-3</v>
+      </c>
+      <c r="M142" s="2">
+        <v>-3.2313837336500392E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>43769</v>
+        <v>44377</v>
       </c>
       <c r="B143" s="2">
-        <v>2.1659823685756589E-2</v>
+        <v>2.3344813207164531E-2</v>
       </c>
       <c r="C143" s="2">
-        <v>-7.5359057722678147E-3</v>
+        <v>-7.1855575249313297E-4</v>
       </c>
       <c r="D143" s="2">
-        <v>-3.635525961542041E-3</v>
+        <v>-1.2694547811211709E-3</v>
       </c>
       <c r="E143" s="2">
-        <v>-2.9792238267978281E-3</v>
+        <v>-3.729603729603737E-3</v>
       </c>
       <c r="F143" s="2">
-        <v>-1.303271732133663E-2</v>
+        <v>-2.8699416018448231E-2</v>
       </c>
       <c r="G143" s="2">
-        <v>-8.0142733146881806E-3</v>
+        <v>1.807410382568486E-3</v>
       </c>
       <c r="H143" s="2">
-        <v>-8.626832484139535E-3</v>
+        <v>-1.0170182623295829E-3</v>
       </c>
       <c r="I143" s="2">
-        <v>-2.904878704725345E-3</v>
+        <v>8.7678942765357683E-3</v>
       </c>
       <c r="J143" s="2">
-        <v>1.8229147476358409E-2</v>
+        <v>5.2767597813798686E-3</v>
       </c>
       <c r="K143" s="2">
-        <v>-6.3335560788889576E-3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.8345257750895791E-4</v>
+      </c>
+      <c r="L143" s="2">
+        <v>2.138131397772201E-2</v>
+      </c>
+      <c r="M143" s="2">
+        <v>-2.8683255675787168E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>43799</v>
+        <v>44408</v>
       </c>
       <c r="B144" s="2">
-        <v>3.629884658647109E-2</v>
+        <v>2.3754925343659972E-2</v>
       </c>
       <c r="C144" s="2">
-        <v>1.2780630729587461E-3</v>
+        <v>8.9346817732491868E-3</v>
       </c>
       <c r="D144" s="2">
-        <v>-2.2929822374750941E-4</v>
+        <v>-7.653154586121369E-3</v>
       </c>
       <c r="E144" s="2">
-        <v>-4.3566074953222964E-3</v>
+        <v>-4.3424317617866137E-3</v>
       </c>
       <c r="F144" s="2">
-        <v>1.0418138443230441E-2</v>
+        <v>-8.3482076370064223E-4</v>
       </c>
       <c r="G144" s="2">
-        <v>-3.1596651727121561E-3</v>
+        <v>-1.2519704411054541E-2</v>
       </c>
       <c r="H144" s="2">
-        <v>-6.6526112326525944E-4</v>
+        <v>7.7668616815436131E-3</v>
       </c>
       <c r="I144" s="2">
-        <v>2.927030703338484E-3</v>
+        <v>-1.23674868585131E-2</v>
       </c>
       <c r="J144" s="2">
-        <v>3.6853348377387123E-2</v>
+        <v>2.2092234082147222E-3</v>
       </c>
       <c r="K144" s="2">
-        <v>1.023695613998849E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.2201834862377607E-3</v>
+      </c>
+      <c r="L144" s="2">
+        <v>2.1178033812889751E-2</v>
+      </c>
+      <c r="M144" s="2">
+        <v>-3.7643833782831791E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>43830</v>
+        <v>44439</v>
       </c>
       <c r="B145" s="2">
-        <v>3.018204328369567E-2</v>
+        <v>3.0405631240434609E-2</v>
       </c>
       <c r="C145" s="2">
-        <v>-3.726259339892124E-3</v>
+        <v>3.6118561286866409E-3</v>
       </c>
       <c r="D145" s="2">
-        <v>-1.3056818095303899E-3</v>
+        <v>-2.6752190459710108E-3</v>
       </c>
       <c r="E145" s="2">
-        <v>-4.7379888087035749E-3</v>
+        <v>-5.6663218282704264E-3</v>
       </c>
       <c r="F145" s="2">
-        <v>-2.2949920354017581E-2</v>
+        <v>4.9726451917572701E-3</v>
       </c>
       <c r="G145" s="2">
-        <v>-6.5344178516394402E-3</v>
+        <v>-5.6194808670055876E-3</v>
       </c>
       <c r="H145" s="2">
-        <v>-3.6966995213113529E-3</v>
+        <v>-7.7300223793655984E-3</v>
       </c>
       <c r="I145" s="2">
-        <v>3.0176346736779051E-3</v>
+        <v>-4.7468970458997674E-3</v>
       </c>
       <c r="J145" s="2">
-        <v>2.7058107548461031E-2</v>
+        <v>5.1448154333872953E-3</v>
       </c>
       <c r="K145" s="2">
-        <v>-5.7672659727408676E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.5662428597746909E-3</v>
+      </c>
+      <c r="L145" s="2">
+        <v>2.9713984783067231E-2</v>
+      </c>
+      <c r="M145" s="2">
+        <v>-1.010373310895239E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>43861</v>
+        <v>44469</v>
       </c>
       <c r="B146" s="2">
-        <v>-3.9215273387682709E-4</v>
+        <v>-4.650979871696681E-2</v>
       </c>
       <c r="C146" s="2">
-        <v>-9.2105679404097529E-4</v>
+        <v>-1.170587807961887E-2</v>
       </c>
       <c r="D146" s="2">
-        <v>1.391244687540816E-4</v>
+        <v>-9.0591278944905929E-3</v>
       </c>
       <c r="E146" s="2">
-        <v>8.2230473664046677E-4</v>
+        <v>1.025040788820308E-2</v>
       </c>
       <c r="F146" s="2">
-        <v>5.4578926480965632E-3</v>
+        <v>1.0477646449534859E-2</v>
       </c>
       <c r="G146" s="2">
-        <v>6.0865467682398311E-3</v>
+        <v>1.688875691325364E-3</v>
       </c>
       <c r="H146" s="2">
-        <v>2.2638135007722049E-3</v>
+        <v>-1.382171006047272E-2</v>
       </c>
       <c r="I146" s="2">
-        <v>1.72636644008155E-3</v>
+        <v>6.6972309828241539E-3</v>
       </c>
       <c r="J146" s="2">
-        <v>7.6717332946926362E-4</v>
+        <v>3.9962619013591549E-3</v>
       </c>
       <c r="K146" s="2">
-        <v>2.1402942707927832E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.550244532619738E-2</v>
+      </c>
+      <c r="L146" s="2">
+        <v>-4.4804676715459117E-2</v>
+      </c>
+      <c r="M146" s="2">
+        <v>2.490882073915623E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>43890</v>
+        <v>44500</v>
       </c>
       <c r="B147" s="2">
-        <v>-8.2319200476141163E-2</v>
+        <v>7.0061817746820854E-2</v>
       </c>
       <c r="C147" s="2">
-        <v>4.0814735880651432E-2</v>
+        <v>3.3334159254028162E-3</v>
       </c>
       <c r="D147" s="2">
-        <v>7.8073222646312779E-2</v>
+        <v>-3.9965065552323153E-3</v>
       </c>
       <c r="E147" s="2">
-        <v>1.281342865225343E-2</v>
+        <v>-1.5096724361900019E-2</v>
       </c>
       <c r="F147" s="2">
-        <v>-1.4132476333770721E-2</v>
+        <v>2.5397196209624159E-2</v>
       </c>
       <c r="G147" s="2">
-        <v>1.6207407985636909E-2</v>
+        <v>3.6962925907397799E-3</v>
       </c>
       <c r="H147" s="2">
-        <v>-3.5456507859292767E-2</v>
+        <v>6.007244832728631E-4</v>
       </c>
       <c r="I147" s="2">
-        <v>-1.9519811696924062E-2</v>
+        <v>1.672229346085464E-3</v>
       </c>
       <c r="J147" s="2">
-        <v>-7.1909976656898258E-2</v>
+        <v>-1.2410732266001649E-3</v>
       </c>
       <c r="K147" s="2">
-        <v>1.9217028589371511E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.508405270331681E-2</v>
+      </c>
+      <c r="L147" s="2">
+        <v>7.0947491557168813E-2</v>
+      </c>
+      <c r="M147" s="2">
+        <v>1.2938130031643581E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>43921</v>
+        <v>44530</v>
       </c>
       <c r="B148" s="2">
-        <v>-0.123512781520648</v>
+        <v>-6.9289192274054612E-3</v>
       </c>
       <c r="C148" s="2">
-        <v>0.33335361480110309</v>
+        <v>1.4078791181472591E-2</v>
       </c>
       <c r="D148" s="2">
-        <v>0.43271949228861639</v>
+        <v>-1.365374112506923E-3</v>
       </c>
       <c r="E148" s="2">
-        <v>6.400660629193311E-4</v>
+        <v>7.1293622785439936E-4</v>
       </c>
       <c r="F148" s="2">
-        <v>7.2175783752550194E-3</v>
+        <v>2.304127033560454E-2</v>
       </c>
       <c r="G148" s="2">
-        <v>5.68726295069375E-2</v>
+        <v>2.1413078591536738E-3</v>
       </c>
       <c r="H148" s="2">
-        <v>0.60844340876996705</v>
+        <v>2.020520721922181E-2</v>
       </c>
       <c r="I148" s="2">
-        <v>9.7783028682561668E-2</v>
+        <v>3.1213066951772512E-3</v>
       </c>
       <c r="J148" s="2">
-        <v>-2.443968693881143E-2</v>
+        <v>1.145412929899337E-3</v>
       </c>
       <c r="K148" s="2">
-        <v>0.1829041746126214</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.5207122428274626E-3</v>
+      </c>
+      <c r="L148" s="2">
+        <v>-2.490782639089752E-3</v>
+      </c>
+      <c r="M148" s="2">
+        <v>6.4833336615501766E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>43951</v>
+        <v>44561</v>
       </c>
       <c r="B149" s="2">
-        <v>0.12819381913880301</v>
+        <v>4.481608766216616E-2</v>
       </c>
       <c r="C149" s="2">
-        <v>5.6350128473343641E-2</v>
+        <v>-2.388163411420785E-3</v>
       </c>
       <c r="D149" s="2">
-        <v>-2.690584066101831E-2</v>
+        <v>-2.4434290546268781E-2</v>
       </c>
       <c r="E149" s="2">
-        <v>-1.094402887357826E-2</v>
+        <v>-8.2522946128545938E-3</v>
       </c>
       <c r="F149" s="2">
-        <v>-2.1224760603069429E-3</v>
+        <v>-1.9853308994055061E-2</v>
       </c>
       <c r="G149" s="2">
-        <v>2.2985790602172429E-3</v>
+        <v>2.053841973898685E-3</v>
       </c>
       <c r="H149" s="2">
-        <v>4.8381711838347607E-2</v>
+        <v>-5.9421806320045789E-3</v>
       </c>
       <c r="I149" s="2">
-        <v>-3.3981213000015991E-3</v>
+        <v>-1.7462424820528451E-2</v>
       </c>
       <c r="J149" s="2">
-        <v>0.129914419841552</v>
+        <v>8.2376689174783468E-3</v>
       </c>
       <c r="K149" s="2">
-        <v>3.1764936050750919E-3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-9.8273328434966833E-3</v>
+      </c>
+      <c r="L149" s="2">
+        <v>3.8552059990017817E-2</v>
+      </c>
+      <c r="M149" s="2">
+        <v>-9.1506380336828334E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>43982</v>
+        <v>44592</v>
       </c>
       <c r="B150" s="2">
-        <v>4.762796315360962E-2</v>
+        <v>-5.1747033904499862E-2</v>
       </c>
       <c r="C150" s="2">
-        <v>-1.494497607059331E-3</v>
+        <v>-2.091593997235075E-2</v>
       </c>
       <c r="D150" s="2">
-        <v>-1.315738594259208E-2</v>
+        <v>-1.403334129603717E-2</v>
       </c>
       <c r="E150" s="2">
-        <v>-7.3850868527510771E-3</v>
+        <v>1.047603084143489E-2</v>
       </c>
       <c r="F150" s="2">
-        <v>1.2372447576220701E-3</v>
+        <v>2.6951964234907679E-2</v>
       </c>
       <c r="G150" s="2">
-        <v>5.2936430960559564E-3</v>
+        <v>1.089154411764692E-2</v>
       </c>
       <c r="H150" s="2">
-        <v>5.330865421903086E-3</v>
+        <v>-1.5689785797919908E-2</v>
       </c>
       <c r="I150" s="2">
-        <v>-2.2750897116867951E-3</v>
+        <v>-3.1890271885302413E-2</v>
       </c>
       <c r="J150" s="2">
-        <v>4.5983146287727657E-2</v>
+        <v>-3.0607145831599292E-3</v>
       </c>
       <c r="K150" s="2">
-        <v>-3.0365849831666932E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.2755774046904271E-4</v>
+      </c>
+      <c r="L150" s="2">
+        <v>-5.33779404283393E-2</v>
+      </c>
+      <c r="M150" s="2">
+        <v>-2.3824663694865631E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>44012</v>
+        <v>44620</v>
       </c>
       <c r="B151" s="2">
-        <v>1.9887238104291161E-2</v>
+        <v>-2.9941448266278089E-2</v>
       </c>
       <c r="C151" s="2">
-        <v>5.4536378385123818E-3</v>
+        <v>-1.2609057711454369E-2</v>
       </c>
       <c r="D151" s="2">
-        <v>-1.6504781401897931E-2</v>
+        <v>-1.2275327379568379E-2</v>
       </c>
       <c r="E151" s="2">
-        <v>-5.871031638571278E-4</v>
+        <v>1.235796632661512E-2</v>
       </c>
       <c r="F151" s="2">
-        <v>5.4053721773234756E-3</v>
+        <v>2.8183146017003641E-2</v>
       </c>
       <c r="G151" s="2">
-        <v>3.9132590956225677E-3</v>
+        <v>3.0504159658135469E-2</v>
       </c>
       <c r="H151" s="2">
-        <v>-3.43409565433761E-3</v>
+        <v>-5.1172544864723779E-3</v>
       </c>
       <c r="I151" s="2">
-        <v>-7.2633546834797811E-3</v>
+        <v>-6.0898972370416733E-4</v>
       </c>
       <c r="J151" s="2">
-        <v>1.8673263987471551E-2</v>
+        <v>-1.9736429899125389E-3</v>
       </c>
       <c r="K151" s="2">
-        <v>-2.2411829848977389E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.6604577888982297E-2</v>
+      </c>
+      <c r="L151" s="2">
+        <v>-2.4270244360386242E-2</v>
+      </c>
+      <c r="M151" s="2">
+        <v>8.2846272197623257E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>44043</v>
+        <v>44651</v>
       </c>
       <c r="B152" s="2">
-        <v>5.6385040336654813E-2</v>
+        <v>3.7129561362248209E-2</v>
       </c>
       <c r="C152" s="2">
-        <v>8.0082415877467117E-3</v>
+        <v>5.4920081811984378E-3</v>
       </c>
       <c r="D152" s="2">
-        <v>-5.9167887492840299E-3</v>
+        <v>-8.1159054888491067E-3</v>
       </c>
       <c r="E152" s="2">
-        <v>-4.0269050358439076E-3</v>
+        <v>-7.5606844409071838E-3</v>
       </c>
       <c r="F152" s="2">
-        <v>1.675231451768478E-3</v>
+        <v>6.6730182470621539E-3</v>
       </c>
       <c r="G152" s="2">
-        <v>1.6346473383091139E-2</v>
+        <v>1.3340391741662129E-2</v>
       </c>
       <c r="H152" s="2">
-        <v>5.4467258243870997E-3</v>
+        <v>-3.3807549583079521E-2</v>
       </c>
       <c r="I152" s="2">
-        <v>2.7126912308021332E-3</v>
+        <v>2.6180172166168749E-3</v>
       </c>
       <c r="J152" s="2">
-        <v>5.7941826014742841E-2</v>
+        <v>4.4677890199114056E-3</v>
       </c>
       <c r="K152" s="2">
-        <v>2.8740658672394299E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.7713212944753258E-3</v>
+      </c>
+      <c r="L152" s="2">
+        <v>3.802195470577939E-2</v>
+      </c>
+      <c r="M152" s="2">
+        <v>1.3036290542952299E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>44074</v>
+        <v>44681</v>
       </c>
       <c r="B153" s="2">
-        <v>7.1880617710854855E-2</v>
+        <v>-8.7201844689124286E-2</v>
       </c>
       <c r="C153" s="2">
-        <v>7.416127133607997E-2</v>
+        <v>-2.0343792770055599E-2</v>
       </c>
       <c r="D153" s="2">
-        <v>-1.496049955059364E-3</v>
+        <v>3.604596856313869E-3</v>
       </c>
       <c r="E153" s="2">
-        <v>-8.3307415470742496E-3</v>
+        <v>2.9718382942591551E-2</v>
       </c>
       <c r="F153" s="2">
-        <v>-1.4535435334480351E-2</v>
+        <v>4.4499356230937537E-2</v>
       </c>
       <c r="G153" s="2">
-        <v>1.1541282620030289E-2</v>
+        <v>1.3112527426601069E-2</v>
       </c>
       <c r="H153" s="2">
-        <v>1.2233280542207851E-2</v>
+        <v>7.0947547462596461E-3</v>
       </c>
       <c r="I153" s="2">
-        <v>1.1897102877061E-2</v>
+        <v>3.28176911031588E-3</v>
       </c>
       <c r="J153" s="2">
-        <v>7.8207429181133561E-2</v>
+        <v>8.696614583333373E-3</v>
       </c>
       <c r="K153" s="2">
-        <v>1.16802673297453E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.8275831327449591E-2</v>
+      </c>
+      <c r="L153" s="2">
+        <v>-7.8108183354600458E-2</v>
+      </c>
+      <c r="M153" s="2">
+        <v>1.328423302520082E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>44104</v>
+        <v>44712</v>
       </c>
       <c r="B154" s="2">
-        <v>-3.799663269935627E-2</v>
+        <v>1.8346151108581401E-3</v>
       </c>
       <c r="C154" s="2">
-        <v>-7.77264477178502E-2</v>
+        <v>-1.4830233305306639E-2</v>
       </c>
       <c r="D154" s="2">
-        <v>-1.4478220158699149E-2</v>
+        <v>-1.612962287670738E-2</v>
       </c>
       <c r="E154" s="2">
-        <v>4.5923967830820978E-3</v>
+        <v>5.0964313527877003E-3</v>
       </c>
       <c r="F154" s="2">
-        <v>4.4817637042311124E-3</v>
+        <v>-3.4288875187683518E-2</v>
       </c>
       <c r="G154" s="2">
-        <v>-1.9822653212772549E-2</v>
+        <v>4.3228656388043518E-3</v>
       </c>
       <c r="H154" s="2">
-        <v>4.3725959455225498E-2</v>
+        <v>3.331670277789045E-2</v>
       </c>
       <c r="I154" s="2">
-        <v>-2.6088229928169018E-2</v>
+        <v>-4.4507081742510609E-3</v>
       </c>
       <c r="J154" s="2">
-        <v>-4.814075400819344E-2</v>
+        <v>5.7456055992224364E-3</v>
       </c>
       <c r="K154" s="2">
-        <v>-1.8727608570160939E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.103134302223774E-2</v>
+      </c>
+      <c r="L154" s="2">
+        <v>-2.0673847948719732E-3</v>
+      </c>
+      <c r="M154" s="2">
+        <v>-5.7001326644131817E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>44135</v>
+        <v>44742</v>
       </c>
       <c r="B155" s="2">
-        <v>-2.6593783491006721E-2</v>
+        <v>-8.254376821069076E-2</v>
       </c>
       <c r="C155" s="2">
-        <v>3.7835033948780961E-3</v>
+        <v>-3.6804526798941077E-2</v>
       </c>
       <c r="D155" s="2">
-        <v>3.0846722502351209E-3</v>
+        <v>-6.180626902126507E-3</v>
       </c>
       <c r="E155" s="2">
-        <v>5.0508429221300943E-3</v>
+        <v>2.9489180843426999E-2</v>
       </c>
       <c r="F155" s="2">
-        <v>-3.995201876649623E-3</v>
+        <v>2.0198353824918209E-2</v>
       </c>
       <c r="G155" s="2">
-        <v>-1.216620913401556E-2</v>
+        <v>-1.0944626522107479E-2</v>
       </c>
       <c r="H155" s="2">
-        <v>3.536523208713005E-3</v>
+        <v>-2.5056335894324658E-2</v>
       </c>
       <c r="I155" s="2">
-        <v>6.6492114820448931E-3</v>
+        <v>-2.400110169929959E-3</v>
       </c>
       <c r="J155" s="2">
-        <v>-2.6255273665726719E-2</v>
+        <v>2.5348786466961037E-4</v>
       </c>
       <c r="K155" s="2">
-        <v>6.2494121590154692E-4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.5240734326290809E-2</v>
+      </c>
+      <c r="L155" s="2">
+        <v>-8.3349893492874486E-2</v>
+      </c>
+      <c r="M155" s="2">
+        <v>-1.177606653920473E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>44165</v>
+        <v>44773</v>
       </c>
       <c r="B156" s="2">
-        <v>0.1094638222127722</v>
+        <v>9.2204461388357473E-2</v>
       </c>
       <c r="C156" s="2">
-        <v>-8.907992841246104E-3</v>
+        <v>1.327123640954442E-2</v>
       </c>
       <c r="D156" s="2">
-        <v>-2.118217616690676E-2</v>
+        <v>-5.2601848788800254E-3</v>
       </c>
       <c r="E156" s="2">
-        <v>-2.5903861727737731E-2</v>
+        <v>-2.2822610100831201E-2</v>
       </c>
       <c r="F156" s="2">
-        <v>4.3969893303017153E-3</v>
+        <v>-2.4590755294934818E-2</v>
       </c>
       <c r="G156" s="2">
-        <v>2.3585458941992821E-2</v>
+        <v>-1.098787008357704E-2</v>
       </c>
       <c r="H156" s="2">
-        <v>-4.8146033697831991E-2</v>
+        <v>-9.8113366034290328E-3</v>
       </c>
       <c r="I156" s="2">
-        <v>5.250768674645032E-5</v>
+        <v>5.5413215244666247E-3</v>
       </c>
       <c r="J156" s="2">
-        <v>0.10568956160918599</v>
+        <v>-3.1886466216068937E-4</v>
       </c>
       <c r="K156" s="2">
-        <v>-6.9678657296975838E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.10798452339077E-2</v>
+      </c>
+      <c r="L156" s="2">
+        <v>8.7025407260164112E-2</v>
+      </c>
+      <c r="M156" s="2">
+        <v>-7.5656833213979899E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>44196</v>
+        <v>44804</v>
       </c>
       <c r="B157" s="2">
-        <v>3.8448175857307421E-2</v>
+        <v>-4.0781924345117633E-2</v>
       </c>
       <c r="C157" s="2">
-        <v>9.0480287657850322E-3</v>
+        <v>-1.7873202637612721E-2</v>
       </c>
       <c r="D157" s="2">
-        <v>-2.780639567501519E-3</v>
+        <v>-6.7296123335447433E-4</v>
       </c>
       <c r="E157" s="2">
-        <v>-4.0999476117804523E-3</v>
+        <v>1.094158822929758E-2</v>
       </c>
       <c r="F157" s="2">
-        <v>1.154918281935232E-2</v>
+        <v>2.7020110771240651E-2</v>
       </c>
       <c r="G157" s="2">
-        <v>-1.16796685618582E-2</v>
+        <v>-7.6719854433480172E-3</v>
       </c>
       <c r="H157" s="2">
-        <v>-9.078253380691681E-3</v>
+        <v>9.3444301018108522E-3</v>
       </c>
       <c r="I157" s="2">
-        <v>1.099009619429667E-2</v>
+        <v>8.0094517179815309E-3</v>
       </c>
       <c r="J157" s="2">
-        <v>3.9286703257411217E-2</v>
+        <v>6.5635192323243441E-3</v>
       </c>
       <c r="K157" s="2">
-        <v>1.5480505848070091E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.5738929397119291E-2</v>
+      </c>
+      <c r="L157" s="2">
+        <v>-3.7051200442986737E-2</v>
+      </c>
+      <c r="M157" s="2">
+        <v>5.4499286750915969E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>44227</v>
+        <v>44834</v>
       </c>
       <c r="B158" s="2">
-        <v>-1.0095697510550171E-2</v>
+        <v>-9.2098601263658209E-2</v>
       </c>
       <c r="C158" s="2">
-        <v>1.8327533150192869E-2</v>
+        <v>-3.1695302348644587E-2</v>
       </c>
       <c r="D158" s="2">
-        <v>3.9415289859223712E-3</v>
+        <v>1.696093882445959E-3</v>
       </c>
       <c r="E158" s="2">
-        <v>-1.223612286439635E-3</v>
+        <v>3.1942903879981673E-2</v>
       </c>
       <c r="F158" s="2">
-        <v>2.1991169404328409E-2</v>
+        <v>6.4920039708975932E-2</v>
       </c>
       <c r="G158" s="2">
-        <v>-1.685693899393548E-3</v>
+        <v>-1.1989244942036681E-3</v>
       </c>
       <c r="H158" s="2">
-        <v>1.151841292869338E-2</v>
+        <v>1.0964386230749581E-3</v>
       </c>
       <c r="I158" s="2">
-        <v>9.7262976414237874E-3</v>
+        <v>2.9521574700462241E-3</v>
       </c>
       <c r="J158" s="2">
-        <v>-5.5171801376594897E-3</v>
+        <v>-6.2593049538219869E-3</v>
       </c>
       <c r="K158" s="2">
-        <v>8.452647457644338E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.9569290028888648E-2</v>
+      </c>
+      <c r="L158" s="2">
+        <v>-8.3801453583633764E-2</v>
+      </c>
+      <c r="M158" s="2">
+        <v>1.2120667261655879E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>44255</v>
+        <v>44865</v>
       </c>
       <c r="B159" s="2">
-        <v>2.7574892829835159E-2</v>
+        <v>8.0961375978148009E-2</v>
       </c>
       <c r="C159" s="2">
-        <v>-6.2180878184328048E-3</v>
+        <v>1.0058685007288791E-2</v>
       </c>
       <c r="D159" s="2">
-        <v>-1.545697098795284E-2</v>
+        <v>-6.6937509059638023E-3</v>
       </c>
       <c r="E159" s="2">
-        <v>-1.946438589861543E-4</v>
+        <v>-2.159515330495965E-2</v>
       </c>
       <c r="F159" s="2">
-        <v>7.8277062878750775E-2</v>
+        <v>6.2280611467848083E-3</v>
       </c>
       <c r="G159" s="2">
-        <v>-1.126586915153072E-2</v>
+        <v>-4.1747941288096113E-3</v>
       </c>
       <c r="H159" s="2">
-        <v>-1.0049731662492569E-3</v>
+        <v>-3.5372226925148957E-2</v>
       </c>
       <c r="I159" s="2">
-        <v>4.8994026137382908E-3</v>
+        <v>-3.848582855877625E-3</v>
       </c>
       <c r="J159" s="2">
-        <v>3.1402010132921487E-2</v>
+        <v>1.2421658856078821E-3</v>
       </c>
       <c r="K159" s="2">
-        <v>7.0654473287747738E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-1.7852631578947231E-2</v>
+      </c>
+      <c r="L159" s="2">
+        <v>7.7738742808414224E-2</v>
+      </c>
+      <c r="M159" s="2">
+        <v>-4.7076978575128353E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>44286</v>
+        <v>44895</v>
       </c>
       <c r="B160" s="2">
-        <v>4.3795671301939183E-2</v>
+        <v>5.5883986589128083E-2</v>
       </c>
       <c r="C160" s="2">
-        <v>-1.494386568220896E-2</v>
+        <v>4.3658708982647898E-3</v>
       </c>
       <c r="D160" s="2">
-        <v>-5.9456625225945414E-3</v>
+        <v>-2.6438940477486361E-3</v>
       </c>
       <c r="E160" s="2">
-        <v>-7.3864547307666006E-3</v>
+        <v>-1.417371553015585E-2</v>
       </c>
       <c r="F160" s="2">
-        <v>5.4208056670843278E-3</v>
+        <v>-1.182634241313407E-2</v>
       </c>
       <c r="G160" s="2">
-        <v>1.044546850998462E-2</v>
+        <v>1.1515037904974639E-2</v>
       </c>
       <c r="H160" s="2">
-        <v>-1.4427008053549131E-3</v>
+        <v>-1.107476737186408E-2</v>
       </c>
       <c r="I160" s="2">
-        <v>2.8369345032142612E-3</v>
+        <v>-1.803178330627616E-2</v>
       </c>
       <c r="J160" s="2">
-        <v>4.2844015877999672E-2</v>
+        <v>7.6321496132019107E-3</v>
       </c>
       <c r="K160" s="2">
-        <v>-1.756902321119116E-3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-9.9459830232357938E-3</v>
+      </c>
+      <c r="L160" s="2">
+        <v>5.2998161588522372E-2</v>
+      </c>
+      <c r="M160" s="2">
+        <v>-4.2156806117746104E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>44316</v>
+        <v>44926</v>
       </c>
       <c r="B161" s="2">
-        <v>5.3368805883316162E-2</v>
+        <v>-5.7614433926530761E-2</v>
       </c>
       <c r="C161" s="2">
-        <v>6.4305806153517331E-3</v>
+        <v>-3.7399491342599338E-2</v>
       </c>
       <c r="D161" s="2">
-        <v>-9.1960117764489091E-4</v>
+        <v>-2.493512615477218E-3</v>
       </c>
       <c r="E161" s="2">
-        <v>-7.8682926266483433E-3</v>
+        <v>1.012835119134718E-2</v>
       </c>
       <c r="F161" s="2">
-        <v>8.7079268293496293E-4</v>
+        <v>1.7524421043109231E-3</v>
       </c>
       <c r="G161" s="2">
-        <v>-1.9190528141934778E-2</v>
+        <v>-5.7823801513877853E-3</v>
       </c>
       <c r="H161" s="2">
-        <v>2.4258080565582318E-3</v>
+        <v>9.6832509497337682E-3</v>
       </c>
       <c r="I161" s="2">
-        <v>-4.0861571348999367E-3</v>
+        <v>-3.8828345674460931E-3</v>
       </c>
       <c r="J161" s="2">
-        <v>5.133658471139009E-2</v>
+        <v>2.085964637811744E-3</v>
       </c>
       <c r="K161" s="2">
-        <v>-3.7517929327866031E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.957218325106069E-2</v>
+      </c>
+      <c r="L161" s="2">
+        <v>-5.923991549431501E-2</v>
+      </c>
+      <c r="M161" s="2">
+        <v>-2.3745414668826809E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>44347</v>
+        <v>44957</v>
       </c>
       <c r="B162" s="2">
-        <v>6.9843138425296214E-3</v>
+        <v>6.2833905660061307E-2</v>
       </c>
       <c r="C162" s="2">
-        <v>-3.8430748548048399E-3</v>
+        <v>-6.0162564282174591E-3</v>
       </c>
       <c r="D162" s="2">
-        <v>-1.171156714370147E-2</v>
+        <v>-2.6472008035183969E-3</v>
       </c>
       <c r="E162" s="2">
-        <v>-2.2675736961451638E-3</v>
+        <v>-1.6100935828877019E-2</v>
       </c>
       <c r="F162" s="2">
-        <v>6.3633994700495692E-3</v>
+        <v>-5.6798281821933687E-2</v>
       </c>
       <c r="G162" s="2">
-        <v>-1.1943836615608829E-3</v>
+        <v>-8.6598342481402271E-3</v>
       </c>
       <c r="H162" s="2">
-        <v>-6.8979066454394333E-3</v>
+        <v>-1.477835195880728E-2</v>
       </c>
       <c r="I162" s="2">
-        <v>-6.7689182858616586E-3</v>
+        <v>-3.4427155811336389E-3</v>
       </c>
       <c r="J162" s="2">
-        <v>4.9781066242538174E-3</v>
+        <v>6.46572240549248E-3</v>
       </c>
       <c r="K162" s="2">
-        <v>-3.703767172201488E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-4.8415866813896757E-3</v>
+      </c>
+      <c r="L162" s="2">
+        <v>5.4014657039519527E-2</v>
+      </c>
+      <c r="M162" s="2">
+        <v>-1.2883364518719711E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>44377</v>
+        <v>44985</v>
       </c>
       <c r="B163" s="2">
-        <v>2.3344813207164531E-2</v>
+        <v>-2.439898489141246E-2</v>
       </c>
       <c r="C163" s="2">
-        <v>-7.1855575249313297E-4</v>
+        <v>-1.816186345628967E-2</v>
       </c>
       <c r="D163" s="2">
-        <v>-1.2694547811211709E-3</v>
+        <v>-2.7535316602012761E-3</v>
       </c>
       <c r="E163" s="2">
-        <v>-3.729603729603737E-3</v>
+        <v>6.6000866109640483E-3</v>
       </c>
       <c r="F163" s="2">
-        <v>-2.1958950515312409E-2</v>
+        <v>3.6613538518319069E-2</v>
       </c>
       <c r="G163" s="2">
-        <v>1.807410382568486E-3</v>
+        <v>2.8722798318803022E-3</v>
       </c>
       <c r="H163" s="2">
-        <v>-1.0170182623295829E-3</v>
+        <v>-9.5362900624629265E-4</v>
       </c>
       <c r="I163" s="2">
-        <v>8.7678942765357683E-3</v>
+        <v>5.2717844166921589E-3</v>
       </c>
       <c r="J163" s="2">
-        <v>2.1872073342140461E-2</v>
+        <v>5.4600531439288344E-3</v>
       </c>
       <c r="K163" s="2">
-        <v>-2.7189043661982899E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.416865824513436E-2</v>
+      </c>
+      <c r="L163" s="2">
+        <v>-1.9976784657321511E-2</v>
+      </c>
+      <c r="M163" s="2">
+        <v>6.4600534628154616E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>44408</v>
+        <v>45016</v>
       </c>
       <c r="B164" s="2">
-        <v>2.3754925343659972E-2</v>
+        <v>3.6714169724421757E-2</v>
       </c>
       <c r="C164" s="2">
-        <v>8.9346817732491868E-3</v>
+        <v>2.002647448154149E-2</v>
       </c>
       <c r="D164" s="2">
-        <v>-7.653154586121369E-3</v>
+        <v>-1.8411823580399129E-2</v>
       </c>
       <c r="E164" s="2">
-        <v>-4.3424317617866137E-3</v>
+        <v>-1.1764676113360359E-2</v>
       </c>
       <c r="F164" s="2">
-        <v>-1.2687870466314951E-2</v>
+        <v>-3.4507415996546539E-2</v>
       </c>
       <c r="G164" s="2">
-        <v>-1.2519704411054541E-2</v>
+        <v>-1.2781721458881481E-2</v>
       </c>
       <c r="H164" s="2">
-        <v>7.7668616815436131E-3</v>
+        <v>1.8220372753678049E-2</v>
       </c>
       <c r="I164" s="2">
-        <v>-1.23674868585131E-2</v>
+        <v>-1.8871005748498551E-3</v>
       </c>
       <c r="J164" s="2">
-        <v>2.0370963715602819E-2</v>
+        <v>-1.003423555744454E-3</v>
       </c>
       <c r="K164" s="2">
-        <v>-6.2473137748747434E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-9.9309880491496028E-3</v>
+      </c>
+      <c r="L164" s="2">
+        <v>3.0571675835283842E-2</v>
+      </c>
+      <c r="M164" s="2">
+        <v>-8.9730986428309678E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>44439</v>
+        <v>45046</v>
       </c>
       <c r="B165" s="2">
-        <v>3.0405631240434609E-2</v>
+        <v>1.560845278891221E-2</v>
       </c>
       <c r="C165" s="2">
-        <v>3.6118561286866409E-3</v>
+        <v>-3.0761126395545402E-3</v>
       </c>
       <c r="D165" s="2">
-        <v>-2.6752190459710108E-3</v>
+        <v>-9.9083015499479288E-4</v>
       </c>
       <c r="E165" s="2">
-        <v>-5.6663218282704264E-3</v>
+        <v>-2.2870797064344921E-3</v>
       </c>
       <c r="F165" s="2">
-        <v>6.5168461343902643E-3</v>
+        <v>1.0596604074391201E-2</v>
       </c>
       <c r="G165" s="2">
-        <v>-5.6194808670055876E-3</v>
+        <v>-1.893106758660168E-3</v>
       </c>
       <c r="H165" s="2">
-        <v>-7.7300223793655984E-3</v>
+        <v>-9.1078780209663535E-3</v>
       </c>
       <c r="I165" s="2">
-        <v>-4.7468970458997674E-3</v>
+        <v>8.442602878782823E-3</v>
       </c>
       <c r="J165" s="2">
-        <v>2.947392066706761E-2</v>
+        <v>3.0352662151329479E-3</v>
       </c>
       <c r="K165" s="2">
-        <v>-1.7200810585236989E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.360081604896868E-3</v>
+      </c>
+      <c r="L165" s="2">
+        <v>1.6876766201743981E-2</v>
+      </c>
+      <c r="M165" s="2">
+        <v>1.8527818779747009E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>44469</v>
+        <v>45077</v>
       </c>
       <c r="B166" s="2">
-        <v>-4.650979871696681E-2</v>
+        <v>4.3467157985517257E-3</v>
       </c>
       <c r="C166" s="2">
-        <v>-1.170587807961887E-2</v>
+        <v>-8.2231354753855568E-3</v>
       </c>
       <c r="D166" s="2">
-        <v>-9.0591278944905929E-3</v>
+        <v>-2.739060612682032E-3</v>
       </c>
       <c r="E166" s="2">
-        <v>1.025040788820308E-2</v>
+        <v>-1.6650700241778169E-3</v>
       </c>
       <c r="F166" s="2">
-        <v>2.6587874436747269E-3</v>
+        <v>-1.340800328319358E-2</v>
       </c>
       <c r="G166" s="2">
-        <v>1.688875691325364E-3</v>
+        <v>1.341171817413667E-2</v>
       </c>
       <c r="H166" s="2">
-        <v>-1.382171006047272E-2</v>
+        <v>-3.8545157993086221E-4</v>
       </c>
       <c r="I166" s="2">
-        <v>6.6972309828241539E-3</v>
+        <v>2.2705693680554521E-3</v>
       </c>
       <c r="J166" s="2">
-        <v>-4.6942291505035393E-2</v>
+        <v>1.5114759515726379E-3</v>
       </c>
       <c r="K166" s="2">
-        <v>-7.9844822412661028E-4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.942275042443157E-4</v>
+      </c>
+      <c r="L166" s="2">
+        <v>3.5841119806787401E-3</v>
+      </c>
+      <c r="M166" s="2">
+        <v>-1.1140294816205641E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>44500</v>
+        <v>45107</v>
       </c>
       <c r="B167" s="2">
-        <v>7.0061817746820854E-2</v>
+        <v>6.6075219587385492E-2</v>
       </c>
       <c r="C167" s="2">
-        <v>3.3334159254028162E-3</v>
+        <v>-3.4670301571344542E-3</v>
       </c>
       <c r="D167" s="2">
-        <v>-3.9965065552323153E-3</v>
+        <v>-7.2605836870428067E-4</v>
       </c>
       <c r="E167" s="2">
-        <v>-1.5096724361900019E-2</v>
+        <v>-7.618888368479862E-3</v>
       </c>
       <c r="F167" s="2">
-        <v>4.2546662500707343E-2</v>
+        <v>1.1597747428723749E-2</v>
       </c>
       <c r="G167" s="2">
-        <v>3.6962925907397799E-3</v>
+        <v>-1.3569423501097039E-2</v>
       </c>
       <c r="H167" s="2">
-        <v>6.007244832728631E-4</v>
+        <v>-1.485914434069502E-2</v>
       </c>
       <c r="I167" s="2">
-        <v>1.672229346085464E-3</v>
+        <v>-3.5009247394441568E-3</v>
       </c>
       <c r="J167" s="2">
-        <v>7.2670686407471957E-2</v>
+        <v>-9.4301242789140982E-4</v>
       </c>
       <c r="K167" s="2">
-        <v>4.8163729119712626E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-5.9387460761853861E-3</v>
+      </c>
+      <c r="L167" s="2">
+        <v>6.4059991315698034E-2</v>
+      </c>
+      <c r="M167" s="2">
+        <v>-2.943892561562046E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>44530</v>
+        <v>45138</v>
       </c>
       <c r="B168" s="2">
-        <v>-6.9289192274054612E-3</v>
+        <v>3.2124971730183922E-2</v>
       </c>
       <c r="C168" s="2">
-        <v>1.4078791181472591E-2</v>
+        <v>4.7522878495189769E-3</v>
       </c>
       <c r="D168" s="2">
-        <v>-1.365374112506923E-3</v>
+        <v>-1.1303901353697521E-3</v>
       </c>
       <c r="E168" s="2">
-        <v>7.1293622785439936E-4</v>
+        <v>-3.2342717709077369E-3</v>
       </c>
       <c r="F168" s="2">
-        <v>7.5365408911047486E-3</v>
+        <v>8.7297990382356784E-3</v>
       </c>
       <c r="G168" s="2">
-        <v>2.1413078591536738E-3</v>
+        <v>1.1418090931158979E-3</v>
       </c>
       <c r="H168" s="2">
-        <v>2.020520721922181E-2</v>
+        <v>-7.2920786471998289E-3</v>
       </c>
       <c r="I168" s="2">
-        <v>3.1213066951772512E-3</v>
+        <v>-4.191409808459557E-4</v>
       </c>
       <c r="J168" s="2">
-        <v>-4.3509636424942568E-3</v>
+        <v>3.717437238925481E-3</v>
       </c>
       <c r="K168" s="2">
-        <v>4.7593026182976101E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-2.3043441153878241E-3</v>
+      </c>
+      <c r="L168" s="2">
+        <v>3.3114165996691307E-2</v>
+      </c>
+      <c r="M168" s="2">
+        <v>1.445038105123675E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>44561</v>
+        <v>45169</v>
       </c>
       <c r="B169" s="2">
-        <v>4.481608766216616E-2</v>
+        <v>-1.5921522443515079E-2</v>
       </c>
       <c r="C169" s="2">
-        <v>-2.388163411420785E-3</v>
+        <v>-1.398551829342309E-2</v>
       </c>
       <c r="D169" s="2">
-        <v>-2.4434290546268781E-2</v>
+        <v>-3.0001068844170971E-3</v>
       </c>
       <c r="E169" s="2">
-        <v>-8.2522946128545938E-3</v>
+        <v>1.7320816156858321E-3</v>
       </c>
       <c r="F169" s="2">
-        <v>-1.117217866935497E-2</v>
+        <v>3.1181381339004919E-2</v>
       </c>
       <c r="G169" s="2">
-        <v>2.053841973898685E-3</v>
+        <v>-9.4832695727139482E-3</v>
       </c>
       <c r="H169" s="2">
-        <v>-5.9421806320045789E-3</v>
+        <v>-6.9622007602270219E-3</v>
       </c>
       <c r="I169" s="2">
-        <v>-1.7462424820528451E-2</v>
+        <v>-3.9515275515498056E-3</v>
       </c>
       <c r="J169" s="2">
-        <v>3.9045285338741402E-2</v>
+        <v>4.825426501518848E-3</v>
       </c>
       <c r="K169" s="2">
-        <v>-1.0653788904784189E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
-        <v>44592</v>
-      </c>
-      <c r="B170" s="2">
-        <v>-5.1747033904499862E-2</v>
-      </c>
-      <c r="C170" s="2">
-        <v>-2.091593997235075E-2</v>
-      </c>
-      <c r="D170" s="2">
-        <v>-1.403334129603717E-2</v>
-      </c>
-      <c r="E170" s="2">
-        <v>1.047603084143489E-2</v>
-      </c>
-      <c r="F170" s="2">
-        <v>3.1727223023077809E-2</v>
-      </c>
-      <c r="G170" s="2">
-        <v>1.089154411764692E-2</v>
-      </c>
-      <c r="H170" s="2">
-        <v>-1.5689785797919908E-2</v>
-      </c>
-      <c r="I170" s="2">
-        <v>-3.1890271885302413E-2</v>
-      </c>
-      <c r="J170" s="2">
-        <v>-5.3511661983251531E-2</v>
-      </c>
-      <c r="K170" s="2">
-        <v>-3.2577749146184588E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
-        <v>44620</v>
-      </c>
-      <c r="B171" s="2">
-        <v>-2.9941448266278089E-2</v>
-      </c>
-      <c r="C171" s="2">
-        <v>-1.2609057711454369E-2</v>
-      </c>
-      <c r="D171" s="2">
-        <v>-1.2275327379568379E-2</v>
-      </c>
-      <c r="E171" s="2">
-        <v>1.235796632661512E-2</v>
-      </c>
-      <c r="F171" s="2">
-        <v>2.30209460104864E-2</v>
-      </c>
-      <c r="G171" s="2">
-        <v>3.0504159658135469E-2</v>
-      </c>
-      <c r="H171" s="2">
-        <v>-5.1172544864723779E-3</v>
-      </c>
-      <c r="I171" s="2">
-        <v>-6.0898972370416733E-4</v>
-      </c>
-      <c r="J171" s="2">
-        <v>-2.6937985623444769E-2</v>
-      </c>
-      <c r="K171" s="2">
-        <v>5.5448541098461358E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
-        <v>44651</v>
-      </c>
-      <c r="B172" s="2">
-        <v>3.7129561362248209E-2</v>
-      </c>
-      <c r="C172" s="2">
-        <v>5.4920081811984378E-3</v>
-      </c>
-      <c r="D172" s="2">
-        <v>-8.1159054888491067E-3</v>
-      </c>
-      <c r="E172" s="2">
-        <v>-7.5606844409071838E-3</v>
-      </c>
-      <c r="F172" s="2">
-        <v>2.9902369217318561E-2</v>
-      </c>
-      <c r="G172" s="2">
-        <v>1.3340391741662129E-2</v>
-      </c>
-      <c r="H172" s="2">
-        <v>-3.3807549583079521E-2</v>
-      </c>
-      <c r="I172" s="2">
-        <v>2.6180172166168749E-3</v>
-      </c>
-      <c r="J172" s="2">
-        <v>3.9229172417169673E-2</v>
-      </c>
-      <c r="K172" s="2">
-        <v>3.8762050244703942E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
-        <v>44681</v>
-      </c>
-      <c r="B173" s="2">
-        <v>-8.7201844689124286E-2</v>
-      </c>
-      <c r="C173" s="2">
-        <v>-2.0343792770055599E-2</v>
-      </c>
-      <c r="D173" s="2">
-        <v>3.604596856313869E-3</v>
-      </c>
-      <c r="E173" s="2">
-        <v>2.9718382942591551E-2</v>
-      </c>
-      <c r="F173" s="2">
-        <v>1.7260536242822101E-3</v>
-      </c>
-      <c r="G173" s="2">
-        <v>1.3112527426601069E-2</v>
-      </c>
-      <c r="H173" s="2">
-        <v>7.0947547462596461E-3</v>
-      </c>
-      <c r="I173" s="2">
-        <v>3.28176911031588E-3</v>
-      </c>
-      <c r="J173" s="2">
-        <v>-8.438731343156658E-2</v>
-      </c>
-      <c r="K173" s="2">
-        <v>5.196057706260364E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
-        <v>44712</v>
-      </c>
-      <c r="B174" s="2">
-        <v>1.8346151108581401E-3</v>
-      </c>
-      <c r="C174" s="2">
-        <v>-1.4830233305306639E-2</v>
-      </c>
-      <c r="D174" s="2">
-        <v>-1.612962287670738E-2</v>
-      </c>
-      <c r="E174" s="2">
-        <v>5.0964313527877003E-3</v>
-      </c>
-      <c r="F174" s="2">
-        <v>-4.0537692093064938E-2</v>
-      </c>
-      <c r="G174" s="2">
-        <v>4.3228656388043518E-3</v>
-      </c>
-      <c r="H174" s="2">
-        <v>3.331670277789045E-2</v>
-      </c>
-      <c r="I174" s="2">
-        <v>-4.4507081742510609E-3</v>
-      </c>
-      <c r="J174" s="2">
-        <v>-3.351400679345376E-3</v>
-      </c>
-      <c r="K174" s="2">
-        <v>-9.5741829972987996E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
-        <v>44742</v>
-      </c>
-      <c r="B175" s="2">
-        <v>-8.254376821069076E-2</v>
-      </c>
-      <c r="C175" s="2">
-        <v>-3.6804526798941077E-2</v>
-      </c>
-      <c r="D175" s="2">
-        <v>-6.180626902126507E-3</v>
-      </c>
-      <c r="E175" s="2">
-        <v>2.9489180843426999E-2</v>
-      </c>
-      <c r="F175" s="2">
-        <v>1.6609288778682361E-2</v>
-      </c>
-      <c r="G175" s="2">
-        <v>-1.0944626522107479E-2</v>
-      </c>
-      <c r="H175" s="2">
-        <v>-2.5056335894324658E-2</v>
-      </c>
-      <c r="I175" s="2">
-        <v>-2.400110169929959E-3</v>
-      </c>
-      <c r="J175" s="2">
-        <v>-8.4047156666533132E-2</v>
-      </c>
-      <c r="K175" s="2">
-        <v>-2.775486380016685E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
-        <v>44773</v>
-      </c>
-      <c r="B176" s="2">
-        <v>9.2204461388357473E-2</v>
-      </c>
-      <c r="C176" s="2">
-        <v>1.327123640954442E-2</v>
-      </c>
-      <c r="D176" s="2">
-        <v>-5.2601848788800254E-3</v>
-      </c>
-      <c r="E176" s="2">
-        <v>-2.2822610100831201E-2</v>
-      </c>
-      <c r="F176" s="2">
-        <v>-2.3513183755391829E-2</v>
-      </c>
-      <c r="G176" s="2">
-        <v>-1.098787008357704E-2</v>
-      </c>
-      <c r="H176" s="2">
-        <v>-9.8113366034290328E-3</v>
-      </c>
-      <c r="I176" s="2">
-        <v>5.5413215244666247E-3</v>
-      </c>
-      <c r="J176" s="2">
-        <v>8.8242863783753622E-2</v>
-      </c>
-      <c r="K176" s="2">
-        <v>-7.3137186546532807E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
-        <v>44804</v>
-      </c>
-      <c r="B177" s="2">
-        <v>-4.0781924345117633E-2</v>
-      </c>
-      <c r="C177" s="2">
-        <v>-1.7873202637612721E-2</v>
-      </c>
-      <c r="D177" s="2">
-        <v>-6.7296123335447433E-4</v>
-      </c>
-      <c r="E177" s="2">
-        <v>1.094158822929758E-2</v>
-      </c>
-      <c r="F177" s="2">
-        <v>2.274759671561296E-2</v>
-      </c>
-      <c r="G177" s="2">
-        <v>-7.6719854433480172E-3</v>
-      </c>
-      <c r="H177" s="2">
-        <v>9.3444301018108522E-3</v>
-      </c>
-      <c r="I177" s="2">
-        <v>8.0094517179815309E-3</v>
-      </c>
-      <c r="J177" s="2">
-        <v>-3.9311228131310043E-2</v>
-      </c>
-      <c r="K177" s="2">
-        <v>2.7151314716447618E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
-        <v>44834</v>
-      </c>
-      <c r="B178" s="2">
-        <v>-9.2098601263658209E-2</v>
-      </c>
-      <c r="C178" s="2">
-        <v>-3.1695302348644587E-2</v>
-      </c>
-      <c r="D178" s="2">
-        <v>1.696093882445959E-3</v>
-      </c>
-      <c r="E178" s="2">
-        <v>3.1942903879981673E-2</v>
-      </c>
-      <c r="F178" s="2">
-        <v>5.3332722001232923E-2</v>
-      </c>
-      <c r="G178" s="2">
-        <v>-1.1989244942036681E-3</v>
-      </c>
-      <c r="H178" s="2">
-        <v>1.0964386230749581E-3</v>
-      </c>
-      <c r="I178" s="2">
-        <v>2.9521574700462241E-3</v>
-      </c>
-      <c r="J178" s="2">
-        <v>-8.7287952637221625E-2</v>
-      </c>
-      <c r="K178" s="2">
-        <v>8.8811974641905753E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
-        <v>44865</v>
-      </c>
-      <c r="B179" s="2">
-        <v>8.0961375978148009E-2</v>
-      </c>
-      <c r="C179" s="2">
-        <v>1.0058685007288791E-2</v>
-      </c>
-      <c r="D179" s="2">
-        <v>-6.6937509059638023E-3</v>
-      </c>
-      <c r="E179" s="2">
-        <v>-2.159515330495965E-2</v>
-      </c>
-      <c r="F179" s="2">
-        <v>-1.6345565174648281E-2</v>
-      </c>
-      <c r="G179" s="2">
-        <v>-4.1747941288096113E-3</v>
-      </c>
-      <c r="H179" s="2">
-        <v>-3.5372226925148957E-2</v>
-      </c>
-      <c r="I179" s="2">
-        <v>-3.848582855877625E-3</v>
-      </c>
-      <c r="J179" s="2">
-        <v>7.6535071326418971E-2</v>
-      </c>
-      <c r="K179" s="2">
-        <v>-8.1716393570382111E-3</v>
+        <v>8.5543199315654128E-3</v>
+      </c>
+      <c r="L169" s="2">
+        <v>-1.4552965103109199E-2</v>
+      </c>
+      <c r="M169" s="2">
+        <v>1.999220550393721E-3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A179">
+  <conditionalFormatting sqref="A1:A169">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K179">
+  <conditionalFormatting sqref="B2:M169">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8380189-DD26-4B6E-8373-46BBA2910D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Historical Returns" sheetId="3" r:id="rId1"/>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -154,7 +155,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -479,19 +510,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALM169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:ALM170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169:M170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1001" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1001" width="21.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>40086</v>
       </c>
@@ -573,7 +604,7 @@
         <v>1.4960839298960491E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>40117</v>
       </c>
@@ -614,7 +645,7 @@
         <v>8.5898158422219976E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>40147</v>
       </c>
@@ -655,7 +686,7 @@
         <v>1.5716762227836461E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>40178</v>
       </c>
@@ -696,7 +727,7 @@
         <v>5.720081133514493E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>40209</v>
       </c>
@@ -737,7 +768,7 @@
         <v>4.9845162439586888E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>40237</v>
       </c>
@@ -778,7 +809,7 @@
         <v>-7.5188107119393043E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>40268</v>
       </c>
@@ -819,7 +850,7 @@
         <v>8.9100415074582005E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>40298</v>
       </c>
@@ -860,7 +891,7 @@
         <v>7.7852467079566803E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>40329</v>
       </c>
@@ -901,7 +932,7 @@
         <v>-2.7403044899580679E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>40359</v>
       </c>
@@ -942,7 +973,7 @@
         <v>1.1444728351439519E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>40390</v>
       </c>
@@ -983,7 +1014,7 @@
         <v>-4.6795666813305358E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>40421</v>
       </c>
@@ -1024,7 +1055,7 @@
         <v>1.170321011363336E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>40451</v>
       </c>
@@ -1065,7 +1096,7 @@
         <v>6.9581318404216561E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>40482</v>
       </c>
@@ -1106,7 +1137,7 @@
         <v>-4.4348550807638814E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>40512</v>
       </c>
@@ -1147,7 +1178,7 @@
         <v>7.6120853520938794E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>40543</v>
       </c>
@@ -1188,7 +1219,7 @@
         <v>5.9248463917495027E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>40574</v>
       </c>
@@ -1229,7 +1260,7 @@
         <v>8.1889197257202714E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>40602</v>
       </c>
@@ -1270,7 +1301,7 @@
         <v>2.8071421376937622E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>40633</v>
       </c>
@@ -1311,7 +1342,7 @@
         <v>2.0257567115102219E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>40663</v>
       </c>
@@ -1352,7 +1383,7 @@
         <v>2.4310354786327118E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>40694</v>
       </c>
@@ -1393,7 +1424,7 @@
         <v>2.3099732794387099E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>40724</v>
       </c>
@@ -1434,7 +1465,7 @@
         <v>8.7471352928429451E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>40755</v>
       </c>
@@ -1475,7 +1506,7 @@
         <v>4.7567340953178364E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>40786</v>
       </c>
@@ -1516,7 +1547,7 @@
         <v>2.003093517453107E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>40816</v>
       </c>
@@ -1557,7 +1588,7 @@
         <v>1.2960977414519339E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>40847</v>
       </c>
@@ -1598,7 +1629,7 @@
         <v>-4.0412481453216929E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>40877</v>
       </c>
@@ -1639,7 +1670,7 @@
         <v>8.8433159826027917E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>40908</v>
       </c>
@@ -1680,7 +1711,7 @@
         <v>3.5015888603789712E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>40939</v>
       </c>
@@ -1721,7 +1752,7 @@
         <v>-2.6971758070874091E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>40968</v>
       </c>
@@ -1762,7 +1793,7 @@
         <v>5.6698230561319143E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>40999</v>
       </c>
@@ -1803,7 +1834,7 @@
         <v>-2.8371420206049149E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>41029</v>
       </c>
@@ -1844,7 +1875,7 @@
         <v>-1.378009030609468E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>41060</v>
       </c>
@@ -1885,7 +1916,7 @@
         <v>4.5540985898174799E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>41090</v>
       </c>
@@ -1926,7 +1957,7 @@
         <v>1.6071933956403671E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>41121</v>
       </c>
@@ -1967,7 +1998,7 @@
         <v>-3.518820966340307E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>41152</v>
       </c>
@@ -2008,7 +2039,7 @@
         <v>3.5436568351997488E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>41182</v>
       </c>
@@ -2049,7 +2080,7 @@
         <v>-5.4147879048632918E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>41213</v>
       </c>
@@ -2090,7 +2121,7 @@
         <v>9.3041372562262833E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>41243</v>
       </c>
@@ -2131,7 +2162,7 @@
         <v>4.1008688945848122E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>41274</v>
       </c>
@@ -2172,7 +2203,7 @@
         <v>5.4790889883789013E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41305</v>
       </c>
@@ -2213,7 +2244,7 @@
         <v>1.3260819769358139E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>41333</v>
       </c>
@@ -2254,7 +2285,7 @@
         <v>2.5580118994295931E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>41364</v>
       </c>
@@ -2295,7 +2326,7 @@
         <v>4.9676251080680255E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>41394</v>
       </c>
@@ -2336,7 +2367,7 @@
         <v>-4.7231586306693231E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>41425</v>
       </c>
@@ -2377,7 +2408,7 @@
         <v>2.1892887610491041E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>41455</v>
       </c>
@@ -2418,7 +2449,7 @@
         <v>2.316827316875348E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>41486</v>
       </c>
@@ -2459,7 +2490,7 @@
         <v>3.9205369250465008E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>41517</v>
       </c>
@@ -2500,7 +2531,7 @@
         <v>4.163733421821642E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>41547</v>
       </c>
@@ -2541,7 +2572,7 @@
         <v>-1.7308398012315319E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>41578</v>
       </c>
@@ -2582,7 +2613,7 @@
         <v>9.6249457802273096E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>41608</v>
       </c>
@@ -2623,7 +2654,7 @@
         <v>1.3278603581516281E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>41639</v>
       </c>
@@ -2664,7 +2695,7 @@
         <v>2.584178411290564E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>41670</v>
       </c>
@@ -2705,7 +2736,7 @@
         <v>-1.135869620985411E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>41698</v>
       </c>
@@ -2746,7 +2777,7 @@
         <v>-5.274519712912568E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>41729</v>
       </c>
@@ -2787,7 +2818,7 @@
         <v>1.0548407872170149E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>41759</v>
       </c>
@@ -2828,7 +2859,7 @@
         <v>7.5631536878732181E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>41790</v>
       </c>
@@ -2869,7 +2900,7 @@
         <v>1.7265273583676991E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>41820</v>
       </c>
@@ -2910,7 +2941,7 @@
         <v>-9.1654664568851716E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>41851</v>
       </c>
@@ -2951,7 +2982,7 @@
         <v>3.1287434322478389E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>41882</v>
       </c>
@@ -2992,7 +3023,7 @@
         <v>2.628684671229716E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>41912</v>
       </c>
@@ -3033,7 +3064,7 @@
         <v>-7.0789447438400217E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>41943</v>
       </c>
@@ -3074,7 +3105,7 @@
         <v>4.1154433698597807E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>41973</v>
       </c>
@@ -3115,7 +3146,7 @@
         <v>1.727698339506918E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>42004</v>
       </c>
@@ -3156,7 +3187,7 @@
         <v>4.2032350787960804E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>42035</v>
       </c>
@@ -3197,7 +3228,7 @@
         <v>7.0341934730231426E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>42063</v>
       </c>
@@ -3238,7 +3269,7 @@
         <v>-3.4020933981551778E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>42094</v>
       </c>
@@ -3279,7 +3310,7 @@
         <v>2.102345486467132E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>42124</v>
       </c>
@@ -3320,7 +3351,7 @@
         <v>-1.6879291581832711E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>42155</v>
       </c>
@@ -3361,7 +3392,7 @@
         <v>-5.316805390114073E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>42185</v>
       </c>
@@ -3402,7 +3433,7 @@
         <v>2.0067464933851312E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>42216</v>
       </c>
@@ -3443,7 +3474,7 @@
         <v>4.2976958108435992E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>42247</v>
       </c>
@@ -3484,7 +3515,7 @@
         <v>8.9957609586586839E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>42277</v>
       </c>
@@ -3525,7 +3556,7 @@
         <v>2.6740076906067692E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>42308</v>
       </c>
@@ -3566,7 +3597,7 @@
         <v>-6.8388219488078807E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>42338</v>
       </c>
@@ -3607,7 +3638,7 @@
         <v>2.6162607802293191E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>42369</v>
       </c>
@@ -3648,7 +3679,7 @@
         <v>-2.0487381042651638E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>42400</v>
       </c>
@@ -3689,7 +3720,7 @@
         <v>7.6232839368307638E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>42429</v>
       </c>
@@ -3730,7 +3761,7 @@
         <v>4.2742596680992876E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>42460</v>
       </c>
@@ -3771,7 +3802,7 @@
         <v>-1.031645365033245E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>42490</v>
       </c>
@@ -3812,7 +3843,7 @@
         <v>-7.4352364122333046E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>42521</v>
       </c>
@@ -3853,7 +3884,7 @@
         <v>-1.3476761949897699E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>42551</v>
       </c>
@@ -3894,7 +3925,7 @@
         <v>5.1711890781862956E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>42582</v>
       </c>
@@ -3935,7 +3966,7 @@
         <v>-1.374675761171968E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>42613</v>
       </c>
@@ -3976,7 +4007,7 @@
         <v>3.490180937263871E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>42643</v>
       </c>
@@ -4017,7 +4048,7 @@
         <v>-1.7247001438739911E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>42674</v>
       </c>
@@ -4058,7 +4089,7 @@
         <v>-5.5001353414474115E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>42704</v>
       </c>
@@ -4099,7 +4130,7 @@
         <v>1.084823024870248E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>42735</v>
       </c>
@@ -4140,7 +4171,7 @@
         <v>1.8712457277628681E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>42766</v>
       </c>
@@ -4181,7 +4212,7 @@
         <v>-2.785744411213464E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>42794</v>
       </c>
@@ -4222,7 +4253,7 @@
         <v>2.566898308698331E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>42825</v>
       </c>
@@ -4263,7 +4294,7 @@
         <v>-3.2633923773821398E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>42855</v>
       </c>
@@ -4304,7 +4335,7 @@
         <v>-2.6328129581849719E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>42886</v>
       </c>
@@ -4345,7 +4376,7 @@
         <v>6.3346776271822221E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>42916</v>
       </c>
@@ -4386,7 +4417,7 @@
         <v>4.9335424480035793E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>42947</v>
       </c>
@@ -4427,7 +4458,7 @@
         <v>-2.4038901120139152E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>42978</v>
       </c>
@@ -4468,7 +4499,7 @@
         <v>5.5318088627688631E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>43008</v>
       </c>
@@ -4509,7 +4540,7 @@
         <v>-2.0886574879192378E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>43039</v>
       </c>
@@ -4550,7 +4581,7 @@
         <v>1.233494436020668E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>43069</v>
       </c>
@@ -4591,7 +4622,7 @@
         <v>-1.9905296835672211E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>43100</v>
       </c>
@@ -4632,7 +4663,7 @@
         <v>-4.216447904818268E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>43131</v>
       </c>
@@ -4673,7 +4704,7 @@
         <v>4.8907781513447043E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>43159</v>
       </c>
@@ -4714,7 +4745,7 @@
         <v>2.420803835524205E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>43190</v>
       </c>
@@ -4755,7 +4786,7 @@
         <v>2.5953686032865451E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>43220</v>
       </c>
@@ -4796,7 +4827,7 @@
         <v>-1.524008248151264E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>43251</v>
       </c>
@@ -4837,7 +4868,7 @@
         <v>-1.244127562954743E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>43281</v>
       </c>
@@ -4878,7 +4909,7 @@
         <v>1.9486079745118731E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>43312</v>
       </c>
@@ -4919,7 +4950,7 @@
         <v>-1.1556389345171579E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>43343</v>
       </c>
@@ -4960,7 +4991,7 @@
         <v>-4.4645788123386302E-7</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>43373</v>
       </c>
@@ -5001,7 +5032,7 @@
         <v>6.6085975750621105E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>43404</v>
       </c>
@@ -5042,7 +5073,7 @@
         <v>9.1372932795353683E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>43434</v>
       </c>
@@ -5083,7 +5114,7 @@
         <v>-1.061624715126852E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>43465</v>
       </c>
@@ -5124,7 +5155,7 @@
         <v>2.0128121019145169E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>43496</v>
       </c>
@@ -5165,7 +5196,7 @@
         <v>-3.7991759749694712E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>43524</v>
       </c>
@@ -5206,7 +5237,7 @@
         <v>-1.702753223627037E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>43555</v>
       </c>
@@ -5247,7 +5278,7 @@
         <v>-3.4769092556259429E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>43585</v>
       </c>
@@ -5288,7 +5319,7 @@
         <v>-3.186142788395096E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>43616</v>
       </c>
@@ -5329,7 +5360,7 @@
         <v>3.0836483080191861E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>43646</v>
       </c>
@@ -5370,7 +5401,7 @@
         <v>-5.4917182997343459E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>43677</v>
       </c>
@@ -5411,7 +5442,7 @@
         <v>-1.4977028405834111E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>43708</v>
       </c>
@@ -5452,7 +5483,7 @@
         <v>6.0880186730718688E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>43738</v>
       </c>
@@ -5493,7 +5524,7 @@
         <v>-1.966153270708885E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>43769</v>
       </c>
@@ -5534,7 +5565,7 @@
         <v>-5.0515475376806552E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>43799</v>
       </c>
@@ -5575,7 +5606,7 @@
         <v>4.9801416520831097E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>43830</v>
       </c>
@@ -5616,7 +5647,7 @@
         <v>-4.4505950004874286E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>43861</v>
       </c>
@@ -5657,7 +5688,7 @@
         <v>2.5191611388298949E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>43890</v>
       </c>
@@ -5698,7 +5729,7 @@
         <v>1.45690092292672E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>43921</v>
       </c>
@@ -5739,7 +5770,7 @@
         <v>0.146876809973289</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>43951</v>
       </c>
@@ -5780,7 +5811,7 @@
         <v>2.862753617083822E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>43982</v>
       </c>
@@ -5821,7 +5852,7 @@
         <v>-1.6044363867557621E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>44012</v>
       </c>
@@ -5862,7 +5893,7 @@
         <v>-4.9612167980539369E-5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>44043</v>
       </c>
@@ -5903,7 +5934,7 @@
         <v>2.7165083494641801E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>44074</v>
       </c>
@@ -5944,7 +5975,7 @@
         <v>7.3623377559711998E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>44104</v>
       </c>
@@ -5985,7 +6016,7 @@
         <v>-1.1997863583501651E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>44135</v>
       </c>
@@ -6026,7 +6057,7 @@
         <v>8.3442363645388074E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>44165</v>
       </c>
@@ -6067,7 +6098,7 @@
         <v>-6.9997570862173376E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>44196</v>
       </c>
@@ -6108,7 +6139,7 @@
         <v>3.404369824934131E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>44227</v>
       </c>
@@ -6149,7 +6180,7 @@
         <v>9.2487050705139136E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>44255</v>
       </c>
@@ -6190,7 +6221,7 @@
         <v>7.2496200339918927E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>44286</v>
       </c>
@@ -6231,7 +6262,7 @@
         <v>7.2634395220755831E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>44316</v>
       </c>
@@ -6272,7 +6303,7 @@
         <v>-2.95864280830165E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>44347</v>
       </c>
@@ -6313,7 +6344,7 @@
         <v>-3.2313837336500392E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>44377</v>
       </c>
@@ -6354,7 +6385,7 @@
         <v>-2.8683255675787168E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>44408</v>
       </c>
@@ -6395,7 +6426,7 @@
         <v>-3.7643833782831791E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>44439</v>
       </c>
@@ -6436,7 +6467,7 @@
         <v>-1.010373310895239E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>44469</v>
       </c>
@@ -6477,7 +6508,7 @@
         <v>2.490882073915623E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>44500</v>
       </c>
@@ -6518,7 +6549,7 @@
         <v>1.2938130031643581E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>44530</v>
       </c>
@@ -6559,7 +6590,7 @@
         <v>6.4833336615501766E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>44561</v>
       </c>
@@ -6600,7 +6631,7 @@
         <v>-9.1506380336828334E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>44592</v>
       </c>
@@ -6641,7 +6672,7 @@
         <v>-2.3824663694865631E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>44620</v>
       </c>
@@ -6682,7 +6713,7 @@
         <v>8.2846272197623257E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>44651</v>
       </c>
@@ -6723,7 +6754,7 @@
         <v>1.3036290542952299E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>44681</v>
       </c>
@@ -6764,7 +6795,7 @@
         <v>1.328423302520082E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>44712</v>
       </c>
@@ -6805,7 +6836,7 @@
         <v>-5.7001326644131817E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>44742</v>
       </c>
@@ -6846,7 +6877,7 @@
         <v>-1.177606653920473E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>44773</v>
       </c>
@@ -6887,7 +6918,7 @@
         <v>-7.5656833213979899E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>44804</v>
       </c>
@@ -6928,7 +6959,7 @@
         <v>5.4499286750915969E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>44834</v>
       </c>
@@ -6969,7 +7000,7 @@
         <v>1.2120667261655879E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>44865</v>
       </c>
@@ -7010,7 +7041,7 @@
         <v>-4.7076978575128353E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>44895</v>
       </c>
@@ -7051,7 +7082,7 @@
         <v>-4.2156806117746104E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>44926</v>
       </c>
@@ -7092,7 +7123,7 @@
         <v>-2.3745414668826809E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>44957</v>
       </c>
@@ -7133,7 +7164,7 @@
         <v>-1.2883364518719711E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>44985</v>
       </c>
@@ -7174,7 +7205,7 @@
         <v>6.4600534628154616E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>45016</v>
       </c>
@@ -7215,7 +7246,7 @@
         <v>-8.9730986428309678E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>45046</v>
       </c>
@@ -7256,7 +7287,7 @@
         <v>1.8527818779747009E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>45077</v>
       </c>
@@ -7297,7 +7328,7 @@
         <v>-1.1140294816205641E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>45107</v>
       </c>
@@ -7338,7 +7369,7 @@
         <v>-2.943892561562046E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>45138</v>
       </c>
@@ -7379,7 +7410,7 @@
         <v>1.445038105123675E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>45169</v>
       </c>
@@ -7414,19 +7445,76 @@
         <v>8.5543199315654128E-3</v>
       </c>
       <c r="L169" s="2">
-        <v>-1.4552965103109199E-2</v>
+        <v>-1.481990580073549E-2</v>
       </c>
       <c r="M169" s="2">
-        <v>1.999220550393721E-3</v>
+        <v>1.563584912332331E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A170" s="3">
+        <v>45199</v>
+      </c>
+      <c r="B170" s="2">
+        <v>-4.7677903979494229E-2</v>
+      </c>
+      <c r="C170" s="2">
+        <v>-1.902510025131765E-2</v>
+      </c>
+      <c r="D170" s="2">
+        <v>-2.288153486324163E-3</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1.103157312307634E-2</v>
+      </c>
+      <c r="F170" s="2">
+        <v>5.3105252682040041E-2</v>
+      </c>
+      <c r="G170" s="2">
+        <v>-3.0100273803694839E-3</v>
+      </c>
+      <c r="H170" s="2">
+        <v>6.2609764863030826E-4</v>
+      </c>
+      <c r="I170" s="2">
+        <v>5.2094169944096004E-3</v>
+      </c>
+      <c r="J170" s="2">
+        <v>7.3804491282469797E-5</v>
+      </c>
+      <c r="K170" s="2">
+        <v>1.492790500424079E-2</v>
+      </c>
+      <c r="L170" s="2">
+        <v>-4.253836053814377E-2</v>
+      </c>
+      <c r="M170" s="2">
+        <v>7.2948358522393611E-3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A169">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A1:A168">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="8">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:M169">
+  <conditionalFormatting sqref="B2:M168">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:A170">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A169))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B169:M170">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/data/time_series/equity_hedge_data.xlsx
+++ b/data/time_series/equity_hedge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E858AD13-E471-4C94-8F20-AD6655218E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E809CEA4-5242-45ED-AD48-60DABC8C607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57710" yWindow="0" windowWidth="29020" windowHeight="15820" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
+    <workbookView xWindow="10470" yWindow="-16310" windowWidth="29020" windowHeight="15820" xr2:uid="{974027C2-A5EE-46D1-9A10-B8A0BC39505E}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Historical Returns" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Corr Hedge</t>
-  </si>
-  <si>
-    <t>Def Var</t>
   </si>
   <si>
     <t>Weighted Strats</t>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>EVolCon</t>
+  </si>
+  <si>
+    <t>Def Var II</t>
+  </si>
+  <si>
+    <t>Moments</t>
   </si>
 </sst>
 </file>
@@ -158,49 +161,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -271,7 +232,16 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -286,7 +256,64 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -598,19 +625,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC31146-373F-4615-8CBA-9FB7E06C62A6}">
-  <dimension ref="A1:ALM172"/>
+  <dimension ref="A1:ALN173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P165" sqref="P165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1001" width="21.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1002" width="21.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,13 +648,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -636,25 +663,28 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>40086</v>
       </c>
@@ -671,7 +701,7 @@
         <v>-3.9989553366558406E-3</v>
       </c>
       <c r="F2" s="2">
-        <v>4.2174805902805918E-3</v>
+        <v>5.5151506174302423E-3</v>
       </c>
       <c r="G2" s="2">
         <v>-4.5151175044335634E-3</v>
@@ -680,7 +710,7 @@
         <v>-1.142580824408612E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>2.881421741962216E-2</v>
+        <v>3.6190471355492852E-2</v>
       </c>
       <c r="J2" s="2">
         <v>3.8329999999999749E-3</v>
@@ -692,13 +722,16 @@
         <v>-3.7335219577020462E-3</v>
       </c>
       <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
         <v>3.8370245936457478E-2</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>1.150673577137472E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>40117</v>
       </c>
@@ -715,7 +748,7 @@
         <v>2.0055978017841092E-3</v>
       </c>
       <c r="F3" s="2">
-        <v>3.2753915762059577E-2</v>
+        <v>3.2746133071446033E-2</v>
       </c>
       <c r="G3" s="2">
         <v>-5.2671440374559841E-3</v>
@@ -724,7 +757,7 @@
         <v>1.012832935842467E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>1.8859043939336701E-2</v>
+        <v>2.0825268644929399E-2</v>
       </c>
       <c r="J3" s="2">
         <v>7.2302863125639494E-3</v>
@@ -736,13 +769,16 @@
         <v>-8.3257603798470026E-4</v>
       </c>
       <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
         <v>-1.2187106999701861E-2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>6.9692560469841944E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>40147</v>
       </c>
@@ -759,7 +795,7 @@
         <v>-1.1249569304866871E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>1.025150702199721E-2</v>
+        <v>1.0845442928887779E-2</v>
       </c>
       <c r="G4" s="2">
         <v>4.7153486762412378E-3</v>
@@ -768,7 +804,7 @@
         <v>5.4576295664903176E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>5.6246510277788717E-3</v>
+        <v>1.3927106450517691E-2</v>
       </c>
       <c r="J4" s="2">
         <v>7.2782766338539417E-3</v>
@@ -780,13 +816,16 @@
         <v>7.2597689137934296E-3</v>
       </c>
       <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
         <v>6.2045203637485981E-2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>2.2487130388048099E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>40178</v>
       </c>
@@ -803,7 +842,7 @@
         <v>-1.1092090046187499E-3</v>
       </c>
       <c r="F5" s="2">
-        <v>2.562825833871887E-2</v>
+        <v>2.5101158397411009E-2</v>
       </c>
       <c r="G5" s="2">
         <v>9.6447793326159825E-4</v>
@@ -812,7 +851,7 @@
         <v>2.957273731593713E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>2.2748521455544731E-2</v>
+        <v>3.0549107227461049E-2</v>
       </c>
       <c r="J5" s="2">
         <v>3.9560115862340428E-3</v>
@@ -824,13 +863,16 @@
         <v>-2.6674592594875261E-3</v>
       </c>
       <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
         <v>2.2675453164995481E-2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>3.6651047551808061E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>40209</v>
       </c>
@@ -847,7 +889,7 @@
         <v>1.114716190668452E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>1.8116120328726639E-2</v>
+        <v>1.8742866319852561E-2</v>
       </c>
       <c r="G6" s="2">
         <v>6.727634058002252E-3</v>
@@ -856,7 +898,7 @@
         <v>-3.1591650537454719E-5</v>
       </c>
       <c r="I6" s="2">
-        <v>3.7746357383442891E-3</v>
+        <v>6.7909927634306477E-3</v>
       </c>
       <c r="J6" s="2">
         <v>4.3541236543733763E-3</v>
@@ -868,13 +910,16 @@
         <v>-3.4011469778727488E-4</v>
       </c>
       <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
         <v>-3.2226490969650287E-2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>4.0867036096062992E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>40237</v>
       </c>
@@ -891,7 +936,7 @@
         <v>-1.169638026915654E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>-1.9849306795566651E-2</v>
+        <v>-1.8039960183946491E-2</v>
       </c>
       <c r="G7" s="2">
         <v>-8.8703543868947632E-3</v>
@@ -900,7 +945,7 @@
         <v>-5.8179617546416651E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>3.1629608710803002E-3</v>
+        <v>8.1204741260941342E-3</v>
       </c>
       <c r="J7" s="2">
         <v>3.7490347452751038E-3</v>
@@ -912,13 +957,16 @@
         <v>6.2388202695813364E-3</v>
       </c>
       <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
         <v>2.6419342849465489E-2</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>-4.9712870730509676E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>40268</v>
       </c>
@@ -935,7 +983,7 @@
         <v>-1.2895562941469761E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>-1.7418883383134159E-2</v>
+        <v>-1.695978386882591E-2</v>
       </c>
       <c r="G8" s="2">
         <v>3.5350617773604038E-3</v>
@@ -944,7 +992,7 @@
         <v>-2.73427983292085E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>2.327016740919579E-2</v>
+        <v>2.9779497190822939E-2</v>
       </c>
       <c r="J8" s="2">
         <v>1.4598639284193251E-2</v>
@@ -956,13 +1004,16 @@
         <v>-9.4524467081414931E-3</v>
       </c>
       <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
         <v>6.0505487080354407E-2</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>1.7523651412098409E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>40298</v>
       </c>
@@ -979,7 +1030,7 @@
         <v>-3.848804693434738E-3</v>
       </c>
       <c r="F9" s="2">
-        <v>4.5204367644805503E-2</v>
+        <v>4.68543859424011E-2</v>
       </c>
       <c r="G9" s="2">
         <v>-3.8233196724831719E-3</v>
@@ -988,7 +1039,7 @@
         <v>5.0877233977919536E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>4.381510937907329E-3</v>
+        <v>5.4071194386118519E-3</v>
       </c>
       <c r="J9" s="2">
         <v>3.493879018462875E-3</v>
@@ -1000,13 +1051,16 @@
         <v>4.9186257458555538E-3</v>
       </c>
       <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
         <v>2.286007913467784E-2</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>7.7141380784142436E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>40329</v>
       </c>
@@ -1023,7 +1077,7 @@
         <v>1.460497650800097E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>-3.6761421733556267E-2</v>
+        <v>-4.0062845426992448E-2</v>
       </c>
       <c r="G10" s="2">
         <v>-2.8202784054646161E-2</v>
@@ -1032,7 +1086,7 @@
         <v>5.7988964413333566E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>-1.410911974086085E-2</v>
+        <v>-1.7020111312389299E-2</v>
       </c>
       <c r="J10" s="2">
         <v>-1.001445473628448E-2</v>
@@ -1044,13 +1098,16 @@
         <v>2.1725635371346641E-2</v>
       </c>
       <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
         <v>-7.9599600402666934E-2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>2.7374157125351068E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>40359</v>
       </c>
@@ -1067,7 +1124,7 @@
         <v>2.512077075156971E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>1.7630381781821209E-2</v>
+        <v>1.287542687867238E-2</v>
       </c>
       <c r="G11" s="2">
         <v>-7.9875039937449266E-5</v>
@@ -1076,7 +1133,7 @@
         <v>-1.340675058610763E-2</v>
       </c>
       <c r="I11" s="2">
-        <v>2.2504359779677841E-2</v>
+        <v>2.5525968003879979E-2</v>
       </c>
       <c r="J11" s="2">
         <v>-4.6488214804429878E-4</v>
@@ -1088,13 +1145,16 @@
         <v>8.9204772408590927E-5</v>
       </c>
       <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
         <v>-4.5269855082195158E-2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>7.7208698595029627E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>40390</v>
       </c>
@@ -1111,7 +1171,7 @@
         <v>-1.1597841725206731E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>-8.5847231113540274E-3</v>
+        <v>-7.9488595861916256E-3</v>
       </c>
       <c r="G12" s="2">
         <v>8.1922834547827339E-3</v>
@@ -1120,7 +1180,7 @@
         <v>-4.3542806917149512E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>1.170879997086245E-2</v>
+        <v>1.9878267422707398E-2</v>
       </c>
       <c r="J12" s="2">
         <v>5.7448795847816481E-3</v>
@@ -1132,13 +1192,16 @@
         <v>2.3302090249144088E-2</v>
       </c>
       <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
         <v>6.8422436888813706E-2</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>-1.789941776489837E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>40421</v>
       </c>
@@ -1155,7 +1218,7 @@
         <v>1.352372854358341E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>2.6380285480041388E-2</v>
+        <v>2.1485787427135031E-2</v>
       </c>
       <c r="G13" s="2">
         <v>3.4686151949991921E-3</v>
@@ -1164,7 +1227,7 @@
         <v>1.1807188708226061E-2</v>
       </c>
       <c r="I13" s="2">
-        <v>1.267296837086189E-2</v>
+        <v>1.7431044473732379E-2</v>
       </c>
       <c r="J13" s="2">
         <v>8.1496970671814939E-3</v>
@@ -1176,13 +1239,16 @@
         <v>1.308294603607907E-2</v>
       </c>
       <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
         <v>-3.6684498285123282E-2</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>9.2270915313229576E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>40451</v>
       </c>
@@ -1199,7 +1265,7 @@
         <v>-2.4274748757004531E-2</v>
       </c>
       <c r="F14" s="2">
-        <v>4.9250501594111228E-2</v>
+        <v>5.1282399255406563E-2</v>
       </c>
       <c r="G14" s="2">
         <v>4.3690342504212332E-3</v>
@@ -1208,7 +1274,7 @@
         <v>-3.4702351923007191E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>2.040706743879284E-2</v>
+        <v>2.5691013745095019E-2</v>
       </c>
       <c r="J14" s="2">
         <v>8.3383350681123236E-3</v>
@@ -1220,13 +1286,16 @@
         <v>-8.5617955646244415E-4</v>
       </c>
       <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
         <v>9.4728558017922682E-2</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>5.9815209123641128E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>40482</v>
       </c>
@@ -1243,7 +1312,7 @@
         <v>-4.3677526541285872E-3</v>
       </c>
       <c r="F15" s="2">
-        <v>-2.9283191716819191E-2</v>
+        <v>-2.7431536800751281E-2</v>
       </c>
       <c r="G15" s="2">
         <v>5.7913034363481497E-3</v>
@@ -1252,7 +1321,7 @@
         <v>6.7857142857141728E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>1.694596149221057E-2</v>
+        <v>2.358064552521149E-2</v>
       </c>
       <c r="J15" s="2">
         <v>1.060044379645619E-2</v>
@@ -1264,13 +1333,16 @@
         <v>-6.8014646454739314E-3</v>
       </c>
       <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
         <v>3.4402326386854302E-2</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>-3.9776129446393721E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>40512</v>
       </c>
@@ -1287,7 +1359,7 @@
         <v>-1.8491805577336429E-4</v>
       </c>
       <c r="F16" s="2">
-        <v>3.6266672294423367E-2</v>
+        <v>3.6943347266358277E-2</v>
       </c>
       <c r="G16" s="2">
         <v>5.7926961657037701E-3</v>
@@ -1296,7 +1368,7 @@
         <v>7.712165327919962E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>9.5955329345957206E-3</v>
+        <v>1.3476773750689491E-2</v>
       </c>
       <c r="J16" s="2">
         <v>1.845288410190937E-3</v>
@@ -1308,13 +1380,16 @@
         <v>-1.425944548208546E-3</v>
       </c>
       <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
         <v>5.8400107767981021E-3</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>6.2298955563225107E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>40543</v>
       </c>
@@ -1331,7 +1406,7 @@
         <v>-9.0447794903439904E-3</v>
       </c>
       <c r="F17" s="2">
-        <v>1.2271172984342941E-2</v>
+        <v>1.031480969869447E-2</v>
       </c>
       <c r="G17" s="2">
         <v>6.5105515836016981E-3</v>
@@ -1340,7 +1415,7 @@
         <v>1.129255095937864E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>2.5901549267020069E-2</v>
+        <v>3.2583134668894682E-2</v>
       </c>
       <c r="J17" s="2">
         <v>9.6968975323330486E-3</v>
@@ -1352,13 +1427,16 @@
         <v>-6.6013674327236593E-5</v>
       </c>
       <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
         <v>7.0399028407882952E-2</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>3.8907044312595741E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>40574</v>
       </c>
@@ -1375,7 +1453,7 @@
         <v>-3.7173127303491431E-3</v>
       </c>
       <c r="F18" s="2">
-        <v>4.3957298813884972E-2</v>
+        <v>4.323992748826222E-2</v>
       </c>
       <c r="G18" s="2">
         <v>-4.1521541444330401E-3</v>
@@ -1384,7 +1462,7 @@
         <v>1.966308172851372E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>1.8462896675959749E-2</v>
+        <v>2.3456843884895891E-2</v>
       </c>
       <c r="J18" s="2">
         <v>1.018235555879032E-2</v>
@@ -1396,13 +1474,16 @@
         <v>-5.5926117078165527E-3</v>
       </c>
       <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
         <v>2.843289927869673E-2</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>5.1604463445330331E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>40602</v>
       </c>
@@ -1419,7 +1500,7 @@
         <v>-5.3933737148953442E-3</v>
       </c>
       <c r="F19" s="2">
-        <v>-2.839064275559219E-2</v>
+        <v>-2.8242749809738069E-2</v>
       </c>
       <c r="G19" s="2">
         <v>1.063041642976548E-2</v>
@@ -1428,7 +1509,7 @@
         <v>-5.5982621482149053E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>2.1678636516189509E-2</v>
+        <v>2.6623561970053559E-2</v>
       </c>
       <c r="J19" s="2">
         <v>7.3427278174560406E-3</v>
@@ -1440,13 +1521,16 @@
         <v>2.0310566768677601E-4</v>
       </c>
       <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
         <v>3.5052019480583327E-2</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>8.6505438996132503E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>40633</v>
       </c>
@@ -1463,7 +1547,7 @@
         <v>-1.752319146001158E-3</v>
       </c>
       <c r="F20" s="2">
-        <v>1.483802872969593E-2</v>
+        <v>1.53738003863757E-2</v>
       </c>
       <c r="G20" s="2">
         <v>-5.3701114937437788E-3</v>
@@ -1472,7 +1556,7 @@
         <v>1.0810909024836499E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>6.964290471221735E-3</v>
+        <v>1.091485832497272E-2</v>
       </c>
       <c r="J20" s="2">
         <v>1.8551212754978059E-3</v>
@@ -1484,13 +1568,16 @@
         <v>5.8395771207095937E-3</v>
       </c>
       <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
         <v>2.6331550407501418E-3</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>2.4383439805836229E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>40663</v>
       </c>
@@ -1507,7 +1594,7 @@
         <v>-5.3817117635994727E-3</v>
       </c>
       <c r="F21" s="2">
-        <v>1.241558270387585E-2</v>
+        <v>1.3484558964559801E-2</v>
       </c>
       <c r="G21" s="2">
         <v>-3.2566031914704752E-4</v>
@@ -1516,7 +1603,7 @@
         <v>-1.5427477244471801E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>1.691585366878923E-2</v>
+        <v>2.1922076667991279E-2</v>
       </c>
       <c r="J21" s="2">
         <v>5.0525999969273094E-3</v>
@@ -1528,13 +1615,16 @@
         <v>-9.3017524862881729E-4</v>
       </c>
       <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
         <v>3.1508101905727927E-2</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>2.0643418808561961E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>40694</v>
       </c>
@@ -1551,7 +1641,7 @@
         <v>4.4474777251801711E-4</v>
       </c>
       <c r="F22" s="2">
-        <v>1.5804512612798641E-2</v>
+        <v>1.61965117385241E-2</v>
       </c>
       <c r="G22" s="2">
         <v>1.560249639942279E-3</v>
@@ -1560,7 +1650,7 @@
         <v>-2.0492218759854408E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>9.2176153622681722E-3</v>
+        <v>1.346217941530263E-2</v>
       </c>
       <c r="J22" s="2">
         <v>8.7757946320188296E-4</v>
@@ -1572,13 +1662,16 @@
         <v>1.1257522602914349E-4</v>
       </c>
       <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
         <v>-9.7986440724287301E-3</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <v>1.6587582175813271E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>40724</v>
       </c>
@@ -1595,7 +1688,7 @@
         <v>2.8064686497679681E-3</v>
       </c>
       <c r="F23" s="2">
-        <v>4.3436982515069488E-4</v>
+        <v>1.877269404591875E-3</v>
       </c>
       <c r="G23" s="2">
         <v>-6.2227167679530524E-3</v>
@@ -1604,7 +1697,7 @@
         <v>3.8399347610427181E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>9.3065807311118551E-3</v>
+        <v>1.2281348827139891E-2</v>
       </c>
       <c r="J23" s="2">
         <v>5.1198157261620469E-3</v>
@@ -1616,13 +1709,16 @@
         <v>7.8446946618604407E-3</v>
       </c>
       <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
         <v>-1.4531149555356721E-2</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
         <v>2.331896532127301E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>40755</v>
       </c>
@@ -1639,7 +1735,7 @@
         <v>2.4837851569321501E-3</v>
       </c>
       <c r="F24" s="2">
-        <v>2.0971425914828309E-2</v>
+        <v>2.022558580839218E-2</v>
       </c>
       <c r="G24" s="2">
         <v>-9.3537634686439164E-3</v>
@@ -1648,7 +1744,7 @@
         <v>-6.2337343292978584E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>6.5263392833909478E-3</v>
+        <v>6.9961641539658878E-3</v>
       </c>
       <c r="J24" s="2">
         <v>7.1467834558578414E-3</v>
@@ -1660,13 +1756,16 @@
         <v>-4.8574605764123424E-3</v>
       </c>
       <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
         <v>-1.758603833748924E-2</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
         <v>2.9981877978315081E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>40786</v>
       </c>
@@ -1683,7 +1782,7 @@
         <v>1.833890742640398E-2</v>
       </c>
       <c r="F25" s="2">
-        <v>-4.3934756473613917E-2</v>
+        <v>-5.3067666975203258E-2</v>
       </c>
       <c r="G25" s="2">
         <v>-3.502090995244167E-2</v>
@@ -1692,7 +1791,7 @@
         <v>9.8091391562851182E-2</v>
       </c>
       <c r="I25" s="2">
-        <v>5.9707382909908726E-3</v>
+        <v>-9.2957396024912382E-3</v>
       </c>
       <c r="J25" s="2">
         <v>-4.2047494677505126E-3</v>
@@ -1704,13 +1803,16 @@
         <v>1.5952826370717821E-2</v>
       </c>
       <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
         <v>-3.7333978038782918E-2</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
         <v>1.8528641033576519E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>40816</v>
       </c>
@@ -1727,7 +1829,7 @@
         <v>2.0829873226945409E-2</v>
       </c>
       <c r="F26" s="2">
-        <v>-8.6619220502430604E-3</v>
+        <v>-1.379794296438663E-2</v>
       </c>
       <c r="G26" s="2">
         <v>1.4596041049110831E-3</v>
@@ -1736,7 +1838,7 @@
         <v>-8.9204913561155008E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>1.6597288924616489E-2</v>
+        <v>2.015614319056163E-2</v>
       </c>
       <c r="J26" s="2">
         <v>-6.2891960755130372E-3</v>
@@ -1748,13 +1850,16 @@
         <v>3.2268607089791068E-2</v>
       </c>
       <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
         <v>-5.7656444628700267E-2</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>1.3788799172633809E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>40847</v>
       </c>
@@ -1771,7 +1876,7 @@
         <v>-2.0450997355264011E-2</v>
       </c>
       <c r="F27" s="2">
-        <v>-4.1704374542120854E-3</v>
+        <v>-2.7147319593437969E-3</v>
       </c>
       <c r="G27" s="2">
         <v>6.0188392367142018E-3</v>
@@ -1780,7 +1885,7 @@
         <v>1.7791839797940408E-2</v>
       </c>
       <c r="I27" s="2">
-        <v>1.553627295097388E-2</v>
+        <v>2.3302984774591161E-2</v>
       </c>
       <c r="J27" s="2">
         <v>8.3459937257068795E-3</v>
@@ -1792,13 +1897,16 @@
         <v>4.3115618155040716E-3</v>
       </c>
       <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
         <v>0.1069173469700006</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
         <v>-2.5912825199436202E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>40877</v>
       </c>
@@ -1815,7 +1923,7 @@
         <v>-4.0525272038028906E-3</v>
       </c>
       <c r="F28" s="2">
-        <v>3.8477154893875168E-2</v>
+        <v>3.8153644002544278E-2</v>
       </c>
       <c r="G28" s="2">
         <v>8.0575925594705833E-3</v>
@@ -1824,7 +1932,7 @@
         <v>1.287840457921385E-2</v>
       </c>
       <c r="I28" s="2">
-        <v>4.5049312797990522E-3</v>
+        <v>8.4646090902100058E-3</v>
       </c>
       <c r="J28" s="2">
         <v>2.871927508956373E-3</v>
@@ -1836,13 +1944,16 @@
         <v>3.275431861262224E-3</v>
       </c>
       <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
         <v>4.7413942600770713E-3</v>
       </c>
-      <c r="N28" s="2">
+      <c r="O28" s="2">
         <v>7.5821924826608902E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>40908</v>
       </c>
@@ -1859,7 +1970,7 @@
         <v>1.0258544772385749E-3</v>
       </c>
       <c r="F29" s="2">
-        <v>-1.1676039276128859E-3</v>
+        <v>-2.0839589576980839E-3</v>
       </c>
       <c r="G29" s="2">
         <v>2.0759219666259821E-3</v>
@@ -1868,7 +1979,7 @@
         <v>-1.3689918035764139E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>1.515375246371398E-2</v>
+        <v>2.0841947928669419E-2</v>
       </c>
       <c r="J29" s="2">
         <v>1.0677914542982499E-2</v>
@@ -1880,13 +1991,16 @@
         <v>-3.3486354637856102E-3</v>
       </c>
       <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
         <v>9.1626764537954541E-3</v>
       </c>
-      <c r="N29" s="2">
+      <c r="O29" s="2">
         <v>-1.163467846996568E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>40939</v>
       </c>
@@ -1903,7 +2017,7 @@
         <v>-5.5023350551577366E-3</v>
       </c>
       <c r="F30" s="2">
-        <v>-1.7407833700078489E-2</v>
+        <v>-1.566940059013977E-2</v>
       </c>
       <c r="G30" s="2">
         <v>7.0470541366030037E-3</v>
@@ -1912,7 +2026,7 @@
         <v>1.1959840510389339E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>1.352884835728585E-2</v>
+        <v>2.123584418228688E-2</v>
       </c>
       <c r="J30" s="2">
         <v>9.1198586171825635E-3</v>
@@ -1924,13 +2038,16 @@
         <v>-2.5077989933002249E-3</v>
       </c>
       <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
         <v>4.289777103961858E-2</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <v>-2.0912200592345821E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>40968</v>
       </c>
@@ -1947,7 +2064,7 @@
         <v>-5.0565988051372024E-3</v>
       </c>
       <c r="F31" s="2">
-        <v>1.42015808522622E-2</v>
+        <v>1.470212576057417E-2</v>
       </c>
       <c r="G31" s="2">
         <v>2.7252507670305631E-4</v>
@@ -1956,7 +2073,7 @@
         <v>8.2673500091092755E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>2.4000526429026621E-2</v>
+        <v>3.0345747769997301E-2</v>
       </c>
       <c r="J31" s="2">
         <v>3.9687163585202523E-3</v>
@@ -1968,13 +2085,16 @@
         <v>8.4965160227756797E-4</v>
       </c>
       <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
         <v>4.7968760350790687E-2</v>
       </c>
-      <c r="N31" s="2">
+      <c r="O31" s="2">
         <v>5.1552810015933386E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>40999</v>
       </c>
@@ -1991,7 +2111,7 @@
         <v>-4.597882912912632E-3</v>
       </c>
       <c r="F32" s="2">
-        <v>-3.0658370086761401E-2</v>
+        <v>-3.0438140994532351E-2</v>
       </c>
       <c r="G32" s="2">
         <v>5.2908192860030567E-3</v>
@@ -2000,7 +2120,7 @@
         <v>1.3535951397495969E-2</v>
       </c>
       <c r="I32" s="2">
-        <v>1.229630121568788E-2</v>
+        <v>1.7219394018777829E-2</v>
       </c>
       <c r="J32" s="2">
         <v>9.6443833917394528E-3</v>
@@ -2012,13 +2132,16 @@
         <v>-8.3687425266480986E-3</v>
       </c>
       <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
         <v>3.004987983383255E-2</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <v>-3.1186695852166752E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>41029</v>
       </c>
@@ -2035,7 +2158,7 @@
         <v>-3.0868375098247469E-5</v>
       </c>
       <c r="F33" s="2">
-        <v>4.842281874656088E-4</v>
+        <v>2.4181892882244589E-3</v>
       </c>
       <c r="G33" s="2">
         <v>8.3927822073004421E-4</v>
@@ -2044,7 +2167,7 @@
         <v>2.297440773508796E-4</v>
       </c>
       <c r="I33" s="2">
-        <v>2.1060019626575351E-4</v>
+        <v>2.4807447054864921E-3</v>
       </c>
       <c r="J33" s="2">
         <v>1.371716223739883E-3</v>
@@ -2056,13 +2179,16 @@
         <v>3.0696705847166328E-4</v>
       </c>
       <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
         <v>-6.6920091138542061E-3</v>
       </c>
-      <c r="N33" s="2">
+      <c r="O33" s="2">
         <v>-4.5280627916678478E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>41060</v>
       </c>
@@ -2079,7 +2205,7 @@
         <v>1.9776264280821469E-2</v>
       </c>
       <c r="F34" s="2">
-        <v>-2.8381391375322761E-2</v>
+        <v>-3.2270849609019492E-2</v>
       </c>
       <c r="G34" s="2">
         <v>3.6250873515029092E-3</v>
@@ -2088,7 +2214,7 @@
         <v>2.4016523073870921E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>1.082277679991916E-2</v>
+        <v>1.5016993565804189E-2</v>
       </c>
       <c r="J34" s="2">
         <v>2.3815806156468611E-4</v>
@@ -2100,13 +2226,16 @@
         <v>-7.9417583457808139E-4</v>
       </c>
       <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
         <v>-5.7292948051217957E-2</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O34" s="2">
         <v>3.0622748640524631E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>41090</v>
       </c>
@@ -2123,7 +2252,7 @@
         <v>-1.1916658946393269E-2</v>
       </c>
       <c r="F35" s="2">
-        <v>3.0814138325611092E-2</v>
+        <v>3.2062424283467728E-2</v>
       </c>
       <c r="G35" s="2">
         <v>1.610165803559882E-3</v>
@@ -2132,7 +2261,7 @@
         <v>1.6559866597170899E-2</v>
       </c>
       <c r="I35" s="2">
-        <v>1.128498227616785E-2</v>
+        <v>1.520763890757941E-2</v>
       </c>
       <c r="J35" s="2">
         <v>-3.2186507018850952E-3</v>
@@ -2144,13 +2273,16 @@
         <v>3.6695435572156039E-3</v>
       </c>
       <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
         <v>4.262174159181413E-2</v>
       </c>
-      <c r="N35" s="2">
+      <c r="O35" s="2">
         <v>1.548436014319832E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>41121</v>
       </c>
@@ -2167,7 +2299,7 @@
         <v>-5.9829996356628454E-3</v>
       </c>
       <c r="F36" s="2">
-        <v>-1.426805239574992E-2</v>
+        <v>-1.6824183996350439E-2</v>
       </c>
       <c r="G36" s="2">
         <v>-3.5974973931177661E-3</v>
@@ -2176,7 +2308,7 @@
         <v>-1.8206375387101129E-2</v>
       </c>
       <c r="I36" s="2">
-        <v>-7.7278726130378702E-4</v>
+        <v>8.0085947313659448E-4</v>
       </c>
       <c r="J36" s="2">
         <v>3.3957374558777338E-3</v>
@@ -2188,13 +2320,16 @@
         <v>1.343260968399429E-3</v>
       </c>
       <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
         <v>1.022454714049756E-2</v>
       </c>
-      <c r="N36" s="2">
+      <c r="O36" s="2">
         <v>-3.996974377571562E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>41152</v>
       </c>
@@ -2211,7 +2346,7 @@
         <v>-4.4087536868731014E-3</v>
       </c>
       <c r="F37" s="2">
-        <v>1.684550355128378E-2</v>
+        <v>1.9653520885044129E-2</v>
       </c>
       <c r="G37" s="2">
         <v>2.520363490485122E-3</v>
@@ -2220,7 +2355,7 @@
         <v>-9.3867912687903843E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>1.5713771995621451E-2</v>
+        <v>1.9384473281691551E-2</v>
       </c>
       <c r="J37" s="2">
         <v>7.8962872635224279E-3</v>
@@ -2232,13 +2367,16 @@
         <v>-4.089320957036513E-3</v>
       </c>
       <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
         <v>2.5729042960553151E-2</v>
       </c>
-      <c r="N37" s="2">
+      <c r="O37" s="2">
         <v>3.4973201462299461E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>41182</v>
       </c>
@@ -2255,7 +2393,7 @@
         <v>-4.9365022825210714E-3</v>
       </c>
       <c r="F38" s="2">
-        <v>-2.2807775658714509E-2</v>
+        <v>-1.9866909782286779E-2</v>
       </c>
       <c r="G38" s="2">
         <v>5.2281327475969253E-3</v>
@@ -2264,7 +2402,7 @@
         <v>-5.9368601389222508E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>1.286497964114721E-2</v>
+        <v>1.5895081028028678E-2</v>
       </c>
       <c r="J38" s="2">
         <v>-2.8037740497965919E-4</v>
@@ -2276,13 +2414,16 @@
         <v>-3.5747012512782339E-3</v>
       </c>
       <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
         <v>2.2255061985687309E-2</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>-3.9121171864688539E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>41213</v>
       </c>
@@ -2299,7 +2440,7 @@
         <v>5.1868861075607953E-3</v>
       </c>
       <c r="F39" s="2">
-        <v>-5.2092488155732466E-3</v>
+        <v>-3.9072147791512357E-3</v>
       </c>
       <c r="G39" s="2">
         <v>-3.8942157914745312E-4</v>
@@ -2308,7 +2449,7 @@
         <v>2.3432919614951859E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>1.5874883472192729E-2</v>
+        <v>1.9185002499760118E-2</v>
       </c>
       <c r="J39" s="2">
         <v>5.5419812944321736E-3</v>
@@ -2320,13 +2461,16 @@
         <v>1.6547965905866491E-4</v>
       </c>
       <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
         <v>-1.735486353078531E-2</v>
       </c>
-      <c r="N39" s="2">
+      <c r="O39" s="2">
         <v>1.210113135882873E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>41243</v>
       </c>
@@ -2343,7 +2487,7 @@
         <v>2.417594740253826E-3</v>
       </c>
       <c r="F40" s="2">
-        <v>1.7286679072000561E-2</v>
+        <v>1.7094872070465339E-2</v>
       </c>
       <c r="G40" s="2">
         <v>4.4671070287682912E-3</v>
@@ -2352,7 +2496,7 @@
         <v>5.055235425104998E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>1.08650755573181E-2</v>
+        <v>1.318169616932296E-2</v>
       </c>
       <c r="J40" s="2">
         <v>6.6963832937787524E-3</v>
@@ -2364,13 +2508,16 @@
         <v>6.8245694251600764E-3</v>
       </c>
       <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
         <v>9.1240582991454922E-3</v>
       </c>
-      <c r="N40" s="2">
+      <c r="O40" s="2">
         <v>3.6244669791288498E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>41274</v>
       </c>
@@ -2387,7 +2534,7 @@
         <v>-2.4611847201299049E-3</v>
       </c>
       <c r="F41" s="2">
-        <v>9.1753042845018166E-3</v>
+        <v>1.015630476656826E-2</v>
       </c>
       <c r="G41" s="2">
         <v>9.2133727494463358E-3</v>
@@ -2396,7 +2543,7 @@
         <v>8.5222854462643216E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>1.6380343072573061E-2</v>
+        <v>2.0816030585321551E-2</v>
       </c>
       <c r="J41" s="2">
         <v>3.0568407831759181E-3</v>
@@ -2408,13 +2555,16 @@
         <v>2.8768236118443809E-3</v>
       </c>
       <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
         <v>1.4121880760521951E-2</v>
       </c>
-      <c r="N41" s="2">
+      <c r="O41" s="2">
         <v>5.4613614598039324E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41305</v>
       </c>
@@ -2431,7 +2581,7 @@
         <v>-1.0049152933953479E-2</v>
       </c>
       <c r="F42" s="2">
-        <v>2.3314429090487431E-2</v>
+        <v>2.147145218691859E-2</v>
       </c>
       <c r="G42" s="2">
         <v>-1.7080002732801081E-3</v>
@@ -2440,7 +2590,7 @@
         <v>-2.4717452325338729E-2</v>
       </c>
       <c r="I42" s="2">
-        <v>9.3789371295559948E-3</v>
+        <v>1.305256290735248E-2</v>
       </c>
       <c r="J42" s="2">
         <v>3.487788138004877E-3</v>
@@ -2452,13 +2602,16 @@
         <v>-5.740679644048563E-3</v>
       </c>
       <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
         <v>5.0843224848740161E-2</v>
       </c>
-      <c r="N42" s="2">
+      <c r="O42" s="2">
         <v>-1.0382647195405601E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>41333</v>
       </c>
@@ -2475,7 +2628,7 @@
         <v>-3.40833941801244E-3</v>
       </c>
       <c r="F43" s="2">
-        <v>2.8430035139233131E-2</v>
+        <v>2.9485965292973759E-2</v>
       </c>
       <c r="G43" s="2">
         <v>-6.0737749794703699E-4</v>
@@ -2484,7 +2637,7 @@
         <v>1.337468635431871E-2</v>
       </c>
       <c r="I43" s="2">
-        <v>-4.8524361902499537E-3</v>
+        <v>-4.1830109218447976E-3</v>
       </c>
       <c r="J43" s="2">
         <v>3.7867824610260392E-4</v>
@@ -2496,13 +2649,16 @@
         <v>-4.8933454254385111E-5</v>
       </c>
       <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
         <v>1.5618325436488931E-2</v>
       </c>
-      <c r="N43" s="2">
+      <c r="O43" s="2">
         <v>2.228960329448788E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>41364</v>
       </c>
@@ -2519,7 +2675,7 @@
         <v>-6.7574047169549623E-3</v>
       </c>
       <c r="F44" s="2">
-        <v>8.0796284564470255E-4</v>
+        <v>5.9983630083215722E-4</v>
       </c>
       <c r="G44" s="2">
         <v>1.609244596618931E-3</v>
@@ -2528,7 +2684,7 @@
         <v>-6.1025105366753207E-3</v>
       </c>
       <c r="I44" s="2">
-        <v>9.069685695920638E-3</v>
+        <v>1.2567437779085869E-2</v>
       </c>
       <c r="J44" s="2">
         <v>9.8135590535286532E-4</v>
@@ -2540,13 +2696,16 @@
         <v>-1.9724476836480151E-4</v>
       </c>
       <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
         <v>3.7755368057116753E-2</v>
       </c>
-      <c r="N44" s="2">
+      <c r="O44" s="2">
         <v>2.7483807901110702E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>41394</v>
       </c>
@@ -2563,7 +2722,7 @@
         <v>-4.9220171073545149E-3</v>
       </c>
       <c r="F45" s="2">
-        <v>-1.3042003063680051E-2</v>
+        <v>-9.8928423071091842E-3</v>
       </c>
       <c r="G45" s="2">
         <v>5.9138728175498478E-3</v>
@@ -2572,7 +2731,7 @@
         <v>1.4014304608037429E-2</v>
       </c>
       <c r="I45" s="2">
-        <v>-2.333309587484299E-3</v>
+        <v>-1.816791925415305E-3</v>
       </c>
       <c r="J45" s="2">
         <v>-4.2797479130188831E-3</v>
@@ -2584,13 +2743,16 @@
         <v>-6.7532036242867743E-4</v>
       </c>
       <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
         <v>1.674378914746916E-2</v>
       </c>
-      <c r="N45" s="2">
+      <c r="O45" s="2">
         <v>-2.7514553182039401E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>41425</v>
       </c>
@@ -2607,7 +2769,7 @@
         <v>-3.3374982005315301E-3</v>
       </c>
       <c r="F46" s="2">
-        <v>4.1581316346850361E-5</v>
+        <v>-2.6435721131476959E-3</v>
       </c>
       <c r="G46" s="2">
         <v>1.265876555796241E-3</v>
@@ -2616,7 +2778,7 @@
         <v>1.235475787193518E-3</v>
       </c>
       <c r="I46" s="2">
-        <v>6.2462276122290342E-4</v>
+        <v>1.453431756701295E-3</v>
       </c>
       <c r="J46" s="2">
         <v>1.150242596620332E-3</v>
@@ -2628,13 +2790,16 @@
         <v>-1.4777949744497749E-3</v>
       </c>
       <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
         <v>2.4104844607071681E-2</v>
       </c>
-      <c r="N46" s="2">
+      <c r="O46" s="2">
         <v>7.7766104336929461E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>41455</v>
       </c>
@@ -2651,7 +2816,7 @@
         <v>1.4519491468030219E-3</v>
       </c>
       <c r="F47" s="2">
-        <v>1.5612523682252461E-2</v>
+        <v>1.3769255076621519E-2</v>
       </c>
       <c r="G47" s="2">
         <v>-6.7541195037930102E-3</v>
@@ -2660,7 +2825,7 @@
         <v>1.127184725757235E-3</v>
       </c>
       <c r="I47" s="2">
-        <v>2.112834878646041E-3</v>
+        <v>2.8279651760237719E-3</v>
       </c>
       <c r="J47" s="2">
         <v>-2.7398633828413792E-3</v>
@@ -2672,13 +2837,16 @@
         <v>1.981246052353169E-3</v>
       </c>
       <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
         <v>-1.2344932389606831E-2</v>
       </c>
-      <c r="N47" s="2">
+      <c r="O47" s="2">
         <v>1.182161880221243E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>41486</v>
       </c>
@@ -2695,7 +2863,7 @@
         <v>-7.7009071808702423E-3</v>
       </c>
       <c r="F48" s="2">
-        <v>2.0091045648381919E-2</v>
+        <v>1.802082616348244E-2</v>
       </c>
       <c r="G48" s="2">
         <v>-2.9899707837122152E-4</v>
@@ -2704,7 +2872,7 @@
         <v>-4.284240675034634E-3</v>
       </c>
       <c r="I48" s="2">
-        <v>1.504422083575181E-2</v>
+        <v>1.8646946065142011E-2</v>
       </c>
       <c r="J48" s="2">
         <v>3.377472567985151E-3</v>
@@ -2716,13 +2884,16 @@
         <v>-2.542131098358769E-3</v>
       </c>
       <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
         <v>5.2380859119230148E-2</v>
       </c>
-      <c r="N48" s="2">
+      <c r="O48" s="2">
         <v>1.6322747455970209E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>41517</v>
       </c>
@@ -2739,7 +2910,7 @@
         <v>5.331736217010663E-3</v>
       </c>
       <c r="F49" s="2">
-        <v>1.2169571857764801E-2</v>
+        <v>1.2172117332179599E-2</v>
       </c>
       <c r="G49" s="2">
         <v>-3.7513992975742871E-3</v>
@@ -2748,7 +2919,7 @@
         <v>-3.5701732949805498E-3</v>
       </c>
       <c r="I49" s="2">
-        <v>1.1715847817497901E-2</v>
+        <v>1.328073601551656E-2</v>
       </c>
       <c r="J49" s="2">
         <v>4.0917657806449632E-5</v>
@@ -2760,13 +2931,16 @@
         <v>7.6581278320886348E-4</v>
       </c>
       <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
         <v>-2.5651389833902381E-2</v>
       </c>
-      <c r="N49" s="2">
+      <c r="O49" s="2">
         <v>3.6105462158033978E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>41547</v>
       </c>
@@ -2783,7 +2957,7 @@
         <v>-5.6965522503815702E-3</v>
       </c>
       <c r="F50" s="2">
-        <v>-8.531141217447448E-3</v>
+        <v>-8.3126653873056844E-3</v>
       </c>
       <c r="G50" s="2">
         <v>2.7362245248061519E-3</v>
@@ -2792,7 +2966,7 @@
         <v>-4.7752276263908211E-3</v>
       </c>
       <c r="I50" s="2">
-        <v>8.3014773985466955E-3</v>
+        <v>1.181191941139133E-2</v>
       </c>
       <c r="J50" s="2">
         <v>2.459134117584139E-3</v>
@@ -2804,13 +2978,16 @@
         <v>-2.0532462019143831E-3</v>
       </c>
       <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
         <v>2.97798766466764E-2</v>
       </c>
-      <c r="N50" s="2">
+      <c r="O50" s="2">
         <v>-1.723130330668523E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>41578</v>
       </c>
@@ -2827,7 +3004,7 @@
         <v>-7.9814123864996311E-3</v>
       </c>
       <c r="F51" s="2">
-        <v>4.81748316806481E-4</v>
+        <v>5.1673967097998208E-4</v>
       </c>
       <c r="G51" s="2">
         <v>-1.3686560652853559E-3</v>
@@ -2836,7 +3013,7 @@
         <v>-3.7739573356609929E-4</v>
       </c>
       <c r="I51" s="2">
-        <v>1.439162768615836E-2</v>
+        <v>1.7690748788764359E-2</v>
       </c>
       <c r="J51" s="2">
         <v>4.6363203975607892E-3</v>
@@ -2848,13 +3025,16 @@
         <v>4.7479342895950788E-4</v>
       </c>
       <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
         <v>4.6825792890682512E-2</v>
       </c>
-      <c r="N51" s="2">
+      <c r="O51" s="2">
         <v>9.3604153357317488E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>41608</v>
       </c>
@@ -2871,7 +3051,7 @@
         <v>-5.1006307473752122E-3</v>
       </c>
       <c r="F52" s="2">
-        <v>2.230403341008616E-3</v>
+        <v>2.8641638093955808E-3</v>
       </c>
       <c r="G52" s="2">
         <v>1.404795148316484E-3</v>
@@ -2880,7 +3060,7 @@
         <v>-2.235423640722933E-4</v>
       </c>
       <c r="I52" s="2">
-        <v>9.9920275671750991E-3</v>
+        <v>1.261585099262268E-2</v>
       </c>
       <c r="J52" s="2">
         <v>2.389545696123152E-3</v>
@@ -2892,13 +3072,16 @@
         <v>-7.8396861304763643E-4</v>
       </c>
       <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
         <v>3.1694473890493742E-2</v>
       </c>
-      <c r="N52" s="2">
+      <c r="O52" s="2">
         <v>1.3312250476319239E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>41639</v>
       </c>
@@ -2915,7 +3098,7 @@
         <v>-6.0851415205714909E-3</v>
       </c>
       <c r="F53" s="2">
-        <v>1.1985207536978289E-2</v>
+        <v>1.110362004098886E-2</v>
       </c>
       <c r="G53" s="2">
         <v>-2.8655255887152231E-3</v>
@@ -2924,7 +3107,7 @@
         <v>-7.2543294620801557E-3</v>
       </c>
       <c r="I53" s="2">
-        <v>1.5538063340502759E-2</v>
+        <v>1.9177958600373881E-2</v>
       </c>
       <c r="J53" s="2">
         <v>1.9189904786642839E-4</v>
@@ -2936,13 +3119,16 @@
         <v>-1.050521131397142E-4</v>
       </c>
       <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
         <v>2.67783762942784E-2</v>
       </c>
-      <c r="N53" s="2">
+      <c r="O53" s="2">
         <v>1.594965596246851E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>41670</v>
       </c>
@@ -2959,7 +3145,7 @@
         <v>6.698409177139153E-3</v>
       </c>
       <c r="F54" s="2">
-        <v>-1.6127779832197681E-2</v>
+        <v>-1.4322285571198299E-2</v>
       </c>
       <c r="G54" s="2">
         <v>3.3455718354358233E-4</v>
@@ -2968,7 +3154,7 @@
         <v>5.0087806941097046E-3</v>
       </c>
       <c r="I54" s="2">
-        <v>6.670833381218589E-3</v>
+        <v>6.7363425640342362E-3</v>
       </c>
       <c r="J54" s="2">
         <v>-1.7292410442929511E-3</v>
@@ -2980,13 +3166,16 @@
         <v>1.1269495455989991E-3</v>
       </c>
       <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
         <v>-3.4362677172214258E-2</v>
       </c>
-      <c r="N54" s="2">
+      <c r="O54" s="2">
         <v>2.3047810751435809E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>41698</v>
       </c>
@@ -3003,7 +3192,7 @@
         <v>-7.7476757388112993E-3</v>
       </c>
       <c r="F55" s="2">
-        <v>8.7462558581238869E-4</v>
+        <v>7.9291686593840893E-4</v>
       </c>
       <c r="G55" s="2">
         <v>4.7165361758350072E-4</v>
@@ -3012,7 +3201,7 @@
         <v>-1.009711783934142E-2</v>
       </c>
       <c r="I55" s="2">
-        <v>9.2507655101985668E-3</v>
+        <v>1.2905322344501211E-2</v>
       </c>
       <c r="J55" s="2">
         <v>1.7844272684346409E-3</v>
@@ -3024,13 +3213,16 @@
         <v>4.3848813409752552E-4</v>
       </c>
       <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
         <v>4.5361620767221451E-2</v>
       </c>
-      <c r="N55" s="2">
+      <c r="O55" s="2">
         <v>-4.1694248437580282E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>41729</v>
       </c>
@@ -3047,7 +3239,7 @@
         <v>-3.347555148004222E-3</v>
       </c>
       <c r="F56" s="2">
-        <v>-2.057808849915591E-3</v>
+        <v>-2.2028316627005222E-3</v>
       </c>
       <c r="G56" s="2">
         <v>5.9314624654998038E-3</v>
@@ -3056,7 +3248,7 @@
         <v>5.7760792967331831E-3</v>
       </c>
       <c r="I56" s="2">
-        <v>1.4153374329733339E-2</v>
+        <v>1.7589806125800699E-2</v>
       </c>
       <c r="J56" s="2">
         <v>-3.1589462681436142E-4</v>
@@ -3068,13 +3260,16 @@
         <v>-2.6403831411510041E-3</v>
       </c>
       <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
         <v>8.7987462293437225E-3</v>
       </c>
-      <c r="N56" s="2">
+      <c r="O56" s="2">
         <v>4.2870818395570882E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>41759</v>
       </c>
@@ -3091,7 +3286,7 @@
         <v>-3.980013679884542E-3</v>
       </c>
       <c r="F57" s="2">
-        <v>-8.3707524005679395E-4</v>
+        <v>-2.1315674344292161E-3</v>
       </c>
       <c r="G57" s="2">
         <v>2.4710714224851488E-4</v>
@@ -3100,7 +3295,7 @@
         <v>-4.2510647982573202E-3</v>
       </c>
       <c r="I57" s="2">
-        <v>7.1655190744856819E-3</v>
+        <v>8.3673088448203078E-3</v>
       </c>
       <c r="J57" s="2">
         <v>2.628048064244437E-3</v>
@@ -3112,13 +3307,16 @@
         <v>-8.8856558183580958E-4</v>
       </c>
       <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
         <v>6.6634886882522178E-3</v>
       </c>
-      <c r="N57" s="2">
+      <c r="O57" s="2">
         <v>-7.946547168685322E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>41790</v>
       </c>
@@ -3135,7 +3333,7 @@
         <v>-8.0353704576053842E-3</v>
       </c>
       <c r="F58" s="2">
-        <v>7.414386374502994E-3</v>
+        <v>6.0047010106980547E-3</v>
       </c>
       <c r="G58" s="2">
         <v>-1.593021373746728E-3</v>
@@ -3144,7 +3342,7 @@
         <v>1.312348318593948E-4</v>
       </c>
       <c r="I58" s="2">
-        <v>6.5936928846640928E-3</v>
+        <v>9.4184289569919193E-3</v>
       </c>
       <c r="J58" s="2">
         <v>5.2810960522549077E-3</v>
@@ -3156,13 +3354,16 @@
         <v>1.153888203547115E-3</v>
       </c>
       <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
         <v>2.4241796550141529E-2</v>
       </c>
-      <c r="N58" s="2">
+      <c r="O58" s="2">
         <v>8.3728052927993708E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>41820</v>
       </c>
@@ -3179,7 +3380,7 @@
         <v>-4.9890066347201278E-3</v>
       </c>
       <c r="F59" s="2">
-        <v>-1.443150401156439E-2</v>
+        <v>-1.413404496323456E-2</v>
       </c>
       <c r="G59" s="2">
         <v>-1.262798634812379E-3</v>
@@ -3188,7 +3389,7 @@
         <v>-4.2272161650053208E-3</v>
       </c>
       <c r="I59" s="2">
-        <v>1.362368243270775E-2</v>
+        <v>1.6876514801676221E-2</v>
       </c>
       <c r="J59" s="2">
         <v>5.4929993598475946E-3</v>
@@ -3200,13 +3401,16 @@
         <v>-2.993314654639478E-3</v>
       </c>
       <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
         <v>1.9891240555630591E-2</v>
       </c>
-      <c r="N59" s="2">
+      <c r="O59" s="2">
         <v>-8.3574397078453556E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>41851</v>
       </c>
@@ -3223,7 +3427,7 @@
         <v>3.6812679123743308E-3</v>
       </c>
       <c r="F60" s="2">
-        <v>1.335726897943691E-2</v>
+        <v>1.254313467365642E-2</v>
       </c>
       <c r="G60" s="2">
         <v>-7.8853842736564816E-3</v>
@@ -3232,7 +3436,7 @@
         <v>6.6889821889850598E-3</v>
       </c>
       <c r="I60" s="2">
-        <v>4.6672531882057337E-3</v>
+        <v>3.3484352858503602E-3</v>
       </c>
       <c r="J60" s="2">
         <v>1.809569906779052E-3</v>
@@ -3244,13 +3448,16 @@
         <v>6.9240922438185137E-4</v>
       </c>
       <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
         <v>-1.168872514075539E-2</v>
       </c>
-      <c r="N60" s="2">
+      <c r="O60" s="2">
         <v>2.292908323521609E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>41882</v>
       </c>
@@ -3267,7 +3474,7 @@
         <v>-7.2466703411497857E-3</v>
       </c>
       <c r="F61" s="2">
-        <v>1.827816960953257E-3</v>
+        <v>-3.7503678245354172E-4</v>
       </c>
       <c r="G61" s="2">
         <v>7.7500021527798779E-4</v>
@@ -3276,7 +3483,7 @@
         <v>-1.696677418344561E-3</v>
       </c>
       <c r="I61" s="2">
-        <v>1.6986525278803979E-2</v>
+        <v>2.266193770783486E-2</v>
       </c>
       <c r="J61" s="2">
         <v>2.9762826205625981E-3</v>
@@ -3288,13 +3495,16 @@
         <v>2.7734889818167301E-3</v>
       </c>
       <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2">
         <v>4.1484633637806953E-2</v>
       </c>
-      <c r="N61" s="2">
+      <c r="O61" s="2">
         <v>1.613922840142939E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>41912</v>
       </c>
@@ -3311,7 +3521,7 @@
         <v>4.5502511409001301E-4</v>
       </c>
       <c r="F62" s="2">
-        <v>-2.0806879294651481E-2</v>
+        <v>-1.9390904158505751E-2</v>
       </c>
       <c r="G62" s="2">
         <v>8.5184006057503758E-4</v>
@@ -3320,7 +3530,7 @@
         <v>5.4286827429621543E-3</v>
       </c>
       <c r="I62" s="2">
-        <v>1.2142521122817751E-2</v>
+        <v>1.342984839543639E-2</v>
       </c>
       <c r="J62" s="2">
         <v>2.8261047925179921E-3</v>
@@ -3332,13 +3542,16 @@
         <v>1.8378504838316709E-3</v>
       </c>
       <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
         <v>-1.338482142442096E-2</v>
       </c>
-      <c r="N62" s="2">
+      <c r="O62" s="2">
         <v>6.9679720097335447E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>41943</v>
       </c>
@@ -3355,7 +3568,7 @@
         <v>3.878632518212521E-3</v>
       </c>
       <c r="F63" s="2">
-        <v>1.8626890104286229E-2</v>
+        <v>1.7740699719723581E-2</v>
       </c>
       <c r="G63" s="2">
         <v>7.3849275262642946E-3</v>
@@ -3364,7 +3577,7 @@
         <v>1.0114851297333689E-3</v>
       </c>
       <c r="I63" s="2">
-        <v>7.9839746163550256E-4</v>
+        <v>7.1722104934337507E-4</v>
       </c>
       <c r="J63" s="2">
         <v>-5.3535757738747414E-3</v>
@@ -3376,13 +3589,16 @@
         <v>1.2265624885863019E-2</v>
       </c>
       <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2">
         <v>2.8652410706748229E-2</v>
       </c>
-      <c r="N63" s="2">
+      <c r="O63" s="2">
         <v>4.610415833096012E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>41973</v>
       </c>
@@ -3399,7 +3615,7 @@
         <v>-3.9292022699024542E-3</v>
       </c>
       <c r="F64" s="2">
-        <v>-5.9617908191438593E-3</v>
+        <v>-7.4944454351355549E-3</v>
       </c>
       <c r="G64" s="2">
         <v>2.875991022129432E-3</v>
@@ -3408,7 +3624,7 @@
         <v>-1.2997010999149521E-3</v>
       </c>
       <c r="I64" s="2">
-        <v>1.557029282997484E-2</v>
+        <v>1.9225787109995989E-2</v>
       </c>
       <c r="J64" s="2">
         <v>-1.7574821258855571E-3</v>
@@ -3420,13 +3636,16 @@
         <v>-5.2992993907341468E-3</v>
       </c>
       <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
         <v>2.72391316187456E-2</v>
       </c>
-      <c r="N64" s="2">
+      <c r="O64" s="2">
         <v>3.7572303826525902E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>42004</v>
       </c>
@@ -3443,7 +3662,7 @@
         <v>2.42100156739733E-3</v>
       </c>
       <c r="F65" s="2">
-        <v>1.7199024371692139E-2</v>
+        <v>1.4907833653827311E-2</v>
       </c>
       <c r="G65" s="2">
         <v>3.6676481100119669E-3</v>
@@ -3452,7 +3671,7 @@
         <v>-2.4873761804597549E-2</v>
       </c>
       <c r="I65" s="2">
-        <v>-1.7612718332473459E-3</v>
+        <v>-2.621159163094577E-3</v>
       </c>
       <c r="J65" s="2">
         <v>2.461380314668471E-3</v>
@@ -3464,13 +3683,16 @@
         <v>5.4068670866809221E-3</v>
       </c>
       <c r="M65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2">
         <v>4.0999818286934349E-4</v>
       </c>
-      <c r="N65" s="2">
+      <c r="O65" s="2">
         <v>3.194890157205154E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>42035</v>
       </c>
@@ -3487,7 +3709,7 @@
         <v>4.2055994335565838E-3</v>
       </c>
       <c r="F66" s="2">
-        <v>2.8200784831011471E-2</v>
+        <v>2.467631888690058E-2</v>
       </c>
       <c r="G66" s="2">
         <v>7.800245877315648E-3</v>
@@ -3496,7 +3718,7 @@
         <v>6.4201080600838623E-3</v>
       </c>
       <c r="I66" s="2">
-        <v>-1.9469878782717449E-4</v>
+        <v>1.8973459977869029E-3</v>
       </c>
       <c r="J66" s="2">
         <v>6.4048725861676203E-4</v>
@@ -3508,13 +3730,16 @@
         <v>6.0984047084735593E-3</v>
       </c>
       <c r="M66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2">
         <v>-2.56174209768146E-2</v>
       </c>
-      <c r="N66" s="2">
+      <c r="O66" s="2">
         <v>4.8011453788499034E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>42063</v>
       </c>
@@ -3531,7 +3756,7 @@
         <v>-9.2006628447888206E-3</v>
       </c>
       <c r="F67" s="2">
-        <v>-2.7429582310606201E-2</v>
+        <v>-2.633178837818928E-2</v>
       </c>
       <c r="G67" s="2">
         <v>1.0861060867370259E-2</v>
@@ -3540,7 +3765,7 @@
         <v>1.074534331356003E-2</v>
       </c>
       <c r="I67" s="2">
-        <v>1.0301245302461371E-2</v>
+        <v>1.616010480462169E-2</v>
       </c>
       <c r="J67" s="2">
         <v>6.0941539877954476E-3</v>
@@ -3552,13 +3777,16 @@
         <v>-4.7473126126313936E-3</v>
       </c>
       <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="2">
         <v>5.4922434189834009E-2</v>
       </c>
-      <c r="N67" s="2">
+      <c r="O67" s="2">
         <v>-2.7805277067370951E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>42094</v>
       </c>
@@ -3575,7 +3803,7 @@
         <v>1.639101880301919E-3</v>
       </c>
       <c r="F68" s="2">
-        <v>1.3178901062299049E-2</v>
+        <v>1.332340943467325E-2</v>
       </c>
       <c r="G68" s="2">
         <v>3.5620360198411749E-3</v>
@@ -3584,7 +3812,7 @@
         <v>5.8003881188317674E-3</v>
       </c>
       <c r="I68" s="2">
-        <v>-7.660311697473166E-4</v>
+        <v>-6.9821370481442074E-4</v>
       </c>
       <c r="J68" s="2">
         <v>4.4525929806182862E-3</v>
@@ -3596,13 +3824,16 @@
         <v>1.285168845756246E-3</v>
       </c>
       <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2">
         <v>-1.4335126060000741E-2</v>
       </c>
-      <c r="N68" s="2">
+      <c r="O68" s="2">
         <v>1.613708354168901E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>42124</v>
       </c>
@@ -3619,7 +3850,7 @@
         <v>-3.594459020119789E-3</v>
       </c>
       <c r="F69" s="2">
-        <v>-1.261496939862653E-2</v>
+        <v>-1.186852337736588E-2</v>
       </c>
       <c r="G69" s="2">
         <v>6.4021760764281233E-3</v>
@@ -3628,7 +3859,7 @@
         <v>8.0078977891862024E-5</v>
       </c>
       <c r="I69" s="2">
-        <v>8.3813677004296316E-3</v>
+        <v>1.1026988949027429E-2</v>
       </c>
       <c r="J69" s="2">
         <v>1.903359247992009E-3</v>
@@ -3640,13 +3871,16 @@
         <v>1.0512220746141669E-3</v>
       </c>
       <c r="M69" s="2">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2">
         <v>8.611321546692521E-3</v>
       </c>
-      <c r="N69" s="2">
+      <c r="O69" s="2">
         <v>-1.071013773103149E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>42155</v>
       </c>
@@ -3663,7 +3897,7 @@
         <v>-6.9401489098086522E-3</v>
       </c>
       <c r="F70" s="2">
-        <v>-1.236637605328147E-2</v>
+        <v>-1.157236005835505E-2</v>
       </c>
       <c r="G70" s="2">
         <v>-1.0184910511222721E-2</v>
@@ -3672,7 +3906,7 @@
         <v>3.321760345313951E-4</v>
       </c>
       <c r="I70" s="2">
-        <v>1.0016090430947199E-3</v>
+        <v>3.053210907478743E-3</v>
       </c>
       <c r="J70" s="2">
         <v>1.1671573332905361E-3</v>
@@ -3684,13 +3918,16 @@
         <v>-2.0879891912891631E-3</v>
       </c>
       <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
         <v>8.7093924181093317E-3</v>
       </c>
-      <c r="N70" s="2">
+      <c r="O70" s="2">
         <v>-4.5261494478846991E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>42185</v>
       </c>
@@ -3707,7 +3944,7 @@
         <v>3.2602877613319152E-3</v>
       </c>
       <c r="F71" s="2">
-        <v>-2.7008127430063482E-3</v>
+        <v>-3.1505845686286E-3</v>
       </c>
       <c r="G71" s="2">
         <v>-5.0616050616049124E-3</v>
@@ -3716,7 +3953,7 @@
         <v>4.4294191476230704E-3</v>
       </c>
       <c r="I71" s="2">
-        <v>1.920208342308212E-2</v>
+        <v>2.0389295995039629E-2</v>
       </c>
       <c r="J71" s="2">
         <v>-1.9857857854645999E-3</v>
@@ -3728,13 +3965,16 @@
         <v>4.3221639355504049E-3</v>
       </c>
       <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
         <v>-1.745351017563123E-2</v>
       </c>
-      <c r="N71" s="2">
+      <c r="O71" s="2">
         <v>2.077108937225272E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>42216</v>
       </c>
@@ -3751,7 +3991,7 @@
         <v>-8.2141188772648643E-3</v>
       </c>
       <c r="F72" s="2">
-        <v>8.1751613327730194E-3</v>
+        <v>9.4641272149800226E-3</v>
       </c>
       <c r="G72" s="2">
         <v>1.7119619787134392E-2</v>
@@ -3760,7 +4000,7 @@
         <v>-1.1697435629238419E-2</v>
       </c>
       <c r="I72" s="2">
-        <v>6.611956050830114E-3</v>
+        <v>1.132818319352114E-2</v>
       </c>
       <c r="J72" s="2">
         <v>3.0597733066535242E-3</v>
@@ -3772,13 +4012,16 @@
         <v>3.6313099357261351E-3</v>
       </c>
       <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="2">
         <v>2.1755677099195299E-2</v>
       </c>
-      <c r="N72" s="2">
+      <c r="O72" s="2">
         <v>8.7735751994771926E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>42247</v>
       </c>
@@ -3795,7 +4038,7 @@
         <v>2.7582917271506521E-2</v>
       </c>
       <c r="F73" s="2">
-        <v>8.9630846897458677E-4</v>
+        <v>1.858707418264993E-3</v>
       </c>
       <c r="G73" s="2">
         <v>-8.5638131591500022E-3</v>
@@ -3804,7 +4047,7 @@
         <v>-3.1676804991381813E-2</v>
       </c>
       <c r="I73" s="2">
-        <v>-2.8547169737788359E-2</v>
+        <v>-4.0105387423957681E-2</v>
       </c>
       <c r="J73" s="2">
         <v>-5.3514938418147704E-3</v>
@@ -3816,13 +4059,16 @@
         <v>2.2178888764218922E-2</v>
       </c>
       <c r="M73" s="2">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2">
         <v>-4.941815689092912E-2</v>
       </c>
-      <c r="N73" s="2">
+      <c r="O73" s="2">
         <v>1.19058586290851E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>42277</v>
       </c>
@@ -3839,7 +4085,7 @@
         <v>8.9751700024736092E-3</v>
       </c>
       <c r="F74" s="2">
-        <v>1.0307819516600951E-2</v>
+        <v>9.7204038120284331E-3</v>
       </c>
       <c r="G74" s="2">
         <v>4.4475053311983093E-3</v>
@@ -3848,7 +4094,7 @@
         <v>2.0807459275398399E-2</v>
       </c>
       <c r="I74" s="2">
-        <v>1.3941455847165621E-2</v>
+        <v>1.6865357191875319E-2</v>
       </c>
       <c r="J74" s="2">
         <v>4.987058948664469E-3</v>
@@ -3860,13 +4106,16 @@
         <v>2.3327308404694769E-3</v>
       </c>
       <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2">
         <v>-2.2945954234223721E-2</v>
       </c>
-      <c r="N74" s="2">
+      <c r="O74" s="2">
         <v>1.960645648511439E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>42308</v>
       </c>
@@ -3883,7 +4132,7 @@
         <v>-1.1620878268543629E-2</v>
       </c>
       <c r="F75" s="2">
-        <v>6.5325121122991612E-3</v>
+        <v>6.018671018033217E-3</v>
       </c>
       <c r="G75" s="2">
         <v>2.230427994356354E-4</v>
@@ -3892,7 +4141,7 @@
         <v>-1.339833124717993E-2</v>
       </c>
       <c r="I75" s="2">
-        <v>4.7321219236691843E-3</v>
+        <v>8.7306267342492916E-3</v>
       </c>
       <c r="J75" s="2">
         <v>3.628925890854839E-3</v>
@@ -3904,13 +4153,16 @@
         <v>1.2550618568713199E-2</v>
       </c>
       <c r="M75" s="2">
+        <v>0</v>
+      </c>
+      <c r="N75" s="2">
         <v>8.4750623887999144E-2</v>
       </c>
-      <c r="N75" s="2">
+      <c r="O75" s="2">
         <v>4.3235479346771523E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>42338</v>
       </c>
@@ -3927,7 +4179,7 @@
         <v>-1.2346219836638641E-3</v>
       </c>
       <c r="F76" s="2">
-        <v>1.1098452178154561E-2</v>
+        <v>1.1988984783102291E-2</v>
       </c>
       <c r="G76" s="2">
         <v>-1.197555335315625E-3</v>
@@ -3936,7 +4188,7 @@
         <v>5.687789759136308E-3</v>
       </c>
       <c r="I76" s="2">
-        <v>5.6263385851517116E-3</v>
+        <v>8.0826008704089052E-3</v>
       </c>
       <c r="J76" s="2">
         <v>8.5889335294355718E-3</v>
@@ -3948,13 +4200,16 @@
         <v>-3.0937747391801551E-4</v>
       </c>
       <c r="M76" s="2">
+        <v>0</v>
+      </c>
+      <c r="N76" s="2">
         <v>5.2401466181412719E-3</v>
       </c>
-      <c r="N76" s="2">
+      <c r="O76" s="2">
         <v>2.4717813974623119E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>42369</v>
       </c>
@@ -3971,7 +4226,7 @@
         <v>1.619225305116823E-3</v>
       </c>
       <c r="F77" s="2">
-        <v>-7.3457443111841353E-4</v>
+        <v>-1.945035903678782E-4</v>
       </c>
       <c r="G77" s="2">
         <v>-3.8285029147886451E-3</v>
@@ -3980,7 +4235,7 @@
         <v>2.2468330445035711E-3</v>
       </c>
       <c r="I77" s="2">
-        <v>3.7605389643311391E-3</v>
+        <v>3.857757791424111E-3</v>
       </c>
       <c r="J77" s="2">
         <v>6.4151612938998506E-3</v>
@@ -3992,13 +4247,16 @@
         <v>4.1433807243522747E-3</v>
       </c>
       <c r="M77" s="2">
+        <v>0</v>
+      </c>
+      <c r="N77" s="2">
         <v>-1.7005969391284591E-2</v>
       </c>
-      <c r="N77" s="2">
+      <c r="O77" s="2">
         <v>-1.345946963290169E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>42400</v>
       </c>
@@ -4015,7 +4273,7 @@
         <v>1.6009446330660589E-2</v>
       </c>
       <c r="F78" s="2">
-        <v>1.2155568189386611E-2</v>
+        <v>8.7711996378536661E-3</v>
       </c>
       <c r="G78" s="2">
         <v>1.6518361112955789E-2</v>
@@ -4024,7 +4282,7 @@
         <v>1.9057189513162379E-2</v>
       </c>
       <c r="I78" s="2">
-        <v>-1.016012191042393E-3</v>
+        <v>-8.3605850603867286E-4</v>
       </c>
       <c r="J78" s="2">
         <v>9.5232323582128409E-4</v>
@@ -4036,13 +4294,16 @@
         <v>2.522836692265229E-2</v>
       </c>
       <c r="M78" s="2">
+        <v>0</v>
+      </c>
+      <c r="N78" s="2">
         <v>-4.2444888142346843E-2</v>
       </c>
-      <c r="N78" s="2">
+      <c r="O78" s="2">
         <v>7.8304803154294229E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>42429</v>
       </c>
@@ -4059,7 +4320,7 @@
         <v>1.2604063317289691E-3</v>
       </c>
       <c r="F79" s="2">
-        <v>1.6652908392277139E-2</v>
+        <v>1.4447981056205711E-2</v>
       </c>
       <c r="G79" s="2">
         <v>4.0665675883131414E-3</v>
@@ -4068,7 +4329,7 @@
         <v>-5.709732518621502E-3</v>
       </c>
       <c r="I79" s="2">
-        <v>-7.8570650260103572E-4</v>
+        <v>1.889359725709783E-3</v>
       </c>
       <c r="J79" s="2">
         <v>7.8999077675743212E-3</v>
@@ -4080,13 +4341,16 @@
         <v>8.6712990163233528E-3</v>
       </c>
       <c r="M79" s="2">
+        <v>0</v>
+      </c>
+      <c r="N79" s="2">
         <v>1.841803560878911E-3</v>
       </c>
-      <c r="N79" s="2">
+      <c r="O79" s="2">
         <v>3.4803568848506832E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>42460</v>
       </c>
@@ -4103,7 +4367,7 @@
         <v>-1.7027623655468279E-2</v>
       </c>
       <c r="F80" s="2">
-        <v>6.303384703271605E-4</v>
+        <v>1.1287383173297361E-3</v>
       </c>
       <c r="G80" s="2">
         <v>-1.7891997397478929E-4</v>
@@ -4112,7 +4376,7 @@
         <v>-6.0549786750646586E-3</v>
       </c>
       <c r="I80" s="2">
-        <v>1.457240383036278E-2</v>
+        <v>1.875935100364445E-2</v>
       </c>
       <c r="J80" s="2">
         <v>6.0374432258778477E-3</v>
@@ -4124,13 +4388,16 @@
         <v>-9.3077407993499284E-3</v>
       </c>
       <c r="M80" s="2">
+        <v>0</v>
+      </c>
+      <c r="N80" s="2">
         <v>6.6021384093726279E-2</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>-1.981555469050213E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>42490</v>
       </c>
@@ -4147,7 +4414,7 @@
         <v>-8.4716390568173594E-4</v>
       </c>
       <c r="F81" s="2">
-        <v>-8.8581184459984308E-3</v>
+        <v>-8.256518075511754E-3</v>
       </c>
       <c r="G81" s="2">
         <v>3.4163562120743669E-3</v>
@@ -4156,7 +4423,7 @@
         <v>5.3893244412768224E-3</v>
       </c>
       <c r="I81" s="2">
-        <v>2.6751539797304049E-3</v>
+        <v>4.061284687201518E-3</v>
       </c>
       <c r="J81" s="2">
         <v>1.7835361007079159E-4</v>
@@ -4168,13 +4435,16 @@
         <v>5.7238842426898806E-4</v>
       </c>
       <c r="M81" s="2">
+        <v>0</v>
+      </c>
+      <c r="N81" s="2">
         <v>3.7318132739948052E-3</v>
       </c>
-      <c r="N81" s="2">
+      <c r="O81" s="2">
         <v>-1.5805805226245181E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>42521</v>
       </c>
@@ -4191,7 +4461,7 @@
         <v>-6.6774401406676231E-3</v>
       </c>
       <c r="F82" s="2">
-        <v>3.901619974399168E-3</v>
+        <v>3.639767916467473E-3</v>
       </c>
       <c r="G82" s="2">
         <v>-2.237390359765334E-3</v>
@@ -4200,7 +4470,7 @@
         <v>8.7979750732478657E-3</v>
       </c>
       <c r="I82" s="2">
-        <v>1.540839450619314E-3</v>
+        <v>4.9515506260321626E-3</v>
       </c>
       <c r="J82" s="2">
         <v>1.693281842265915E-3</v>
@@ -4212,13 +4482,16 @@
         <v>-1.354875784414733E-3</v>
       </c>
       <c r="M82" s="2">
+        <v>0</v>
+      </c>
+      <c r="N82" s="2">
         <v>1.6349441304654381E-2</v>
       </c>
-      <c r="N82" s="2">
+      <c r="O82" s="2">
         <v>-1.7544598245573799E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>42551</v>
       </c>
@@ -4235,7 +4508,7 @@
         <v>4.3875512962832097E-3</v>
       </c>
       <c r="F83" s="2">
-        <v>1.6446405156246291E-2</v>
+        <v>1.374317037624029E-2</v>
       </c>
       <c r="G83" s="2">
         <v>-4.5741863148146544E-3</v>
@@ -4244,7 +4517,7 @@
         <v>2.396774017463521E-4</v>
       </c>
       <c r="I83" s="2">
-        <v>1.709579980714385E-2</v>
+        <v>1.6493850065314741E-2</v>
       </c>
       <c r="J83" s="2">
         <v>1.5952172893380909E-3</v>
@@ -4256,13 +4529,16 @@
         <v>6.7049608035962827E-4</v>
       </c>
       <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="N83" s="2">
         <v>5.7496970376216937E-3</v>
       </c>
-      <c r="N83" s="2">
+      <c r="O83" s="2">
         <v>3.4449297263172401E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>42582</v>
       </c>
@@ -4279,7 +4555,7 @@
         <v>-4.6018784905876853E-3</v>
       </c>
       <c r="F84" s="2">
-        <v>-1.100993188117807E-2</v>
+        <v>-1.2380674060931679E-2</v>
       </c>
       <c r="G84" s="2">
         <v>-7.7702233939225263E-3</v>
@@ -4288,7 +4564,7 @@
         <v>4.6794894714619062E-4</v>
       </c>
       <c r="I84" s="2">
-        <v>7.493221968924677E-3</v>
+        <v>1.065631962417213E-2</v>
       </c>
       <c r="J84" s="2">
         <v>7.9247446771679719E-3</v>
@@ -4300,13 +4576,16 @@
         <v>-1.643266377718944E-3</v>
       </c>
       <c r="M84" s="2">
+        <v>0</v>
+      </c>
+      <c r="N84" s="2">
         <v>3.5081718531520201E-2</v>
       </c>
-      <c r="N84" s="2">
+      <c r="O84" s="2">
         <v>-1.9488973349398829E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>42613</v>
       </c>
@@ -4323,7 +4602,7 @@
         <v>-1.727641262115998E-3</v>
       </c>
       <c r="F85" s="2">
-        <v>1.361405496973356E-2</v>
+        <v>1.306721314929549E-2</v>
       </c>
       <c r="G85" s="2">
         <v>2.0811568929066659E-3</v>
@@ -4332,7 +4611,7 @@
         <v>1.5674600313264619E-5</v>
       </c>
       <c r="I85" s="2">
-        <v>1.018050780520412E-2</v>
+        <v>1.4064682989421651E-2</v>
       </c>
       <c r="J85" s="2">
         <v>3.482319675719658E-3</v>
@@ -4344,13 +4623,16 @@
         <v>-2.878816299710985E-3</v>
       </c>
       <c r="M85" s="2">
+        <v>0</v>
+      </c>
+      <c r="N85" s="2">
         <v>3.336156492522641E-3</v>
       </c>
-      <c r="N85" s="2">
+      <c r="O85" s="2">
         <v>2.1073425784191449E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>42643</v>
       </c>
@@ -4367,7 +4649,7 @@
         <v>-2.824646714681522E-3</v>
       </c>
       <c r="F86" s="2">
-        <v>-5.6154912430845744E-3</v>
+        <v>-4.7709863263677432E-3</v>
       </c>
       <c r="G86" s="2">
         <v>4.9252996223714263E-5</v>
@@ -4376,7 +4658,7 @@
         <v>1.557027690941859E-2</v>
       </c>
       <c r="I86" s="2">
-        <v>3.3264412176906548E-4</v>
+        <v>2.2086113169861549E-5</v>
       </c>
       <c r="J86" s="2">
         <v>6.3032673846024068E-3</v>
@@ -4388,13 +4670,16 @@
         <v>1.7463275980722499E-3</v>
       </c>
       <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2">
         <v>-7.7309885610243889E-4</v>
       </c>
-      <c r="N86" s="2">
+      <c r="O86" s="2">
         <v>-1.0494320035967879E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>42674</v>
       </c>
@@ -4411,7 +4696,7 @@
         <v>2.536254100595325E-3</v>
       </c>
       <c r="F87" s="2">
-        <v>-1.3881194803242881E-3</v>
+        <v>-1.8172319015019589E-5</v>
       </c>
       <c r="G87" s="2">
         <v>-5.9921527424358079E-3</v>
@@ -4420,7 +4705,7 @@
         <v>3.1794127161699492E-4</v>
       </c>
       <c r="I87" s="2">
-        <v>1.181811401525064E-2</v>
+        <v>1.397792199777528E-2</v>
       </c>
       <c r="J87" s="2">
         <v>2.9322106605826899E-3</v>
@@ -4432,13 +4717,16 @@
         <v>3.9955432157945392E-3</v>
       </c>
       <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2">
         <v>-1.791765434162601E-2</v>
       </c>
-      <c r="N87" s="2">
+      <c r="O87" s="2">
         <v>3.5285096344846813E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>42704</v>
       </c>
@@ -4455,7 +4743,7 @@
         <v>-3.9605308902808112E-3</v>
       </c>
       <c r="F88" s="2">
-        <v>-2.318631082750312E-2</v>
+        <v>-2.3082899082735531E-2</v>
       </c>
       <c r="G88" s="2">
         <v>2.8109929312281508E-2</v>
@@ -4464,7 +4752,7 @@
         <v>-6.7814141853015384E-3</v>
       </c>
       <c r="I88" s="2">
-        <v>1.5841909601487261E-2</v>
+        <v>2.07036256249979E-2</v>
       </c>
       <c r="J88" s="2">
         <v>6.2530423019069303E-4</v>
@@ -4476,13 +4764,16 @@
         <v>4.2172361331060948E-4</v>
       </c>
       <c r="M88" s="2">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2">
         <v>3.8267616082394512E-2</v>
       </c>
-      <c r="N88" s="2">
+      <c r="O88" s="2">
         <v>1.344569306114039E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>42735</v>
       </c>
@@ -4499,7 +4790,7 @@
         <v>-3.3734310133509689E-3</v>
       </c>
       <c r="F89" s="2">
-        <v>5.8505323958803618E-3</v>
+        <v>4.6151656837039026E-3</v>
       </c>
       <c r="G89" s="2">
         <v>-3.084337349398059E-3</v>
@@ -4508,7 +4799,7 @@
         <v>-5.4805654303080598E-4</v>
       </c>
       <c r="I89" s="2">
-        <v>5.6986444530973566E-3</v>
+        <v>8.7115114480705632E-3</v>
       </c>
       <c r="J89" s="2">
         <v>2.5405077838041019E-3</v>
@@ -4520,13 +4811,16 @@
         <v>-4.1669823997275701E-3</v>
       </c>
       <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
         <v>2.028488822521203E-2</v>
       </c>
-      <c r="N89" s="2">
+      <c r="O89" s="2">
         <v>5.6563940698252315E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>42766</v>
       </c>
@@ -4543,7 +4837,7 @@
         <v>-5.8003681028371279E-3</v>
       </c>
       <c r="F90" s="2">
-        <v>-3.566904977403904E-3</v>
+        <v>-4.0199497645154736E-3</v>
       </c>
       <c r="G90" s="2">
         <v>-1.0224306294112639E-2</v>
@@ -4552,7 +4846,7 @@
         <v>-2.453307270829264E-3</v>
       </c>
       <c r="I90" s="2">
-        <v>4.5821002135177924E-3</v>
+        <v>9.0280062558823586E-3</v>
       </c>
       <c r="J90" s="2">
         <v>4.4380182939023349E-3</v>
@@ -4564,13 +4858,16 @@
         <v>-6.8676829784952709E-4</v>
       </c>
       <c r="M90" s="2">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2">
         <v>1.6274738186398661E-2</v>
       </c>
-      <c r="N90" s="2">
+      <c r="O90" s="2">
         <v>-2.9358339679982398E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>42794</v>
       </c>
@@ -4587,7 +4884,7 @@
         <v>-6.4964672691250058E-3</v>
       </c>
       <c r="F91" s="2">
-        <v>8.5643769351435601E-3</v>
+        <v>8.8448192040873064E-3</v>
       </c>
       <c r="G91" s="2">
         <v>8.6530399602751107E-3</v>
@@ -4596,7 +4893,7 @@
         <v>-5.0377221493367319E-3</v>
       </c>
       <c r="I91" s="2">
-        <v>7.0743753119562056E-3</v>
+        <v>1.004939921925743E-2</v>
       </c>
       <c r="J91" s="2">
         <v>3.357570348198502E-3</v>
@@ -4608,13 +4905,16 @@
         <v>3.2091259507072151E-4</v>
       </c>
       <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2">
         <v>4.1736557935044327E-2</v>
       </c>
-      <c r="N91" s="2">
+      <c r="O91" s="2">
         <v>2.214933976101085E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>42825</v>
       </c>
@@ -4631,7 +4931,7 @@
         <v>-3.7572832328532919E-3</v>
       </c>
       <c r="F92" s="2">
-        <v>-7.0056887609106994E-3</v>
+        <v>-6.6489386207876366E-3</v>
       </c>
       <c r="G92" s="2">
         <v>-9.1356629811963908E-3</v>
@@ -4640,7 +4940,7 @@
         <v>3.6932821853004061E-3</v>
       </c>
       <c r="I92" s="2">
-        <v>4.5546557439132716E-3</v>
+        <v>7.7507858648960589E-3</v>
       </c>
       <c r="J92" s="2">
         <v>8.0344981733304621E-4</v>
@@ -4652,13 +4952,16 @@
         <v>-2.7051942636254771E-3</v>
       </c>
       <c r="M92" s="2">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2">
         <v>-1.6768313666456821E-3</v>
       </c>
-      <c r="N92" s="2">
+      <c r="O92" s="2">
         <v>-3.101305029672844E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>42855</v>
       </c>
@@ -4675,7 +4978,7 @@
         <v>-5.2685309406315106E-3</v>
       </c>
       <c r="F93" s="2">
-        <v>-4.2736806724644263E-3</v>
+        <v>-3.2715871882160741E-3</v>
       </c>
       <c r="G93" s="2">
         <v>-1.1671472087833481E-2</v>
@@ -4684,7 +4987,7 @@
         <v>1.193902795217916E-3</v>
       </c>
       <c r="I93" s="2">
-        <v>9.1970001713444615E-3</v>
+        <v>1.2862511219083239E-2</v>
       </c>
       <c r="J93" s="2">
         <v>3.81350986559581E-3</v>
@@ -4696,13 +4999,16 @@
         <v>-8.968618625557756E-4</v>
       </c>
       <c r="M93" s="2">
+        <v>0</v>
+      </c>
+      <c r="N93" s="2">
         <v>8.3931519664561024E-3</v>
       </c>
-      <c r="N93" s="2">
+      <c r="O93" s="2">
         <v>-2.046971243436428E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>42886</v>
       </c>
@@ -4719,7 +5025,7 @@
         <v>-5.5507216360122236E-3</v>
       </c>
       <c r="F94" s="2">
-        <v>6.086883619807735E-3</v>
+        <v>5.8713332086293146E-3</v>
       </c>
       <c r="G94" s="2">
         <v>-2.3404342988999631E-3</v>
@@ -4728,7 +5034,7 @@
         <v>-5.2629905729946191E-3</v>
       </c>
       <c r="I94" s="2">
-        <v>8.7421918242865937E-3</v>
+        <v>1.1042330681441309E-2</v>
       </c>
       <c r="J94" s="2">
         <v>-2.8382728573014271E-3</v>
@@ -4740,13 +5046,16 @@
         <v>-2.7736168413128309E-4</v>
       </c>
       <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
         <v>1.439925352227792E-2</v>
       </c>
-      <c r="N94" s="2">
+      <c r="O94" s="2">
         <v>3.5612360737241909E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>42916</v>
       </c>
@@ -4763,7 +5072,7 @@
         <v>-3.1583536629994362E-3</v>
       </c>
       <c r="F95" s="2">
-        <v>4.9867254752980006E-3</v>
+        <v>5.9712153005220259E-3</v>
       </c>
       <c r="G95" s="2">
         <v>7.7151188243946836E-3</v>
@@ -4772,7 +5081,7 @@
         <v>6.3730669303629917E-4</v>
       </c>
       <c r="I95" s="2">
-        <v>-1.197183756463915E-3</v>
+        <v>9.0498400028434791E-4</v>
       </c>
       <c r="J95" s="2">
         <v>2.6781716675896572E-3</v>
@@ -4784,13 +5093,16 @@
         <v>-1.0566353154870529E-3</v>
       </c>
       <c r="M95" s="2">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2">
         <v>6.7257686777593808E-3</v>
       </c>
-      <c r="N95" s="2">
+      <c r="O95" s="2">
         <v>5.2815960503337924E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>42947</v>
       </c>
@@ -4807,7 +5119,7 @@
         <v>-5.6380667253896899E-3</v>
       </c>
       <c r="F96" s="2">
-        <v>7.0621187590470141E-4</v>
+        <v>1.3933520094617791E-3</v>
       </c>
       <c r="G96" s="2">
         <v>-8.7544571498833212E-3</v>
@@ -4816,7 +5128,7 @@
         <v>-5.6550778277730807E-4</v>
       </c>
       <c r="I96" s="2">
-        <v>3.462301040589377E-3</v>
+        <v>6.3463410460338661E-3</v>
       </c>
       <c r="J96" s="2">
         <v>1.32619073887974E-3</v>
@@ -4828,13 +5140,16 @@
         <v>-4.029797847389105E-4</v>
       </c>
       <c r="M96" s="2">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2">
         <v>1.8701911052862199E-2</v>
       </c>
-      <c r="N96" s="2">
+      <c r="O96" s="2">
         <v>-2.0296300158713101E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>42978</v>
       </c>
@@ -4851,7 +5166,7 @@
         <v>-3.263594259630298E-3</v>
       </c>
       <c r="F97" s="2">
-        <v>4.7963093445446692E-3</v>
+        <v>3.9115704050527436E-3</v>
       </c>
       <c r="G97" s="2">
         <v>-8.1040627816784117E-3</v>
@@ -4860,7 +5175,7 @@
         <v>2.678752697550912E-3</v>
       </c>
       <c r="I97" s="2">
-        <v>1.3932807960472581E-3</v>
+        <v>3.2943166290174911E-3</v>
       </c>
       <c r="J97" s="2">
         <v>5.5426718730806623E-3</v>
@@ -4872,13 +5187,16 @@
         <v>3.0489911990778662E-3</v>
       </c>
       <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
         <v>3.53318091262578E-3</v>
       </c>
-      <c r="N97" s="2">
+      <c r="O97" s="2">
         <v>5.1476303293735803E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>43008</v>
       </c>
@@ -4895,7 +5213,7 @@
         <v>-6.5237022240289821E-3</v>
       </c>
       <c r="F98" s="2">
-        <v>-1.0416335176329091E-2</v>
+        <v>-9.3597906832070255E-3</v>
       </c>
       <c r="G98" s="2">
         <v>3.076358725103701E-3</v>
@@ -4904,7 +5222,7 @@
         <v>-3.0553061024254369E-3</v>
       </c>
       <c r="I98" s="2">
-        <v>3.515512070982552E-3</v>
+        <v>6.6960519766157793E-3</v>
       </c>
       <c r="J98" s="2">
         <v>2.958553596019708E-3</v>
@@ -4916,13 +5234,16 @@
         <v>-1.3530079045127601E-3</v>
       </c>
       <c r="M98" s="2">
+        <v>0</v>
+      </c>
+      <c r="N98" s="2">
         <v>1.932458722637297E-2</v>
       </c>
-      <c r="N98" s="2">
+      <c r="O98" s="2">
         <v>-1.421604856261771E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>43039</v>
       </c>
@@ -4939,7 +5260,7 @@
         <v>-3.9941496973719959E-3</v>
       </c>
       <c r="F99" s="2">
-        <v>2.188639760419428E-3</v>
+        <v>3.0798384631651739E-3</v>
       </c>
       <c r="G99" s="2">
         <v>7.5551048904554108E-3</v>
@@ -4948,7 +5269,7 @@
         <v>-2.09994746997122E-4</v>
       </c>
       <c r="I99" s="2">
-        <v>5.4642170802854158E-3</v>
+        <v>8.9092931734877211E-3</v>
       </c>
       <c r="J99" s="2">
         <v>1.183326246663396E-3</v>
@@ -4960,13 +5281,16 @@
         <v>-3.2199119824742879E-3</v>
       </c>
       <c r="M99" s="2">
+        <v>0</v>
+      </c>
+      <c r="N99" s="2">
         <v>2.4295804026779829E-2</v>
       </c>
-      <c r="N99" s="2">
+      <c r="O99" s="2">
         <v>1.047438280354004E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>43069</v>
       </c>
@@ -4983,7 +5307,7 @@
         <v>-4.7461583657780748E-3</v>
       </c>
       <c r="F100" s="2">
-        <v>-8.8752725978632555E-3</v>
+        <v>-7.8623879563682886E-3</v>
       </c>
       <c r="G100" s="2">
         <v>-1.51783872963529E-3</v>
@@ -4992,7 +5316,7 @@
         <v>1.5517795933772669E-3</v>
       </c>
       <c r="I100" s="2">
-        <v>-2.466848165096857E-3</v>
+        <v>-2.7098155215770118E-4</v>
       </c>
       <c r="J100" s="2">
         <v>3.4255993877274631E-3</v>
@@ -5004,13 +5328,16 @@
         <v>-7.3470320736124251E-5</v>
       </c>
       <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="N100" s="2">
         <v>2.9709960457338171E-2</v>
       </c>
-      <c r="N100" s="2">
+      <c r="O100" s="2">
         <v>-1.0468406931038439E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>43100</v>
       </c>
@@ -5027,7 +5354,7 @@
         <v>-2.7080835801243102E-3</v>
       </c>
       <c r="F101" s="2">
-        <v>-2.166444767990915E-2</v>
+        <v>-2.164165531474227E-2</v>
       </c>
       <c r="G101" s="2">
         <v>-6.7415173371004888E-3</v>
@@ -5036,7 +5363,7 @@
         <v>-2.453960078076189E-3</v>
       </c>
       <c r="I101" s="2">
-        <v>5.7396833021414956E-3</v>
+        <v>8.7248159521238679E-3</v>
       </c>
       <c r="J101" s="2">
         <v>9.3173292772097405E-4</v>
@@ -5048,13 +5375,16 @@
         <v>-1.8633508963872281E-4</v>
       </c>
       <c r="M101" s="2">
+        <v>0</v>
+      </c>
+      <c r="N101" s="2">
         <v>7.968971231722936E-3</v>
       </c>
-      <c r="N101" s="2">
+      <c r="O101" s="2">
         <v>-3.4354521743243781E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>43131</v>
       </c>
@@ -5071,7 +5401,7 @@
         <v>-3.5923528639902891E-3</v>
       </c>
       <c r="F102" s="2">
-        <v>1.201311961232141E-2</v>
+        <v>9.8470865636874905E-3</v>
       </c>
       <c r="G102" s="2">
         <v>6.3154575171553429E-3</v>
@@ -5080,7 +5410,7 @@
         <v>1.592596915716249E-2</v>
       </c>
       <c r="I102" s="2">
-        <v>-4.2338727731142563E-3</v>
+        <v>-3.8857754489215802E-3</v>
       </c>
       <c r="J102" s="2">
         <v>4.1331020362318496E-3</v>
@@ -5092,13 +5422,16 @@
         <v>1.071077942931042E-3</v>
       </c>
       <c r="M102" s="2">
+        <v>0</v>
+      </c>
+      <c r="N102" s="2">
         <v>6.0507261551447512E-2</v>
       </c>
-      <c r="N102" s="2">
+      <c r="O102" s="2">
         <v>3.548444976321881E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>43159</v>
       </c>
@@ -5115,7 +5448,7 @@
         <v>7.8573542573217026E-3</v>
       </c>
       <c r="F103" s="2">
-        <v>4.6230268286444193E-3</v>
+        <v>2.7594523924021619E-3</v>
       </c>
       <c r="G103" s="2">
         <v>-7.1452639089845116E-3</v>
@@ -5124,7 +5457,7 @@
         <v>0.1052458619437191</v>
       </c>
       <c r="I103" s="2">
-        <v>-2.654289277610656E-3</v>
+        <v>-1.397940822041412E-2</v>
       </c>
       <c r="J103" s="2">
         <v>-6.0681253075345332E-5</v>
@@ -5136,13 +5469,16 @@
         <v>1.8125160661851769E-2</v>
       </c>
       <c r="M103" s="2">
+        <v>0</v>
+      </c>
+      <c r="N103" s="2">
         <v>-3.3183226860354402E-2</v>
       </c>
-      <c r="N103" s="2">
+      <c r="O103" s="2">
         <v>4.0070223604581796E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>43190</v>
       </c>
@@ -5159,7 +5495,7 @@
         <v>7.6067071555354637E-3</v>
       </c>
       <c r="F104" s="2">
-        <v>5.2658288035032719E-3</v>
+        <v>6.2633354626362436E-3</v>
       </c>
       <c r="G104" s="2">
         <v>1.690871887009027E-2</v>
@@ -5168,7 +5504,7 @@
         <v>-6.4881716199358666E-3</v>
       </c>
       <c r="I104" s="2">
-        <v>-1.194371544304251E-3</v>
+        <v>-1.1519421605126531E-3</v>
       </c>
       <c r="J104" s="2">
         <v>3.315005995379261E-3</v>
@@ -5180,13 +5516,16 @@
         <v>1.1327574251838171E-3</v>
       </c>
       <c r="M104" s="2">
+        <v>0</v>
+      </c>
+      <c r="N104" s="2">
         <v>-2.2958287278652231E-2</v>
       </c>
-      <c r="N104" s="2">
+      <c r="O104" s="2">
         <v>2.677681709028846E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>43220</v>
       </c>
@@ -5203,7 +5542,7 @@
         <v>8.2780977959329149E-5</v>
       </c>
       <c r="F105" s="2">
-        <v>1.0796243955689819E-2</v>
+        <v>9.6227505726829143E-3</v>
       </c>
       <c r="G105" s="2">
         <v>1.668646139048047E-4</v>
@@ -5212,7 +5551,7 @@
         <v>6.5035409167286673E-3</v>
       </c>
       <c r="I105" s="2">
-        <v>4.317617068899215E-4</v>
+        <v>2.9961549111332969E-3</v>
       </c>
       <c r="J105" s="2">
         <v>-5.1156710055133559E-4</v>
@@ -5224,13 +5563,16 @@
         <v>1.8907031869731309E-2</v>
       </c>
       <c r="M105" s="2">
+        <v>0</v>
+      </c>
+      <c r="N105" s="2">
         <v>3.4884239488274559E-3</v>
       </c>
-      <c r="N105" s="2">
+      <c r="O105" s="2">
         <v>-3.8029029718269532E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>43251</v>
       </c>
@@ -5247,7 +5589,7 @@
         <v>-7.50059061603503E-3</v>
       </c>
       <c r="F106" s="2">
-        <v>4.3868488581252163E-3</v>
+        <v>5.3094636418367092E-3</v>
       </c>
       <c r="G106" s="2">
         <v>-1.9529716573761791E-3</v>
@@ -5256,7 +5598,7 @@
         <v>6.5319403892669659E-3</v>
       </c>
       <c r="I106" s="2">
-        <v>-1.3508703594942611E-3</v>
+        <v>9.0691019800633889E-4</v>
       </c>
       <c r="J106" s="2">
         <v>3.3159515643592652E-3</v>
@@ -5268,13 +5610,16 @@
         <v>-4.7946825072610064E-3</v>
       </c>
       <c r="M106" s="2">
+        <v>0</v>
+      </c>
+      <c r="N106" s="2">
         <v>2.2817081495329579E-2</v>
       </c>
-      <c r="N106" s="2">
+      <c r="O106" s="2">
         <v>-1.3794762173704139E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>43281</v>
       </c>
@@ -5291,7 +5636,7 @@
         <v>-1.610324714430456E-3</v>
       </c>
       <c r="F107" s="2">
-        <v>8.5494559232033047E-3</v>
+        <v>8.554454864429184E-3</v>
       </c>
       <c r="G107" s="2">
         <v>5.6737170221343716E-3</v>
@@ -5300,7 +5645,7 @@
         <v>5.1407772246578887E-3</v>
       </c>
       <c r="I107" s="2">
-        <v>7.1316917299836906E-3</v>
+        <v>9.6949180898210571E-3</v>
       </c>
       <c r="J107" s="2">
         <v>-4.8179638107703759E-4</v>
@@ -5312,13 +5657,16 @@
         <v>-4.8613379089595954E-3</v>
       </c>
       <c r="M107" s="2">
+        <v>0</v>
+      </c>
+      <c r="N107" s="2">
         <v>7.1071499741509284E-3</v>
       </c>
-      <c r="N107" s="2">
+      <c r="O107" s="2">
         <v>1.0384896612068921E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>43312</v>
       </c>
@@ -5335,7 +5683,7 @@
         <v>-9.1898590413961312E-3</v>
       </c>
       <c r="F108" s="2">
-        <v>-3.0881996885740592E-4</v>
+        <v>-3.5644335005813321E-4</v>
       </c>
       <c r="G108" s="2">
         <v>6.2870328724797808E-3</v>
@@ -5344,7 +5692,7 @@
         <v>-4.2720145755635866E-3</v>
       </c>
       <c r="I108" s="2">
-        <v>2.2879875734213911E-3</v>
+        <v>5.8611797184988214E-3</v>
       </c>
       <c r="J108" s="2">
         <v>1.5776804026648159E-3</v>
@@ -5356,13 +5704,16 @@
         <v>-1.341534694918489E-3</v>
       </c>
       <c r="M108" s="2">
+        <v>0</v>
+      </c>
+      <c r="N108" s="2">
         <v>3.5985503977889778E-2</v>
       </c>
-      <c r="N108" s="2">
+      <c r="O108" s="2">
         <v>-1.3395414791951611E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>43343</v>
       </c>
@@ -5379,7 +5730,7 @@
         <v>-5.3345047792155986E-3</v>
       </c>
       <c r="F109" s="2">
-        <v>7.1559008095571086E-3</v>
+        <v>7.5571103967573272E-3</v>
       </c>
       <c r="G109" s="2">
         <v>-5.7716412254535943E-3</v>
@@ -5388,7 +5739,7 @@
         <v>1.458594556207782E-3</v>
       </c>
       <c r="I109" s="2">
-        <v>1.919811401395588E-3</v>
+        <v>3.9698866972891489E-3</v>
       </c>
       <c r="J109" s="2">
         <v>3.9902526627693113E-3</v>
@@ -5400,13 +5751,16 @@
         <v>-1.0777581898067099E-3</v>
       </c>
       <c r="M109" s="2">
+        <v>0</v>
+      </c>
+      <c r="N109" s="2">
         <v>3.2548198150154729E-2</v>
       </c>
-      <c r="N109" s="2">
+      <c r="O109" s="2">
         <v>-4.0470685861897648E-5</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>43373</v>
       </c>
@@ -5423,7 +5777,7 @@
         <v>-2.78941941902211E-3</v>
       </c>
       <c r="F110" s="2">
-        <v>-4.9424099759921439E-3</v>
+        <v>-5.5215000857655738E-3</v>
       </c>
       <c r="G110" s="2">
         <v>4.5542057992826726E-3</v>
@@ -5432,7 +5786,7 @@
         <v>-3.3301035041154452E-3</v>
       </c>
       <c r="I110" s="2">
-        <v>1.1780380331690619E-2</v>
+        <v>1.587530362009526E-2</v>
       </c>
       <c r="J110" s="2">
         <v>1.293467447133434E-3</v>
@@ -5444,13 +5798,16 @@
         <v>-1.101048557416662E-3</v>
       </c>
       <c r="M110" s="2">
+        <v>0</v>
+      </c>
+      <c r="N110" s="2">
         <v>5.7961398637759697E-3</v>
       </c>
-      <c r="N110" s="2">
+      <c r="O110" s="2">
         <v>1.137244493202688E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>43404</v>
       </c>
@@ -5467,7 +5824,7 @@
         <v>2.1806781230029101E-2</v>
       </c>
       <c r="F111" s="2">
-        <v>7.6703365322091533E-3</v>
+        <v>5.542170424690962E-3</v>
       </c>
       <c r="G111" s="2">
         <v>2.4010351302181879E-2</v>
@@ -5476,7 +5833,7 @@
         <v>-1.8661640276636641E-2</v>
       </c>
       <c r="I111" s="2">
-        <v>2.7428663889505259E-3</v>
+        <v>-7.0648337736736082E-3</v>
       </c>
       <c r="J111" s="2">
         <v>-1.2874640856729289E-3</v>
@@ -5488,13 +5845,16 @@
         <v>1.8530494144093359E-3</v>
       </c>
       <c r="M111" s="2">
+        <v>0</v>
+      </c>
+      <c r="N111" s="2">
         <v>-6.1836789580653681E-2</v>
       </c>
-      <c r="N111" s="2">
+      <c r="O111" s="2">
         <v>7.1041702097776622E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>43434</v>
       </c>
@@ -5511,7 +5871,7 @@
         <v>-6.3889281367557338E-4</v>
       </c>
       <c r="F112" s="2">
-        <v>1.1429247503672009E-4</v>
+        <v>1.0147527352730721E-3</v>
       </c>
       <c r="G112" s="2">
         <v>3.9522312055255693E-3</v>
@@ -5520,7 +5880,7 @@
         <v>-1.011065073507544E-2</v>
       </c>
       <c r="I112" s="2">
-        <v>6.6789812456414799E-3</v>
+        <v>5.9321524324185814E-3</v>
       </c>
       <c r="J112" s="2">
         <v>-6.4629711302788273E-3</v>
@@ -5532,13 +5892,16 @@
         <v>2.0530300349203889E-2</v>
       </c>
       <c r="M112" s="2">
+        <v>0</v>
+      </c>
+      <c r="N112" s="2">
         <v>2.2058995353459E-2</v>
       </c>
-      <c r="N112" s="2">
+      <c r="O112" s="2">
         <v>1.832951868828791E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>43465</v>
       </c>
@@ -5555,7 +5918,7 @@
         <v>1.6592571287071589E-2</v>
       </c>
       <c r="F113" s="2">
-        <v>-1.157830042155852E-2</v>
+        <v>-9.9595682834241472E-3</v>
       </c>
       <c r="G113" s="2">
         <v>-8.1856292525054331E-3</v>
@@ -5564,7 +5927,7 @@
         <v>1.722919521748079E-3</v>
       </c>
       <c r="I113" s="2">
-        <v>-5.9638096672464773E-3</v>
+        <v>-1.209660684412921E-2</v>
       </c>
       <c r="J113" s="2">
         <v>7.9029465765176887E-3</v>
@@ -5576,13 +5939,16 @@
         <v>-4.8772948258824063E-2</v>
       </c>
       <c r="M113" s="2">
+        <v>0</v>
+      </c>
+      <c r="N113" s="2">
         <v>-9.2588369398232867E-2</v>
       </c>
-      <c r="N113" s="2">
+      <c r="O113" s="2">
         <v>-2.5058478354934902E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>43496</v>
       </c>
@@ -5599,7 +5965,7 @@
         <v>-2.2830514056816579E-2</v>
       </c>
       <c r="F114" s="2">
-        <v>1.168979585277574E-2</v>
+        <v>1.1612950243226949E-2</v>
       </c>
       <c r="G114" s="2">
         <v>-5.0187008625295348E-3</v>
@@ -5608,7 +5974,7 @@
         <v>1.5279105874127291E-2</v>
       </c>
       <c r="I114" s="2">
-        <v>-1.864903598181067E-3</v>
+        <v>2.9823191097782639E-3</v>
       </c>
       <c r="J114" s="2">
         <v>2.1927307042226558E-3</v>
@@ -5620,13 +5986,16 @@
         <v>3.8372026367107681E-2</v>
       </c>
       <c r="M114" s="2">
+        <v>0</v>
+      </c>
+      <c r="N114" s="2">
         <v>8.083196159060671E-2</v>
       </c>
-      <c r="N114" s="2">
+      <c r="O114" s="2">
         <v>7.5913226959421374E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>43524</v>
       </c>
@@ -5643,7 +6012,7 @@
         <v>-6.444682232947474E-3</v>
       </c>
       <c r="F115" s="2">
-        <v>-2.8833276822704662E-4</v>
+        <v>9.1851510326979025E-4</v>
       </c>
       <c r="G115" s="2">
         <v>-8.78387449415996E-3</v>
@@ -5652,7 +6021,7 @@
         <v>1.179267841208365E-3</v>
       </c>
       <c r="I115" s="2">
-        <v>4.0653482303681489E-3</v>
+        <v>1.0413224199225741E-2</v>
       </c>
       <c r="J115" s="2">
         <v>6.0573401303105623E-3</v>
@@ -5664,13 +6033,16 @@
         <v>-4.6035777167826586E-3</v>
       </c>
       <c r="M115" s="2">
+        <v>0</v>
+      </c>
+      <c r="N115" s="2">
         <v>3.0684479602140671E-2</v>
       </c>
-      <c r="N115" s="2">
+      <c r="O115" s="2">
         <v>-1.55270382928482E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>43555</v>
       </c>
@@ -5687,7 +6059,7 @@
         <v>-3.2831102974262279E-3</v>
       </c>
       <c r="F116" s="2">
-        <v>-2.2768746020360238E-3</v>
+        <v>-5.1803495791303833E-3</v>
       </c>
       <c r="G116" s="2">
         <v>2.3218466420282799E-4</v>
@@ -5696,7 +6068,7 @@
         <v>-2.0680314925225479E-4</v>
       </c>
       <c r="I116" s="2">
-        <v>-2.7228366209964602E-3</v>
+        <v>-1.071585433747613E-3</v>
       </c>
       <c r="J116" s="2">
         <v>1.145741136976408E-4</v>
@@ -5708,13 +6080,16 @@
         <v>8.9972368705626415E-4</v>
       </c>
       <c r="M116" s="2">
+        <v>0</v>
+      </c>
+      <c r="N116" s="2">
         <v>1.8085811389966362E-2</v>
       </c>
-      <c r="N116" s="2">
+      <c r="O116" s="2">
         <v>-1.4681482902129011E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>43585</v>
       </c>
@@ -5731,7 +6106,7 @@
         <v>-6.3685951374957686E-3</v>
       </c>
       <c r="F117" s="2">
-        <v>-2.690294963091237E-2</v>
+        <v>-2.578973547366048E-2</v>
       </c>
       <c r="G117" s="2">
         <v>1.354096140824268E-4</v>
@@ -5740,7 +6115,7 @@
         <v>7.9759339262164275E-4</v>
       </c>
       <c r="I117" s="2">
-        <v>7.0828676824820757E-3</v>
+        <v>1.0468722209881079E-2</v>
       </c>
       <c r="J117" s="2">
         <v>2.9699936132248079E-3</v>
@@ -5752,13 +6127,16 @@
         <v>-1.753466391144598E-3</v>
       </c>
       <c r="M117" s="2">
+        <v>0</v>
+      </c>
+      <c r="N117" s="2">
         <v>3.8769423601399428E-2</v>
       </c>
-      <c r="N117" s="2">
+      <c r="O117" s="2">
         <v>-1.8762275897829619E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>43616</v>
       </c>
@@ -5775,7 +6153,7 @@
         <v>1.2757180260787541E-2</v>
       </c>
       <c r="F118" s="2">
-        <v>3.0223664661135949E-2</v>
+        <v>2.698766190786972E-2</v>
       </c>
       <c r="G118" s="2">
         <v>1.015434606011389E-3</v>
@@ -5784,7 +6162,7 @@
         <v>1.8127278476355979E-2</v>
       </c>
       <c r="I118" s="2">
-        <v>-1.08397443944005E-2</v>
+        <v>-1.1499799713349161E-2</v>
       </c>
       <c r="J118" s="2">
         <v>-1.079538315686057E-2</v>
@@ -5796,13 +6174,16 @@
         <v>4.438064068112535E-3</v>
       </c>
       <c r="M118" s="2">
+        <v>0</v>
+      </c>
+      <c r="N118" s="2">
         <v>-6.2597893983356093E-2</v>
       </c>
-      <c r="N118" s="2">
+      <c r="O118" s="2">
         <v>1.036437219264911E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>43646</v>
       </c>
@@ -5819,7 +6200,7 @@
         <v>-9.7575272020716808E-3</v>
       </c>
       <c r="F119" s="2">
-        <v>-1.629173620901735E-2</v>
+        <v>-1.6865150207221461E-2</v>
       </c>
       <c r="G119" s="2">
         <v>8.9847259658581979E-3</v>
@@ -5828,7 +6209,7 @@
         <v>-7.4172673498466013E-3</v>
       </c>
       <c r="I119" s="2">
-        <v>7.7680358953529536E-3</v>
+        <v>1.1596115116771029E-2</v>
       </c>
       <c r="J119" s="2">
         <v>1.7652212444303479E-3</v>
@@ -5840,13 +6221,16 @@
         <v>5.3874457876856852E-5</v>
       </c>
       <c r="M119" s="2">
+        <v>0</v>
+      </c>
+      <c r="N119" s="2">
         <v>7.0213506117129107E-2</v>
       </c>
-      <c r="N119" s="2">
+      <c r="O119" s="2">
         <v>-2.864297450138728E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>43677</v>
       </c>
@@ -5863,7 +6247,7 @@
         <v>-2.4799132648783968E-3</v>
       </c>
       <c r="F120" s="2">
-        <v>-1.50414575186933E-3</v>
+        <v>-1.5381828847043091E-3</v>
       </c>
       <c r="G120" s="2">
         <v>-7.7844483382645269E-3</v>
@@ -5872,7 +6256,7 @@
         <v>-5.2618972062704614E-3</v>
       </c>
       <c r="I120" s="2">
-        <v>3.9355856539855516E-3</v>
+        <v>6.8162958494755064E-3</v>
       </c>
       <c r="J120" s="2">
         <v>1.802453411406058E-3</v>
@@ -5884,13 +6268,16 @@
         <v>-3.0238494922363301E-4</v>
       </c>
       <c r="M120" s="2">
+        <v>0</v>
+      </c>
+      <c r="N120" s="2">
         <v>1.3055976865148301E-2</v>
       </c>
-      <c r="N120" s="2">
+      <c r="O120" s="2">
         <v>-1.4356853261729659E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>43708</v>
       </c>
@@ -5907,7 +6294,7 @@
         <v>5.1787213385487973E-3</v>
       </c>
       <c r="F121" s="2">
-        <v>2.7712196770280619E-2</v>
+        <v>2.4250120168622939E-2</v>
       </c>
       <c r="G121" s="2">
         <v>-4.8539941713469092E-3</v>
@@ -5916,7 +6303,7 @@
         <v>2.263555774315984E-2</v>
       </c>
       <c r="I121" s="2">
-        <v>-9.2579167563885973E-3</v>
+        <v>-1.300609541407609E-2</v>
       </c>
       <c r="J121" s="2">
         <v>-1.7150746794573071E-3</v>
@@ -5928,13 +6315,16 @@
         <v>1.002338252343149E-2</v>
       </c>
       <c r="M121" s="2">
+        <v>0</v>
+      </c>
+      <c r="N121" s="2">
         <v>-1.1186544060345371E-2</v>
       </c>
-      <c r="N121" s="2">
+      <c r="O121" s="2">
         <v>5.075935577119624E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>43738</v>
       </c>
@@ -5951,7 +6341,7 @@
         <v>-2.7105296734676321E-3</v>
       </c>
       <c r="F122" s="2">
-        <v>-1.255081897191267E-2</v>
+        <v>-1.189597494940697E-2</v>
       </c>
       <c r="G122" s="2">
         <v>5.498288451654787E-3</v>
@@ -5960,7 +6350,7 @@
         <v>-9.8393901217119772E-4</v>
       </c>
       <c r="I122" s="2">
-        <v>1.3945968547556699E-2</v>
+        <v>1.763895471053507E-2</v>
       </c>
       <c r="J122" s="2">
         <v>-8.0167119883304272E-3</v>
@@ -5972,13 +6362,16 @@
         <v>2.4235840348632021E-3</v>
       </c>
       <c r="M122" s="2">
+        <v>0</v>
+      </c>
+      <c r="N122" s="2">
         <v>1.7706974967263089E-2</v>
       </c>
-      <c r="N122" s="2">
+      <c r="O122" s="2">
         <v>-1.0943842488846159E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>43769</v>
       </c>
@@ -5995,7 +6388,7 @@
         <v>-2.9792238267978281E-3</v>
       </c>
       <c r="F123" s="2">
-        <v>-1.2009917265962429E-2</v>
+        <v>-1.1304940418187189E-2</v>
       </c>
       <c r="G123" s="2">
         <v>-8.0142733146881806E-3</v>
@@ -6004,7 +6397,7 @@
         <v>-8.626832484139535E-3</v>
       </c>
       <c r="I123" s="2">
-        <v>-2.904878704725345E-3</v>
+        <v>-6.0574482361748223E-4</v>
       </c>
       <c r="J123" s="2">
         <v>3.9256522421096118E-3</v>
@@ -6016,13 +6409,16 @@
         <v>-1.834028797915721E-4</v>
       </c>
       <c r="M123" s="2">
+        <v>0</v>
+      </c>
+      <c r="N123" s="2">
         <v>1.7895519277092421E-2</v>
       </c>
-      <c r="N123" s="2">
+      <c r="O123" s="2">
         <v>-4.1057281150757323E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>43799</v>
       </c>
@@ -6039,7 +6435,7 @@
         <v>-4.3566074953222964E-3</v>
       </c>
       <c r="F124" s="2">
-        <v>7.8826061409824361E-3</v>
+        <v>8.350419453514224E-3</v>
       </c>
       <c r="G124" s="2">
         <v>-3.1596651727121561E-3</v>
@@ -6048,7 +6444,7 @@
         <v>-6.6526112326525944E-4</v>
       </c>
       <c r="I124" s="2">
-        <v>2.927030703338484E-3</v>
+        <v>6.3846709682741087E-3</v>
       </c>
       <c r="J124" s="2">
         <v>1.5074119241780259E-3</v>
@@ -6060,13 +6456,16 @@
         <v>-2.928186687985113E-3</v>
       </c>
       <c r="M124" s="2">
+        <v>0</v>
+      </c>
+      <c r="N124" s="2">
         <v>3.6457210378279377E-2</v>
       </c>
-      <c r="N124" s="2">
+      <c r="O124" s="2">
         <v>1.7272744227080829E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>43830</v>
       </c>
@@ -6083,7 +6482,7 @@
         <v>-4.7379888087035749E-3</v>
       </c>
       <c r="F125" s="2">
-        <v>-2.2705892331745511E-2</v>
+        <v>-2.2896235007657251E-2</v>
       </c>
       <c r="G125" s="2">
         <v>-6.5344178516394402E-3</v>
@@ -6092,7 +6491,7 @@
         <v>-3.6966995213113529E-3</v>
       </c>
       <c r="I125" s="2">
-        <v>3.0176346736779051E-3</v>
+        <v>6.9722060431389064E-3</v>
       </c>
       <c r="J125" s="2">
         <v>5.3503357682369579E-3</v>
@@ -6104,13 +6503,16 @@
         <v>2.0041091290723401E-4</v>
       </c>
       <c r="M125" s="2">
+        <v>0</v>
+      </c>
+      <c r="N125" s="2">
         <v>2.681814345753154E-2</v>
       </c>
-      <c r="N125" s="2">
+      <c r="O125" s="2">
         <v>-3.6690066990309141E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>43861</v>
       </c>
@@ -6127,7 +6529,7 @@
         <v>8.2230473664046677E-4</v>
       </c>
       <c r="F126" s="2">
-        <v>8.5428502858953693E-3</v>
+        <v>9.1580907832526925E-3</v>
       </c>
       <c r="G126" s="2">
         <v>6.0865467682398311E-3</v>
@@ -6136,7 +6538,7 @@
         <v>2.2638135007722049E-3</v>
       </c>
       <c r="I126" s="2">
-        <v>1.72636644008155E-3</v>
+        <v>3.5667742177868619E-3</v>
       </c>
       <c r="J126" s="2">
         <v>9.971307347589331E-4</v>
@@ -6148,13 +6550,16 @@
         <v>2.1127675140957258E-3</v>
       </c>
       <c r="M126" s="2">
+        <v>0</v>
+      </c>
+      <c r="N126" s="2">
         <v>1.9864593578669079E-3</v>
       </c>
-      <c r="N126" s="2">
+      <c r="O126" s="2">
         <v>2.5943530277342691E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>43890</v>
       </c>
@@ -6171,7 +6576,7 @@
         <v>1.281342865225343E-2</v>
       </c>
       <c r="F127" s="2">
-        <v>-4.9430679607650827E-3</v>
+        <v>-9.082385651070779E-3</v>
       </c>
       <c r="G127" s="2">
         <v>1.6207407985636909E-2</v>
@@ -6180,7 +6585,7 @@
         <v>-3.5456507859292767E-2</v>
       </c>
       <c r="I127" s="2">
-        <v>-1.9519811696924062E-2</v>
+        <v>-5.5630097481484092E-2</v>
       </c>
       <c r="J127" s="2">
         <v>-4.1331092263283686E-3</v>
@@ -6192,13 +6597,16 @@
         <v>-4.638282391245796E-2</v>
       </c>
       <c r="M127" s="2">
+        <v>0</v>
+      </c>
+      <c r="N127" s="2">
         <v>-7.6621901655240229E-2</v>
       </c>
-      <c r="N127" s="2">
+      <c r="O127" s="2">
         <v>6.2140457862869128E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>43921</v>
       </c>
@@ -6215,7 +6623,7 @@
         <v>6.400660629193311E-4</v>
       </c>
       <c r="F128" s="2">
-        <v>3.5444825959955573E-2</v>
+        <v>2.89810672221027E-2</v>
       </c>
       <c r="G128" s="2">
         <v>5.68726295069375E-2</v>
@@ -6224,7 +6632,7 @@
         <v>0.60844340876996705</v>
       </c>
       <c r="I128" s="2">
-        <v>9.7783028682561668E-2</v>
+        <v>4.2166246571960039E-2</v>
       </c>
       <c r="J128" s="2">
         <v>1.5847243811899501E-3</v>
@@ -6236,13 +6644,16 @@
         <v>0.28959742356289692</v>
       </c>
       <c r="M128" s="2">
+        <v>0</v>
+      </c>
+      <c r="N128" s="2">
         <v>2.98824076836781E-2</v>
       </c>
-      <c r="N128" s="2">
+      <c r="O128" s="2">
         <v>0.16730818569932229</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>43951</v>
       </c>
@@ -6259,7 +6670,7 @@
         <v>-1.094402887357826E-2</v>
       </c>
       <c r="F129" s="2">
-        <v>4.8585028445966033E-4</v>
+        <v>2.1149939454900851E-4</v>
       </c>
       <c r="G129" s="2">
         <v>2.2985790602172429E-3</v>
@@ -6268,7 +6679,7 @@
         <v>4.8381711838347607E-2</v>
       </c>
       <c r="I129" s="2">
-        <v>-3.3981213000015991E-3</v>
+        <v>1.623668414413126E-3</v>
       </c>
       <c r="J129" s="2">
         <v>1.03646366225314E-2</v>
@@ -6280,13 +6691,16 @@
         <v>6.5922597136366612E-2</v>
       </c>
       <c r="M129" s="2">
+        <v>0</v>
+      </c>
+      <c r="N129" s="2">
         <v>0.13837588697220349</v>
       </c>
-      <c r="N129" s="2">
+      <c r="O129" s="2">
         <v>1.1105584892916749E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>43982</v>
       </c>
@@ -6303,7 +6717,7 @@
         <v>-7.3850868527510771E-3</v>
       </c>
       <c r="F130" s="2">
-        <v>2.295665003126474E-3</v>
+        <v>2.738020366805705E-3</v>
       </c>
       <c r="G130" s="2">
         <v>5.2936430960559564E-3</v>
@@ -6312,7 +6726,7 @@
         <v>5.330865421903086E-3</v>
       </c>
       <c r="I130" s="2">
-        <v>-2.2750897116867951E-3</v>
+        <v>7.7266114383129046E-3</v>
       </c>
       <c r="J130" s="2">
         <v>3.583466205962615E-3</v>
@@ -6324,13 +6738,16 @@
         <v>-1.2380532835366441E-2</v>
       </c>
       <c r="M130" s="2">
+        <v>0</v>
+      </c>
+      <c r="N130" s="2">
         <v>4.5195974532867028E-2</v>
       </c>
-      <c r="N130" s="2">
+      <c r="O130" s="2">
         <v>-2.6525708262978881E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>44012</v>
       </c>
@@ -6347,7 +6764,7 @@
         <v>-5.871031638571278E-4</v>
       </c>
       <c r="F131" s="2">
-        <v>1.3449444687826309E-2</v>
+        <v>1.371878925666214E-2</v>
       </c>
       <c r="G131" s="2">
         <v>3.9132590956225677E-3</v>
@@ -6356,7 +6773,7 @@
         <v>-3.43409565433761E-3</v>
       </c>
       <c r="I131" s="2">
-        <v>-7.2633546834797811E-3</v>
+        <v>-1.2468850966088031E-2</v>
       </c>
       <c r="J131" s="2">
         <v>7.1782404795710519E-3</v>
@@ -6368,13 +6785,16 @@
         <v>4.7333614295059778E-3</v>
       </c>
       <c r="M131" s="2">
+        <v>0</v>
+      </c>
+      <c r="N131" s="2">
         <v>2.024253278738115E-2</v>
       </c>
-      <c r="N131" s="2">
+      <c r="O131" s="2">
         <v>3.8752003322099987E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>44043</v>
       </c>
@@ -6391,7 +6811,7 @@
         <v>-4.0269050358439076E-3</v>
       </c>
       <c r="F132" s="2">
-        <v>-5.2571519428373653E-3</v>
+        <v>-5.6603807275641396E-3</v>
       </c>
       <c r="G132" s="2">
         <v>1.6346473383091139E-2</v>
@@ -6400,7 +6820,7 @@
         <v>5.4467258243870997E-3</v>
       </c>
       <c r="I132" s="2">
-        <v>2.7126912308021332E-3</v>
+        <v>1.0967861962034959E-2</v>
       </c>
       <c r="J132" s="2">
         <v>1.0079084103918889E-2</v>
@@ -6412,13 +6832,16 @@
         <v>1.000069963314143E-3</v>
       </c>
       <c r="M132" s="2">
+        <v>0</v>
+      </c>
+      <c r="N132" s="2">
         <v>5.868852441854705E-2</v>
       </c>
-      <c r="N132" s="2">
+      <c r="O132" s="2">
         <v>2.5124108815127808E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>44074</v>
       </c>
@@ -6435,7 +6858,7 @@
         <v>-8.3307415470742496E-3</v>
       </c>
       <c r="F133" s="2">
-        <v>-1.1905855315441589E-2</v>
+        <v>-1.082043518782916E-2</v>
       </c>
       <c r="G133" s="2">
         <v>1.1541282620030289E-2</v>
@@ -6444,7 +6867,7 @@
         <v>1.2233280542207851E-2</v>
       </c>
       <c r="I133" s="2">
-        <v>1.1897102877061E-2</v>
+        <v>1.911210681125532E-2</v>
       </c>
       <c r="J133" s="2">
         <v>-2.2145791148797671E-3</v>
@@ -6456,13 +6879,16 @@
         <v>-1.203775970974497E-2</v>
       </c>
       <c r="M133" s="2">
+        <v>0</v>
+      </c>
+      <c r="N133" s="2">
         <v>7.8608327260759864E-2</v>
       </c>
-      <c r="N133" s="2">
+      <c r="O133" s="2">
         <v>7.3379151233177271E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>44104</v>
       </c>
@@ -6479,7 +6905,7 @@
         <v>4.5923967830820978E-3</v>
       </c>
       <c r="F134" s="2">
-        <v>1.1358355178117129E-2</v>
+        <v>1.146708421267628E-2</v>
       </c>
       <c r="G134" s="2">
         <v>-1.9822653212772549E-2</v>
@@ -6488,7 +6914,7 @@
         <v>4.3725959455225498E-2</v>
       </c>
       <c r="I134" s="2">
-        <v>-2.6088229928169018E-2</v>
+        <v>-2.4843293332858511E-2</v>
       </c>
       <c r="J134" s="2">
         <v>3.750421179638419E-3</v>
@@ -6500,13 +6926,16 @@
         <v>1.432686411060069E-2</v>
       </c>
       <c r="M134" s="2">
+        <v>0</v>
+      </c>
+      <c r="N134" s="2">
         <v>-4.7622108976043853E-2</v>
       </c>
-      <c r="N134" s="2">
+      <c r="O134" s="2">
         <v>-1.0498510290302181E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>44135</v>
       </c>
@@ -6523,7 +6952,7 @@
         <v>5.0508429221300943E-3</v>
       </c>
       <c r="F135" s="2">
-        <v>-7.4251656433092731E-3</v>
+        <v>-9.3349415062981E-3</v>
       </c>
       <c r="G135" s="2">
         <v>-1.216620913401556E-2</v>
@@ -6532,7 +6961,7 @@
         <v>3.536523208713005E-3</v>
       </c>
       <c r="I135" s="2">
-        <v>6.6492114820448931E-3</v>
+        <v>6.4465037211053804E-3</v>
       </c>
       <c r="J135" s="2">
         <v>-2.5636007691498541E-3</v>
@@ -6544,13 +6973,16 @@
         <v>2.110484945308477E-2</v>
       </c>
       <c r="M135" s="2">
+        <v>0</v>
+      </c>
+      <c r="N135" s="2">
         <v>-2.416628417535209E-2</v>
       </c>
-      <c r="N135" s="2">
+      <c r="O135" s="2">
         <v>2.647674339692195E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>44165</v>
       </c>
@@ -6567,7 +6999,7 @@
         <v>-2.5903861727737731E-2</v>
       </c>
       <c r="F136" s="2">
-        <v>-6.9428816054066256E-3</v>
+        <v>-6.6826342097967562E-3</v>
       </c>
       <c r="G136" s="2">
         <v>2.3585458941992821E-2</v>
@@ -6576,7 +7008,7 @@
         <v>-4.8146033697831991E-2</v>
       </c>
       <c r="I136" s="2">
-        <v>5.250768674645032E-5</v>
+        <v>1.152634644793149E-2</v>
       </c>
       <c r="J136" s="2">
         <v>7.6037397272707974E-3</v>
@@ -6588,13 +7020,16 @@
         <v>-3.0807075060224402E-2</v>
       </c>
       <c r="M136" s="2">
+        <v>0</v>
+      </c>
+      <c r="N136" s="2">
         <v>0.1003226864848797</v>
       </c>
-      <c r="N136" s="2">
+      <c r="O136" s="2">
         <v>-9.9702398869091109E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>44196</v>
       </c>
@@ -6611,7 +7046,7 @@
         <v>-4.0999476117804523E-3</v>
       </c>
       <c r="F137" s="2">
-        <v>1.441616751170437E-2</v>
+        <v>1.272469765961493E-2</v>
       </c>
       <c r="G137" s="2">
         <v>-1.16796685618582E-2</v>
@@ -6620,7 +7055,7 @@
         <v>-9.078253380691681E-3</v>
       </c>
       <c r="I137" s="2">
-        <v>1.099009619429667E-2</v>
+        <v>2.191672986358317E-2</v>
       </c>
       <c r="J137" s="2">
         <v>7.336391606840964E-3</v>
@@ -6632,13 +7067,16 @@
         <v>5.6534978387807744E-3</v>
       </c>
       <c r="M137" s="2">
+        <v>0</v>
+      </c>
+      <c r="N137" s="2">
         <v>4.100504403830519E-2</v>
       </c>
-      <c r="N137" s="2">
+      <c r="O137" s="2">
         <v>2.7887770056806939E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>44227</v>
       </c>
@@ -6655,7 +7093,7 @@
         <v>-1.223612286439635E-3</v>
       </c>
       <c r="F138" s="2">
-        <v>2.3968354705106561E-2</v>
+        <v>2.1257435960240659E-2</v>
       </c>
       <c r="G138" s="2">
         <v>-1.685693899393548E-3</v>
@@ -6664,7 +7102,7 @@
         <v>1.151841292869338E-2</v>
       </c>
       <c r="I138" s="2">
-        <v>9.7262976414237874E-3</v>
+        <v>1.452720800524674E-2</v>
       </c>
       <c r="J138" s="2">
         <v>2.5514784335063379E-3</v>
@@ -6676,13 +7114,16 @@
         <v>6.4468350108171091E-3</v>
       </c>
       <c r="M138" s="2">
+        <v>0</v>
+      </c>
+      <c r="N138" s="2">
         <v>-3.0161222594107541E-3</v>
       </c>
-      <c r="N138" s="2">
+      <c r="O138" s="2">
         <v>7.7216951648478114E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>44255</v>
       </c>
@@ -6699,7 +7140,7 @@
         <v>-1.946438589861543E-4</v>
       </c>
       <c r="F139" s="2">
-        <v>6.1147619410018422E-2</v>
+        <v>5.7565197762431193E-2</v>
       </c>
       <c r="G139" s="2">
         <v>-1.126586915153072E-2</v>
@@ -6708,7 +7149,7 @@
         <v>-1.0049731662492569E-3</v>
       </c>
       <c r="I139" s="2">
-        <v>4.8994026137382908E-3</v>
+        <v>1.524500564230922E-2</v>
       </c>
       <c r="J139" s="2">
         <v>4.905391607930909E-3</v>
@@ -6720,13 +7161,16 @@
         <v>-3.3336293198719109E-3</v>
       </c>
       <c r="M139" s="2">
+        <v>0</v>
+      </c>
+      <c r="N139" s="2">
         <v>3.0445873462757549E-2</v>
       </c>
-      <c r="N139" s="2">
+      <c r="O139" s="2">
         <v>3.131379565185154E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>44286</v>
       </c>
@@ -6743,7 +7187,7 @@
         <v>-7.3864547307666006E-3</v>
       </c>
       <c r="F140" s="2">
-        <v>8.6997823447551026E-3</v>
+        <v>7.1003825335258508E-3</v>
       </c>
       <c r="G140" s="2">
         <v>1.044546850998462E-2</v>
@@ -6752,7 +7196,7 @@
         <v>-1.4427008053549131E-3</v>
       </c>
       <c r="I140" s="2">
-        <v>2.8369345032142612E-3</v>
+        <v>9.3276810651435026E-3</v>
       </c>
       <c r="J140" s="2">
         <v>5.8885986924088751E-3</v>
@@ -6764,13 +7208,16 @@
         <v>-1.40404644770985E-2</v>
       </c>
       <c r="M140" s="2">
+        <v>0</v>
+      </c>
+      <c r="N140" s="2">
         <v>4.1730723337748188E-2</v>
       </c>
-      <c r="N140" s="2">
+      <c r="O140" s="2">
         <v>-2.2522394557766201E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>44316</v>
       </c>
@@ -6787,7 +7234,7 @@
         <v>-7.8682926266483433E-3</v>
       </c>
       <c r="F141" s="2">
-        <v>-4.0889472006802527E-3</v>
+        <v>-3.1136992833772359E-3</v>
       </c>
       <c r="G141" s="2">
         <v>-1.9190528141934778E-2</v>
@@ -6796,7 +7243,7 @@
         <v>2.4258080565582318E-3</v>
       </c>
       <c r="I141" s="2">
-        <v>-4.0861571348999367E-3</v>
+        <v>-7.9511834900943836E-4</v>
       </c>
       <c r="J141" s="2">
         <v>1.36089424762873E-2</v>
@@ -6808,13 +7255,16 @@
         <v>-2.469337535350169E-4</v>
       </c>
       <c r="M141" s="2">
+        <v>0</v>
+      </c>
+      <c r="N141" s="2">
         <v>5.1540933974708138E-2</v>
       </c>
-      <c r="N141" s="2">
+      <c r="O141" s="2">
         <v>-1.9936605202957869E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>44347</v>
       </c>
@@ -6831,7 +7281,7 @@
         <v>-2.2675736961451638E-3</v>
       </c>
       <c r="F142" s="2">
-        <v>1.1798426887663709E-3</v>
+        <v>1.5272475411647331E-3</v>
       </c>
       <c r="G142" s="2">
         <v>-1.1943836615608829E-3</v>
@@ -6840,7 +7290,7 @@
         <v>-6.8979066454394333E-3</v>
       </c>
       <c r="I142" s="2">
-        <v>-6.7689182858616586E-3</v>
+        <v>-2.8923675526566599E-4</v>
       </c>
       <c r="J142" s="2">
         <v>4.1575224166667812E-3</v>
@@ -6852,13 +7302,16 @@
         <v>-3.4997546234115662E-3</v>
       </c>
       <c r="M142" s="2">
+        <v>0</v>
+      </c>
+      <c r="N142" s="2">
         <v>4.0271412427366144E-3</v>
       </c>
-      <c r="N142" s="2">
+      <c r="O142" s="2">
         <v>-3.2253891731381839E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>44377</v>
       </c>
@@ -6875,7 +7328,7 @@
         <v>-3.729603729603737E-3</v>
       </c>
       <c r="F143" s="2">
-        <v>-2.908578958208502E-2</v>
+        <v>-2.9200657398301359E-2</v>
       </c>
       <c r="G143" s="2">
         <v>1.807410382568486E-3</v>
@@ -6884,7 +7337,7 @@
         <v>-1.0170182623295829E-3</v>
       </c>
       <c r="I143" s="2">
-        <v>8.7678942765357683E-3</v>
+        <v>1.5782956587359419E-2</v>
       </c>
       <c r="J143" s="2">
         <v>5.2767597813798686E-3</v>
@@ -6896,13 +7349,16 @@
         <v>-2.0344362712521051E-3</v>
       </c>
       <c r="M143" s="2">
+        <v>0</v>
+      </c>
+      <c r="N143" s="2">
         <v>2.1221831633783009E-2</v>
       </c>
-      <c r="N143" s="2">
+      <c r="O143" s="2">
         <v>-2.315536733309359E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>44408</v>
       </c>
@@ -6919,7 +7375,7 @@
         <v>-4.3424317617866137E-3</v>
       </c>
       <c r="F144" s="2">
-        <v>-1.8669647318110001E-3</v>
+        <v>-2.173818343951917E-3</v>
       </c>
       <c r="G144" s="2">
         <v>-1.2519704411054541E-2</v>
@@ -6928,7 +7384,7 @@
         <v>7.7668616815436131E-3</v>
       </c>
       <c r="I144" s="2">
-        <v>-1.23674868585131E-2</v>
+        <v>-1.008552518827153E-2</v>
       </c>
       <c r="J144" s="2">
         <v>2.2092234082147222E-3</v>
@@ -6940,13 +7396,16 @@
         <v>1.3121968876106389E-3</v>
       </c>
       <c r="M144" s="2">
+        <v>0</v>
+      </c>
+      <c r="N144" s="2">
         <v>2.0977310815904961E-2</v>
       </c>
-      <c r="N144" s="2">
+      <c r="O144" s="2">
         <v>-3.029545122120851E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>44439</v>
       </c>
@@ -6963,7 +7422,7 @@
         <v>-5.6663218282704264E-3</v>
       </c>
       <c r="F145" s="2">
-        <v>5.9277411358630858E-3</v>
+        <v>6.2116885787053544E-3</v>
       </c>
       <c r="G145" s="2">
         <v>-5.6194808670055876E-3</v>
@@ -6972,7 +7431,7 @@
         <v>-7.7300223793655984E-3</v>
       </c>
       <c r="I145" s="2">
-        <v>-4.7468970458997674E-3</v>
+        <v>2.3282055737594239E-3</v>
       </c>
       <c r="J145" s="2">
         <v>5.1448154333872953E-3</v>
@@ -6984,13 +7443,16 @@
         <v>-4.7178596841178644E-3</v>
       </c>
       <c r="M145" s="2">
+        <v>0</v>
+      </c>
+      <c r="N145" s="2">
         <v>2.9174673088488191E-2</v>
       </c>
-      <c r="N145" s="2">
+      <c r="O145" s="2">
         <v>-1.342606480308944E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>44469</v>
       </c>
@@ -7007,7 +7469,7 @@
         <v>1.025040788820308E-2</v>
       </c>
       <c r="F146" s="2">
-        <v>1.1568900886617399E-2</v>
+        <v>1.1893327881425719E-2</v>
       </c>
       <c r="G146" s="2">
         <v>1.688875691325364E-3</v>
@@ -7016,7 +7478,7 @@
         <v>-1.382171006047272E-2</v>
       </c>
       <c r="I146" s="2">
-        <v>6.6972309828241539E-3</v>
+        <v>1.0997680348221911E-2</v>
       </c>
       <c r="J146" s="2">
         <v>3.9962619013591549E-3</v>
@@ -7028,13 +7490,16 @@
         <v>4.9220425771787646E-3</v>
       </c>
       <c r="M146" s="2">
+        <v>0</v>
+      </c>
+      <c r="N146" s="2">
         <v>-4.4173824710028467E-2</v>
       </c>
-      <c r="N146" s="2">
+      <c r="O146" s="2">
         <v>2.5478476539511209E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>44500</v>
       </c>
@@ -7051,7 +7516,7 @@
         <v>-1.5096724361900019E-2</v>
       </c>
       <c r="F147" s="2">
-        <v>3.029093399699689E-2</v>
+        <v>3.1745829014864453E-2</v>
       </c>
       <c r="G147" s="2">
         <v>3.6962925907397799E-3</v>
@@ -7060,7 +7525,7 @@
         <v>6.007244832728631E-4</v>
       </c>
       <c r="I147" s="2">
-        <v>1.672229346085464E-3</v>
+        <v>6.0139281907466858E-3</v>
       </c>
       <c r="J147" s="2">
         <v>-1.2410732266001649E-3</v>
@@ -7072,13 +7537,16 @@
         <v>-2.7746551656437912E-4</v>
       </c>
       <c r="M147" s="2">
+        <v>0</v>
+      </c>
+      <c r="N147" s="2">
         <v>7.1091040863474328E-2</v>
       </c>
-      <c r="N147" s="2">
+      <c r="O147" s="2">
         <v>1.122574007830999E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>44530</v>
       </c>
@@ -7095,7 +7563,7 @@
         <v>7.1293622785439936E-4</v>
       </c>
       <c r="F148" s="2">
-        <v>2.2337158204507431E-2</v>
+        <v>2.2127827570938011E-2</v>
       </c>
       <c r="G148" s="2">
         <v>2.1413078591536738E-3</v>
@@ -7104,7 +7572,7 @@
         <v>2.020520721922181E-2</v>
       </c>
       <c r="I148" s="2">
-        <v>3.1213066951772512E-3</v>
+        <v>3.1359490465242561E-3</v>
       </c>
       <c r="J148" s="2">
         <v>1.145412929899337E-3</v>
@@ -7116,13 +7584,16 @@
         <v>1.023361299199421E-2</v>
       </c>
       <c r="M148" s="2">
+        <v>0</v>
+      </c>
+      <c r="N148" s="2">
         <v>-7.3699042997484574E-4</v>
       </c>
-      <c r="N148" s="2">
+      <c r="O148" s="2">
         <v>6.7535388720540573E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>44561</v>
       </c>
@@ -7139,7 +7610,7 @@
         <v>-8.2522946128545938E-3</v>
       </c>
       <c r="F149" s="2">
-        <v>-1.556105901068216E-2</v>
+        <v>-1.428498469130102E-2</v>
       </c>
       <c r="G149" s="2">
         <v>2.053841973898685E-3</v>
@@ -7148,7 +7619,7 @@
         <v>-5.9421806320045789E-3</v>
       </c>
       <c r="I149" s="2">
-        <v>-1.7462424820528451E-2</v>
+        <v>-9.0902819728628237E-3</v>
       </c>
       <c r="J149" s="2">
         <v>8.2376689174783468E-3</v>
@@ -7160,13 +7631,16 @@
         <v>-9.3928327735399719E-3</v>
       </c>
       <c r="M149" s="2">
+        <v>0</v>
+      </c>
+      <c r="N149" s="2">
         <v>3.7134369398667218E-2</v>
       </c>
-      <c r="N149" s="2">
+      <c r="O149" s="2">
         <v>-8.3784527558254766E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>44592</v>
       </c>
@@ -7183,7 +7657,7 @@
         <v>1.047603084143489E-2</v>
       </c>
       <c r="F150" s="2">
-        <v>3.0938048969491171E-2</v>
+        <v>3.2123101187880858E-2</v>
       </c>
       <c r="G150" s="2">
         <v>1.089154411764692E-2</v>
@@ -7192,7 +7666,7 @@
         <v>-1.5689785797919908E-2</v>
       </c>
       <c r="I150" s="2">
-        <v>-3.1890271885302413E-2</v>
+        <v>-2.5649388645645501E-2</v>
       </c>
       <c r="J150" s="2">
         <v>-3.0607145831599292E-3</v>
@@ -7204,13 +7678,16 @@
         <v>9.1265948980363554E-3</v>
       </c>
       <c r="M150" s="2">
+        <v>0</v>
+      </c>
+      <c r="N150" s="2">
         <v>-5.3132743214843653E-2</v>
       </c>
-      <c r="N150" s="2">
+      <c r="O150" s="2">
         <v>-1.5113936220741699E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>44620</v>
       </c>
@@ -7227,7 +7704,7 @@
         <v>1.235796632661512E-2</v>
       </c>
       <c r="F151" s="2">
-        <v>2.819516558889933E-2</v>
+        <v>2.8198738975138578E-2</v>
       </c>
       <c r="G151" s="2">
         <v>3.0504159658135469E-2</v>
@@ -7236,7 +7713,7 @@
         <v>-5.1172544864723779E-3</v>
       </c>
       <c r="I151" s="2">
-        <v>-6.0898972370416733E-4</v>
+        <v>-1.03122517491242E-3</v>
       </c>
       <c r="J151" s="2">
         <v>-1.9736429899125389E-3</v>
@@ -7248,13 +7725,16 @@
         <v>1.7770872404021532E-2</v>
       </c>
       <c r="M151" s="2">
+        <v>0</v>
+      </c>
+      <c r="N151" s="2">
         <v>-2.1809204595504499E-2</v>
       </c>
-      <c r="N151" s="2">
+      <c r="O151" s="2">
         <v>8.8698409727151623E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>44651</v>
       </c>
@@ -7271,7 +7751,7 @@
         <v>-7.5606844409071838E-3</v>
       </c>
       <c r="F152" s="2">
-        <v>7.6787317930695912E-3</v>
+        <v>7.9777277121528822E-3</v>
       </c>
       <c r="G152" s="2">
         <v>1.3340391741662129E-2</v>
@@ -7280,7 +7760,7 @@
         <v>-3.3807549583079521E-2</v>
       </c>
       <c r="I152" s="2">
-        <v>2.6180172166168749E-3</v>
+        <v>7.9396112456409321E-3</v>
       </c>
       <c r="J152" s="2">
         <v>4.4677890199114056E-3</v>
@@ -7292,13 +7772,16 @@
         <v>2.2614949591296622E-2</v>
       </c>
       <c r="M152" s="2">
+        <v>0</v>
+      </c>
+      <c r="N152" s="2">
         <v>4.0620289951063343E-2</v>
       </c>
-      <c r="N152" s="2">
+      <c r="O152" s="2">
         <v>3.8073388741382049E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>44681</v>
       </c>
@@ -7315,7 +7798,7 @@
         <v>2.9718382942591551E-2</v>
       </c>
       <c r="F153" s="2">
-        <v>1.9878938278755979E-2</v>
+        <v>1.2559354563242531E-2</v>
       </c>
       <c r="G153" s="2">
         <v>1.3112527426601069E-2</v>
@@ -7324,7 +7807,7 @@
         <v>7.0947547462596461E-3</v>
       </c>
       <c r="I153" s="2">
-        <v>3.28176911031588E-3</v>
+        <v>-2.3241395063650638E-3</v>
       </c>
       <c r="J153" s="2">
         <v>8.696614583333373E-3</v>
@@ -7336,13 +7819,16 @@
         <v>1.208838729310391E-2</v>
       </c>
       <c r="M153" s="2">
+        <v>0</v>
+      </c>
+      <c r="N153" s="2">
         <v>-7.8764595158587483E-2</v>
       </c>
-      <c r="N153" s="2">
+      <c r="O153" s="2">
         <v>9.2025109690125721E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>44712</v>
       </c>
@@ -7359,7 +7845,7 @@
         <v>5.0964313527877003E-3</v>
       </c>
       <c r="F154" s="2">
-        <v>-3.8486668375772699E-2</v>
+        <v>-3.9734660945204607E-2</v>
       </c>
       <c r="G154" s="2">
         <v>4.3228656388043518E-3</v>
@@ -7368,7 +7854,7 @@
         <v>3.331670277789045E-2</v>
       </c>
       <c r="I154" s="2">
-        <v>-4.4507081742510609E-3</v>
+        <v>-1.4641035248744939E-3</v>
       </c>
       <c r="J154" s="2">
         <v>5.7456055992224364E-3</v>
@@ -7380,13 +7866,16 @@
         <v>4.4514830719229792E-2</v>
       </c>
       <c r="M154" s="2">
+        <v>0</v>
+      </c>
+      <c r="N154" s="2">
         <v>1.9574376917664438E-3</v>
       </c>
-      <c r="N154" s="2">
+      <c r="O154" s="2">
         <v>1.3396263130067721E-4</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>44742</v>
       </c>
@@ -7403,7 +7892,7 @@
         <v>2.9489180843426999E-2</v>
       </c>
       <c r="F155" s="2">
-        <v>2.1146466460866431E-2</v>
+        <v>2.1428337785067249E-2</v>
       </c>
       <c r="G155" s="2">
         <v>-1.0944626522107479E-2</v>
@@ -7412,7 +7901,7 @@
         <v>-2.5056335894324658E-2</v>
       </c>
       <c r="I155" s="2">
-        <v>-2.400110169929959E-3</v>
+        <v>-2.8914470301709462E-3</v>
       </c>
       <c r="J155" s="2">
         <v>2.5348786466961037E-4</v>
@@ -7424,13 +7913,16 @@
         <v>-4.2199451978147888E-2</v>
       </c>
       <c r="M155" s="2">
+        <v>-1.304521011750648E-2</v>
+      </c>
+      <c r="N155" s="2">
         <v>-8.910908578936981E-2</v>
       </c>
-      <c r="N155" s="2">
+      <c r="O155" s="2">
         <v>-7.1607941443686679E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>44773</v>
       </c>
@@ -7447,7 +7939,7 @@
         <v>-2.2822610100831201E-2</v>
       </c>
       <c r="F156" s="2">
-        <v>-2.2400213597666769E-2</v>
+        <v>-2.1748971471451939E-2</v>
       </c>
       <c r="G156" s="2">
         <v>-1.098787008357704E-2</v>
@@ -7456,7 +7948,7 @@
         <v>-9.8113366034290328E-3</v>
       </c>
       <c r="I156" s="2">
-        <v>5.5413215244666247E-3</v>
+        <v>9.9512263043178388E-3</v>
       </c>
       <c r="J156" s="2">
         <v>-3.1886466216068937E-4</v>
@@ -7468,13 +7960,16 @@
         <v>4.125881710992152E-3</v>
       </c>
       <c r="M156" s="2">
+        <v>2.7242457875087389E-3</v>
+      </c>
+      <c r="N156" s="2">
         <v>8.7367824346039902E-2</v>
       </c>
-      <c r="N156" s="2">
+      <c r="O156" s="2">
         <v>-5.2753216879468396E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>44804</v>
       </c>
@@ -7491,7 +7986,7 @@
         <v>1.094158822929758E-2</v>
       </c>
       <c r="F157" s="2">
-        <v>2.6823251477438949E-2</v>
+        <v>2.676472574144384E-2</v>
       </c>
       <c r="G157" s="2">
         <v>-7.6719854433480172E-3</v>
@@ -7500,7 +7995,7 @@
         <v>9.3444301018108522E-3</v>
       </c>
       <c r="I157" s="2">
-        <v>8.0094517179815309E-3</v>
+        <v>8.1010292158294247E-3</v>
       </c>
       <c r="J157" s="2">
         <v>6.5635192323243441E-3</v>
@@ -7512,13 +8007,16 @@
         <v>1.549775291594724E-3</v>
       </c>
       <c r="M157" s="2">
+        <v>9.4586435902594967E-3</v>
+      </c>
+      <c r="N157" s="2">
         <v>-3.6908021313619033E-2</v>
       </c>
-      <c r="N157" s="2">
+      <c r="O157" s="2">
         <v>4.2252673707504837E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>44834</v>
       </c>
@@ -7535,7 +8033,7 @@
         <v>3.1942903879981673E-2</v>
       </c>
       <c r="F158" s="2">
-        <v>5.520939471255653E-2</v>
+        <v>5.2322446200107509E-2</v>
       </c>
       <c r="G158" s="2">
         <v>-1.1989244942036681E-3</v>
@@ -7544,7 +8042,7 @@
         <v>1.0964386230749581E-3</v>
       </c>
       <c r="I158" s="2">
-        <v>2.9521574700462241E-3</v>
+        <v>3.781870523674913E-3</v>
       </c>
       <c r="J158" s="2">
         <v>-6.2593049538219869E-3</v>
@@ -7556,13 +8054,16 @@
         <v>-2.992508466106503E-2</v>
       </c>
       <c r="M158" s="2">
+        <v>4.086921850079861E-3</v>
+      </c>
+      <c r="N158" s="2">
         <v>-8.7827831540604959E-2</v>
       </c>
-      <c r="N158" s="2">
+      <c r="O158" s="2">
         <v>4.6581300079226069E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>44865</v>
       </c>
@@ -7579,7 +8080,7 @@
         <v>-2.159515330495965E-2</v>
       </c>
       <c r="F159" s="2">
-        <v>-8.4209866453703527E-3</v>
+        <v>-1.2776108961957021E-2</v>
       </c>
       <c r="G159" s="2">
         <v>-4.1747941288096113E-3</v>
@@ -7588,7 +8089,7 @@
         <v>-3.5372226925148957E-2</v>
       </c>
       <c r="I159" s="2">
-        <v>-3.848582855877625E-3</v>
+        <v>8.7141352783252513E-3</v>
       </c>
       <c r="J159" s="2">
         <v>1.2421658856078821E-3</v>
@@ -7600,13 +8101,16 @@
         <v>6.3145323623347016E-2</v>
       </c>
       <c r="M159" s="2">
+        <v>3.9710116152091862E-4</v>
+      </c>
+      <c r="N159" s="2">
         <v>8.2254046885549756E-2</v>
       </c>
-      <c r="N159" s="2">
+      <c r="O159" s="2">
         <v>1.4099166039399089E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>44895</v>
       </c>
@@ -7623,7 +8127,7 @@
         <v>-1.417371553015585E-2</v>
       </c>
       <c r="F160" s="2">
-        <v>-1.5790066959674809E-3</v>
+        <v>1.467498517244208E-3</v>
       </c>
       <c r="G160" s="2">
         <v>1.1515037904974639E-2</v>
@@ -7632,7 +8136,7 @@
         <v>-1.107476737186408E-2</v>
       </c>
       <c r="I160" s="2">
-        <v>-1.803178330627616E-2</v>
+        <v>-1.861408234262768E-2</v>
       </c>
       <c r="J160" s="2">
         <v>7.6321496132019107E-3</v>
@@ -7644,13 +8148,16 @@
         <v>9.7183528010100773E-3</v>
       </c>
       <c r="M160" s="2">
+        <v>1.6572392577155929E-2</v>
+      </c>
+      <c r="N160" s="2">
         <v>5.4739195910239458E-2</v>
       </c>
-      <c r="N160" s="2">
+      <c r="O160" s="2">
         <v>-1.248623587766007E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>44926</v>
       </c>
@@ -7667,7 +8174,7 @@
         <v>1.012835119134718E-2</v>
       </c>
       <c r="F161" s="2">
-        <v>1.381882999243499E-3</v>
+        <v>1.271716778818048E-3</v>
       </c>
       <c r="G161" s="2">
         <v>-5.7823801513877853E-3</v>
@@ -7676,7 +8183,7 @@
         <v>9.6832509497337682E-3</v>
       </c>
       <c r="I161" s="2">
-        <v>-3.8828345674460931E-3</v>
+        <v>6.1673579453244134E-4</v>
       </c>
       <c r="J161" s="2">
         <v>2.085964637811744E-3</v>
@@ -7688,13 +8195,16 @@
         <v>1.729027450583454E-3</v>
       </c>
       <c r="M161" s="2">
+        <v>-6.638032018742579E-3</v>
+      </c>
+      <c r="N161" s="2">
         <v>-5.9938787963891869E-2</v>
       </c>
-      <c r="N161" s="2">
+      <c r="O161" s="2">
         <v>-2.535173749130943E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>44957</v>
       </c>
@@ -7711,7 +8221,7 @@
         <v>-1.6100935828877019E-2</v>
       </c>
       <c r="F162" s="2">
-        <v>-4.7303987789988997E-2</v>
+        <v>-4.4481359834545979E-2</v>
       </c>
       <c r="G162" s="2">
         <v>-8.6598342481402271E-3</v>
@@ -7720,7 +8230,7 @@
         <v>-1.477835195880728E-2</v>
       </c>
       <c r="I162" s="2">
-        <v>-3.4427155811336389E-3</v>
+        <v>-4.7480762774516672E-4</v>
       </c>
       <c r="J162" s="2">
         <v>6.46572240549248E-3</v>
@@ -7732,13 +8242,16 @@
         <v>-2.3136390067923779E-4</v>
       </c>
       <c r="M162" s="2">
+        <v>-3.9308176100638642E-4</v>
+      </c>
+      <c r="N162" s="2">
         <v>5.418550629228662E-2</v>
       </c>
-      <c r="N162" s="2">
+      <c r="O162" s="2">
         <v>-9.4328121692146497E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>44985</v>
       </c>
@@ -7755,7 +8268,7 @@
         <v>6.6000866109640483E-3</v>
       </c>
       <c r="F163" s="2">
-        <v>3.0326088163636439E-2</v>
+        <v>2.8456846166298351E-2</v>
       </c>
       <c r="G163" s="2">
         <v>2.8722798318803022E-3</v>
@@ -7764,7 +8277,7 @@
         <v>-9.5362900624629265E-4</v>
       </c>
       <c r="I163" s="2">
-        <v>5.2717844166921589E-3</v>
+        <v>8.3250427941742536E-3</v>
       </c>
       <c r="J163" s="2">
         <v>5.4600531439288344E-3</v>
@@ -7776,13 +8289,16 @@
         <v>2.7913877941430081E-3</v>
       </c>
       <c r="M163" s="2">
+        <v>5.8985450255599758E-4</v>
+      </c>
+      <c r="N163" s="2">
         <v>-2.0394862450442561E-2</v>
       </c>
-      <c r="N163" s="2">
+      <c r="O163" s="2">
         <v>4.3672977255125129E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>45016</v>
       </c>
@@ -7799,7 +8315,7 @@
         <v>-1.1764676113360359E-2</v>
       </c>
       <c r="F164" s="2">
-        <v>-1.9020742684850069E-2</v>
+        <v>-1.4416596565156529E-2</v>
       </c>
       <c r="G164" s="2">
         <v>-1.2781721458881481E-2</v>
@@ -7808,7 +8324,7 @@
         <v>1.8220372753678049E-2</v>
       </c>
       <c r="I164" s="2">
-        <v>-1.8871005748498551E-3</v>
+        <v>1.706815463554579E-3</v>
       </c>
       <c r="J164" s="2">
         <v>-1.003423555744454E-3</v>
@@ -7820,13 +8336,16 @@
         <v>7.5393765205424854E-3</v>
       </c>
       <c r="M164" s="2">
+        <v>-3.045785026527859E-3</v>
+      </c>
+      <c r="N164" s="2">
         <v>3.2824358346025678E-2</v>
       </c>
-      <c r="N164" s="2">
+      <c r="O164" s="2">
         <v>-4.242618610190891E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>45046</v>
       </c>
@@ -7843,7 +8362,7 @@
         <v>-2.2870797064344921E-3</v>
       </c>
       <c r="F165" s="2">
-        <v>1.4997556602188711E-2</v>
+        <v>1.630594789423661E-2</v>
       </c>
       <c r="G165" s="2">
         <v>-1.893106758660168E-3</v>
@@ -7852,7 +8371,7 @@
         <v>-9.1078780209663535E-3</v>
       </c>
       <c r="I165" s="2">
-        <v>8.442602878782823E-3</v>
+        <v>1.1905971747433059E-2</v>
       </c>
       <c r="J165" s="2">
         <v>3.0352662151329479E-3</v>
@@ -7864,13 +8383,16 @@
         <v>-2.0983817245907592E-3</v>
       </c>
       <c r="M165" s="2">
+        <v>4.3362570217797547E-3</v>
+      </c>
+      <c r="N165" s="2">
         <v>1.707509318312158E-2</v>
       </c>
-      <c r="N165" s="2">
+      <c r="O165" s="2">
         <v>1.599665183121587E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>45077</v>
       </c>
@@ -7887,7 +8409,7 @@
         <v>-1.6650700241778169E-3</v>
       </c>
       <c r="F166" s="2">
-        <v>-9.844349518849372E-3</v>
+        <v>-8.7848848862065003E-3</v>
       </c>
       <c r="G166" s="2">
         <v>1.341171817413667E-2</v>
@@ -7896,7 +8418,7 @@
         <v>-3.8545157993086221E-4</v>
       </c>
       <c r="I166" s="2">
-        <v>2.2705693680554521E-3</v>
+        <v>5.4354972080859496E-3</v>
       </c>
       <c r="J166" s="2">
         <v>1.5114759515726379E-3</v>
@@ -7908,13 +8430,16 @@
         <v>-1.97175846845643E-3</v>
       </c>
       <c r="M166" s="2">
+        <v>5.2006672554214539E-3</v>
+      </c>
+      <c r="N166" s="2">
         <v>3.6461804545629859E-3</v>
       </c>
-      <c r="N166" s="2">
+      <c r="O166" s="2">
         <v>-7.6407414097508946E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>45107</v>
       </c>
@@ -7931,7 +8456,7 @@
         <v>-7.618888368479862E-3</v>
       </c>
       <c r="F167" s="2">
-        <v>1.151127258496608E-2</v>
+        <v>1.148556384763272E-2</v>
       </c>
       <c r="G167" s="2">
         <v>-1.3569423501097039E-2</v>
@@ -7940,7 +8465,7 @@
         <v>-1.485914434069502E-2</v>
       </c>
       <c r="I167" s="2">
-        <v>-3.5009247394441568E-3</v>
+        <v>-4.9648406582498712E-4</v>
       </c>
       <c r="J167" s="2">
         <v>-9.4301242789140982E-4</v>
@@ -7952,13 +8477,16 @@
         <v>-5.7271088502567347E-3</v>
       </c>
       <c r="M167" s="2">
+        <v>3.1237797735259591E-3</v>
+      </c>
+      <c r="N167" s="2">
         <v>6.2792505497416343E-2</v>
       </c>
-      <c r="N167" s="2">
+      <c r="O167" s="2">
         <v>-3.5804573886001078E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>45138</v>
       </c>
@@ -7975,7 +8503,7 @@
         <v>-3.2342717709077369E-3</v>
       </c>
       <c r="F168" s="2">
-        <v>3.713651027145594E-3</v>
+        <v>2.2223637806052981E-3</v>
       </c>
       <c r="G168" s="2">
         <v>1.1418090931158979E-3</v>
@@ -7984,7 +8512,7 @@
         <v>-7.2920786471998289E-3</v>
       </c>
       <c r="I168" s="2">
-        <v>-4.191409808459557E-4</v>
+        <v>2.2807394964580838E-3</v>
       </c>
       <c r="J168" s="2">
         <v>3.717437238925481E-3</v>
@@ -7996,13 +8524,16 @@
         <v>3.9737656956306822E-5</v>
       </c>
       <c r="M168" s="2">
+        <v>-9.7314130011683098E-5</v>
+      </c>
+      <c r="N168" s="2">
         <v>3.2699433016284883E-2</v>
       </c>
-      <c r="N168" s="2">
+      <c r="O168" s="2">
         <v>6.2656512261298719E-4</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>45169</v>
       </c>
@@ -8019,7 +8550,7 @@
         <v>1.7320816156858321E-3</v>
       </c>
       <c r="F169" s="2">
-        <v>2.1065770361615631E-2</v>
+        <v>1.8058426557526919E-2</v>
       </c>
       <c r="G169" s="2">
         <v>-9.4832695727139482E-3</v>
@@ -8028,7 +8559,7 @@
         <v>-6.9622007602270219E-3</v>
       </c>
       <c r="I169" s="2">
-        <v>-3.9515275515498056E-3</v>
+        <v>-1.5703722489416869E-3</v>
       </c>
       <c r="J169" s="2">
         <v>4.825426501518848E-3</v>
@@ -8040,13 +8571,16 @@
         <v>9.5428674671471647E-4</v>
       </c>
       <c r="M169" s="2">
+        <v>3.89294403892948E-3</v>
+      </c>
+      <c r="N169" s="2">
         <v>-1.593719382407377E-2</v>
       </c>
-      <c r="N169" s="2">
+      <c r="O169" s="2">
         <v>-1.7092780173087288E-5</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>45199</v>
       </c>
@@ -8063,7 +8597,7 @@
         <v>1.103157312307634E-2</v>
       </c>
       <c r="F170" s="2">
-        <v>3.1577870231064863E-2</v>
+        <v>2.5177837610504669E-2</v>
       </c>
       <c r="G170" s="2">
         <v>-3.0100273803694839E-3</v>
@@ -8072,7 +8606,7 @@
         <v>6.2609764863030826E-4</v>
       </c>
       <c r="I170" s="2">
-        <v>5.2094169944096004E-3</v>
+        <v>6.0505832034264189E-3</v>
       </c>
       <c r="J170" s="2">
         <v>7.3804491282469797E-5</v>
@@ -8084,13 +8618,16 @@
         <v>4.026885602209429E-3</v>
       </c>
       <c r="M170" s="2">
+        <v>7.7556955889490631E-4</v>
+      </c>
+      <c r="N170" s="2">
         <v>-4.4103837513276678E-2</v>
       </c>
-      <c r="N170" s="2">
+      <c r="O170" s="2">
         <v>3.8982355257252332E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>45230</v>
       </c>
@@ -8107,7 +8644,7 @@
         <v>7.2399325033063464E-3</v>
       </c>
       <c r="F171" s="2">
-        <v>2.826069537879513E-2</v>
+        <v>2.5166939799552139E-2</v>
       </c>
       <c r="G171" s="2">
         <v>1.8187439754080439E-4</v>
@@ -8116,7 +8653,7 @@
         <v>-6.924553873955186E-3</v>
       </c>
       <c r="I171" s="2">
-        <v>5.1717494854077728E-3</v>
+        <v>8.8634420595461692E-3</v>
       </c>
       <c r="J171" s="2">
         <v>-2.8911860994849099E-3</v>
@@ -8128,13 +8665,16 @@
         <v>1.1864781646008019E-2</v>
       </c>
       <c r="M171" s="2">
+        <v>3.9717136491330676E-3</v>
+      </c>
+      <c r="N171" s="2">
         <v>-1.8150165802763889E-2</v>
       </c>
-      <c r="N171" s="2">
+      <c r="O171" s="2">
         <v>3.1372708849239481E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>45260</v>
       </c>
@@ -8151,7 +8691,7 @@
         <v>-1.2043965000056559E-2</v>
       </c>
       <c r="F172" s="2">
-        <v>-4.5211679481277772E-2</v>
+        <v>-4.2272913133587997E-2</v>
       </c>
       <c r="G172" s="2">
         <v>-1.8438710381321281E-2</v>
@@ -8160,7 +8700,7 @@
         <v>-1.945745082942019E-2</v>
       </c>
       <c r="I172" s="2">
-        <v>1.8056728769006551E-3</v>
+        <v>4.0305567266398779E-3</v>
       </c>
       <c r="J172" s="2">
         <v>5.2574129647193768E-3</v>
@@ -8172,107 +8712,91 @@
         <v>2.4428202393242948E-3</v>
       </c>
       <c r="M172" s="2">
+        <v>6.175221922037899E-3</v>
+      </c>
+      <c r="N172" s="2">
         <v>8.5255439710199069E-2</v>
       </c>
-      <c r="N172" s="2">
+      <c r="O172" s="2">
         <v>-6.6205060527975753E-3</v>
       </c>
     </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A173" s="3">
+        <v>45291</v>
+      </c>
+      <c r="B173" s="2">
+        <v>4.5430628833756481E-2</v>
+      </c>
+      <c r="C173" s="2">
+        <v>9.4213653583952173E-3</v>
+      </c>
+      <c r="D173" s="2">
+        <v>-3.8780393823578668E-4</v>
+      </c>
+      <c r="E173" s="2">
+        <v>-3.471625476918816E-3</v>
+      </c>
+      <c r="F173" s="2">
+        <v>-8.2028780313890375E-3</v>
+      </c>
+      <c r="G173" s="2">
+        <v>-5.0945738157431864E-3</v>
+      </c>
+      <c r="H173" s="2">
+        <v>-4.2211776459297754E-3</v>
+      </c>
+      <c r="I173" s="2">
+        <v>3.3447068762242128E-3</v>
+      </c>
+      <c r="J173" s="2">
+        <v>-1.181727400856314E-4</v>
+      </c>
+      <c r="K173" s="2">
+        <v>-2.497294597519351E-3</v>
+      </c>
+      <c r="L173" s="2">
+        <v>-1.7571513318417329E-3</v>
+      </c>
+      <c r="M173" s="2">
+        <v>-1.246643651706902E-3</v>
+      </c>
+      <c r="N173" s="2">
+        <v>4.4788296507418959E-2</v>
+      </c>
+      <c r="O173" s="2">
+        <v>-7.8073542427765615E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C173:K174">
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="lessThan">
+  <conditionalFormatting sqref="N2:O172">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C175:K175">
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="lessThan">
+  <conditionalFormatting sqref="A1:A173">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:M173">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C176:K177">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178:K178">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:K179">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J180:K180">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C180:I181">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J181:K181">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A172">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:N172">
+  <conditionalFormatting sqref="N173:O173">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
